--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\Excel templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{88F44F33-E8D2-4E18-A958-9508F1739303}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2F81421C-A94C-4967-94F3-4ADC9D3CDA03}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="465" windowWidth="23250" windowHeight="13170" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,7 +516,7 @@
         <d:color rgb="FF3D5261"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t xml:space="preserve">Genres exclude Documentary, Action/Adventure, Children (Plan ID 1850) | Program include BIG BANG THEORY, Big Bang Theory/Young Sheldon-CBS (Plan ID 1850)</d:t>
+      <d:t xml:space="preserve">Genre Excludes Documentary, Action/Adventure, Children (Plan ID 1850) | Program Includes BIG BANG THEORY, Big Bang Theory/Young Sheldon-CBS (Plan ID 1850)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -533,7 +533,7 @@
         <d:color rgb="FF3D5261"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t xml:space="preserve">Genres include Documentary (Plan ID 1851) | Program exclude The Big Bang Theory (Plan ID 1851)</d:t>
+      <d:t xml:space="preserve">Genre Includes Documentary (Plan ID 1851) | Program Excludes The Big Bang Theory (Plan ID 1851)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -550,7 +550,7 @@
         <d:color rgb="FF3D5261"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t xml:space="preserve">Genres include Documentary (Plan ID 1850) | Program exclude The Big Bang Theory (Plan ID 1850)</d:t>
+      <d:t xml:space="preserve">Genre Includes Documentary (Plan ID 1850) | Program Excludes The Big Bang Theory (Plan ID 1850)</d:t>
     </d:r>
   </si>
   <si>
@@ -969,7 +969,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/20/20</t>
+    <t>Created 02/21/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/20/20</v>
+        <v>Created 02/21/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -6393,7 +6393,7 @@
   </sheetPr>
   <dimension ref="A2:P278"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="0" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0" tabSelected="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -6422,7 +6422,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/20/20</v>
+        <v>Created 02/21/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -18770,6 +18770,11 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="C35:T35"/>
     <mergeCell ref="C37:T37"/>
     <mergeCell ref="C39:T39"/>
     <mergeCell ref="C41:T41"/>
@@ -18779,11 +18784,6 @@
     <mergeCell ref="N25:T25"/>
     <mergeCell ref="C31:T31"/>
     <mergeCell ref="C33:T33"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="C35:T35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -21472,11 +21472,6 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F51:T51"/>
     <mergeCell ref="F53:T53"/>
     <mergeCell ref="F55:T55"/>
     <mergeCell ref="F57:T57"/>
@@ -21486,6 +21481,11 @@
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="N7:T7"/>
     <mergeCell ref="F49:T49"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F51:T51"/>
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:T21"/>
     <mergeCell ref="H35:M35"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\Excel templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2F81421C-A94C-4967-94F3-4ADC9D3CDA03}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{04481987-1715-4D5A-AAE3-09F3C365BCA7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="465" windowWidth="23250" windowHeight="13170" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>Broadcast Proposal Gorilla Glue Q4 '19 - Q1 '20</t>
   </si>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>Distribution</t>
-  </si>
-  <si>
-    <t>Imp.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -969,7 +966,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/21/20</t>
+    <t>Created 02/24/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2644,7 +2641,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/21/20</v>
+        <v>Created 02/24/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -2733,7 +2730,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -2751,31 +2748,31 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="D8" s="87" t="s">
         <v>109</v>
-      </c>
-      <c r="D8" s="87" t="s">
-        <v>110</v>
       </c>
       <c r="E8" s="87" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G8" s="87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" s="87" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="92" t="s">
         <v>112</v>
-      </c>
-      <c r="J8" s="92" t="s">
-        <v>113</v>
       </c>
       <c r="K8" s="88" t="s">
         <v>30</v>
@@ -2791,20 +2788,20 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="E9" s="83">
+        <v>0</v>
+      </c>
+      <c r="F9" s="84" t="s">
         <v>116</v>
-      </c>
-      <c r="E9" s="83">
-        <v>0</v>
-      </c>
-      <c r="F9" s="84" t="s">
-        <v>117</v>
       </c>
       <c r="G9" s="85">
         <v>0</v>
@@ -2824,20 +2821,20 @@
     </row>
     <row r="10" ht="24" customHeight="1">
       <c r="A10" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="83">
+        <v>0</v>
+      </c>
+      <c r="F10" s="84" t="s">
         <v>116</v>
-      </c>
-      <c r="E10" s="83">
-        <v>0</v>
-      </c>
-      <c r="F10" s="84" t="s">
-        <v>117</v>
       </c>
       <c r="G10" s="85">
         <v>0</v>
@@ -2857,20 +2854,20 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="A11" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="82" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="83">
         <v>0</v>
       </c>
       <c r="F11" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G11" s="85">
         <v>0</v>
@@ -2890,20 +2887,20 @@
     </row>
     <row r="12" ht="24" customHeight="1">
       <c r="A12" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="82" t="s">
-        <v>120</v>
-      </c>
       <c r="E12" s="83">
         <v>0</v>
       </c>
       <c r="F12" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G12" s="85">
         <v>0</v>
@@ -2923,20 +2920,20 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="A13" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E13" s="83">
         <v>0</v>
       </c>
       <c r="F13" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G13" s="85">
         <v>0</v>
@@ -2956,20 +2953,20 @@
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="A14" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E14" s="83">
         <v>0</v>
       </c>
       <c r="F14" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G14" s="85">
         <v>0</v>
@@ -2989,20 +2986,20 @@
     </row>
     <row r="15" ht="24" customHeight="1">
       <c r="A15" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="83">
         <v>0</v>
       </c>
       <c r="F15" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G15" s="85">
         <v>0</v>
@@ -3022,20 +3019,20 @@
     </row>
     <row r="16" ht="24" customHeight="1">
       <c r="A16" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="83">
         <v>0</v>
       </c>
       <c r="F16" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G16" s="85">
         <v>0</v>
@@ -3055,20 +3052,20 @@
     </row>
     <row r="17" ht="24" customHeight="1">
       <c r="A17" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" s="83">
         <v>0</v>
       </c>
       <c r="F17" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G17" s="85">
         <v>0</v>
@@ -3088,20 +3085,20 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" s="82" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E18" s="83">
         <v>0</v>
       </c>
       <c r="F18" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G18" s="85">
         <v>0</v>
@@ -3121,20 +3118,20 @@
     </row>
     <row r="19" ht="24" customHeight="1">
       <c r="A19" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D19" s="82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E19" s="83">
         <v>0</v>
       </c>
       <c r="F19" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G19" s="85">
         <v>0</v>
@@ -3154,20 +3151,20 @@
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="A20" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" s="82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" s="83">
         <v>0</v>
       </c>
       <c r="F20" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G20" s="85">
         <v>0</v>
@@ -3187,20 +3184,20 @@
     </row>
     <row r="21" ht="24" customHeight="1">
       <c r="A21" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E21" s="83">
         <v>0</v>
       </c>
       <c r="F21" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G21" s="85">
         <v>0</v>
@@ -3220,20 +3217,20 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="A22" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22" s="83">
         <v>0</v>
       </c>
       <c r="F22" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G22" s="85">
         <v>0</v>
@@ -3253,20 +3250,20 @@
     </row>
     <row r="23" ht="24" customHeight="1">
       <c r="A23" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="83">
         <v>0</v>
       </c>
       <c r="F23" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G23" s="85">
         <v>0</v>
@@ -3286,20 +3283,20 @@
     </row>
     <row r="24" ht="24" customHeight="1">
       <c r="A24" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D24" s="82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" s="83">
         <v>0</v>
       </c>
       <c r="F24" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G24" s="85">
         <v>0</v>
@@ -3319,20 +3316,20 @@
     </row>
     <row r="25" ht="24" customHeight="1">
       <c r="A25" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E25" s="83">
         <v>0</v>
       </c>
       <c r="F25" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G25" s="85">
         <v>0</v>
@@ -3352,20 +3349,20 @@
     </row>
     <row r="26" ht="24" customHeight="1">
       <c r="A26" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E26" s="83">
         <v>0</v>
       </c>
       <c r="F26" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G26" s="85">
         <v>0</v>
@@ -3385,20 +3382,20 @@
     </row>
     <row r="27" ht="24" customHeight="1">
       <c r="A27" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D27" s="82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E27" s="83">
         <v>0</v>
       </c>
       <c r="F27" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G27" s="85">
         <v>0</v>
@@ -3418,20 +3415,20 @@
     </row>
     <row r="28" ht="24" customHeight="1">
       <c r="A28" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D28" s="82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E28" s="83">
         <v>0</v>
       </c>
       <c r="F28" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G28" s="85">
         <v>0</v>
@@ -3451,20 +3448,20 @@
     </row>
     <row r="29" ht="24" customHeight="1">
       <c r="A29" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E29" s="83">
         <v>0</v>
       </c>
       <c r="F29" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G29" s="85">
         <v>0</v>
@@ -3484,20 +3481,20 @@
     </row>
     <row r="30" ht="24" customHeight="1">
       <c r="A30" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D30" s="82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E30" s="83">
         <v>0</v>
       </c>
       <c r="F30" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G30" s="85">
         <v>0</v>
@@ -3517,20 +3514,20 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="A31" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D31" s="82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E31" s="83">
         <v>0</v>
       </c>
       <c r="F31" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G31" s="85">
         <v>0</v>
@@ -3550,20 +3547,20 @@
     </row>
     <row r="32" ht="24" customHeight="1">
       <c r="A32" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D32" s="82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E32" s="83">
         <v>0</v>
       </c>
       <c r="F32" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G32" s="85">
         <v>0</v>
@@ -3583,20 +3580,20 @@
     </row>
     <row r="33" ht="24" customHeight="1">
       <c r="A33" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D33" s="82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E33" s="83">
         <v>0</v>
       </c>
       <c r="F33" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G33" s="85">
         <v>0</v>
@@ -3616,20 +3613,20 @@
     </row>
     <row r="34" ht="24" customHeight="1">
       <c r="A34" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D34" s="82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E34" s="83">
         <v>0</v>
       </c>
       <c r="F34" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G34" s="85">
         <v>0</v>
@@ -3649,20 +3646,20 @@
     </row>
     <row r="35" ht="24" customHeight="1">
       <c r="A35" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D35" s="82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E35" s="83">
         <v>0</v>
       </c>
       <c r="F35" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G35" s="85">
         <v>0</v>
@@ -3682,20 +3679,20 @@
     </row>
     <row r="36" ht="24" customHeight="1">
       <c r="A36" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D36" s="82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E36" s="83">
         <v>0</v>
       </c>
       <c r="F36" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G36" s="85">
         <v>0</v>
@@ -3715,20 +3712,20 @@
     </row>
     <row r="37" ht="24" customHeight="1">
       <c r="A37" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D37" s="82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E37" s="83">
         <v>0</v>
       </c>
       <c r="F37" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G37" s="85">
         <v>0</v>
@@ -3748,20 +3745,20 @@
     </row>
     <row r="38" ht="24" customHeight="1">
       <c r="A38" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D38" s="82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E38" s="83">
         <v>0</v>
       </c>
       <c r="F38" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G38" s="85">
         <v>0</v>
@@ -3781,20 +3778,20 @@
     </row>
     <row r="39" ht="24" customHeight="1">
       <c r="A39" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D39" s="82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E39" s="83">
         <v>0</v>
       </c>
       <c r="F39" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G39" s="85">
         <v>0</v>
@@ -3814,20 +3811,20 @@
     </row>
     <row r="40" ht="24" customHeight="1">
       <c r="A40" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D40" s="82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E40" s="83">
         <v>0</v>
       </c>
       <c r="F40" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G40" s="85">
         <v>0</v>
@@ -3847,20 +3844,20 @@
     </row>
     <row r="41" ht="24" customHeight="1">
       <c r="A41" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E41" s="83">
         <v>0</v>
       </c>
       <c r="F41" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G41" s="85">
         <v>0</v>
@@ -3880,20 +3877,20 @@
     </row>
     <row r="42" ht="24" customHeight="1">
       <c r="A42" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E42" s="83">
         <v>0</v>
       </c>
       <c r="F42" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G42" s="85">
         <v>0</v>
@@ -3913,20 +3910,20 @@
     </row>
     <row r="43" ht="24" customHeight="1">
       <c r="A43" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E43" s="83">
         <v>0</v>
       </c>
       <c r="F43" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G43" s="85">
         <v>0</v>
@@ -3946,20 +3943,20 @@
     </row>
     <row r="44" ht="24" customHeight="1">
       <c r="A44" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E44" s="83">
         <v>0</v>
       </c>
       <c r="F44" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G44" s="85">
         <v>0</v>
@@ -3979,20 +3976,20 @@
     </row>
     <row r="45" ht="24" customHeight="1">
       <c r="A45" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E45" s="83">
         <v>0</v>
       </c>
       <c r="F45" s="84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G45" s="85">
         <v>0</v>
@@ -4012,20 +4009,20 @@
     </row>
     <row r="46" ht="24" customHeight="1">
       <c r="A46" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" s="83">
+        <v>0</v>
+      </c>
+      <c r="F46" s="84" t="s">
         <v>133</v>
-      </c>
-      <c r="D46" s="82" t="s">
-        <v>129</v>
-      </c>
-      <c r="E46" s="83">
-        <v>0</v>
-      </c>
-      <c r="F46" s="84" t="s">
-        <v>134</v>
       </c>
       <c r="G46" s="85">
         <v>0</v>
@@ -4045,20 +4042,20 @@
     </row>
     <row r="47" ht="24" customHeight="1">
       <c r="A47" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D47" s="82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E47" s="83">
         <v>0</v>
       </c>
       <c r="F47" s="84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G47" s="85">
         <v>0</v>
@@ -4078,20 +4075,20 @@
     </row>
     <row r="48" ht="24" customHeight="1">
       <c r="A48" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D48" s="82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E48" s="83">
         <v>0</v>
       </c>
       <c r="F48" s="84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G48" s="85">
         <v>0</v>
@@ -4111,20 +4108,20 @@
     </row>
     <row r="49" ht="24" customHeight="1">
       <c r="A49" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="83">
+        <v>0</v>
+      </c>
+      <c r="F49" s="84" t="s">
         <v>133</v>
-      </c>
-      <c r="D49" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="E49" s="83">
-        <v>0</v>
-      </c>
-      <c r="F49" s="84" t="s">
-        <v>134</v>
       </c>
       <c r="G49" s="85">
         <v>0</v>
@@ -4144,20 +4141,20 @@
     </row>
     <row r="50" ht="24" customHeight="1">
       <c r="A50" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D50" s="82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E50" s="83">
         <v>0</v>
       </c>
       <c r="F50" s="84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G50" s="85">
         <v>0</v>
@@ -4177,20 +4174,20 @@
     </row>
     <row r="51" ht="24" customHeight="1">
       <c r="A51" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D51" s="82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E51" s="83">
         <v>0</v>
       </c>
       <c r="F51" s="84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G51" s="85">
         <v>0</v>
@@ -4210,20 +4207,20 @@
     </row>
     <row r="52" ht="24" customHeight="1">
       <c r="A52" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="83">
+        <v>0</v>
+      </c>
+      <c r="F52" s="84" t="s">
         <v>133</v>
-      </c>
-      <c r="D52" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="E52" s="83">
-        <v>0</v>
-      </c>
-      <c r="F52" s="84" t="s">
-        <v>134</v>
       </c>
       <c r="G52" s="85">
         <v>0</v>
@@ -4243,20 +4240,20 @@
     </row>
     <row r="53" ht="24" customHeight="1">
       <c r="A53" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D53" s="82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E53" s="83">
         <v>0</v>
       </c>
       <c r="F53" s="84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G53" s="85">
         <v>0</v>
@@ -4276,20 +4273,20 @@
     </row>
     <row r="54" ht="24" customHeight="1">
       <c r="A54" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D54" s="82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E54" s="83">
         <v>0</v>
       </c>
       <c r="F54" s="84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G54" s="85">
         <v>0</v>
@@ -4309,20 +4306,20 @@
     </row>
     <row r="55" ht="24" customHeight="1">
       <c r="A55" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D55" s="82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E55" s="83">
         <v>0</v>
       </c>
       <c r="F55" s="84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G55" s="85">
         <v>0</v>
@@ -4342,20 +4339,20 @@
     </row>
     <row r="56" ht="24" customHeight="1">
       <c r="A56" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D56" s="82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E56" s="83">
         <v>0</v>
       </c>
       <c r="F56" s="84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G56" s="85">
         <v>0</v>
@@ -4375,20 +4372,20 @@
     </row>
     <row r="57" ht="24" customHeight="1">
       <c r="A57" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D57" s="82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E57" s="83">
         <v>0</v>
       </c>
       <c r="F57" s="84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G57" s="85">
         <v>0</v>
@@ -4408,20 +4405,20 @@
     </row>
     <row r="58" ht="24" customHeight="1">
       <c r="A58" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D58" s="82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E58" s="83">
         <v>0</v>
       </c>
       <c r="F58" s="84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G58" s="85">
         <v>0</v>
@@ -4441,20 +4438,20 @@
     </row>
     <row r="59" ht="24" customHeight="1">
       <c r="A59" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D59" s="82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E59" s="83">
         <v>0</v>
       </c>
       <c r="F59" s="84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G59" s="85">
         <v>0</v>
@@ -4474,20 +4471,20 @@
     </row>
     <row r="60" ht="24" customHeight="1">
       <c r="A60" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D60" s="82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E60" s="83">
         <v>0</v>
       </c>
       <c r="F60" s="84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G60" s="85">
         <v>0</v>
@@ -4507,20 +4504,20 @@
     </row>
     <row r="61" ht="24" customHeight="1">
       <c r="A61" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D61" s="82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E61" s="83">
         <v>0</v>
       </c>
       <c r="F61" s="84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G61" s="85">
         <v>0</v>
@@ -4540,20 +4537,20 @@
     </row>
     <row r="62" ht="24" customHeight="1">
       <c r="A62" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D62" s="82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E62" s="83">
         <v>0</v>
       </c>
       <c r="F62" s="84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G62" s="85">
         <v>0</v>
@@ -4573,12 +4570,12 @@
     </row>
     <row r="63" ht="24" customHeight="1">
       <c r="A63" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="39"/>
       <c r="D63" s="91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E63" s="97">
         <v>0</v>
@@ -4604,7 +4601,7 @@
     </row>
     <row r="65">
       <c r="C65" s="53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H65" s="30"/>
       <c r="I65" s="30"/>
@@ -4622,31 +4619,31 @@
     </row>
     <row r="66" ht="24" customHeight="1">
       <c r="A66" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="C66" s="86" t="s">
+      <c r="D66" s="87" t="s">
         <v>109</v>
-      </c>
-      <c r="D66" s="87" t="s">
-        <v>110</v>
       </c>
       <c r="E66" s="87" t="s">
         <v>23</v>
       </c>
       <c r="F66" s="87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G66" s="87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H66" s="87" t="s">
         <v>25</v>
       </c>
       <c r="I66" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="J66" s="92" t="s">
         <v>112</v>
-      </c>
-      <c r="J66" s="92" t="s">
-        <v>113</v>
       </c>
       <c r="K66" s="88" t="s">
         <v>30</v>
@@ -4662,20 +4659,20 @@
     </row>
     <row r="67" ht="24" customHeight="1">
       <c r="A67" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D67" s="82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E67" s="83">
         <v>0</v>
       </c>
       <c r="F67" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G67" s="85">
         <v>0</v>
@@ -4695,20 +4692,20 @@
     </row>
     <row r="68" ht="24" customHeight="1">
       <c r="A68" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D68" s="82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E68" s="83">
         <v>0</v>
       </c>
       <c r="F68" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G68" s="85">
         <v>0</v>
@@ -4728,20 +4725,20 @@
     </row>
     <row r="69" ht="24" customHeight="1">
       <c r="A69" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D69" s="82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E69" s="83">
         <v>0</v>
       </c>
       <c r="F69" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G69" s="85">
         <v>0</v>
@@ -4761,20 +4758,20 @@
     </row>
     <row r="70" ht="24" customHeight="1">
       <c r="A70" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D70" s="82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E70" s="83">
         <v>0</v>
       </c>
       <c r="F70" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G70" s="85">
         <v>0</v>
@@ -4794,20 +4791,20 @@
     </row>
     <row r="71" ht="24" customHeight="1">
       <c r="A71" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D71" s="82" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E71" s="83">
         <v>0</v>
       </c>
       <c r="F71" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G71" s="85">
         <v>0</v>
@@ -4827,20 +4824,20 @@
     </row>
     <row r="72" ht="24" customHeight="1">
       <c r="A72" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D72" s="82" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E72" s="83">
         <v>0</v>
       </c>
       <c r="F72" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G72" s="85">
         <v>0</v>
@@ -4860,20 +4857,20 @@
     </row>
     <row r="73" ht="24" customHeight="1">
       <c r="A73" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D73" s="82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E73" s="83">
         <v>0</v>
       </c>
       <c r="F73" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G73" s="85">
         <v>0</v>
@@ -4893,20 +4890,20 @@
     </row>
     <row r="74" ht="24" customHeight="1">
       <c r="A74" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D74" s="82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E74" s="83">
         <v>0</v>
       </c>
       <c r="F74" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G74" s="85">
         <v>0</v>
@@ -4926,20 +4923,20 @@
     </row>
     <row r="75" ht="24" customHeight="1">
       <c r="A75" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D75" s="82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E75" s="83">
         <v>0</v>
       </c>
       <c r="F75" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G75" s="85">
         <v>0</v>
@@ -4959,20 +4956,20 @@
     </row>
     <row r="76" ht="24" customHeight="1">
       <c r="A76" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D76" s="82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E76" s="83">
         <v>0</v>
       </c>
       <c r="F76" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G76" s="85">
         <v>0</v>
@@ -4992,20 +4989,20 @@
     </row>
     <row r="77" ht="24" customHeight="1">
       <c r="A77" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D77" s="82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E77" s="83">
         <v>0</v>
       </c>
       <c r="F77" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G77" s="85">
         <v>0</v>
@@ -5025,20 +5022,20 @@
     </row>
     <row r="78" ht="24" customHeight="1">
       <c r="A78" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D78" s="82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E78" s="83">
         <v>0</v>
       </c>
       <c r="F78" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G78" s="85">
         <v>0</v>
@@ -5058,20 +5055,20 @@
     </row>
     <row r="79" ht="24" customHeight="1">
       <c r="A79" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D79" s="82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E79" s="83">
         <v>0</v>
       </c>
       <c r="F79" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G79" s="85">
         <v>0</v>
@@ -5091,20 +5088,20 @@
     </row>
     <row r="80" ht="24" customHeight="1">
       <c r="A80" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D80" s="82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E80" s="83">
         <v>0</v>
       </c>
       <c r="F80" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G80" s="85">
         <v>0</v>
@@ -5124,20 +5121,20 @@
     </row>
     <row r="81" ht="24" customHeight="1">
       <c r="A81" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D81" s="82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E81" s="83">
         <v>0</v>
       </c>
       <c r="F81" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G81" s="85">
         <v>0</v>
@@ -5157,20 +5154,20 @@
     </row>
     <row r="82" ht="24" customHeight="1">
       <c r="A82" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D82" s="82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E82" s="83">
         <v>0</v>
       </c>
       <c r="F82" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G82" s="85">
         <v>0</v>
@@ -5190,20 +5187,20 @@
     </row>
     <row r="83" ht="24" customHeight="1">
       <c r="A83" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D83" s="82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E83" s="83">
         <v>0</v>
       </c>
       <c r="F83" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G83" s="85">
         <v>0</v>
@@ -5223,20 +5220,20 @@
     </row>
     <row r="84" ht="24" customHeight="1">
       <c r="A84" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D84" s="82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E84" s="83">
         <v>0</v>
       </c>
       <c r="F84" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G84" s="85">
         <v>0</v>
@@ -5256,20 +5253,20 @@
     </row>
     <row r="85" ht="24" customHeight="1">
       <c r="A85" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D85" s="82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E85" s="83">
         <v>0</v>
       </c>
       <c r="F85" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G85" s="85">
         <v>0</v>
@@ -5289,20 +5286,20 @@
     </row>
     <row r="86" ht="24" customHeight="1">
       <c r="A86" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D86" s="82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E86" s="83">
         <v>0</v>
       </c>
       <c r="F86" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G86" s="85">
         <v>0</v>
@@ -5322,20 +5319,20 @@
     </row>
     <row r="87" ht="24" customHeight="1">
       <c r="A87" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D87" s="82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E87" s="83">
         <v>0</v>
       </c>
       <c r="F87" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G87" s="85">
         <v>0</v>
@@ -5355,20 +5352,20 @@
     </row>
     <row r="88" ht="24" customHeight="1">
       <c r="A88" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D88" s="82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E88" s="83">
         <v>0</v>
       </c>
       <c r="F88" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G88" s="85">
         <v>0</v>
@@ -5388,20 +5385,20 @@
     </row>
     <row r="89" ht="24" customHeight="1">
       <c r="A89" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D89" s="82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E89" s="83">
         <v>0</v>
       </c>
       <c r="F89" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G89" s="85">
         <v>0</v>
@@ -5421,20 +5418,20 @@
     </row>
     <row r="90" ht="24" customHeight="1">
       <c r="A90" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D90" s="82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E90" s="83">
         <v>0</v>
       </c>
       <c r="F90" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G90" s="85">
         <v>0</v>
@@ -5454,20 +5451,20 @@
     </row>
     <row r="91" ht="24" customHeight="1">
       <c r="A91" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D91" s="82" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E91" s="83">
         <v>0</v>
       </c>
       <c r="F91" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G91" s="85">
         <v>0</v>
@@ -5487,20 +5484,20 @@
     </row>
     <row r="92" ht="24" customHeight="1">
       <c r="A92" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D92" s="82" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E92" s="83">
         <v>0</v>
       </c>
       <c r="F92" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G92" s="85">
         <v>0</v>
@@ -5520,20 +5517,20 @@
     </row>
     <row r="93" ht="24" customHeight="1">
       <c r="A93" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D93" s="82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E93" s="83">
         <v>0</v>
       </c>
       <c r="F93" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G93" s="85">
         <v>0</v>
@@ -5553,20 +5550,20 @@
     </row>
     <row r="94" ht="24" customHeight="1">
       <c r="A94" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D94" s="82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E94" s="83">
         <v>0</v>
       </c>
       <c r="F94" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G94" s="85">
         <v>0</v>
@@ -5586,20 +5583,20 @@
     </row>
     <row r="95" ht="24" customHeight="1">
       <c r="A95" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D95" s="82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E95" s="83">
         <v>0</v>
       </c>
       <c r="F95" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G95" s="85">
         <v>0</v>
@@ -5619,20 +5616,20 @@
     </row>
     <row r="96" ht="24" customHeight="1">
       <c r="A96" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D96" s="82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E96" s="83">
         <v>0</v>
       </c>
       <c r="F96" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G96" s="85">
         <v>0</v>
@@ -5652,20 +5649,20 @@
     </row>
     <row r="97" ht="24" customHeight="1">
       <c r="A97" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D97" s="82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E97" s="83">
         <v>0</v>
       </c>
       <c r="F97" s="84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G97" s="85">
         <v>0</v>
@@ -5685,20 +5682,20 @@
     </row>
     <row r="98" ht="24" customHeight="1">
       <c r="A98" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="E98" s="83">
+        <v>0</v>
+      </c>
+      <c r="F98" s="84" t="s">
         <v>133</v>
-      </c>
-      <c r="D98" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="E98" s="83">
-        <v>0</v>
-      </c>
-      <c r="F98" s="84" t="s">
-        <v>134</v>
       </c>
       <c r="G98" s="85">
         <v>0</v>
@@ -5718,20 +5715,20 @@
     </row>
     <row r="99" ht="24" customHeight="1">
       <c r="A99" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D99" s="82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E99" s="83">
         <v>0</v>
       </c>
       <c r="F99" s="84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G99" s="85">
         <v>0</v>
@@ -5751,20 +5748,20 @@
     </row>
     <row r="100" ht="24" customHeight="1">
       <c r="A100" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D100" s="82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E100" s="83">
         <v>0</v>
       </c>
       <c r="F100" s="84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G100" s="85">
         <v>0</v>
@@ -5784,20 +5781,20 @@
     </row>
     <row r="101" ht="24" customHeight="1">
       <c r="A101" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="D101" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="E101" s="83">
+        <v>0</v>
+      </c>
+      <c r="F101" s="84" t="s">
         <v>133</v>
-      </c>
-      <c r="D101" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="E101" s="83">
-        <v>0</v>
-      </c>
-      <c r="F101" s="84" t="s">
-        <v>134</v>
       </c>
       <c r="G101" s="85">
         <v>0</v>
@@ -5817,20 +5814,20 @@
     </row>
     <row r="102" ht="24" customHeight="1">
       <c r="A102" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D102" s="82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E102" s="83">
         <v>0</v>
       </c>
       <c r="F102" s="84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G102" s="85">
         <v>0</v>
@@ -5850,20 +5847,20 @@
     </row>
     <row r="103" ht="24" customHeight="1">
       <c r="A103" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D103" s="82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E103" s="83">
         <v>0</v>
       </c>
       <c r="F103" s="84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G103" s="85">
         <v>0</v>
@@ -5883,20 +5880,20 @@
     </row>
     <row r="104" ht="24" customHeight="1">
       <c r="A104" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D104" s="82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E104" s="83">
         <v>0</v>
       </c>
       <c r="F104" s="84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G104" s="85">
         <v>0</v>
@@ -5916,20 +5913,20 @@
     </row>
     <row r="105" ht="24" customHeight="1">
       <c r="A105" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D105" s="82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E105" s="83">
         <v>0</v>
       </c>
       <c r="F105" s="84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G105" s="85">
         <v>0</v>
@@ -5949,20 +5946,20 @@
     </row>
     <row r="106" ht="24" customHeight="1">
       <c r="A106" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D106" s="82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E106" s="83">
         <v>0</v>
       </c>
       <c r="F106" s="84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G106" s="85">
         <v>0</v>
@@ -5982,20 +5979,20 @@
     </row>
     <row r="107" ht="24" customHeight="1">
       <c r="A107" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D107" s="82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E107" s="83">
         <v>0</v>
       </c>
       <c r="F107" s="84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G107" s="85">
         <v>0</v>
@@ -6015,20 +6012,20 @@
     </row>
     <row r="108" ht="24" customHeight="1">
       <c r="A108" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D108" s="82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E108" s="83">
         <v>0</v>
       </c>
       <c r="F108" s="84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G108" s="85">
         <v>0</v>
@@ -6048,12 +6045,12 @@
     </row>
     <row r="109" ht="24" customHeight="1">
       <c r="A109" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="39"/>
       <c r="D109" s="91" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E109" s="97">
         <v>0</v>
@@ -6079,7 +6076,7 @@
     </row>
     <row r="111" ht="24" customHeight="1">
       <c r="C111" s="53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I111" s="60"/>
     </row>
@@ -6088,11 +6085,11 @@
         <v>23</v>
       </c>
       <c r="D112" s="101" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E112" s="101"/>
       <c r="F112" s="101" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G112" s="101"/>
       <c r="H112" s="101" t="s">
@@ -6128,13 +6125,13 @@
     </row>
     <row r="115" ht="24" customHeight="1">
       <c r="C115" s="113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D115" s="109"/>
       <c r="E115" s="109"/>
       <c r="F115" s="112"/>
       <c r="G115" s="114" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H115" s="109"/>
       <c r="I115" s="115"/>
@@ -6235,7 +6232,7 @@
         <v>47</v>
       </c>
       <c r="D121" s="136" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E121" s="136"/>
       <c r="F121" s="136"/>
@@ -6422,7 +6419,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/21/20</v>
+        <v>Created 02/24/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -6632,7 +6629,7 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="B11" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C11" s="66">
         <v>384.61538461538464</v>
@@ -6726,7 +6723,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="70">
         <v>9615.3846153846</v>
@@ -6773,7 +6770,7 @@
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="B14" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="131"/>
       <c r="D14" s="132"/>
@@ -6792,7 +6789,7 @@
     </row>
     <row r="16">
       <c r="B16" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="138" t="s">
         <v>55</v>
@@ -6956,7 +6953,7 @@
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="B20" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C20" s="66">
         <v>0</v>
@@ -7050,7 +7047,7 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="B22" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="70">
         <v>0</v>
@@ -7097,7 +7094,7 @@
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="B23" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="131"/>
       <c r="D23" s="132"/>
@@ -7110,13 +7107,13 @@
       <c r="K23" s="131"/>
       <c r="L23" s="132"/>
       <c r="M23" s="132" t="s">
+        <v>62</v>
+      </c>
+      <c r="N23" s="132" t="s">
         <v>63</v>
       </c>
-      <c r="N23" s="132" t="s">
+      <c r="O23" s="133" t="s">
         <v>64</v>
-      </c>
-      <c r="O23" s="133" t="s">
-        <v>65</v>
       </c>
       <c r="P23" s="130">
         <v>7</v>
@@ -7124,7 +7121,7 @@
     </row>
     <row r="25">
       <c r="B25" s="53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="138" t="s">
         <v>55</v>
@@ -7288,7 +7285,7 @@
     </row>
     <row r="29" ht="24" customHeight="1">
       <c r="B29" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C29" s="66">
         <v>0</v>
@@ -7382,7 +7379,7 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="B31" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="70">
         <v>0</v>
@@ -7429,7 +7426,7 @@
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="B32" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="131"/>
       <c r="D32" s="132"/>
@@ -7443,10 +7440,10 @@
       <c r="L32" s="132"/>
       <c r="M32" s="132"/>
       <c r="N32" s="132" t="s">
+        <v>66</v>
+      </c>
+      <c r="O32" s="133" t="s">
         <v>67</v>
-      </c>
-      <c r="O32" s="133" t="s">
-        <v>68</v>
       </c>
       <c r="P32" s="130">
         <v>7</v>
@@ -7454,7 +7451,7 @@
     </row>
     <row r="34">
       <c r="B34" s="53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="138" t="s">
         <v>55</v>
@@ -7618,7 +7615,7 @@
     </row>
     <row r="38" ht="24" customHeight="1">
       <c r="B38" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C38" s="66">
         <v>384.61538461538464</v>
@@ -7712,7 +7709,7 @@
     </row>
     <row r="40" ht="24" customHeight="1">
       <c r="B40" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="70">
         <v>9615.3846153846</v>
@@ -7759,7 +7756,7 @@
     </row>
     <row r="41" ht="30" customHeight="1">
       <c r="B41" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="131"/>
       <c r="D41" s="132"/>
@@ -7772,13 +7769,13 @@
       <c r="K41" s="131"/>
       <c r="L41" s="132"/>
       <c r="M41" s="132" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N41" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="O41" s="133" t="s">
         <v>70</v>
-      </c>
-      <c r="O41" s="133" t="s">
-        <v>71</v>
       </c>
       <c r="P41" s="130">
         <v>11</v>
@@ -7786,7 +7783,7 @@
     </row>
     <row r="43">
       <c r="B43" s="53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="138" t="s">
         <v>55</v>
@@ -7950,7 +7947,7 @@
     </row>
     <row r="47" ht="24" customHeight="1">
       <c r="B47" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C47" s="66">
         <v>384.61538461538464</v>
@@ -8044,7 +8041,7 @@
     </row>
     <row r="49" ht="24" customHeight="1">
       <c r="B49" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="70">
         <v>9615.3846153846</v>
@@ -8091,7 +8088,7 @@
     </row>
     <row r="50" ht="30" customHeight="1">
       <c r="B50" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="131"/>
       <c r="D50" s="132"/>
@@ -8110,7 +8107,7 @@
     </row>
     <row r="52">
       <c r="B52" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" s="138" t="s">
         <v>55</v>
@@ -8274,7 +8271,7 @@
     </row>
     <row r="56" ht="24" customHeight="1">
       <c r="B56" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C56" s="66">
         <v>384.61538461538464</v>
@@ -8368,7 +8365,7 @@
     </row>
     <row r="58" ht="24" customHeight="1">
       <c r="B58" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="70">
         <v>9615.3846153846</v>
@@ -8415,7 +8412,7 @@
     </row>
     <row r="59" ht="30" customHeight="1">
       <c r="B59" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="131"/>
       <c r="D59" s="132"/>
@@ -8434,7 +8431,7 @@
     </row>
     <row r="61">
       <c r="B61" s="53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" s="138" t="s">
         <v>55</v>
@@ -8598,7 +8595,7 @@
     </row>
     <row r="65" ht="24" customHeight="1">
       <c r="B65" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C65" s="66">
         <v>0</v>
@@ -8692,7 +8689,7 @@
     </row>
     <row r="67" ht="24" customHeight="1">
       <c r="B67" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C67" s="70">
         <v>0</v>
@@ -8739,7 +8736,7 @@
     </row>
     <row r="68" ht="30" customHeight="1">
       <c r="B68" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C68" s="131"/>
       <c r="D68" s="132"/>
@@ -8758,7 +8755,7 @@
     </row>
     <row r="70">
       <c r="B70" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" s="138" t="s">
         <v>55</v>
@@ -8922,7 +8919,7 @@
     </row>
     <row r="74" ht="24" customHeight="1">
       <c r="B74" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C74" s="66">
         <v>0</v>
@@ -9016,7 +9013,7 @@
     </row>
     <row r="76" ht="24" customHeight="1">
       <c r="B76" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C76" s="70">
         <v>0</v>
@@ -9063,7 +9060,7 @@
     </row>
     <row r="77" ht="30" customHeight="1">
       <c r="B77" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C77" s="131"/>
       <c r="D77" s="132"/>
@@ -9076,13 +9073,13 @@
       <c r="K77" s="131"/>
       <c r="L77" s="132"/>
       <c r="M77" s="132" t="s">
+        <v>62</v>
+      </c>
+      <c r="N77" s="132" t="s">
         <v>63</v>
       </c>
-      <c r="N77" s="132" t="s">
+      <c r="O77" s="133" t="s">
         <v>64</v>
-      </c>
-      <c r="O77" s="133" t="s">
-        <v>65</v>
       </c>
       <c r="P77" s="130">
         <v>7</v>
@@ -9090,7 +9087,7 @@
     </row>
     <row r="79">
       <c r="B79" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C79" s="138" t="s">
         <v>55</v>
@@ -9254,7 +9251,7 @@
     </row>
     <row r="83" ht="24" customHeight="1">
       <c r="B83" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C83" s="66">
         <v>0</v>
@@ -9348,7 +9345,7 @@
     </row>
     <row r="85" ht="24" customHeight="1">
       <c r="B85" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C85" s="70">
         <v>0</v>
@@ -9395,7 +9392,7 @@
     </row>
     <row r="86" ht="30" customHeight="1">
       <c r="B86" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C86" s="131"/>
       <c r="D86" s="132"/>
@@ -9409,10 +9406,10 @@
       <c r="L86" s="132"/>
       <c r="M86" s="132"/>
       <c r="N86" s="132" t="s">
+        <v>66</v>
+      </c>
+      <c r="O86" s="133" t="s">
         <v>67</v>
-      </c>
-      <c r="O86" s="133" t="s">
-        <v>68</v>
       </c>
       <c r="P86" s="130">
         <v>7</v>
@@ -9420,7 +9417,7 @@
     </row>
     <row r="88">
       <c r="B88" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C88" s="138" t="s">
         <v>55</v>
@@ -9584,7 +9581,7 @@
     </row>
     <row r="92" ht="24" customHeight="1">
       <c r="B92" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C92" s="66">
         <v>0</v>
@@ -9678,7 +9675,7 @@
     </row>
     <row r="94" ht="24" customHeight="1">
       <c r="B94" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C94" s="70">
         <v>0</v>
@@ -9725,7 +9722,7 @@
     </row>
     <row r="95" ht="30" customHeight="1">
       <c r="B95" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C95" s="131"/>
       <c r="D95" s="132"/>
@@ -9738,13 +9735,13 @@
       <c r="K95" s="131"/>
       <c r="L95" s="132"/>
       <c r="M95" s="132" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N95" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="O95" s="133" t="s">
         <v>70</v>
-      </c>
-      <c r="O95" s="133" t="s">
-        <v>71</v>
       </c>
       <c r="P95" s="130">
         <v>11</v>
@@ -9752,7 +9749,7 @@
     </row>
     <row r="97">
       <c r="B97" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C97" s="138" t="s">
         <v>55</v>
@@ -9916,7 +9913,7 @@
     </row>
     <row r="101" ht="24" customHeight="1">
       <c r="B101" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C101" s="66">
         <v>0</v>
@@ -10010,7 +10007,7 @@
     </row>
     <row r="103" ht="24" customHeight="1">
       <c r="B103" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C103" s="70">
         <v>0</v>
@@ -10057,7 +10054,7 @@
     </row>
     <row r="104" ht="30" customHeight="1">
       <c r="B104" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C104" s="131"/>
       <c r="D104" s="132"/>
@@ -10076,7 +10073,7 @@
     </row>
     <row r="106">
       <c r="B106" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C106" s="138" t="s">
         <v>55</v>
@@ -10240,7 +10237,7 @@
     </row>
     <row r="110" ht="24" customHeight="1">
       <c r="B110" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C110" s="66">
         <v>0</v>
@@ -10334,7 +10331,7 @@
     </row>
     <row r="112" ht="24" customHeight="1">
       <c r="B112" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C112" s="70">
         <v>0</v>
@@ -10381,7 +10378,7 @@
     </row>
     <row r="113" ht="30" customHeight="1">
       <c r="B113" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C113" s="131"/>
       <c r="D113" s="132"/>
@@ -10394,13 +10391,13 @@
       <c r="K113" s="131"/>
       <c r="L113" s="132"/>
       <c r="M113" s="132" t="s">
+        <v>62</v>
+      </c>
+      <c r="N113" s="132" t="s">
         <v>63</v>
       </c>
-      <c r="N113" s="132" t="s">
+      <c r="O113" s="133" t="s">
         <v>64</v>
-      </c>
-      <c r="O113" s="133" t="s">
-        <v>65</v>
       </c>
       <c r="P113" s="130">
         <v>7</v>
@@ -10408,7 +10405,7 @@
     </row>
     <row r="115">
       <c r="B115" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C115" s="138" t="s">
         <v>55</v>
@@ -10572,7 +10569,7 @@
     </row>
     <row r="119" ht="24" customHeight="1">
       <c r="B119" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C119" s="66">
         <v>0</v>
@@ -10666,7 +10663,7 @@
     </row>
     <row r="121" ht="24" customHeight="1">
       <c r="B121" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C121" s="70">
         <v>0</v>
@@ -10713,7 +10710,7 @@
     </row>
     <row r="122" ht="30" customHeight="1">
       <c r="B122" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C122" s="131"/>
       <c r="D122" s="132"/>
@@ -10727,10 +10724,10 @@
       <c r="L122" s="132"/>
       <c r="M122" s="132"/>
       <c r="N122" s="132" t="s">
+        <v>66</v>
+      </c>
+      <c r="O122" s="133" t="s">
         <v>67</v>
-      </c>
-      <c r="O122" s="133" t="s">
-        <v>68</v>
       </c>
       <c r="P122" s="130">
         <v>7</v>
@@ -10738,7 +10735,7 @@
     </row>
     <row r="124">
       <c r="B124" s="53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C124" s="138" t="s">
         <v>55</v>
@@ -10902,7 +10899,7 @@
     </row>
     <row r="128" ht="24" customHeight="1">
       <c r="B128" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C128" s="66">
         <v>0</v>
@@ -10996,7 +10993,7 @@
     </row>
     <row r="130" ht="24" customHeight="1">
       <c r="B130" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C130" s="70">
         <v>0</v>
@@ -11043,7 +11040,7 @@
     </row>
     <row r="131" ht="30" customHeight="1">
       <c r="B131" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C131" s="131"/>
       <c r="D131" s="132"/>
@@ -11056,13 +11053,13 @@
       <c r="K131" s="131"/>
       <c r="L131" s="132"/>
       <c r="M131" s="132" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N131" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="O131" s="133" t="s">
         <v>70</v>
-      </c>
-      <c r="O131" s="133" t="s">
-        <v>71</v>
       </c>
       <c r="P131" s="130">
         <v>11</v>
@@ -11070,7 +11067,7 @@
     </row>
     <row r="133">
       <c r="B133" s="53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C133" s="138" t="s">
         <v>55</v>
@@ -11188,7 +11185,7 @@
     </row>
     <row r="137" ht="24" customHeight="1">
       <c r="B137" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C137" s="66"/>
       <c r="D137" s="36"/>
@@ -11201,16 +11198,16 @@
       <c r="K137" s="66"/>
       <c r="L137" s="36"/>
       <c r="M137" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N137" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O137" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P137" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="138" ht="24" customHeight="1">
@@ -11228,21 +11225,21 @@
       <c r="K138" s="73"/>
       <c r="L138" s="38"/>
       <c r="M138" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N138" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O138" s="74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P138" s="74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="139" ht="24" customHeight="1">
       <c r="B139" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C139" s="70"/>
       <c r="D139" s="71"/>
@@ -11255,21 +11252,21 @@
       <c r="K139" s="70"/>
       <c r="L139" s="71"/>
       <c r="M139" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N139" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O139" s="72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P139" s="72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="140" ht="30" customHeight="1">
       <c r="B140" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C140" s="131"/>
       <c r="D140" s="132"/>
@@ -11288,23 +11285,23 @@
     </row>
     <row r="142">
       <c r="B142" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C142" s="138" t="s">
         <v>84</v>
-      </c>
-      <c r="C142" s="138" t="s">
-        <v>85</v>
       </c>
       <c r="D142" s="139"/>
       <c r="E142" s="139"/>
       <c r="F142" s="140"/>
       <c r="G142" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H142" s="139"/>
       <c r="I142" s="139"/>
       <c r="J142" s="139"/>
       <c r="K142" s="140"/>
       <c r="L142" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M142" s="139"/>
       <c r="N142" s="139"/>
@@ -11452,7 +11449,7 @@
     </row>
     <row r="146" ht="24" customHeight="1">
       <c r="B146" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C146" s="66">
         <v>401.75824175824181</v>
@@ -11546,7 +11543,7 @@
     </row>
     <row r="148" ht="24" customHeight="1">
       <c r="B148" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C148" s="70">
         <v>10043.956043956028</v>
@@ -11593,7 +11590,7 @@
     </row>
     <row r="149" ht="30" customHeight="1">
       <c r="B149" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C149" s="131"/>
       <c r="D149" s="132"/>
@@ -11612,23 +11609,23 @@
     </row>
     <row r="151">
       <c r="B151" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C151" s="138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D151" s="139"/>
       <c r="E151" s="139"/>
       <c r="F151" s="140"/>
       <c r="G151" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H151" s="139"/>
       <c r="I151" s="139"/>
       <c r="J151" s="139"/>
       <c r="K151" s="140"/>
       <c r="L151" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M151" s="139"/>
       <c r="N151" s="139"/>
@@ -11776,7 +11773,7 @@
     </row>
     <row r="155" ht="24" customHeight="1">
       <c r="B155" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C155" s="66">
         <v>800.00000000000011</v>
@@ -11870,7 +11867,7 @@
     </row>
     <row r="157" ht="24" customHeight="1">
       <c r="B157" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C157" s="70">
         <v>20000</v>
@@ -11917,11 +11914,11 @@
     </row>
     <row r="158" ht="30" customHeight="1">
       <c r="B158" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C158" s="131"/>
       <c r="D158" s="132" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E158" s="132"/>
       <c r="F158" s="132"/>
@@ -11940,23 +11937,23 @@
     </row>
     <row r="160">
       <c r="B160" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C160" s="138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D160" s="139"/>
       <c r="E160" s="139"/>
       <c r="F160" s="140"/>
       <c r="G160" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H160" s="139"/>
       <c r="I160" s="139"/>
       <c r="J160" s="139"/>
       <c r="K160" s="140"/>
       <c r="L160" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M160" s="139"/>
       <c r="N160" s="139"/>
@@ -12104,7 +12101,7 @@
     </row>
     <row r="164" ht="24" customHeight="1">
       <c r="B164" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C164" s="66">
         <v>8</v>
@@ -12198,7 +12195,7 @@
     </row>
     <row r="166" ht="24" customHeight="1">
       <c r="B166" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C166" s="70">
         <v>200</v>
@@ -12245,11 +12242,11 @@
     </row>
     <row r="167" ht="30" customHeight="1">
       <c r="B167" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C167" s="131"/>
       <c r="D167" s="132" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E167" s="132"/>
       <c r="F167" s="132"/>
@@ -12268,23 +12265,23 @@
     </row>
     <row r="169">
       <c r="B169" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C169" s="138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D169" s="139"/>
       <c r="E169" s="139"/>
       <c r="F169" s="140"/>
       <c r="G169" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H169" s="139"/>
       <c r="I169" s="139"/>
       <c r="J169" s="139"/>
       <c r="K169" s="140"/>
       <c r="L169" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M169" s="139"/>
       <c r="N169" s="139"/>
@@ -12432,7 +12429,7 @@
     </row>
     <row r="173" ht="24" customHeight="1">
       <c r="B173" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C173" s="66">
         <v>1209.7582417582419</v>
@@ -12526,7 +12523,7 @@
     </row>
     <row r="175" ht="24" customHeight="1">
       <c r="B175" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C175" s="70">
         <v>30243.956043956026</v>
@@ -12573,11 +12570,11 @@
     </row>
     <row r="176" ht="30" customHeight="1">
       <c r="B176" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C176" s="131"/>
       <c r="D176" s="132" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E176" s="132"/>
       <c r="F176" s="132"/>
@@ -12596,23 +12593,23 @@
     </row>
     <row r="178">
       <c r="B178" s="53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C178" s="138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D178" s="139"/>
       <c r="E178" s="139"/>
       <c r="F178" s="140"/>
       <c r="G178" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H178" s="139"/>
       <c r="I178" s="139"/>
       <c r="J178" s="139"/>
       <c r="K178" s="140"/>
       <c r="L178" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M178" s="139"/>
       <c r="N178" s="139"/>
@@ -12760,7 +12757,7 @@
     </row>
     <row r="182" ht="24" customHeight="1">
       <c r="B182" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C182" s="66">
         <v>384.61538461538464</v>
@@ -12854,7 +12851,7 @@
     </row>
     <row r="184" ht="24" customHeight="1">
       <c r="B184" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C184" s="70">
         <v>9615.3846153846</v>
@@ -12901,7 +12898,7 @@
     </row>
     <row r="185" ht="30" customHeight="1">
       <c r="B185" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C185" s="131"/>
       <c r="D185" s="132"/>
@@ -12920,23 +12917,23 @@
     </row>
     <row r="187">
       <c r="B187" s="53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C187" s="138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D187" s="139"/>
       <c r="E187" s="139"/>
       <c r="F187" s="140"/>
       <c r="G187" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H187" s="139"/>
       <c r="I187" s="139"/>
       <c r="J187" s="139"/>
       <c r="K187" s="140"/>
       <c r="L187" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M187" s="139"/>
       <c r="N187" s="139"/>
@@ -13084,7 +13081,7 @@
     </row>
     <row r="191" ht="24" customHeight="1">
       <c r="B191" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C191" s="66">
         <v>384.61538461538464</v>
@@ -13178,7 +13175,7 @@
     </row>
     <row r="193" ht="24" customHeight="1">
       <c r="B193" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C193" s="70">
         <v>9615.3846153846</v>
@@ -13225,7 +13222,7 @@
     </row>
     <row r="194" ht="30" customHeight="1">
       <c r="B194" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C194" s="131"/>
       <c r="D194" s="132"/>
@@ -13244,23 +13241,23 @@
     </row>
     <row r="196">
       <c r="B196" s="53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C196" s="138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D196" s="139"/>
       <c r="E196" s="139"/>
       <c r="F196" s="140"/>
       <c r="G196" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H196" s="139"/>
       <c r="I196" s="139"/>
       <c r="J196" s="139"/>
       <c r="K196" s="140"/>
       <c r="L196" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M196" s="139"/>
       <c r="N196" s="139"/>
@@ -13408,7 +13405,7 @@
     </row>
     <row r="200" ht="24" customHeight="1">
       <c r="B200" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C200" s="66">
         <v>1420.0000000000005</v>
@@ -13502,7 +13499,7 @@
     </row>
     <row r="202" ht="24" customHeight="1">
       <c r="B202" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C202" s="70">
         <v>35500</v>
@@ -13549,7 +13546,7 @@
     </row>
     <row r="203" ht="30" customHeight="1">
       <c r="B203" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C203" s="131"/>
       <c r="D203" s="132"/>
@@ -13568,23 +13565,23 @@
     </row>
     <row r="205">
       <c r="B205" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C205" s="138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D205" s="139"/>
       <c r="E205" s="139"/>
       <c r="F205" s="140"/>
       <c r="G205" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H205" s="139"/>
       <c r="I205" s="139"/>
       <c r="J205" s="139"/>
       <c r="K205" s="140"/>
       <c r="L205" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M205" s="139"/>
       <c r="N205" s="139"/>
@@ -13732,7 +13729,7 @@
     </row>
     <row r="209" ht="24" customHeight="1">
       <c r="B209" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C209" s="66">
         <v>1600.0000000000002</v>
@@ -13826,7 +13823,7 @@
     </row>
     <row r="211" ht="24" customHeight="1">
       <c r="B211" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C211" s="70">
         <v>40000</v>
@@ -13873,11 +13870,11 @@
     </row>
     <row r="212" ht="30" customHeight="1">
       <c r="B212" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C212" s="131"/>
       <c r="D212" s="132" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E212" s="132"/>
       <c r="F212" s="132"/>
@@ -13896,23 +13893,23 @@
     </row>
     <row r="214">
       <c r="B214" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C214" s="138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D214" s="139"/>
       <c r="E214" s="139"/>
       <c r="F214" s="140"/>
       <c r="G214" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H214" s="139"/>
       <c r="I214" s="139"/>
       <c r="J214" s="139"/>
       <c r="K214" s="140"/>
       <c r="L214" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M214" s="139"/>
       <c r="N214" s="139"/>
@@ -14060,7 +14057,7 @@
     </row>
     <row r="218" ht="24" customHeight="1">
       <c r="B218" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C218" s="66">
         <v>16</v>
@@ -14154,7 +14151,7 @@
     </row>
     <row r="220" ht="24" customHeight="1">
       <c r="B220" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C220" s="70">
         <v>400</v>
@@ -14201,11 +14198,11 @@
     </row>
     <row r="221" ht="30" customHeight="1">
       <c r="B221" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C221" s="131"/>
       <c r="D221" s="132" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E221" s="132"/>
       <c r="F221" s="132"/>
@@ -14224,23 +14221,23 @@
     </row>
     <row r="223">
       <c r="B223" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C223" s="138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D223" s="139"/>
       <c r="E223" s="139"/>
       <c r="F223" s="140"/>
       <c r="G223" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H223" s="139"/>
       <c r="I223" s="139"/>
       <c r="J223" s="139"/>
       <c r="K223" s="140"/>
       <c r="L223" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M223" s="139"/>
       <c r="N223" s="139"/>
@@ -14388,7 +14385,7 @@
     </row>
     <row r="227" ht="24" customHeight="1">
       <c r="B227" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C227" s="66">
         <v>3036.0000000000009</v>
@@ -14482,7 +14479,7 @@
     </row>
     <row r="229" ht="24" customHeight="1">
       <c r="B229" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C229" s="70">
         <v>75900</v>
@@ -14529,11 +14526,11 @@
     </row>
     <row r="230" ht="30" customHeight="1">
       <c r="B230" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C230" s="131"/>
       <c r="D230" s="132" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E230" s="132"/>
       <c r="F230" s="132"/>
@@ -14552,23 +14549,23 @@
     </row>
     <row r="232">
       <c r="B232" s="53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C232" s="138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D232" s="139"/>
       <c r="E232" s="139"/>
       <c r="F232" s="140"/>
       <c r="G232" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H232" s="139"/>
       <c r="I232" s="139"/>
       <c r="J232" s="139"/>
       <c r="K232" s="140"/>
       <c r="L232" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M232" s="139"/>
       <c r="N232" s="139"/>
@@ -14716,7 +14713,7 @@
     </row>
     <row r="236" ht="24" customHeight="1">
       <c r="B236" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C236" s="66">
         <v>1420.0000000000005</v>
@@ -14810,7 +14807,7 @@
     </row>
     <row r="238" ht="24" customHeight="1">
       <c r="B238" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C238" s="70">
         <v>35500</v>
@@ -14857,7 +14854,7 @@
     </row>
     <row r="239" ht="30" customHeight="1">
       <c r="B239" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C239" s="131"/>
       <c r="D239" s="132"/>
@@ -14876,23 +14873,23 @@
     </row>
     <row r="241">
       <c r="B241" s="53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C241" s="138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D241" s="139"/>
       <c r="E241" s="139"/>
       <c r="F241" s="140"/>
       <c r="G241" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H241" s="139"/>
       <c r="I241" s="139"/>
       <c r="J241" s="139"/>
       <c r="K241" s="140"/>
       <c r="L241" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M241" s="139"/>
       <c r="N241" s="139"/>
@@ -15040,7 +15037,7 @@
     </row>
     <row r="245" ht="24" customHeight="1">
       <c r="B245" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C245" s="66">
         <v>1600.0000000000002</v>
@@ -15134,7 +15131,7 @@
     </row>
     <row r="247" ht="24" customHeight="1">
       <c r="B247" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C247" s="70">
         <v>40000</v>
@@ -15181,11 +15178,11 @@
     </row>
     <row r="248" ht="30" customHeight="1">
       <c r="B248" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C248" s="131"/>
       <c r="D248" s="132" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E248" s="132"/>
       <c r="F248" s="132"/>
@@ -15204,23 +15201,23 @@
     </row>
     <row r="250">
       <c r="B250" s="53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C250" s="138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D250" s="139"/>
       <c r="E250" s="139"/>
       <c r="F250" s="140"/>
       <c r="G250" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H250" s="139"/>
       <c r="I250" s="139"/>
       <c r="J250" s="139"/>
       <c r="K250" s="140"/>
       <c r="L250" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M250" s="139"/>
       <c r="N250" s="139"/>
@@ -15368,7 +15365,7 @@
     </row>
     <row r="254" ht="24" customHeight="1">
       <c r="B254" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C254" s="66">
         <v>3976.0000000000005</v>
@@ -15462,7 +15459,7 @@
     </row>
     <row r="256" ht="24" customHeight="1">
       <c r="B256" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C256" s="70">
         <v>99400</v>
@@ -15509,11 +15506,11 @@
     </row>
     <row r="257" ht="30" customHeight="1">
       <c r="B257" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C257" s="131"/>
       <c r="D257" s="132" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E257" s="132"/>
       <c r="F257" s="132"/>
@@ -15532,23 +15529,23 @@
     </row>
     <row r="259">
       <c r="B259" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C259" s="138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D259" s="139"/>
       <c r="E259" s="139"/>
       <c r="F259" s="140"/>
       <c r="G259" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H259" s="139"/>
       <c r="I259" s="139"/>
       <c r="J259" s="139"/>
       <c r="K259" s="140"/>
       <c r="L259" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M259" s="139"/>
       <c r="N259" s="139"/>
@@ -15696,7 +15693,7 @@
     </row>
     <row r="263" ht="24" customHeight="1">
       <c r="B263" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C263" s="66">
         <v>6996.0000000000018</v>
@@ -15790,7 +15787,7 @@
     </row>
     <row r="265" ht="24" customHeight="1">
       <c r="B265" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C265" s="70">
         <v>174900</v>
@@ -15837,11 +15834,11 @@
     </row>
     <row r="266" ht="30" customHeight="1">
       <c r="B266" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C266" s="131"/>
       <c r="D266" s="132" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E266" s="132"/>
       <c r="F266" s="132"/>
@@ -15860,23 +15857,23 @@
     </row>
     <row r="268">
       <c r="B268" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C268" s="138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D268" s="139"/>
       <c r="E268" s="139"/>
       <c r="F268" s="140"/>
       <c r="G268" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H268" s="139"/>
       <c r="I268" s="139"/>
       <c r="J268" s="139"/>
       <c r="K268" s="140"/>
       <c r="L268" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M268" s="139"/>
       <c r="N268" s="139"/>
@@ -15976,13 +15973,13 @@
     </row>
     <row r="272" ht="24" customHeight="1">
       <c r="B272" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C272" s="66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D272" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E272" s="36"/>
       <c r="F272" s="58"/>
@@ -15996,7 +15993,7 @@
       <c r="N272" s="36"/>
       <c r="O272" s="58"/>
       <c r="P272" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="273" ht="24" customHeight="1">
@@ -16004,10 +16001,10 @@
         <v>30</v>
       </c>
       <c r="C273" s="73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D273" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E273" s="38"/>
       <c r="F273" s="74"/>
@@ -16021,18 +16018,18 @@
       <c r="N273" s="38"/>
       <c r="O273" s="74"/>
       <c r="P273" s="74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="274" ht="24" customHeight="1">
       <c r="B274" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C274" s="70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D274" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E274" s="71"/>
       <c r="F274" s="72"/>
@@ -16046,12 +16043,12 @@
       <c r="N274" s="71"/>
       <c r="O274" s="72"/>
       <c r="P274" s="72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="275" ht="30" customHeight="1">
       <c r="B275" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C275" s="131"/>
       <c r="D275" s="132"/>
@@ -16268,7 +16265,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>16</v>
@@ -16301,7 +16298,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="B7" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -16562,7 +16559,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -18770,11 +18767,6 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="C35:T35"/>
     <mergeCell ref="C37:T37"/>
     <mergeCell ref="C39:T39"/>
     <mergeCell ref="C41:T41"/>
@@ -18784,6 +18776,11 @@
     <mergeCell ref="N25:T25"/>
     <mergeCell ref="C31:T31"/>
     <mergeCell ref="C33:T33"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="C35:T35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -18818,97 +18815,97 @@
     <row r="1" ht="18" customHeight="1"/>
     <row r="2" ht="27.95" customHeight="1">
       <c r="D2" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
     <row r="4" ht="104.1" customHeight="1" s="116" customFormat="1">
       <c r="C4" s="144" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4" s="144"/>
     </row>
     <row r="5" ht="110.1" customHeight="1" s="116" customFormat="1">
       <c r="C5" s="144" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5" s="144"/>
     </row>
     <row r="6" ht="209.1" customHeight="1" s="116" customFormat="1">
       <c r="C6" s="144" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" s="144"/>
     </row>
     <row r="7" ht="89.1" customHeight="1" s="116" customFormat="1">
       <c r="C7" s="144" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D7" s="144"/>
     </row>
     <row r="8" ht="150" customHeight="1" s="116" customFormat="1">
       <c r="C8" s="144" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D8" s="144"/>
     </row>
     <row r="9" ht="200.1" customHeight="1" s="116" customFormat="1">
       <c r="C9" s="144" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" s="144"/>
     </row>
     <row r="10" ht="147.95" customHeight="1" s="116" customFormat="1">
       <c r="C10" s="144" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="144"/>
     </row>
     <row r="11" ht="134.1" customHeight="1" s="116" customFormat="1">
       <c r="C11" s="144" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" s="144"/>
     </row>
     <row r="12" ht="54" customHeight="1" s="116" customFormat="1">
       <c r="C12" s="144" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D12" s="144"/>
     </row>
     <row r="13" ht="69.95" customHeight="1" s="116" customFormat="1">
       <c r="C13" s="144" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" s="144"/>
     </row>
     <row r="14" ht="128.1" customHeight="1" s="116" customFormat="1">
       <c r="C14" s="144" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D14" s="144"/>
     </row>
     <row r="15" ht="51.95" customHeight="1" s="116" customFormat="1">
       <c r="C15" s="144" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D15" s="144"/>
     </row>
     <row r="16" ht="84" customHeight="1" s="116" customFormat="1">
       <c r="C16" s="144" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D16" s="144"/>
     </row>
     <row r="17" ht="69.95" customHeight="1" s="116" customFormat="1">
       <c r="C17" s="144" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D17" s="144"/>
     </row>
     <row r="18" ht="180" customHeight="1" s="116" customFormat="1">
       <c r="C18" s="144" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D18" s="144"/>
     </row>
@@ -18969,10 +18966,10 @@
     <row r="2" ht="27.95" customHeight="1">
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -19007,24 +19004,24 @@
     </row>
     <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
       <c r="C5" s="134" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="134"/>
       <c r="E5" s="134" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F5" s="134"/>
       <c r="G5" s="134"/>
       <c r="H5" s="134" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I5" s="134"/>
       <c r="J5" s="134" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K5" s="134"/>
       <c r="L5" s="134" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M5" s="134"/>
       <c r="N5" s="76" t="s">
@@ -19036,7 +19033,7 @@
       <c r="R5" s="134"/>
       <c r="S5" s="134"/>
       <c r="T5" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -19056,7 +19053,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="7"/>
@@ -19071,7 +19068,7 @@
       <c r="L7" s="139"/>
       <c r="M7" s="140"/>
       <c r="N7" s="138" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O7" s="139"/>
       <c r="P7" s="139"/>
@@ -19082,14 +19079,14 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>23</v>
@@ -19142,14 +19139,14 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E9" s="119">
         <v>0</v>
@@ -19202,14 +19199,14 @@
     </row>
     <row r="10" ht="24" customHeight="1">
       <c r="A10" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E10" s="119">
         <v>0</v>
@@ -19262,14 +19259,14 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="A11" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E11" s="119">
         <v>0</v>
@@ -19322,14 +19319,14 @@
     </row>
     <row r="12" ht="24" customHeight="1">
       <c r="A12" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E12" s="119">
         <v>0</v>
@@ -19382,14 +19379,14 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="A13" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E13" s="119">
         <v>0</v>
@@ -19442,14 +19439,14 @@
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="A14" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E14" s="119">
         <v>0</v>
@@ -19502,14 +19499,14 @@
     </row>
     <row r="15" ht="24" customHeight="1">
       <c r="A15" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E15" s="119">
         <v>0</v>
@@ -19562,14 +19559,14 @@
     </row>
     <row r="16" ht="24" customHeight="1">
       <c r="A16" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E16" s="119">
         <v>0</v>
@@ -19622,14 +19619,14 @@
     </row>
     <row r="17" ht="24" customHeight="1">
       <c r="A17" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E17" s="119">
         <v>0</v>
@@ -19682,14 +19679,14 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E18" s="119">
         <v>0</v>
@@ -19744,7 +19741,7 @@
       <c r="B19" s="25"/>
       <c r="C19" s="39"/>
       <c r="D19" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E19" s="51">
         <v>0</v>
@@ -19797,7 +19794,7 @@
     </row>
     <row r="21" ht="24" customHeight="1">
       <c r="C21" s="53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D21" s="53"/>
       <c r="E21" s="7"/>
@@ -19812,7 +19809,7 @@
       <c r="L21" s="139"/>
       <c r="M21" s="140"/>
       <c r="N21" s="138" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O21" s="139"/>
       <c r="P21" s="139"/>
@@ -19823,14 +19820,14 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="A22" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" s="40" t="s">
         <v>23</v>
@@ -19883,14 +19880,14 @@
     </row>
     <row r="23" ht="24" customHeight="1">
       <c r="A23" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E23" s="119">
         <v>0</v>
@@ -19943,14 +19940,14 @@
     </row>
     <row r="24" ht="24" customHeight="1">
       <c r="A24" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E24" s="119">
         <v>0</v>
@@ -20003,14 +20000,14 @@
     </row>
     <row r="25" ht="24" customHeight="1">
       <c r="A25" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E25" s="119">
         <v>0</v>
@@ -20063,14 +20060,14 @@
     </row>
     <row r="26" ht="24" customHeight="1">
       <c r="A26" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E26" s="119">
         <v>0</v>
@@ -20123,14 +20120,14 @@
     </row>
     <row r="27" ht="24" customHeight="1">
       <c r="A27" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E27" s="119">
         <v>0</v>
@@ -20183,14 +20180,14 @@
     </row>
     <row r="28" ht="24" customHeight="1">
       <c r="A28" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E28" s="119">
         <v>0</v>
@@ -20243,14 +20240,14 @@
     </row>
     <row r="29" ht="24" customHeight="1">
       <c r="A29" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E29" s="119">
         <v>0</v>
@@ -20303,14 +20300,14 @@
     </row>
     <row r="30" ht="24" customHeight="1">
       <c r="A30" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E30" s="119">
         <v>0</v>
@@ -20363,14 +20360,14 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="A31" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E31" s="119">
         <v>0</v>
@@ -20423,14 +20420,14 @@
     </row>
     <row r="32" ht="24" customHeight="1">
       <c r="A32" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E32" s="119">
         <v>0</v>
@@ -20485,7 +20482,7 @@
       <c r="B33" s="25"/>
       <c r="C33" s="39"/>
       <c r="D33" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E33" s="51">
         <v>0</v>
@@ -20553,7 +20550,7 @@
       <c r="L35" s="139"/>
       <c r="M35" s="140"/>
       <c r="N35" s="138" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O35" s="139"/>
       <c r="P35" s="139"/>
@@ -20564,14 +20561,14 @@
     </row>
     <row r="36" ht="24" customHeight="1">
       <c r="A36" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E36" s="40" t="s">
         <v>23</v>
@@ -20624,14 +20621,14 @@
     </row>
     <row r="37" ht="24" customHeight="1">
       <c r="A37" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E37" s="119">
         <v>0</v>
@@ -20684,14 +20681,14 @@
     </row>
     <row r="38" ht="24" customHeight="1">
       <c r="A38" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E38" s="119">
         <v>0</v>
@@ -20744,14 +20741,14 @@
     </row>
     <row r="39" ht="24" customHeight="1">
       <c r="A39" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E39" s="119">
         <v>0</v>
@@ -20804,14 +20801,14 @@
     </row>
     <row r="40" ht="24" customHeight="1">
       <c r="A40" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E40" s="119">
         <v>0</v>
@@ -20864,14 +20861,14 @@
     </row>
     <row r="41" ht="24" customHeight="1">
       <c r="A41" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E41" s="119">
         <v>0</v>
@@ -20924,14 +20921,14 @@
     </row>
     <row r="42" ht="24" customHeight="1">
       <c r="A42" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B42" s="25"/>
       <c r="C42" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E42" s="119">
         <v>0</v>
@@ -20984,14 +20981,14 @@
     </row>
     <row r="43" ht="24" customHeight="1">
       <c r="A43" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43" s="25"/>
       <c r="C43" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E43" s="119">
         <v>0</v>
@@ -21044,14 +21041,14 @@
     </row>
     <row r="44" ht="24" customHeight="1">
       <c r="A44" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" s="25"/>
       <c r="C44" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E44" s="119">
         <v>0</v>
@@ -21104,14 +21101,14 @@
     </row>
     <row r="45" ht="24" customHeight="1">
       <c r="A45" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E45" s="119">
         <v>0</v>
@@ -21164,14 +21161,14 @@
     </row>
     <row r="46" ht="24" customHeight="1">
       <c r="A46" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B46" s="25"/>
       <c r="C46" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E46" s="119">
         <v>0</v>
@@ -21226,7 +21223,7 @@
       <c r="B47" s="25"/>
       <c r="C47" s="39"/>
       <c r="D47" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E47" s="51">
         <v>0</v>
@@ -21284,7 +21281,7 @@
       <c r="D49" s="55"/>
       <c r="E49" s="117"/>
       <c r="F49" s="145" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G49" s="145"/>
       <c r="H49" s="145"/>
@@ -21326,7 +21323,7 @@
       </c>
       <c r="D51" s="55"/>
       <c r="F51" s="145" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G51" s="145"/>
       <c r="H51" s="145"/>
@@ -21369,7 +21366,7 @@
       <c r="D53" s="55"/>
       <c r="E53" s="117"/>
       <c r="F53" s="145" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G53" s="145"/>
       <c r="H53" s="145"/>
@@ -21411,7 +21408,7 @@
       </c>
       <c r="D55" s="55"/>
       <c r="F55" s="145" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G55" s="145"/>
       <c r="H55" s="145"/>
@@ -21453,7 +21450,7 @@
       </c>
       <c r="D57" s="55"/>
       <c r="F57" s="136" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G57" s="136"/>
       <c r="H57" s="136"/>
@@ -21472,6 +21469,11 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F51:T51"/>
     <mergeCell ref="F53:T53"/>
     <mergeCell ref="F55:T55"/>
     <mergeCell ref="F57:T57"/>
@@ -21481,11 +21483,6 @@
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="N7:T7"/>
     <mergeCell ref="F49:T49"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F51:T51"/>
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:T21"/>
     <mergeCell ref="H35:M35"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
@@ -198,7 +198,7 @@
     <t>Posting</t>
   </si>
   <si>
-    <t xml:space="preserve">1Q '20 MDN :90s </t>
+    <t>1Q '20 MDN :90s</t>
   </si>
   <si>
     <t>January</t>
@@ -231,7 +231,7 @@
     <t>3/24, 3/28</t>
   </si>
   <si>
-    <t xml:space="preserve">1Q '20 MDN :30s </t>
+    <t>1Q '20 MDN :30s</t>
   </si>
   <si>
     <t>3/16-17, 3/21</t>
@@ -249,31 +249,31 @@
     <t>3/24, 3/26-29</t>
   </si>
   <si>
-    <t xml:space="preserve">1Q '20 PA :90s </t>
+    <t>1Q '20 PA :90s</t>
   </si>
   <si>
     <t>1Q '20 PA Total</t>
   </si>
   <si>
-    <t xml:space="preserve">1Q '20 EF :90s </t>
+    <t>1Q '20 EF :90s</t>
   </si>
   <si>
     <t>1Q '20 EF :45s eq.</t>
   </si>
   <si>
-    <t xml:space="preserve">1Q '20 EF :30s </t>
+    <t>1Q '20 EF :30s</t>
   </si>
   <si>
     <t>1Q '20 EF Total</t>
   </si>
   <si>
-    <t xml:space="preserve">1Q '20 EM :90s </t>
+    <t>1Q '20 EM :90s</t>
   </si>
   <si>
     <t>1Q '20 EM :45s eq.</t>
   </si>
   <si>
-    <t xml:space="preserve">1Q '20 EM :30s </t>
+    <t>1Q '20 EM :30s</t>
   </si>
   <si>
     <t>1Q '20 EM Total</t>
@@ -285,7 +285,7 @@
     <t>ADU</t>
   </si>
   <si>
-    <t xml:space="preserve">2Q '20 MDN :90s </t>
+    <t>2Q '20 MDN :90s</t>
   </si>
   <si>
     <t>April</t>
@@ -303,7 +303,7 @@
     <t>4/7, 4/9-11</t>
   </si>
   <si>
-    <t xml:space="preserve">2Q '20 MDN :30s </t>
+    <t>2Q '20 MDN :30s</t>
   </si>
   <si>
     <t>4/8-10</t>
@@ -315,31 +315,31 @@
     <t>4/7-11</t>
   </si>
   <si>
-    <t xml:space="preserve">2Q '20 PA :90s </t>
+    <t>2Q '20 PA :90s</t>
   </si>
   <si>
     <t>2Q '20 PA Total</t>
   </si>
   <si>
-    <t xml:space="preserve">2Q '20 EF :90s </t>
+    <t>2Q '20 EF :90s</t>
   </si>
   <si>
     <t>2Q '20 EF :45s eq.</t>
   </si>
   <si>
-    <t xml:space="preserve">2Q '20 EF :30s </t>
+    <t>2Q '20 EF :30s</t>
   </si>
   <si>
     <t>2Q '20 EF Total</t>
   </si>
   <si>
-    <t xml:space="preserve">2Q '20 EM :90s </t>
+    <t>2Q '20 EM :90s</t>
   </si>
   <si>
     <t>2Q '20 EM :45s eq.</t>
   </si>
   <si>
-    <t xml:space="preserve">2Q '20 EM :30s </t>
+    <t>2Q '20 EM :30s</t>
   </si>
   <si>
     <t>2Q '20 EM Total</t>
@@ -414,7 +414,13 @@
     <t>2/17/2020</t>
   </si>
   <si>
+    <t>EF</t>
+  </si>
+  <si>
     <t>2/24/2020</t>
+  </si>
+  <si>
+    <t>EM</t>
   </si>
   <si>
     <t>3/2/2020</t>
@@ -423,25 +429,22 @@
     <t>3/9/2020</t>
   </si>
   <si>
+    <t>:30s</t>
+  </si>
+  <si>
+    <t>:45s eq.</t>
+  </si>
+  <si>
     <t>3/16/2020</t>
   </si>
   <si>
     <t>3/23/2020</t>
   </si>
   <si>
-    <t>EF</t>
+    <t>1Q '20 Totals</t>
   </si>
   <si>
-    <t>EM</t>
-  </si>
-  <si>
-    <t>:45s eq.</t>
-  </si>
-  <si>
-    <t>:30s</t>
-  </si>
-  <si>
-    <t>1Q '20 Totals</t>
+    <t>45 eq.</t>
   </si>
   <si>
     <t>Q2 2020</t>
@@ -991,9 +994,6 @@
   </si>
   <si>
     <t>90</t>
-  </si>
-  <si>
-    <t>45 eq.</t>
   </si>
   <si>
     <t>30</t>
@@ -2613,7 +2613,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:T126"/>
+  <dimension ref="A2:T139"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0" tabSelected="1">
       <selection activeCell="C5" sqref="C5"/>
@@ -3320,10 +3320,10 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="81" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E25" s="83">
         <v>0</v>
@@ -3335,16 +3335,16 @@
         <v>0</v>
       </c>
       <c r="H25" s="85">
-        <v>10043.956043956028</v>
+        <v>35500</v>
       </c>
       <c r="I25" s="83">
         <v>0</v>
       </c>
       <c r="J25" s="93">
-        <v>401.75824175824181</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="K25" s="95">
-        <v>24.999999999999943</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="24" customHeight="1">
@@ -3353,10 +3353,10 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="81" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D26" s="82" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E26" s="83">
         <v>0</v>
@@ -3368,16 +3368,16 @@
         <v>0</v>
       </c>
       <c r="H26" s="85">
-        <v>9615.3846153846</v>
+        <v>35500</v>
       </c>
       <c r="I26" s="83">
         <v>0</v>
       </c>
       <c r="J26" s="93">
-        <v>384.61538461538464</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="K26" s="95">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="24" customHeight="1">
@@ -3452,10 +3452,10 @@
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="81" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E29" s="83">
         <v>0</v>
@@ -3467,16 +3467,16 @@
         <v>0</v>
       </c>
       <c r="H29" s="85">
-        <v>10043.956043956028</v>
+        <v>35500</v>
       </c>
       <c r="I29" s="83">
         <v>0</v>
       </c>
       <c r="J29" s="93">
-        <v>401.75824175824181</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="K29" s="95">
-        <v>24.999999999999943</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24" customHeight="1">
@@ -3485,10 +3485,10 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="81" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D30" s="82" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E30" s="83">
         <v>0</v>
@@ -3500,16 +3500,16 @@
         <v>0</v>
       </c>
       <c r="H30" s="85">
-        <v>9615.3846153846</v>
+        <v>35500</v>
       </c>
       <c r="I30" s="83">
         <v>0</v>
       </c>
       <c r="J30" s="93">
-        <v>384.61538461538464</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="K30" s="95">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="24" customHeight="1">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="81" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D33" s="82" t="s">
         <v>130</v>
@@ -3593,22 +3593,22 @@
         <v>0</v>
       </c>
       <c r="F33" s="84" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="G33" s="85">
         <v>0</v>
       </c>
       <c r="H33" s="85">
-        <v>10043.956043956028</v>
+        <v>400</v>
       </c>
       <c r="I33" s="83">
         <v>0</v>
       </c>
       <c r="J33" s="93">
-        <v>401.75824175824181</v>
+        <v>16</v>
       </c>
       <c r="K33" s="95">
-        <v>24.999999999999943</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="24" customHeight="1">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="81" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D34" s="82" t="s">
         <v>130</v>
@@ -3626,22 +3626,22 @@
         <v>0</v>
       </c>
       <c r="F34" s="84" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="G34" s="85">
         <v>0</v>
       </c>
       <c r="H34" s="85">
-        <v>9615.3846153846</v>
+        <v>40000</v>
       </c>
       <c r="I34" s="83">
         <v>0</v>
       </c>
       <c r="J34" s="93">
-        <v>384.61538461538464</v>
+        <v>1600.0000000000002</v>
       </c>
       <c r="K34" s="95">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24" customHeight="1">
@@ -3650,10 +3650,10 @@
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="81" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D35" s="82" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E35" s="83">
         <v>0</v>
@@ -3683,28 +3683,28 @@
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="81" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D36" s="82" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E36" s="83">
         <v>0</v>
       </c>
       <c r="F36" s="84" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="G36" s="85">
         <v>0</v>
       </c>
       <c r="H36" s="85">
-        <v>35500</v>
+        <v>99400</v>
       </c>
       <c r="I36" s="83">
         <v>0</v>
       </c>
       <c r="J36" s="93">
-        <v>1420.0000000000005</v>
+        <v>3976.0000000000005</v>
       </c>
       <c r="K36" s="95">
         <v>25</v>
@@ -3716,28 +3716,28 @@
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="81" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D37" s="82" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E37" s="83">
         <v>0</v>
       </c>
       <c r="F37" s="84" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="G37" s="85">
         <v>0</v>
       </c>
       <c r="H37" s="85">
-        <v>35500</v>
+        <v>40000</v>
       </c>
       <c r="I37" s="83">
         <v>0</v>
       </c>
       <c r="J37" s="93">
-        <v>1420.0000000000005</v>
+        <v>1600.0000000000002</v>
       </c>
       <c r="K37" s="95">
         <v>25</v>
@@ -3749,10 +3749,10 @@
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="81" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D38" s="82" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E38" s="83">
         <v>0</v>
@@ -3782,28 +3782,28 @@
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="83">
+        <v>0</v>
+      </c>
+      <c r="F39" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="83">
-        <v>0</v>
-      </c>
-      <c r="F39" s="84" t="s">
-        <v>116</v>
-      </c>
       <c r="G39" s="85">
         <v>0</v>
       </c>
       <c r="H39" s="85">
-        <v>35500</v>
+        <v>200</v>
       </c>
       <c r="I39" s="83">
         <v>0</v>
       </c>
       <c r="J39" s="93">
-        <v>1420.0000000000005</v>
+        <v>8</v>
       </c>
       <c r="K39" s="95">
         <v>25</v>
@@ -3815,28 +3815,28 @@
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="83">
+        <v>0</v>
+      </c>
+      <c r="F40" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="D40" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" s="83">
-        <v>0</v>
-      </c>
-      <c r="F40" s="84" t="s">
-        <v>116</v>
-      </c>
       <c r="G40" s="85">
         <v>0</v>
       </c>
       <c r="H40" s="85">
-        <v>35500</v>
+        <v>20000</v>
       </c>
       <c r="I40" s="83">
         <v>0</v>
       </c>
       <c r="J40" s="93">
-        <v>1420.0000000000005</v>
+        <v>800.00000000000011</v>
       </c>
       <c r="K40" s="95">
         <v>25</v>
@@ -3848,10 +3848,10 @@
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="81" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D41" s="82" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E41" s="83">
         <v>0</v>
@@ -3863,16 +3863,16 @@
         <v>0</v>
       </c>
       <c r="H41" s="85">
-        <v>35500</v>
+        <v>10043.956043956028</v>
       </c>
       <c r="I41" s="83">
         <v>0</v>
       </c>
       <c r="J41" s="93">
-        <v>1420.0000000000005</v>
+        <v>401.75824175824181</v>
       </c>
       <c r="K41" s="95">
-        <v>25</v>
+        <v>24.999999999999943</v>
       </c>
     </row>
     <row r="42" ht="24" customHeight="1">
@@ -3881,10 +3881,10 @@
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="81" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D42" s="82" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E42" s="83">
         <v>0</v>
@@ -3896,16 +3896,16 @@
         <v>0</v>
       </c>
       <c r="H42" s="85">
-        <v>35500</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="I42" s="83">
         <v>0</v>
       </c>
       <c r="J42" s="93">
-        <v>1420.0000000000005</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="K42" s="95">
-        <v>25</v>
+        <v>24.999999999999936</v>
       </c>
     </row>
     <row r="43" ht="24" customHeight="1">
@@ -3914,28 +3914,28 @@
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="83">
+        <v>0</v>
+      </c>
+      <c r="F43" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="E43" s="83">
-        <v>0</v>
-      </c>
-      <c r="F43" s="84" t="s">
-        <v>116</v>
-      </c>
       <c r="G43" s="85">
         <v>0</v>
       </c>
       <c r="H43" s="85">
-        <v>35500</v>
+        <v>400</v>
       </c>
       <c r="I43" s="83">
         <v>0</v>
       </c>
       <c r="J43" s="93">
-        <v>1420.0000000000005</v>
+        <v>16</v>
       </c>
       <c r="K43" s="95">
         <v>25</v>
@@ -3947,28 +3947,28 @@
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="83">
+        <v>0</v>
+      </c>
+      <c r="F44" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="D44" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="E44" s="83">
-        <v>0</v>
-      </c>
-      <c r="F44" s="84" t="s">
-        <v>116</v>
-      </c>
       <c r="G44" s="85">
         <v>0</v>
       </c>
       <c r="H44" s="85">
-        <v>35500</v>
+        <v>40000</v>
       </c>
       <c r="I44" s="83">
         <v>0</v>
       </c>
       <c r="J44" s="93">
-        <v>1420.0000000000005</v>
+        <v>1600.0000000000002</v>
       </c>
       <c r="K44" s="95">
         <v>25</v>
@@ -3980,28 +3980,28 @@
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="81" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D45" s="82" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E45" s="83">
         <v>0</v>
       </c>
       <c r="F45" s="84" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="G45" s="85">
         <v>0</v>
       </c>
       <c r="H45" s="85">
-        <v>40000</v>
+        <v>35500</v>
       </c>
       <c r="I45" s="83">
         <v>0</v>
       </c>
       <c r="J45" s="93">
-        <v>1600.0000000000002</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="K45" s="95">
         <v>25</v>
@@ -4013,28 +4013,28 @@
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="81" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D46" s="82" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E46" s="83">
         <v>0</v>
       </c>
       <c r="F46" s="84" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G46" s="85">
         <v>0</v>
       </c>
       <c r="H46" s="85">
-        <v>40000</v>
+        <v>99400</v>
       </c>
       <c r="I46" s="83">
         <v>0</v>
       </c>
       <c r="J46" s="93">
-        <v>1600.0000000000002</v>
+        <v>3976.0000000000005</v>
       </c>
       <c r="K46" s="95">
         <v>25</v>
@@ -4046,28 +4046,28 @@
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="81" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D47" s="82" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E47" s="83">
         <v>0</v>
       </c>
       <c r="F47" s="84" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G47" s="85">
         <v>0</v>
       </c>
       <c r="H47" s="85">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="I47" s="83">
         <v>0</v>
       </c>
       <c r="J47" s="93">
-        <v>800.00000000000011</v>
+        <v>1600.0000000000002</v>
       </c>
       <c r="K47" s="95">
         <v>25</v>
@@ -4079,28 +4079,28 @@
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="81" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D48" s="82" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E48" s="83">
         <v>0</v>
       </c>
       <c r="F48" s="84" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="G48" s="85">
         <v>0</v>
       </c>
       <c r="H48" s="85">
-        <v>40000</v>
+        <v>35500</v>
       </c>
       <c r="I48" s="83">
         <v>0</v>
       </c>
       <c r="J48" s="93">
-        <v>1600.0000000000002</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="K48" s="95">
         <v>25</v>
@@ -4112,28 +4112,28 @@
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="81" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D49" s="82" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E49" s="83">
         <v>0</v>
       </c>
       <c r="F49" s="84" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G49" s="85">
         <v>0</v>
       </c>
       <c r="H49" s="85">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="I49" s="83">
         <v>0</v>
       </c>
       <c r="J49" s="93">
-        <v>1600.0000000000002</v>
+        <v>8</v>
       </c>
       <c r="K49" s="95">
         <v>25</v>
@@ -4148,13 +4148,13 @@
         <v>114</v>
       </c>
       <c r="D50" s="82" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E50" s="83">
         <v>0</v>
       </c>
       <c r="F50" s="84" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G50" s="85">
         <v>0</v>
@@ -4178,31 +4178,31 @@
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="81" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D51" s="82" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E51" s="83">
         <v>0</v>
       </c>
       <c r="F51" s="84" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="G51" s="85">
         <v>0</v>
       </c>
       <c r="H51" s="85">
-        <v>40000</v>
+        <v>10043.956043956028</v>
       </c>
       <c r="I51" s="83">
         <v>0</v>
       </c>
       <c r="J51" s="93">
-        <v>1600.0000000000002</v>
+        <v>401.75824175824181</v>
       </c>
       <c r="K51" s="95">
-        <v>25</v>
+        <v>24.999999999999943</v>
       </c>
     </row>
     <row r="52" ht="24" customHeight="1">
@@ -4211,31 +4211,31 @@
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="81" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D52" s="82" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E52" s="83">
         <v>0</v>
       </c>
       <c r="F52" s="84" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="G52" s="85">
         <v>0</v>
       </c>
       <c r="H52" s="85">
-        <v>40000</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="I52" s="83">
         <v>0</v>
       </c>
       <c r="J52" s="93">
-        <v>1600.0000000000002</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="K52" s="95">
-        <v>25</v>
+        <v>24.999999999999936</v>
       </c>
     </row>
     <row r="53" ht="24" customHeight="1">
@@ -4244,28 +4244,28 @@
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="81" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D53" s="82" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E53" s="83">
         <v>0</v>
       </c>
       <c r="F53" s="84" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G53" s="85">
         <v>0</v>
       </c>
       <c r="H53" s="85">
-        <v>20000</v>
+        <v>400</v>
       </c>
       <c r="I53" s="83">
         <v>0</v>
       </c>
       <c r="J53" s="93">
-        <v>800.00000000000011</v>
+        <v>16</v>
       </c>
       <c r="K53" s="95">
         <v>25</v>
@@ -4277,28 +4277,28 @@
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="81" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D54" s="82" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E54" s="83">
         <v>0</v>
       </c>
       <c r="F54" s="84" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G54" s="85">
         <v>0</v>
       </c>
       <c r="H54" s="85">
-        <v>200</v>
+        <v>40000</v>
       </c>
       <c r="I54" s="83">
         <v>0</v>
       </c>
       <c r="J54" s="93">
-        <v>8</v>
+        <v>1600.0000000000002</v>
       </c>
       <c r="K54" s="95">
         <v>25</v>
@@ -4310,28 +4310,28 @@
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="81" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D55" s="82" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E55" s="83">
         <v>0</v>
       </c>
       <c r="F55" s="84" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="G55" s="85">
         <v>0</v>
       </c>
       <c r="H55" s="85">
-        <v>400</v>
+        <v>35500</v>
       </c>
       <c r="I55" s="83">
         <v>0</v>
       </c>
       <c r="J55" s="93">
-        <v>16</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="K55" s="95">
         <v>25</v>
@@ -4343,16 +4343,16 @@
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="81" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D56" s="82" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E56" s="83">
         <v>0</v>
       </c>
       <c r="F56" s="84" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G56" s="85">
         <v>0</v>
@@ -4376,28 +4376,28 @@
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="81" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D57" s="82" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E57" s="83">
         <v>0</v>
       </c>
       <c r="F57" s="84" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G57" s="85">
         <v>0</v>
       </c>
       <c r="H57" s="85">
-        <v>200</v>
+        <v>40000</v>
       </c>
       <c r="I57" s="83">
         <v>0</v>
       </c>
       <c r="J57" s="93">
-        <v>8</v>
+        <v>1600.0000000000002</v>
       </c>
       <c r="K57" s="95">
         <v>25</v>
@@ -4409,28 +4409,28 @@
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="81" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D58" s="82" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E58" s="83">
         <v>0</v>
       </c>
       <c r="F58" s="84" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="G58" s="85">
         <v>0</v>
       </c>
       <c r="H58" s="85">
-        <v>400</v>
+        <v>35500</v>
       </c>
       <c r="I58" s="83">
         <v>0</v>
       </c>
       <c r="J58" s="93">
-        <v>16</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="K58" s="95">
         <v>25</v>
@@ -4442,28 +4442,28 @@
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="81" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D59" s="82" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E59" s="83">
         <v>0</v>
       </c>
       <c r="F59" s="84" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G59" s="85">
         <v>0</v>
       </c>
       <c r="H59" s="85">
-        <v>99400</v>
+        <v>200</v>
       </c>
       <c r="I59" s="83">
         <v>0</v>
       </c>
       <c r="J59" s="93">
-        <v>3976.0000000000005</v>
+        <v>8</v>
       </c>
       <c r="K59" s="95">
         <v>25</v>
@@ -4478,25 +4478,25 @@
         <v>114</v>
       </c>
       <c r="D60" s="82" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E60" s="83">
         <v>0</v>
       </c>
       <c r="F60" s="84" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G60" s="85">
         <v>0</v>
       </c>
       <c r="H60" s="85">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="I60" s="83">
         <v>0</v>
       </c>
       <c r="J60" s="93">
-        <v>8</v>
+        <v>800.00000000000011</v>
       </c>
       <c r="K60" s="95">
         <v>25</v>
@@ -4508,31 +4508,31 @@
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="81" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D61" s="82" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E61" s="83">
         <v>0</v>
       </c>
       <c r="F61" s="84" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="G61" s="85">
         <v>0</v>
       </c>
       <c r="H61" s="85">
-        <v>400</v>
+        <v>10043.956043956028</v>
       </c>
       <c r="I61" s="83">
         <v>0</v>
       </c>
       <c r="J61" s="93">
-        <v>16</v>
+        <v>401.75824175824181</v>
       </c>
       <c r="K61" s="95">
-        <v>25</v>
+        <v>24.999999999999943</v>
       </c>
     </row>
     <row r="62" ht="24" customHeight="1">
@@ -4541,38 +4541,34 @@
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="81" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D62" s="82" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E62" s="83">
         <v>0</v>
       </c>
       <c r="F62" s="84" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="G62" s="85">
         <v>0</v>
       </c>
       <c r="H62" s="85">
-        <v>99400</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="I62" s="83">
         <v>0</v>
       </c>
       <c r="J62" s="93">
-        <v>3976.0000000000005</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="K62" s="95">
-        <v>25</v>
+        <v>24.999999999999936</v>
       </c>
     </row>
     <row r="63" ht="24" customHeight="1">
-      <c r="A63" s="99" t="s">
-        <v>113</v>
-      </c>
-      <c r="B63" s="4"/>
       <c r="C63" s="39"/>
       <c r="D63" s="91" t="s">
         <v>135</v>
@@ -4593,7 +4589,7 @@
         <v>38</v>
       </c>
       <c r="J63" s="94">
-        <v>48285.71428571429</v>
+        <v>48285.7142857143</v>
       </c>
       <c r="K63" s="98">
         <v>24.999999999999986</v>
@@ -4601,7 +4597,7 @@
     </row>
     <row r="65">
       <c r="C65" s="53" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="H65" s="30"/>
       <c r="I65" s="30"/>
@@ -4662,32 +4658,30 @@
         <v>113</v>
       </c>
       <c r="B67" s="4"/>
-      <c r="C67" s="81" t="s">
-        <v>114</v>
-      </c>
-      <c r="D67" s="82" t="s">
-        <v>137</v>
+      <c r="C67" s="81"/>
+      <c r="D67" s="82">
+        <v>43899</v>
       </c>
       <c r="E67" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="84" t="s">
-        <v>116</v>
-      </c>
-      <c r="G67" s="85">
-        <v>0</v>
-      </c>
-      <c r="H67" s="85">
-        <v>10043.956043956028</v>
-      </c>
-      <c r="I67" s="83">
-        <v>0</v>
-      </c>
-      <c r="J67" s="93">
-        <v>401.75824175824181</v>
-      </c>
-      <c r="K67" s="95">
-        <v>24.999999999999943</v>
+        <v>136</v>
+      </c>
+      <c r="G67" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="H67" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="I67" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="J67" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="K67" s="95" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="68" ht="24" customHeight="1">
@@ -4695,32 +4689,30 @@
         <v>117</v>
       </c>
       <c r="B68" s="4"/>
-      <c r="C68" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="D68" s="82" t="s">
-        <v>137</v>
+      <c r="C68" s="81"/>
+      <c r="D68" s="82">
+        <v>43906</v>
       </c>
       <c r="E68" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="84" t="s">
-        <v>116</v>
-      </c>
-      <c r="G68" s="85">
-        <v>0</v>
-      </c>
-      <c r="H68" s="85">
-        <v>9615.3846153846</v>
-      </c>
-      <c r="I68" s="83">
-        <v>0</v>
-      </c>
-      <c r="J68" s="93">
-        <v>384.61538461538464</v>
-      </c>
-      <c r="K68" s="95">
-        <v>24.999999999999936</v>
+        <v>136</v>
+      </c>
+      <c r="G68" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="H68" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="I68" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="J68" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="K68" s="95" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="69" ht="24" customHeight="1">
@@ -4728,242 +4720,193 @@
         <v>113</v>
       </c>
       <c r="B69" s="4"/>
-      <c r="C69" s="81" t="s">
-        <v>114</v>
-      </c>
-      <c r="D69" s="82" t="s">
-        <v>138</v>
+      <c r="C69" s="81"/>
+      <c r="D69" s="82">
+        <v>43913</v>
       </c>
       <c r="E69" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="84" t="s">
-        <v>116</v>
-      </c>
-      <c r="G69" s="85">
-        <v>0</v>
-      </c>
-      <c r="H69" s="85">
-        <v>10043.956043956028</v>
-      </c>
-      <c r="I69" s="83">
-        <v>0</v>
-      </c>
-      <c r="J69" s="93">
-        <v>401.75824175824181</v>
-      </c>
-      <c r="K69" s="95">
-        <v>24.999999999999943</v>
+        <v>136</v>
+      </c>
+      <c r="G69" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="H69" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="I69" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="J69" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="K69" s="95" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="70" ht="24" customHeight="1">
-      <c r="A70" s="99" t="s">
-        <v>117</v>
-      </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="D70" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="E70" s="83">
-        <v>0</v>
-      </c>
-      <c r="F70" s="84" t="s">
-        <v>116</v>
-      </c>
-      <c r="G70" s="85">
-        <v>0</v>
-      </c>
-      <c r="H70" s="85">
-        <v>9615.3846153846</v>
-      </c>
-      <c r="I70" s="83">
-        <v>0</v>
-      </c>
-      <c r="J70" s="93">
-        <v>384.61538461538464</v>
-      </c>
-      <c r="K70" s="95">
-        <v>24.999999999999936</v>
-      </c>
-    </row>
-    <row r="71" ht="24" customHeight="1">
-      <c r="A71" s="99" t="s">
-        <v>113</v>
-      </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="81" t="s">
-        <v>114</v>
-      </c>
-      <c r="D71" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="E71" s="83">
-        <v>0</v>
-      </c>
-      <c r="F71" s="84" t="s">
-        <v>116</v>
-      </c>
-      <c r="G71" s="85">
-        <v>0</v>
-      </c>
-      <c r="H71" s="85">
-        <v>9615.3846153846</v>
-      </c>
-      <c r="I71" s="83">
-        <v>0</v>
-      </c>
-      <c r="J71" s="93">
-        <v>384.61538461538464</v>
-      </c>
-      <c r="K71" s="95">
-        <v>24.999999999999936</v>
-      </c>
-    </row>
-    <row r="72" ht="24" customHeight="1">
-      <c r="A72" s="99" t="s">
-        <v>117</v>
-      </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="D72" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="E72" s="83">
-        <v>0</v>
-      </c>
-      <c r="F72" s="84" t="s">
-        <v>116</v>
-      </c>
-      <c r="G72" s="85">
-        <v>0</v>
-      </c>
-      <c r="H72" s="85">
-        <v>9615.3846153846</v>
-      </c>
-      <c r="I72" s="83">
-        <v>0</v>
-      </c>
-      <c r="J72" s="93">
-        <v>384.61538461538464</v>
-      </c>
-      <c r="K72" s="95">
-        <v>24.999999999999936</v>
-      </c>
+      <c r="C70" s="39"/>
+      <c r="D70" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" s="97">
+        <v>3</v>
+      </c>
+      <c r="F70" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G70" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="H70" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="I70" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="J70" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="K70" s="98" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="60"/>
+      <c r="M72" s="60"/>
+      <c r="N72" s="60"/>
+      <c r="O72" s="60"/>
+      <c r="P72" s="60"/>
+      <c r="Q72" s="60"/>
+      <c r="R72" s="60"/>
+      <c r="S72" s="60"/>
+      <c r="T72" s="60"/>
     </row>
     <row r="73" ht="24" customHeight="1">
       <c r="A73" s="99" t="s">
-        <v>113</v>
-      </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="81" t="s">
-        <v>114</v>
-      </c>
-      <c r="D73" s="82" t="s">
-        <v>140</v>
-      </c>
-      <c r="E73" s="83">
-        <v>0</v>
-      </c>
-      <c r="F73" s="84" t="s">
-        <v>116</v>
-      </c>
-      <c r="G73" s="85">
-        <v>0</v>
-      </c>
-      <c r="H73" s="85">
-        <v>9615.3846153846</v>
-      </c>
-      <c r="I73" s="83">
-        <v>0</v>
-      </c>
-      <c r="J73" s="93">
-        <v>384.61538461538464</v>
-      </c>
-      <c r="K73" s="95">
-        <v>24.999999999999936</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C73" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="D73" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="E73" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="G73" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="H73" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="J73" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="K73" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="M73" s="60"/>
+      <c r="N73" s="60"/>
+      <c r="O73" s="60"/>
+      <c r="P73" s="60"/>
+      <c r="Q73" s="60"/>
+      <c r="R73" s="60"/>
+      <c r="S73" s="60"/>
+      <c r="T73" s="60"/>
     </row>
     <row r="74" ht="24" customHeight="1">
       <c r="A74" s="99" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="81" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D74" s="82" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E74" s="83">
         <v>0</v>
       </c>
       <c r="F74" s="84" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="G74" s="85">
         <v>0</v>
       </c>
       <c r="H74" s="85">
-        <v>9615.3846153846</v>
+        <v>400</v>
       </c>
       <c r="I74" s="83">
         <v>0</v>
       </c>
       <c r="J74" s="93">
-        <v>384.61538461538464</v>
+        <v>16</v>
       </c>
       <c r="K74" s="95">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24" customHeight="1">
       <c r="A75" s="99" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="81" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D75" s="82" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E75" s="83">
         <v>0</v>
       </c>
       <c r="F75" s="84" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="G75" s="85">
         <v>0</v>
       </c>
       <c r="H75" s="85">
-        <v>9615.3846153846</v>
+        <v>40000</v>
       </c>
       <c r="I75" s="83">
         <v>0</v>
       </c>
       <c r="J75" s="93">
-        <v>384.61538461538464</v>
+        <v>1600.0000000000002</v>
       </c>
       <c r="K75" s="95">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="24" customHeight="1">
       <c r="A76" s="99" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="81" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D76" s="82" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E76" s="83">
         <v>0</v>
@@ -4975,94 +4918,94 @@
         <v>0</v>
       </c>
       <c r="H76" s="85">
-        <v>9615.3846153846</v>
+        <v>35500</v>
       </c>
       <c r="I76" s="83">
         <v>0</v>
       </c>
       <c r="J76" s="93">
-        <v>384.61538461538464</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="K76" s="95">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="24" customHeight="1">
       <c r="A77" s="99" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="81" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D77" s="82" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E77" s="83">
         <v>0</v>
       </c>
       <c r="F77" s="84" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="G77" s="85">
         <v>0</v>
       </c>
       <c r="H77" s="85">
-        <v>9615.3846153846</v>
+        <v>99400</v>
       </c>
       <c r="I77" s="83">
         <v>0</v>
       </c>
       <c r="J77" s="93">
-        <v>384.61538461538464</v>
+        <v>3976.0000000000005</v>
       </c>
       <c r="K77" s="95">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24" customHeight="1">
       <c r="A78" s="99" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="81" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D78" s="82" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E78" s="83">
         <v>0</v>
       </c>
       <c r="F78" s="84" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="G78" s="85">
         <v>0</v>
       </c>
       <c r="H78" s="85">
-        <v>9615.3846153846</v>
+        <v>40000</v>
       </c>
       <c r="I78" s="83">
         <v>0</v>
       </c>
       <c r="J78" s="93">
-        <v>384.61538461538464</v>
+        <v>1600.0000000000002</v>
       </c>
       <c r="K78" s="95">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="24" customHeight="1">
       <c r="A79" s="99" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="81" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D79" s="82" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E79" s="83">
         <v>0</v>
@@ -5074,94 +5017,94 @@
         <v>0</v>
       </c>
       <c r="H79" s="85">
-        <v>9615.3846153846</v>
+        <v>35500</v>
       </c>
       <c r="I79" s="83">
         <v>0</v>
       </c>
       <c r="J79" s="93">
-        <v>384.61538461538464</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="K79" s="95">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24" customHeight="1">
       <c r="A80" s="99" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="81" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D80" s="82" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E80" s="83">
         <v>0</v>
       </c>
       <c r="F80" s="84" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="G80" s="85">
         <v>0</v>
       </c>
       <c r="H80" s="85">
-        <v>9615.3846153846</v>
+        <v>200</v>
       </c>
       <c r="I80" s="83">
         <v>0</v>
       </c>
       <c r="J80" s="93">
-        <v>384.61538461538464</v>
+        <v>8</v>
       </c>
       <c r="K80" s="95">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="24" customHeight="1">
       <c r="A81" s="99" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="81" t="s">
         <v>114</v>
       </c>
       <c r="D81" s="82" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E81" s="83">
         <v>0</v>
       </c>
       <c r="F81" s="84" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="G81" s="85">
         <v>0</v>
       </c>
       <c r="H81" s="85">
-        <v>9615.3846153846</v>
+        <v>20000</v>
       </c>
       <c r="I81" s="83">
         <v>0</v>
       </c>
       <c r="J81" s="93">
-        <v>384.61538461538464</v>
+        <v>800.00000000000011</v>
       </c>
       <c r="K81" s="95">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="24" customHeight="1">
       <c r="A82" s="99" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="81" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D82" s="82" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E82" s="83">
         <v>0</v>
@@ -5173,28 +5116,28 @@
         <v>0</v>
       </c>
       <c r="H82" s="85">
-        <v>9615.3846153846</v>
+        <v>10043.956043956028</v>
       </c>
       <c r="I82" s="83">
         <v>0</v>
       </c>
       <c r="J82" s="93">
-        <v>384.61538461538464</v>
+        <v>401.75824175824181</v>
       </c>
       <c r="K82" s="95">
-        <v>24.999999999999936</v>
+        <v>24.999999999999943</v>
       </c>
     </row>
     <row r="83" ht="24" customHeight="1">
       <c r="A83" s="99" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="81" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D83" s="82" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E83" s="83">
         <v>0</v>
@@ -5220,80 +5163,80 @@
     </row>
     <row r="84" ht="24" customHeight="1">
       <c r="A84" s="99" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="81" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D84" s="82" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E84" s="83">
         <v>0</v>
       </c>
       <c r="F84" s="84" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="G84" s="85">
         <v>0</v>
       </c>
       <c r="H84" s="85">
-        <v>9615.3846153846</v>
+        <v>400</v>
       </c>
       <c r="I84" s="83">
         <v>0</v>
       </c>
       <c r="J84" s="93">
-        <v>384.61538461538464</v>
+        <v>16</v>
       </c>
       <c r="K84" s="95">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24" customHeight="1">
       <c r="A85" s="99" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="81" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D85" s="82" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E85" s="83">
         <v>0</v>
       </c>
       <c r="F85" s="84" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="G85" s="85">
         <v>0</v>
       </c>
       <c r="H85" s="85">
-        <v>9615.3846153846</v>
+        <v>40000</v>
       </c>
       <c r="I85" s="83">
         <v>0</v>
       </c>
       <c r="J85" s="93">
-        <v>384.61538461538464</v>
+        <v>1600.0000000000002</v>
       </c>
       <c r="K85" s="95">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="24" customHeight="1">
       <c r="A86" s="99" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="81" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D86" s="82" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E86" s="83">
         <v>0</v>
@@ -5305,94 +5248,94 @@
         <v>0</v>
       </c>
       <c r="H86" s="85">
-        <v>9615.3846153846</v>
+        <v>35500</v>
       </c>
       <c r="I86" s="83">
         <v>0</v>
       </c>
       <c r="J86" s="93">
-        <v>384.61538461538464</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="K86" s="95">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="24" customHeight="1">
       <c r="A87" s="99" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="81" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D87" s="82" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E87" s="83">
         <v>0</v>
       </c>
       <c r="F87" s="84" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="G87" s="85">
         <v>0</v>
       </c>
       <c r="H87" s="85">
-        <v>9615.3846153846</v>
+        <v>99400</v>
       </c>
       <c r="I87" s="83">
         <v>0</v>
       </c>
       <c r="J87" s="93">
-        <v>384.61538461538464</v>
+        <v>3976.0000000000005</v>
       </c>
       <c r="K87" s="95">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24" customHeight="1">
       <c r="A88" s="99" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="81" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D88" s="82" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E88" s="83">
         <v>0</v>
       </c>
       <c r="F88" s="84" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="G88" s="85">
         <v>0</v>
       </c>
       <c r="H88" s="85">
-        <v>9615.3846153846</v>
+        <v>40000</v>
       </c>
       <c r="I88" s="83">
         <v>0</v>
       </c>
       <c r="J88" s="93">
-        <v>384.61538461538464</v>
+        <v>1600.0000000000002</v>
       </c>
       <c r="K88" s="95">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="24" customHeight="1">
       <c r="A89" s="99" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="81" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D89" s="82" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E89" s="83">
         <v>0</v>
@@ -5404,94 +5347,94 @@
         <v>0</v>
       </c>
       <c r="H89" s="85">
-        <v>9615.3846153846</v>
+        <v>35500</v>
       </c>
       <c r="I89" s="83">
         <v>0</v>
       </c>
       <c r="J89" s="93">
-        <v>384.61538461538464</v>
+        <v>1420.0000000000005</v>
       </c>
       <c r="K89" s="95">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24" customHeight="1">
       <c r="A90" s="99" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="81" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D90" s="82" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E90" s="83">
         <v>0</v>
       </c>
       <c r="F90" s="84" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="G90" s="85">
         <v>0</v>
       </c>
       <c r="H90" s="85">
-        <v>9615.3846153846</v>
+        <v>200</v>
       </c>
       <c r="I90" s="83">
         <v>0</v>
       </c>
       <c r="J90" s="93">
-        <v>384.61538461538464</v>
+        <v>8</v>
       </c>
       <c r="K90" s="95">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="24" customHeight="1">
       <c r="A91" s="99" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="81" t="s">
         <v>114</v>
       </c>
       <c r="D91" s="82" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E91" s="83">
         <v>0</v>
       </c>
       <c r="F91" s="84" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="G91" s="85">
         <v>0</v>
       </c>
       <c r="H91" s="85">
-        <v>9615.3846153846</v>
+        <v>20000</v>
       </c>
       <c r="I91" s="83">
         <v>0</v>
       </c>
       <c r="J91" s="93">
-        <v>384.61538461538464</v>
+        <v>800.00000000000011</v>
       </c>
       <c r="K91" s="95">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="24" customHeight="1">
       <c r="A92" s="99" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="81" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D92" s="82" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E92" s="83">
         <v>0</v>
@@ -5503,28 +5446,28 @@
         <v>0</v>
       </c>
       <c r="H92" s="85">
-        <v>9615.3846153846</v>
+        <v>10043.956043956028</v>
       </c>
       <c r="I92" s="83">
         <v>0</v>
       </c>
       <c r="J92" s="93">
-        <v>384.61538461538464</v>
+        <v>401.75824175824181</v>
       </c>
       <c r="K92" s="95">
-        <v>24.999999999999936</v>
+        <v>24.999999999999943</v>
       </c>
     </row>
     <row r="93" ht="24" customHeight="1">
       <c r="A93" s="99" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="81" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D93" s="82" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E93" s="83">
         <v>0</v>
@@ -5536,28 +5479,28 @@
         <v>0</v>
       </c>
       <c r="H93" s="85">
-        <v>35500</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="I93" s="83">
         <v>0</v>
       </c>
       <c r="J93" s="93">
-        <v>1420.0000000000005</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="K93" s="95">
-        <v>25</v>
+        <v>24.999999999999936</v>
       </c>
     </row>
     <row r="94" ht="24" customHeight="1">
       <c r="A94" s="99" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="81" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D94" s="82" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E94" s="83">
         <v>0</v>
@@ -5569,28 +5512,28 @@
         <v>0</v>
       </c>
       <c r="H94" s="85">
-        <v>35500</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="I94" s="83">
         <v>0</v>
       </c>
       <c r="J94" s="93">
-        <v>1420.0000000000005</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="K94" s="95">
-        <v>25</v>
+        <v>24.999999999999936</v>
       </c>
     </row>
     <row r="95" ht="24" customHeight="1">
       <c r="A95" s="99" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="81" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D95" s="82" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E95" s="83">
         <v>0</v>
@@ -5602,28 +5545,28 @@
         <v>0</v>
       </c>
       <c r="H95" s="85">
-        <v>35500</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="I95" s="83">
         <v>0</v>
       </c>
       <c r="J95" s="93">
-        <v>1420.0000000000005</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="K95" s="95">
-        <v>25</v>
+        <v>24.999999999999936</v>
       </c>
     </row>
     <row r="96" ht="24" customHeight="1">
       <c r="A96" s="99" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="81" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D96" s="82" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E96" s="83">
         <v>0</v>
@@ -5635,721 +5578,1095 @@
         <v>0</v>
       </c>
       <c r="H96" s="85">
-        <v>35500</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="I96" s="83">
         <v>0</v>
       </c>
       <c r="J96" s="93">
-        <v>1420.0000000000005</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="K96" s="95">
-        <v>25</v>
+        <v>24.999999999999936</v>
       </c>
     </row>
     <row r="97" ht="24" customHeight="1">
       <c r="A97" s="99" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="81" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D97" s="82" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E97" s="83">
         <v>0</v>
       </c>
       <c r="F97" s="84" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="G97" s="85">
         <v>0</v>
       </c>
       <c r="H97" s="85">
-        <v>40000</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="I97" s="83">
         <v>0</v>
       </c>
       <c r="J97" s="93">
-        <v>1600.0000000000002</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="K97" s="95">
-        <v>25</v>
+        <v>24.999999999999936</v>
       </c>
     </row>
     <row r="98" ht="24" customHeight="1">
       <c r="A98" s="99" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="81" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D98" s="82" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E98" s="83">
         <v>0</v>
       </c>
       <c r="F98" s="84" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="G98" s="85">
         <v>0</v>
       </c>
       <c r="H98" s="85">
-        <v>40000</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="I98" s="83">
         <v>0</v>
       </c>
       <c r="J98" s="93">
-        <v>1600.0000000000002</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="K98" s="95">
-        <v>25</v>
+        <v>24.999999999999936</v>
       </c>
     </row>
     <row r="99" ht="24" customHeight="1">
       <c r="A99" s="99" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="81" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D99" s="82" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E99" s="83">
         <v>0</v>
       </c>
       <c r="F99" s="84" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="G99" s="85">
         <v>0</v>
       </c>
       <c r="H99" s="85">
-        <v>20000</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="I99" s="83">
         <v>0</v>
       </c>
       <c r="J99" s="93">
-        <v>800.00000000000011</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="K99" s="95">
-        <v>25</v>
+        <v>24.999999999999936</v>
       </c>
     </row>
     <row r="100" ht="24" customHeight="1">
       <c r="A100" s="99" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="81" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D100" s="82" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E100" s="83">
         <v>0</v>
       </c>
       <c r="F100" s="84" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="G100" s="85">
         <v>0</v>
       </c>
       <c r="H100" s="85">
-        <v>40000</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="I100" s="83">
         <v>0</v>
       </c>
       <c r="J100" s="93">
-        <v>1600.0000000000002</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="K100" s="95">
-        <v>25</v>
+        <v>24.999999999999936</v>
       </c>
     </row>
     <row r="101" ht="24" customHeight="1">
       <c r="A101" s="99" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="81" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D101" s="82" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E101" s="83">
         <v>0</v>
       </c>
       <c r="F101" s="84" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="G101" s="85">
         <v>0</v>
       </c>
       <c r="H101" s="85">
-        <v>40000</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="I101" s="83">
         <v>0</v>
       </c>
       <c r="J101" s="93">
-        <v>1600.0000000000002</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="K101" s="95">
-        <v>25</v>
+        <v>24.999999999999936</v>
       </c>
     </row>
     <row r="102" ht="24" customHeight="1">
       <c r="A102" s="99" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="81" t="s">
         <v>114</v>
       </c>
       <c r="D102" s="82" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E102" s="83">
         <v>0</v>
       </c>
       <c r="F102" s="84" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="G102" s="85">
         <v>0</v>
       </c>
       <c r="H102" s="85">
-        <v>20000</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="I102" s="83">
         <v>0</v>
       </c>
       <c r="J102" s="93">
-        <v>800.00000000000011</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="K102" s="95">
-        <v>25</v>
+        <v>24.999999999999936</v>
       </c>
     </row>
     <row r="103" ht="24" customHeight="1">
       <c r="A103" s="99" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="81" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D103" s="82" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E103" s="83">
         <v>0</v>
       </c>
       <c r="F103" s="84" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="G103" s="85">
         <v>0</v>
       </c>
       <c r="H103" s="85">
-        <v>200</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="I103" s="83">
         <v>0</v>
       </c>
       <c r="J103" s="93">
-        <v>8</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="K103" s="95">
-        <v>25</v>
+        <v>24.999999999999936</v>
       </c>
     </row>
     <row r="104" ht="24" customHeight="1">
       <c r="A104" s="99" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="81" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D104" s="82" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E104" s="83">
         <v>0</v>
       </c>
       <c r="F104" s="84" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="G104" s="85">
         <v>0</v>
       </c>
       <c r="H104" s="85">
-        <v>400</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="I104" s="83">
         <v>0</v>
       </c>
       <c r="J104" s="93">
-        <v>16</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="K104" s="95">
-        <v>25</v>
+        <v>24.999999999999936</v>
       </c>
     </row>
     <row r="105" ht="24" customHeight="1">
       <c r="A105" s="99" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="81" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D105" s="82" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E105" s="83">
         <v>0</v>
       </c>
       <c r="F105" s="84" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="G105" s="85">
         <v>0</v>
       </c>
       <c r="H105" s="85">
-        <v>99400</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="I105" s="83">
         <v>0</v>
       </c>
       <c r="J105" s="93">
-        <v>3976.0000000000005</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="K105" s="95">
-        <v>25</v>
+        <v>24.999999999999936</v>
       </c>
     </row>
     <row r="106" ht="24" customHeight="1">
       <c r="A106" s="99" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="81" t="s">
         <v>114</v>
       </c>
       <c r="D106" s="82" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E106" s="83">
         <v>0</v>
       </c>
       <c r="F106" s="84" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="G106" s="85">
         <v>0</v>
       </c>
       <c r="H106" s="85">
-        <v>200</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="I106" s="83">
         <v>0</v>
       </c>
       <c r="J106" s="93">
-        <v>8</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="K106" s="95">
-        <v>25</v>
+        <v>24.999999999999936</v>
       </c>
     </row>
     <row r="107" ht="24" customHeight="1">
       <c r="A107" s="99" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="81" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D107" s="82" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E107" s="83">
         <v>0</v>
       </c>
       <c r="F107" s="84" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="G107" s="85">
         <v>0</v>
       </c>
       <c r="H107" s="85">
-        <v>400</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="I107" s="83">
         <v>0</v>
       </c>
       <c r="J107" s="93">
-        <v>16</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="K107" s="95">
-        <v>25</v>
+        <v>24.999999999999936</v>
       </c>
     </row>
     <row r="108" ht="24" customHeight="1">
       <c r="A108" s="99" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="81" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D108" s="82" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E108" s="83">
         <v>0</v>
       </c>
       <c r="F108" s="84" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="G108" s="85">
         <v>0</v>
       </c>
       <c r="H108" s="85">
-        <v>99400</v>
+        <v>9615.3846153846</v>
       </c>
       <c r="I108" s="83">
         <v>0</v>
       </c>
       <c r="J108" s="93">
-        <v>3976.0000000000005</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="K108" s="95">
-        <v>25</v>
+        <v>24.999999999999936</v>
       </c>
     </row>
     <row r="109" ht="24" customHeight="1">
       <c r="A109" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="C109" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="D109" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="E109" s="83">
+        <v>0</v>
+      </c>
+      <c r="F109" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="G109" s="85">
+        <v>0</v>
+      </c>
+      <c r="H109" s="85">
+        <v>9615.3846153846</v>
+      </c>
+      <c r="I109" s="83">
+        <v>0</v>
+      </c>
+      <c r="J109" s="93">
+        <v>384.61538461538464</v>
+      </c>
+      <c r="K109" s="95">
+        <v>24.999999999999936</v>
+      </c>
+    </row>
+    <row r="110" ht="24" customHeight="1">
+      <c r="A110" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="B109" s="4"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="91" t="s">
+      <c r="B110" s="4"/>
+      <c r="C110" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="D110" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="E110" s="83">
+        <v>0</v>
+      </c>
+      <c r="F110" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="G110" s="85">
+        <v>0</v>
+      </c>
+      <c r="H110" s="85">
+        <v>9615.3846153846</v>
+      </c>
+      <c r="I110" s="83">
+        <v>0</v>
+      </c>
+      <c r="J110" s="93">
+        <v>384.61538461538464</v>
+      </c>
+      <c r="K110" s="95">
+        <v>24.999999999999936</v>
+      </c>
+    </row>
+    <row r="111" ht="24" customHeight="1">
+      <c r="A111" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" s="4"/>
+      <c r="C111" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="D111" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="E111" s="83">
+        <v>0</v>
+      </c>
+      <c r="F111" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="G111" s="85">
+        <v>0</v>
+      </c>
+      <c r="H111" s="85">
+        <v>9615.3846153846</v>
+      </c>
+      <c r="I111" s="83">
+        <v>0</v>
+      </c>
+      <c r="J111" s="93">
+        <v>384.61538461538464</v>
+      </c>
+      <c r="K111" s="95">
+        <v>24.999999999999936</v>
+      </c>
+    </row>
+    <row r="112" ht="24" customHeight="1">
+      <c r="A112" s="99" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="4"/>
+      <c r="C112" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="D112" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="E112" s="83">
+        <v>0</v>
+      </c>
+      <c r="F112" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="G112" s="85">
+        <v>0</v>
+      </c>
+      <c r="H112" s="85">
+        <v>9615.3846153846</v>
+      </c>
+      <c r="I112" s="83">
+        <v>0</v>
+      </c>
+      <c r="J112" s="93">
+        <v>384.61538461538464</v>
+      </c>
+      <c r="K112" s="95">
+        <v>24.999999999999936</v>
+      </c>
+    </row>
+    <row r="113" ht="24" customHeight="1">
+      <c r="A113" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" s="4"/>
+      <c r="C113" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="D113" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="E113" s="83">
+        <v>0</v>
+      </c>
+      <c r="F113" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="G113" s="85">
+        <v>0</v>
+      </c>
+      <c r="H113" s="85">
+        <v>9615.3846153846</v>
+      </c>
+      <c r="I113" s="83">
+        <v>0</v>
+      </c>
+      <c r="J113" s="93">
+        <v>384.61538461538464</v>
+      </c>
+      <c r="K113" s="95">
+        <v>24.999999999999936</v>
+      </c>
+    </row>
+    <row r="114" ht="24" customHeight="1">
+      <c r="A114" s="99" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" s="4"/>
+      <c r="C114" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="D114" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="E109" s="97">
-        <v>0</v>
-      </c>
-      <c r="F109" s="90" t="s">
+      <c r="E114" s="83">
+        <v>0</v>
+      </c>
+      <c r="F114" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="G114" s="85">
+        <v>0</v>
+      </c>
+      <c r="H114" s="85">
+        <v>9615.3846153846</v>
+      </c>
+      <c r="I114" s="83">
+        <v>0</v>
+      </c>
+      <c r="J114" s="93">
+        <v>384.61538461538464</v>
+      </c>
+      <c r="K114" s="95">
+        <v>24.999999999999936</v>
+      </c>
+    </row>
+    <row r="115" ht="24" customHeight="1">
+      <c r="A115" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" s="4"/>
+      <c r="C115" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="E115" s="83">
+        <v>0</v>
+      </c>
+      <c r="F115" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="G115" s="85">
+        <v>0</v>
+      </c>
+      <c r="H115" s="85">
+        <v>9615.3846153846</v>
+      </c>
+      <c r="I115" s="83">
+        <v>0</v>
+      </c>
+      <c r="J115" s="93">
+        <v>384.61538461538464</v>
+      </c>
+      <c r="K115" s="95">
+        <v>24.999999999999936</v>
+      </c>
+    </row>
+    <row r="116" ht="24" customHeight="1">
+      <c r="C116" s="39"/>
+      <c r="D116" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="E116" s="97">
+        <v>0</v>
+      </c>
+      <c r="F116" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="G109" s="96" t="s">
+      <c r="G116" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="H109" s="89">
+      <c r="H116" s="89">
         <v>792857.14285714237</v>
       </c>
-      <c r="I109" s="90" t="s">
+      <c r="I116" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="J109" s="94">
-        <v>31714.285714285717</v>
-      </c>
-      <c r="K109" s="98">
-        <v>24.999999999999996</v>
-      </c>
-    </row>
-    <row r="111" ht="24" customHeight="1">
-      <c r="C111" s="53" t="s">
+      <c r="J116" s="94">
+        <v>31714.285714285761</v>
+      </c>
+      <c r="K116" s="98">
+        <v>24.999999999999918</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="C118" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="H118" s="30"/>
+      <c r="I118" s="30"/>
+      <c r="J118" s="30"/>
+      <c r="K118" s="30"/>
+      <c r="L118" s="60"/>
+      <c r="M118" s="60"/>
+      <c r="N118" s="60"/>
+      <c r="O118" s="60"/>
+      <c r="P118" s="60"/>
+      <c r="Q118" s="60"/>
+      <c r="R118" s="60"/>
+      <c r="S118" s="60"/>
+      <c r="T118" s="60"/>
+    </row>
+    <row r="119" ht="24" customHeight="1">
+      <c r="A119" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="C119" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="D119" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="E119" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="G119" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="H119" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I119" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="J119" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="K119" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="M119" s="60"/>
+      <c r="N119" s="60"/>
+      <c r="O119" s="60"/>
+      <c r="P119" s="60"/>
+      <c r="Q119" s="60"/>
+      <c r="R119" s="60"/>
+      <c r="S119" s="60"/>
+      <c r="T119" s="60"/>
+    </row>
+    <row r="120" ht="24" customHeight="1">
+      <c r="A120" s="99" t="s">
+        <v>113</v>
+      </c>
+      <c r="B120" s="4"/>
+      <c r="C120" s="81"/>
+      <c r="D120" s="82">
+        <v>43920</v>
+      </c>
+      <c r="E120" s="83">
+        <v>1</v>
+      </c>
+      <c r="F120" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="G120" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="H120" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="I120" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="J120" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="K120" s="95" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" ht="24" customHeight="1">
+      <c r="A121" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="B121" s="4"/>
+      <c r="C121" s="81"/>
+      <c r="D121" s="82">
+        <v>43927</v>
+      </c>
+      <c r="E121" s="83">
+        <v>1</v>
+      </c>
+      <c r="F121" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="G121" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="H121" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="I121" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="J121" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="K121" s="95" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122" ht="24" customHeight="1">
+      <c r="C122" s="39"/>
+      <c r="D122" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="I111" s="60"/>
-    </row>
-    <row r="112" ht="24" customHeight="1">
-      <c r="C112" s="100" t="s">
+      <c r="E122" s="97">
+        <v>2</v>
+      </c>
+      <c r="F122" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G122" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="H122" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="I122" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="J122" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="K122" s="98" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" ht="24" customHeight="1">
+      <c r="C124" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="I124" s="60"/>
+    </row>
+    <row r="125" ht="24" customHeight="1">
+      <c r="C125" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="D112" s="101" t="s">
+      <c r="D125" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="E112" s="101"/>
-      <c r="F112" s="101" t="s">
+      <c r="E125" s="101"/>
+      <c r="F125" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="G112" s="101"/>
-      <c r="H112" s="101" t="s">
+      <c r="G125" s="101"/>
+      <c r="H125" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="I112" s="102"/>
-    </row>
-    <row r="113" ht="24" customHeight="1">
-      <c r="C113" s="103">
-        <v>0</v>
-      </c>
-      <c r="D113" s="105">
+      <c r="I125" s="102"/>
+    </row>
+    <row r="126" ht="24" customHeight="1">
+      <c r="C126" s="103">
+        <v>0</v>
+      </c>
+      <c r="D126" s="105">
         <v>1999999.9999999991</v>
       </c>
-      <c r="E113" s="105"/>
-      <c r="F113" s="104">
-        <v>79999.999999999971</v>
-      </c>
-      <c r="G113" s="104"/>
-      <c r="H113" s="107">
-        <v>24.999999999999989</v>
-      </c>
-      <c r="I113" s="106"/>
-    </row>
-    <row r="114" ht="42.95" customHeight="1">
-      <c r="C114" s="110"/>
-      <c r="D114" s="111"/>
-      <c r="E114" s="111"/>
-      <c r="F114" s="112"/>
-      <c r="G114" s="112"/>
-      <c r="H114" s="108"/>
-      <c r="I114" s="108"/>
-    </row>
-    <row r="115" ht="24" customHeight="1">
-      <c r="C115" s="113" t="s">
-        <v>152</v>
-      </c>
-      <c r="D115" s="109"/>
-      <c r="E115" s="109"/>
-      <c r="F115" s="112"/>
-      <c r="G115" s="114" t="s">
+      <c r="E126" s="105"/>
+      <c r="F126" s="104">
+        <v>80000.000000000146</v>
+      </c>
+      <c r="G126" s="104"/>
+      <c r="H126" s="107">
+        <v>24.999999999999957</v>
+      </c>
+      <c r="I126" s="106"/>
+    </row>
+    <row r="127" ht="42.95" customHeight="1">
+      <c r="C127" s="110"/>
+      <c r="D127" s="111"/>
+      <c r="E127" s="111"/>
+      <c r="F127" s="112"/>
+      <c r="G127" s="112"/>
+      <c r="H127" s="108"/>
+      <c r="I127" s="108"/>
+    </row>
+    <row r="128" ht="24" customHeight="1">
+      <c r="C128" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="H115" s="109"/>
-      <c r="I115" s="115"/>
-    </row>
-    <row r="116" ht="39.95" customHeight="1">
-      <c r="C116" s="110"/>
-      <c r="D116" s="111"/>
-      <c r="E116" s="111"/>
-      <c r="F116" s="112"/>
-      <c r="G116" s="112"/>
-      <c r="H116" s="108"/>
-      <c r="I116" s="108"/>
-    </row>
-    <row r="117" ht="48" customHeight="1" s="99" customFormat="1">
-      <c r="C117" s="55" t="s">
+      <c r="D128" s="109"/>
+      <c r="E128" s="109"/>
+      <c r="F128" s="112"/>
+      <c r="G128" s="114" t="s">
+        <v>154</v>
+      </c>
+      <c r="H128" s="109"/>
+      <c r="I128" s="115"/>
+    </row>
+    <row r="129" ht="39.95" customHeight="1">
+      <c r="C129" s="110"/>
+      <c r="D129" s="111"/>
+      <c r="E129" s="111"/>
+      <c r="F129" s="112"/>
+      <c r="G129" s="112"/>
+      <c r="H129" s="108"/>
+      <c r="I129" s="108"/>
+    </row>
+    <row r="130" ht="48" customHeight="1" s="99" customFormat="1">
+      <c r="C130" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D117" s="136" t="str">
+      <c r="D130" s="136" t="str">
         <f>'PROPOSAL'!F49</f>
         <v>~80% Minimum TV HH Coverage | Blackout Markets: Lansing, Wilmington, Presque Isle | Preferential Markets: Philadelphia, Macon, New York, Binghamton</v>
       </c>
-      <c r="E117" s="136"/>
-      <c r="F117" s="136"/>
-      <c r="G117" s="136"/>
-      <c r="H117" s="136"/>
-      <c r="I117" s="136"/>
-      <c r="J117" s="136"/>
-      <c r="K117" s="136"/>
-      <c r="L117" s="126"/>
-      <c r="M117" s="126"/>
-      <c r="N117" s="126"/>
-      <c r="O117" s="126"/>
-      <c r="P117" s="126"/>
-      <c r="Q117" s="126"/>
-      <c r="R117" s="126"/>
-    </row>
-    <row r="118" ht="8.1" customHeight="1" s="99" customFormat="1">
-      <c r="C118" s="2"/>
-      <c r="D118" s="127"/>
-      <c r="E118" s="127"/>
-      <c r="F118" s="127"/>
-      <c r="G118" s="127"/>
-      <c r="H118" s="127"/>
-      <c r="I118" s="127"/>
-      <c r="J118" s="127"/>
-      <c r="K118" s="127"/>
-      <c r="L118" s="76"/>
-      <c r="M118" s="76"/>
-      <c r="N118" s="76"/>
-      <c r="O118" s="76"/>
-      <c r="P118" s="76"/>
-      <c r="Q118" s="76"/>
-      <c r="R118" s="76"/>
-    </row>
-    <row r="119" ht="48" customHeight="1" s="117" customFormat="1">
-      <c r="C119" s="55" t="s">
+      <c r="E130" s="136"/>
+      <c r="F130" s="136"/>
+      <c r="G130" s="136"/>
+      <c r="H130" s="136"/>
+      <c r="I130" s="136"/>
+      <c r="J130" s="136"/>
+      <c r="K130" s="136"/>
+      <c r="L130" s="126"/>
+      <c r="M130" s="126"/>
+      <c r="N130" s="126"/>
+      <c r="O130" s="126"/>
+      <c r="P130" s="126"/>
+      <c r="Q130" s="126"/>
+      <c r="R130" s="126"/>
+    </row>
+    <row r="131" ht="8.1" customHeight="1" s="99" customFormat="1">
+      <c r="C131" s="2"/>
+      <c r="D131" s="127"/>
+      <c r="E131" s="127"/>
+      <c r="F131" s="127"/>
+      <c r="G131" s="127"/>
+      <c r="H131" s="127"/>
+      <c r="I131" s="127"/>
+      <c r="J131" s="127"/>
+      <c r="K131" s="127"/>
+      <c r="L131" s="76"/>
+      <c r="M131" s="76"/>
+      <c r="N131" s="76"/>
+      <c r="O131" s="76"/>
+      <c r="P131" s="76"/>
+      <c r="Q131" s="76"/>
+      <c r="R131" s="76"/>
+    </row>
+    <row r="132" ht="48" customHeight="1" s="117" customFormat="1">
+      <c r="C132" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D119" s="136" t="str">
+      <c r="D132" s="136" t="str">
         <f>'PROPOSAL'!F51</f>
         <v>EF - M-SU 03:00pm - 06:00pm, EF - M-TU,TH-SU 03:00pm - 06:00pm, EM - M-SU 06:00am - 09:00am, EM - M-TU,TH-SU 06:00am - 09:00am, MDN - M-F,SU 11:00am - 01:00pm, MDN - M-SU 11:00am - 01:00pm, MDN - M-TU,TH-SU 11:00am - 01:00pm, PA - M-F,SU 06:00pm - 08:00pm</v>
       </c>
-      <c r="E119" s="136"/>
-      <c r="F119" s="136"/>
-      <c r="G119" s="136"/>
-      <c r="H119" s="136"/>
-      <c r="I119" s="136"/>
-      <c r="J119" s="136"/>
-      <c r="K119" s="136"/>
-      <c r="L119" s="126"/>
-      <c r="M119" s="126"/>
-      <c r="N119" s="126"/>
-      <c r="O119" s="126"/>
-      <c r="P119" s="126"/>
-      <c r="Q119" s="126"/>
-      <c r="R119" s="126"/>
-    </row>
-    <row r="120" ht="8.1" customHeight="1" s="99" customFormat="1">
-      <c r="C120" s="2"/>
-      <c r="D120" s="128"/>
-      <c r="E120" s="128"/>
-      <c r="F120" s="128"/>
-      <c r="G120" s="128"/>
-      <c r="H120" s="128"/>
-      <c r="I120" s="128"/>
-      <c r="J120" s="128"/>
-      <c r="K120" s="128"/>
-      <c r="L120" s="118"/>
-      <c r="M120" s="118"/>
-      <c r="N120" s="118"/>
-      <c r="O120" s="118"/>
-      <c r="P120" s="118"/>
-      <c r="Q120" s="118"/>
-      <c r="R120" s="118"/>
-    </row>
-    <row r="121" ht="48" customHeight="1" s="99" customFormat="1">
-      <c r="C121" s="55" t="s">
+      <c r="E132" s="136"/>
+      <c r="F132" s="136"/>
+      <c r="G132" s="136"/>
+      <c r="H132" s="136"/>
+      <c r="I132" s="136"/>
+      <c r="J132" s="136"/>
+      <c r="K132" s="136"/>
+      <c r="L132" s="126"/>
+      <c r="M132" s="126"/>
+      <c r="N132" s="126"/>
+      <c r="O132" s="126"/>
+      <c r="P132" s="126"/>
+      <c r="Q132" s="126"/>
+      <c r="R132" s="126"/>
+    </row>
+    <row r="133" ht="8.1" customHeight="1" s="99" customFormat="1">
+      <c r="C133" s="2"/>
+      <c r="D133" s="128"/>
+      <c r="E133" s="128"/>
+      <c r="F133" s="128"/>
+      <c r="G133" s="128"/>
+      <c r="H133" s="128"/>
+      <c r="I133" s="128"/>
+      <c r="J133" s="128"/>
+      <c r="K133" s="128"/>
+      <c r="L133" s="118"/>
+      <c r="M133" s="118"/>
+      <c r="N133" s="118"/>
+      <c r="O133" s="118"/>
+      <c r="P133" s="118"/>
+      <c r="Q133" s="118"/>
+      <c r="R133" s="118"/>
+    </row>
+    <row r="134" ht="48" customHeight="1" s="99" customFormat="1">
+      <c r="C134" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="D121" s="136" t="s">
-        <v>154</v>
-      </c>
-      <c r="E121" s="136"/>
-      <c r="F121" s="136"/>
-      <c r="G121" s="136"/>
-      <c r="H121" s="136"/>
-      <c r="I121" s="136"/>
-      <c r="J121" s="136"/>
-      <c r="K121" s="136"/>
-      <c r="L121" s="126"/>
-      <c r="M121" s="126"/>
-      <c r="N121" s="126"/>
-      <c r="O121" s="126"/>
-      <c r="P121" s="126"/>
-      <c r="Q121" s="126"/>
-      <c r="R121" s="126"/>
-    </row>
-    <row r="122" ht="8.1" customHeight="1" s="99" customFormat="1">
-      <c r="C122" s="2"/>
-      <c r="D122" s="128"/>
-      <c r="E122" s="128"/>
-      <c r="F122" s="128"/>
-      <c r="G122" s="128"/>
-      <c r="H122" s="128"/>
-      <c r="I122" s="128"/>
-      <c r="J122" s="128"/>
-      <c r="K122" s="128"/>
-      <c r="L122" s="118"/>
-      <c r="M122" s="118"/>
-      <c r="N122" s="118"/>
-      <c r="O122" s="118"/>
-      <c r="P122" s="118"/>
-      <c r="Q122" s="118"/>
-      <c r="R122" s="118"/>
-    </row>
-    <row r="123" ht="48.95" customHeight="1" s="117" customFormat="1">
-      <c r="C123" s="55" t="s">
+      <c r="D134" s="136" t="s">
+        <v>155</v>
+      </c>
+      <c r="E134" s="136"/>
+      <c r="F134" s="136"/>
+      <c r="G134" s="136"/>
+      <c r="H134" s="136"/>
+      <c r="I134" s="136"/>
+      <c r="J134" s="136"/>
+      <c r="K134" s="136"/>
+      <c r="L134" s="126"/>
+      <c r="M134" s="126"/>
+      <c r="N134" s="126"/>
+      <c r="O134" s="126"/>
+      <c r="P134" s="126"/>
+      <c r="Q134" s="126"/>
+      <c r="R134" s="126"/>
+    </row>
+    <row r="135" ht="8.1" customHeight="1" s="99" customFormat="1">
+      <c r="C135" s="2"/>
+      <c r="D135" s="128"/>
+      <c r="E135" s="128"/>
+      <c r="F135" s="128"/>
+      <c r="G135" s="128"/>
+      <c r="H135" s="128"/>
+      <c r="I135" s="128"/>
+      <c r="J135" s="128"/>
+      <c r="K135" s="128"/>
+      <c r="L135" s="118"/>
+      <c r="M135" s="118"/>
+      <c r="N135" s="118"/>
+      <c r="O135" s="118"/>
+      <c r="P135" s="118"/>
+      <c r="Q135" s="118"/>
+      <c r="R135" s="118"/>
+    </row>
+    <row r="136" ht="48.95" customHeight="1" s="117" customFormat="1">
+      <c r="C136" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D123" s="136" t="str">
+      <c r="D136" s="136" t="str">
         <f>'PROPOSAL'!F55</f>
         <v>3/19-3/20/20, 3/24/20, 3/28/20, 4/7/20, 4/9-3/17/20, 3/21/20, 3/26/20, 4/8-3/27/20, 3/29/20</v>
       </c>
-      <c r="E123" s="136"/>
-      <c r="F123" s="136"/>
-      <c r="G123" s="136"/>
-      <c r="H123" s="136"/>
-      <c r="I123" s="136"/>
-      <c r="J123" s="136"/>
-      <c r="K123" s="136"/>
-      <c r="L123" s="126"/>
-      <c r="M123" s="126"/>
-      <c r="N123" s="126"/>
-      <c r="O123" s="126"/>
-      <c r="P123" s="126"/>
-      <c r="Q123" s="126"/>
-      <c r="R123" s="126"/>
-    </row>
-    <row r="124" ht="8.1" customHeight="1" s="99" customFormat="1">
-      <c r="C124" s="2"/>
-      <c r="D124" s="128"/>
-      <c r="E124" s="128"/>
-      <c r="F124" s="128"/>
-      <c r="G124" s="128"/>
-      <c r="H124" s="128"/>
-      <c r="I124" s="128"/>
-      <c r="J124" s="128"/>
-      <c r="K124" s="128"/>
-      <c r="L124" s="118"/>
-      <c r="M124" s="118"/>
-      <c r="N124" s="118"/>
-      <c r="O124" s="118"/>
-      <c r="P124" s="118"/>
-      <c r="Q124" s="118"/>
-      <c r="R124" s="118"/>
-    </row>
-    <row r="125" ht="147" customHeight="1" s="99" customFormat="1">
-      <c r="C125" s="55" t="s">
+      <c r="E136" s="136"/>
+      <c r="F136" s="136"/>
+      <c r="G136" s="136"/>
+      <c r="H136" s="136"/>
+      <c r="I136" s="136"/>
+      <c r="J136" s="136"/>
+      <c r="K136" s="136"/>
+      <c r="L136" s="126"/>
+      <c r="M136" s="126"/>
+      <c r="N136" s="126"/>
+      <c r="O136" s="126"/>
+      <c r="P136" s="126"/>
+      <c r="Q136" s="126"/>
+      <c r="R136" s="126"/>
+    </row>
+    <row r="137" ht="8.1" customHeight="1" s="99" customFormat="1">
+      <c r="C137" s="2"/>
+      <c r="D137" s="128"/>
+      <c r="E137" s="128"/>
+      <c r="F137" s="128"/>
+      <c r="G137" s="128"/>
+      <c r="H137" s="128"/>
+      <c r="I137" s="128"/>
+      <c r="J137" s="128"/>
+      <c r="K137" s="128"/>
+      <c r="L137" s="118"/>
+      <c r="M137" s="118"/>
+      <c r="N137" s="118"/>
+      <c r="O137" s="118"/>
+      <c r="P137" s="118"/>
+      <c r="Q137" s="118"/>
+      <c r="R137" s="118"/>
+    </row>
+    <row r="138" ht="147" customHeight="1" s="99" customFormat="1">
+      <c r="C138" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D125" s="136" t="str">
+      <c r="D138" s="136" t="str">
         <f>'PROPOSAL'!F57</f>
         <v>All CPMs are derived from 100% broadcast deliveries, no cable unless otherwise noted.</v>
       </c>
-      <c r="E125" s="136"/>
-      <c r="F125" s="136"/>
-      <c r="G125" s="136"/>
-      <c r="H125" s="136"/>
-      <c r="I125" s="136"/>
-      <c r="J125" s="136"/>
-      <c r="K125" s="136"/>
-      <c r="L125" s="77"/>
-      <c r="M125" s="77"/>
-      <c r="N125" s="77"/>
-      <c r="O125" s="77"/>
-      <c r="P125" s="77"/>
-      <c r="Q125" s="77"/>
-      <c r="R125" s="77"/>
-    </row>
-    <row r="126" ht="24" customHeight="1">
-      <c r="D126" s="135"/>
-      <c r="E126" s="135"/>
-      <c r="F126" s="135"/>
-      <c r="G126" s="135"/>
-      <c r="H126" s="135"/>
-      <c r="I126" s="135"/>
-      <c r="J126" s="135"/>
-      <c r="K126" s="135"/>
+      <c r="E138" s="136"/>
+      <c r="F138" s="136"/>
+      <c r="G138" s="136"/>
+      <c r="H138" s="136"/>
+      <c r="I138" s="136"/>
+      <c r="J138" s="136"/>
+      <c r="K138" s="136"/>
+      <c r="L138" s="77"/>
+      <c r="M138" s="77"/>
+      <c r="N138" s="77"/>
+      <c r="O138" s="77"/>
+      <c r="P138" s="77"/>
+      <c r="Q138" s="77"/>
+      <c r="R138" s="77"/>
+    </row>
+    <row r="139" ht="24" customHeight="1">
+      <c r="D139" s="135"/>
+      <c r="E139" s="135"/>
+      <c r="F139" s="135"/>
+      <c r="G139" s="135"/>
+      <c r="H139" s="135"/>
+      <c r="I139" s="135"/>
+      <c r="J139" s="135"/>
+      <c r="K139" s="135"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D126:K126"/>
-    <mergeCell ref="D125:K125"/>
-    <mergeCell ref="D117:K117"/>
-    <mergeCell ref="D119:K119"/>
-    <mergeCell ref="D121:K121"/>
-    <mergeCell ref="D123:K123"/>
+    <mergeCell ref="D139:K139"/>
+    <mergeCell ref="D138:K138"/>
+    <mergeCell ref="D130:K130"/>
+    <mergeCell ref="D132:K132"/>
+    <mergeCell ref="D134:K134"/>
+    <mergeCell ref="D136:K136"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:K1048576">
     <cfRule type="expression" dxfId="0" priority="5">
@@ -18815,97 +19132,97 @@
     <row r="1" ht="18" customHeight="1"/>
     <row r="2" ht="27.95" customHeight="1">
       <c r="D2" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
     <row r="4" ht="104.1" customHeight="1" s="116" customFormat="1">
       <c r="C4" s="144" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D4" s="144"/>
     </row>
     <row r="5" ht="110.1" customHeight="1" s="116" customFormat="1">
       <c r="C5" s="144" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D5" s="144"/>
     </row>
     <row r="6" ht="209.1" customHeight="1" s="116" customFormat="1">
       <c r="C6" s="144" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D6" s="144"/>
     </row>
     <row r="7" ht="89.1" customHeight="1" s="116" customFormat="1">
       <c r="C7" s="144" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D7" s="144"/>
     </row>
     <row r="8" ht="150" customHeight="1" s="116" customFormat="1">
       <c r="C8" s="144" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D8" s="144"/>
     </row>
     <row r="9" ht="200.1" customHeight="1" s="116" customFormat="1">
       <c r="C9" s="144" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D9" s="144"/>
     </row>
     <row r="10" ht="147.95" customHeight="1" s="116" customFormat="1">
       <c r="C10" s="144" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D10" s="144"/>
     </row>
     <row r="11" ht="134.1" customHeight="1" s="116" customFormat="1">
       <c r="C11" s="144" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D11" s="144"/>
     </row>
     <row r="12" ht="54" customHeight="1" s="116" customFormat="1">
       <c r="C12" s="144" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D12" s="144"/>
     </row>
     <row r="13" ht="69.95" customHeight="1" s="116" customFormat="1">
       <c r="C13" s="144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D13" s="144"/>
     </row>
     <row r="14" ht="128.1" customHeight="1" s="116" customFormat="1">
       <c r="C14" s="144" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D14" s="144"/>
     </row>
     <row r="15" ht="51.95" customHeight="1" s="116" customFormat="1">
       <c r="C15" s="144" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D15" s="144"/>
     </row>
     <row r="16" ht="84" customHeight="1" s="116" customFormat="1">
       <c r="C16" s="144" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D16" s="144"/>
     </row>
     <row r="17" ht="69.95" customHeight="1" s="116" customFormat="1">
       <c r="C17" s="144" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D17" s="144"/>
     </row>
     <row r="18" ht="180" customHeight="1" s="116" customFormat="1">
       <c r="C18" s="144" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D18" s="144"/>
     </row>
@@ -18966,10 +19283,10 @@
     <row r="2" ht="27.95" customHeight="1">
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -19004,24 +19321,24 @@
     </row>
     <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
       <c r="C5" s="134" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D5" s="134"/>
       <c r="E5" s="134" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F5" s="134"/>
       <c r="G5" s="134"/>
       <c r="H5" s="134" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I5" s="134"/>
       <c r="J5" s="134" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K5" s="134"/>
       <c r="L5" s="134" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M5" s="134"/>
       <c r="N5" s="76" t="s">
@@ -19033,7 +19350,7 @@
       <c r="R5" s="134"/>
       <c r="S5" s="134"/>
       <c r="T5" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -19068,7 +19385,7 @@
       <c r="L7" s="139"/>
       <c r="M7" s="140"/>
       <c r="N7" s="138" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O7" s="139"/>
       <c r="P7" s="139"/>
@@ -19086,7 +19403,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>23</v>
@@ -19146,7 +19463,7 @@
         <v>114</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E9" s="119">
         <v>0</v>
@@ -19206,7 +19523,7 @@
         <v>118</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E10" s="119">
         <v>0</v>
@@ -19263,10 +19580,10 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E11" s="119">
         <v>0</v>
@@ -19323,10 +19640,10 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E12" s="119">
         <v>0</v>
@@ -19383,10 +19700,10 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="E13" s="119">
         <v>0</v>
@@ -19443,10 +19760,10 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="E14" s="119">
         <v>0</v>
@@ -19506,7 +19823,7 @@
         <v>114</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="E15" s="119">
         <v>0</v>
@@ -19623,7 +19940,7 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>182</v>
@@ -19683,7 +20000,7 @@
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>182</v>
@@ -19794,7 +20111,7 @@
     </row>
     <row r="21" ht="24" customHeight="1">
       <c r="C21" s="53" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D21" s="53"/>
       <c r="E21" s="7"/>
@@ -19809,7 +20126,7 @@
       <c r="L21" s="139"/>
       <c r="M21" s="140"/>
       <c r="N21" s="138" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O21" s="139"/>
       <c r="P21" s="139"/>
@@ -19827,7 +20144,7 @@
         <v>22</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E22" s="40" t="s">
         <v>23</v>
@@ -19887,7 +20204,7 @@
         <v>114</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E23" s="119">
         <v>0</v>
@@ -19947,7 +20264,7 @@
         <v>118</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E24" s="119">
         <v>0</v>
@@ -20004,10 +20321,10 @@
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E25" s="119">
         <v>0</v>
@@ -20064,10 +20381,10 @@
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E26" s="119">
         <v>0</v>
@@ -20124,10 +20441,10 @@
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="E27" s="119">
         <v>0</v>
@@ -20184,10 +20501,10 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="E28" s="119">
         <v>0</v>
@@ -20247,7 +20564,7 @@
         <v>114</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="E29" s="119">
         <v>0</v>
@@ -20364,7 +20681,7 @@
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>182</v>
@@ -20424,7 +20741,7 @@
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>182</v>
@@ -20550,7 +20867,7 @@
       <c r="L35" s="139"/>
       <c r="M35" s="140"/>
       <c r="N35" s="138" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O35" s="139"/>
       <c r="P35" s="139"/>
@@ -20568,7 +20885,7 @@
         <v>22</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E36" s="40" t="s">
         <v>23</v>
@@ -20628,7 +20945,7 @@
         <v>114</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E37" s="119">
         <v>0</v>
@@ -20688,7 +21005,7 @@
         <v>118</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E38" s="119">
         <v>0</v>
@@ -20745,10 +21062,10 @@
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E39" s="119">
         <v>0</v>
@@ -20805,10 +21122,10 @@
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E40" s="119">
         <v>0</v>
@@ -20865,10 +21182,10 @@
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="E41" s="119">
         <v>0</v>
@@ -20925,10 +21242,10 @@
       </c>
       <c r="B42" s="25"/>
       <c r="C42" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="E42" s="119">
         <v>0</v>
@@ -20988,7 +21305,7 @@
         <v>114</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="E43" s="119">
         <v>0</v>
@@ -21105,7 +21422,7 @@
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>182</v>
@@ -21165,7 +21482,7 @@
       </c>
       <c r="B46" s="25"/>
       <c r="C46" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>182</v>
@@ -21366,7 +21683,7 @@
       <c r="D53" s="55"/>
       <c r="E53" s="117"/>
       <c r="F53" s="145" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G53" s="145"/>
       <c r="H53" s="145"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{04481987-1715-4D5A-AAE3-09F3C365BCA7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3EB8DD41-BA33-4302-AB61-07D30AE281FC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="465" windowWidth="23250" windowHeight="13170" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Posting</t>
+  </si>
+  <si>
+    <t>EF - M-SU 03:00pm - 06:00pm, EF - M-TU,TH-SU 03:00pm - 06:00pm, EM - M-SU 06:00am - 09:00am, EM - M-TU,TH-SU 06:00am - 09:00am, MDN - M-F,SU 11:00am - 01:00pm, MDN - M-SU 11:00am - 01:00pm, MDN - M-TU,TH-SU 11:00am - 01:00pm, PA - M-F,SU 06:00pm - 08:00pm</t>
   </si>
   <si>
     <t>1Q '20 MDN :90s</t>
@@ -501,6 +504,9 @@
     <t>Reciept Acknowledged:</t>
   </si>
   <si>
+    <t>~80% Minimum TV HH Coverage | Blackout Markets: Lansing, Wilmington, Presque Isle | Preferential Markets: Philadelphia, Macon, New York, Binghamton</t>
+  </si>
+  <si>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
         <d:b/>
@@ -552,6 +558,12 @@
       </d:rPr>
       <d:t xml:space="preserve">Genre Includes Documentary (Plan ID 1850) | Program Excludes The Big Bang Theory (Plan ID 1850)</d:t>
     </d:r>
+  </si>
+  <si>
+    <t>3/19-3/20/20, 3/24/20, 3/28/20, 4/7/20, 4/9-3/17/20, 3/21/20, 3/26/20, 4/8-3/27/20, 3/29/20</t>
+  </si>
+  <si>
+    <t>All CPMs are derived from 100% broadcast deliveries, no cable unless otherwise noted.</t>
   </si>
   <si>
     <t>Broadcast Standard Terms and Conditions</t>
@@ -969,7 +981,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/24/20</t>
+    <t>Created 02/25/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1000,18 +1012,6 @@
   </si>
   <si>
     <t>Totals</t>
-  </si>
-  <si>
-    <t>~80% Minimum TV HH Coverage | Blackout Markets: Lansing, Wilmington, Presque Isle | Preferential Markets: Philadelphia, Macon, New York, Binghamton</t>
-  </si>
-  <si>
-    <t>EF - M-SU 03:00pm - 06:00pm, EF - M-TU,TH-SU 03:00pm - 06:00pm, EM - M-SU 06:00am - 09:00am, EM - M-TU,TH-SU 06:00am - 09:00am, MDN - M-F,SU 11:00am - 01:00pm, MDN - M-SU 11:00am - 01:00pm, MDN - M-TU,TH-SU 11:00am - 01:00pm, PA - M-F,SU 06:00pm - 08:00pm</t>
-  </si>
-  <si>
-    <t>3/19-3/20/20, 3/24/20, 3/28/20, 4/7/20, 4/9-3/17/20, 3/21/20, 3/26/20, 4/8-3/27/20, 3/29/20</t>
-  </si>
-  <si>
-    <t>All CPMs are derived from 100% broadcast deliveries, no cable unless otherwise noted.</t>
   </si>
 </sst>
 </file>
@@ -2615,8 +2615,8 @@
   </sheetPr>
   <dimension ref="A2:T139"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0" tabSelected="1">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" topLeftCell="B16" workbookViewId="0" tabSelected="1">
+      <selection activeCell="D18" sqref="D18:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/24/20</v>
+        <v>Created 02/25/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -2748,31 +2748,31 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D8" s="87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E8" s="87" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="87" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G8" s="87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H8" s="87" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="87" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J8" s="92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K8" s="88" t="s">
         <v>30</v>
@@ -2788,20 +2788,20 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E9" s="83">
         <v>0</v>
       </c>
       <c r="F9" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G9" s="85">
         <v>0</v>
@@ -2821,20 +2821,20 @@
     </row>
     <row r="10" ht="24" customHeight="1">
       <c r="A10" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E10" s="83">
         <v>0</v>
       </c>
       <c r="F10" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G10" s="85">
         <v>0</v>
@@ -2854,20 +2854,20 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="A11" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D11" s="82" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E11" s="83">
         <v>0</v>
       </c>
       <c r="F11" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G11" s="85">
         <v>0</v>
@@ -2887,20 +2887,20 @@
     </row>
     <row r="12" ht="24" customHeight="1">
       <c r="A12" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D12" s="82" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E12" s="83">
         <v>0</v>
       </c>
       <c r="F12" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G12" s="85">
         <v>0</v>
@@ -2920,20 +2920,20 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="A13" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E13" s="83">
         <v>0</v>
       </c>
       <c r="F13" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G13" s="85">
         <v>0</v>
@@ -2953,20 +2953,20 @@
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="A14" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E14" s="83">
         <v>0</v>
       </c>
       <c r="F14" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G14" s="85">
         <v>0</v>
@@ -2986,20 +2986,20 @@
     </row>
     <row r="15" ht="24" customHeight="1">
       <c r="A15" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E15" s="83">
         <v>0</v>
       </c>
       <c r="F15" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G15" s="85">
         <v>0</v>
@@ -3019,20 +3019,20 @@
     </row>
     <row r="16" ht="24" customHeight="1">
       <c r="A16" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E16" s="83">
         <v>0</v>
       </c>
       <c r="F16" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G16" s="85">
         <v>0</v>
@@ -3052,20 +3052,20 @@
     </row>
     <row r="17" ht="24" customHeight="1">
       <c r="A17" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E17" s="83">
         <v>0</v>
       </c>
       <c r="F17" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="85">
         <v>0</v>
@@ -3085,20 +3085,20 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D18" s="82" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E18" s="83">
         <v>0</v>
       </c>
       <c r="F18" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="85">
         <v>0</v>
@@ -3118,20 +3118,20 @@
     </row>
     <row r="19" ht="24" customHeight="1">
       <c r="A19" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D19" s="82" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E19" s="83">
         <v>0</v>
       </c>
       <c r="F19" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G19" s="85">
         <v>0</v>
@@ -3151,20 +3151,20 @@
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="A20" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D20" s="82" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E20" s="83">
         <v>0</v>
       </c>
       <c r="F20" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="85">
         <v>0</v>
@@ -3184,20 +3184,20 @@
     </row>
     <row r="21" ht="24" customHeight="1">
       <c r="A21" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E21" s="83">
         <v>0</v>
       </c>
       <c r="F21" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G21" s="85">
         <v>0</v>
@@ -3217,20 +3217,20 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="A22" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E22" s="83">
         <v>0</v>
       </c>
       <c r="F22" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G22" s="85">
         <v>0</v>
@@ -3250,20 +3250,20 @@
     </row>
     <row r="23" ht="24" customHeight="1">
       <c r="A23" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D23" s="82" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E23" s="83">
         <v>0</v>
       </c>
       <c r="F23" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G23" s="85">
         <v>0</v>
@@ -3283,20 +3283,20 @@
     </row>
     <row r="24" ht="24" customHeight="1">
       <c r="A24" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D24" s="82" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E24" s="83">
         <v>0</v>
       </c>
       <c r="F24" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G24" s="85">
         <v>0</v>
@@ -3316,20 +3316,20 @@
     </row>
     <row r="25" ht="24" customHeight="1">
       <c r="A25" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="81" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E25" s="83">
         <v>0</v>
       </c>
       <c r="F25" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G25" s="85">
         <v>0</v>
@@ -3349,20 +3349,20 @@
     </row>
     <row r="26" ht="24" customHeight="1">
       <c r="A26" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="D26" s="82" t="s">
-        <v>127</v>
-      </c>
       <c r="E26" s="83">
         <v>0</v>
       </c>
       <c r="F26" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G26" s="85">
         <v>0</v>
@@ -3382,20 +3382,20 @@
     </row>
     <row r="27" ht="24" customHeight="1">
       <c r="A27" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D27" s="82" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E27" s="83">
         <v>0</v>
       </c>
       <c r="F27" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G27" s="85">
         <v>0</v>
@@ -3415,20 +3415,20 @@
     </row>
     <row r="28" ht="24" customHeight="1">
       <c r="A28" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D28" s="82" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E28" s="83">
         <v>0</v>
       </c>
       <c r="F28" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G28" s="85">
         <v>0</v>
@@ -3448,20 +3448,20 @@
     </row>
     <row r="29" ht="24" customHeight="1">
       <c r="A29" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="81" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E29" s="83">
         <v>0</v>
       </c>
       <c r="F29" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G29" s="85">
         <v>0</v>
@@ -3481,20 +3481,20 @@
     </row>
     <row r="30" ht="24" customHeight="1">
       <c r="A30" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D30" s="82" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E30" s="83">
         <v>0</v>
       </c>
       <c r="F30" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G30" s="85">
         <v>0</v>
@@ -3514,20 +3514,20 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="A31" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D31" s="82" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E31" s="83">
         <v>0</v>
       </c>
       <c r="F31" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G31" s="85">
         <v>0</v>
@@ -3547,20 +3547,20 @@
     </row>
     <row r="32" ht="24" customHeight="1">
       <c r="A32" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D32" s="82" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E32" s="83">
         <v>0</v>
       </c>
       <c r="F32" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G32" s="85">
         <v>0</v>
@@ -3580,20 +3580,20 @@
     </row>
     <row r="33" ht="24" customHeight="1">
       <c r="A33" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="81" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D33" s="82" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E33" s="83">
         <v>0</v>
       </c>
       <c r="F33" s="84" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G33" s="85">
         <v>0</v>
@@ -3613,20 +3613,20 @@
     </row>
     <row r="34" ht="24" customHeight="1">
       <c r="A34" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="81" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D34" s="82" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E34" s="83">
         <v>0</v>
       </c>
       <c r="F34" s="84" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G34" s="85">
         <v>0</v>
@@ -3646,20 +3646,20 @@
     </row>
     <row r="35" ht="24" customHeight="1">
       <c r="A35" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="81" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D35" s="82" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E35" s="83">
         <v>0</v>
       </c>
       <c r="F35" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G35" s="85">
         <v>0</v>
@@ -3679,20 +3679,20 @@
     </row>
     <row r="36" ht="24" customHeight="1">
       <c r="A36" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D36" s="82" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E36" s="83">
         <v>0</v>
       </c>
       <c r="F36" s="84" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G36" s="85">
         <v>0</v>
@@ -3712,20 +3712,20 @@
     </row>
     <row r="37" ht="24" customHeight="1">
       <c r="A37" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D37" s="82" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E37" s="83">
         <v>0</v>
       </c>
       <c r="F37" s="84" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G37" s="85">
         <v>0</v>
@@ -3745,20 +3745,20 @@
     </row>
     <row r="38" ht="24" customHeight="1">
       <c r="A38" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D38" s="82" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E38" s="83">
         <v>0</v>
       </c>
       <c r="F38" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G38" s="85">
         <v>0</v>
@@ -3778,20 +3778,20 @@
     </row>
     <row r="39" ht="24" customHeight="1">
       <c r="A39" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="82" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E39" s="83">
         <v>0</v>
       </c>
       <c r="F39" s="84" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G39" s="85">
         <v>0</v>
@@ -3811,20 +3811,20 @@
     </row>
     <row r="40" ht="24" customHeight="1">
       <c r="A40" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D40" s="82" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E40" s="83">
         <v>0</v>
       </c>
       <c r="F40" s="84" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G40" s="85">
         <v>0</v>
@@ -3844,20 +3844,20 @@
     </row>
     <row r="41" ht="24" customHeight="1">
       <c r="A41" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D41" s="82" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E41" s="83">
         <v>0</v>
       </c>
       <c r="F41" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G41" s="85">
         <v>0</v>
@@ -3877,20 +3877,20 @@
     </row>
     <row r="42" ht="24" customHeight="1">
       <c r="A42" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D42" s="82" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E42" s="83">
         <v>0</v>
       </c>
       <c r="F42" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G42" s="85">
         <v>0</v>
@@ -3910,20 +3910,20 @@
     </row>
     <row r="43" ht="24" customHeight="1">
       <c r="A43" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="81" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="82" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E43" s="83">
         <v>0</v>
       </c>
       <c r="F43" s="84" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G43" s="85">
         <v>0</v>
@@ -3943,20 +3943,20 @@
     </row>
     <row r="44" ht="24" customHeight="1">
       <c r="A44" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="81" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D44" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="83">
+        <v>0</v>
+      </c>
+      <c r="F44" s="84" t="s">
         <v>133</v>
-      </c>
-      <c r="E44" s="83">
-        <v>0</v>
-      </c>
-      <c r="F44" s="84" t="s">
-        <v>132</v>
       </c>
       <c r="G44" s="85">
         <v>0</v>
@@ -3976,20 +3976,20 @@
     </row>
     <row r="45" ht="24" customHeight="1">
       <c r="A45" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="81" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D45" s="82" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E45" s="83">
         <v>0</v>
       </c>
       <c r="F45" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G45" s="85">
         <v>0</v>
@@ -4009,20 +4009,20 @@
     </row>
     <row r="46" ht="24" customHeight="1">
       <c r="A46" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D46" s="82" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E46" s="83">
         <v>0</v>
       </c>
       <c r="F46" s="84" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G46" s="85">
         <v>0</v>
@@ -4042,20 +4042,20 @@
     </row>
     <row r="47" ht="24" customHeight="1">
       <c r="A47" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D47" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="83">
+        <v>0</v>
+      </c>
+      <c r="F47" s="84" t="s">
         <v>133</v>
-      </c>
-      <c r="E47" s="83">
-        <v>0</v>
-      </c>
-      <c r="F47" s="84" t="s">
-        <v>132</v>
       </c>
       <c r="G47" s="85">
         <v>0</v>
@@ -4075,20 +4075,20 @@
     </row>
     <row r="48" ht="24" customHeight="1">
       <c r="A48" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D48" s="82" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E48" s="83">
         <v>0</v>
       </c>
       <c r="F48" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G48" s="85">
         <v>0</v>
@@ -4108,20 +4108,20 @@
     </row>
     <row r="49" ht="24" customHeight="1">
       <c r="A49" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D49" s="82" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E49" s="83">
         <v>0</v>
       </c>
       <c r="F49" s="84" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G49" s="85">
         <v>0</v>
@@ -4141,20 +4141,20 @@
     </row>
     <row r="50" ht="24" customHeight="1">
       <c r="A50" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D50" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="83">
+        <v>0</v>
+      </c>
+      <c r="F50" s="84" t="s">
         <v>133</v>
-      </c>
-      <c r="E50" s="83">
-        <v>0</v>
-      </c>
-      <c r="F50" s="84" t="s">
-        <v>132</v>
       </c>
       <c r="G50" s="85">
         <v>0</v>
@@ -4174,20 +4174,20 @@
     </row>
     <row r="51" ht="24" customHeight="1">
       <c r="A51" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D51" s="82" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E51" s="83">
         <v>0</v>
       </c>
       <c r="F51" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G51" s="85">
         <v>0</v>
@@ -4207,20 +4207,20 @@
     </row>
     <row r="52" ht="24" customHeight="1">
       <c r="A52" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D52" s="82" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E52" s="83">
         <v>0</v>
       </c>
       <c r="F52" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G52" s="85">
         <v>0</v>
@@ -4240,20 +4240,20 @@
     </row>
     <row r="53" ht="24" customHeight="1">
       <c r="A53" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="81" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D53" s="82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E53" s="83">
         <v>0</v>
       </c>
       <c r="F53" s="84" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G53" s="85">
         <v>0</v>
@@ -4273,20 +4273,20 @@
     </row>
     <row r="54" ht="24" customHeight="1">
       <c r="A54" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="81" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D54" s="82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E54" s="83">
         <v>0</v>
       </c>
       <c r="F54" s="84" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G54" s="85">
         <v>0</v>
@@ -4306,20 +4306,20 @@
     </row>
     <row r="55" ht="24" customHeight="1">
       <c r="A55" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="81" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D55" s="82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E55" s="83">
         <v>0</v>
       </c>
       <c r="F55" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G55" s="85">
         <v>0</v>
@@ -4339,20 +4339,20 @@
     </row>
     <row r="56" ht="24" customHeight="1">
       <c r="A56" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D56" s="82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E56" s="83">
         <v>0</v>
       </c>
       <c r="F56" s="84" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G56" s="85">
         <v>0</v>
@@ -4372,20 +4372,20 @@
     </row>
     <row r="57" ht="24" customHeight="1">
       <c r="A57" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D57" s="82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E57" s="83">
         <v>0</v>
       </c>
       <c r="F57" s="84" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G57" s="85">
         <v>0</v>
@@ -4405,20 +4405,20 @@
     </row>
     <row r="58" ht="24" customHeight="1">
       <c r="A58" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D58" s="82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E58" s="83">
         <v>0</v>
       </c>
       <c r="F58" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G58" s="85">
         <v>0</v>
@@ -4438,20 +4438,20 @@
     </row>
     <row r="59" ht="24" customHeight="1">
       <c r="A59" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D59" s="82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E59" s="83">
         <v>0</v>
       </c>
       <c r="F59" s="84" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G59" s="85">
         <v>0</v>
@@ -4471,20 +4471,20 @@
     </row>
     <row r="60" ht="24" customHeight="1">
       <c r="A60" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D60" s="82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E60" s="83">
         <v>0</v>
       </c>
       <c r="F60" s="84" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G60" s="85">
         <v>0</v>
@@ -4504,20 +4504,20 @@
     </row>
     <row r="61" ht="24" customHeight="1">
       <c r="A61" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D61" s="82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E61" s="83">
         <v>0</v>
       </c>
       <c r="F61" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G61" s="85">
         <v>0</v>
@@ -4537,20 +4537,20 @@
     </row>
     <row r="62" ht="24" customHeight="1">
       <c r="A62" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D62" s="82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E62" s="83">
         <v>0</v>
       </c>
       <c r="F62" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G62" s="85">
         <v>0</v>
@@ -4571,7 +4571,7 @@
     <row r="63" ht="24" customHeight="1">
       <c r="C63" s="39"/>
       <c r="D63" s="91" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E63" s="97">
         <v>0</v>
@@ -4597,7 +4597,7 @@
     </row>
     <row r="65">
       <c r="C65" s="53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H65" s="30"/>
       <c r="I65" s="30"/>
@@ -4615,31 +4615,31 @@
     </row>
     <row r="66" ht="24" customHeight="1">
       <c r="A66" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C66" s="86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D66" s="87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E66" s="87" t="s">
         <v>23</v>
       </c>
       <c r="F66" s="87" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G66" s="87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H66" s="87" t="s">
         <v>25</v>
       </c>
       <c r="I66" s="87" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J66" s="92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K66" s="88" t="s">
         <v>30</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="67" ht="24" customHeight="1">
       <c r="A67" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="81"/>
@@ -4666,27 +4666,27 @@
         <v>1</v>
       </c>
       <c r="F67" s="84" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G67" s="85" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H67" s="85" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I67" s="83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J67" s="93" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K67" s="95" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" ht="24" customHeight="1">
       <c r="A68" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="81"/>
@@ -4697,27 +4697,27 @@
         <v>1</v>
       </c>
       <c r="F68" s="84" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G68" s="85" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H68" s="85" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I68" s="83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J68" s="93" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K68" s="95" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" ht="24" customHeight="1">
       <c r="A69" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="81"/>
@@ -4728,28 +4728,28 @@
         <v>1</v>
       </c>
       <c r="F69" s="84" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G69" s="85" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H69" s="85" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I69" s="83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J69" s="93" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K69" s="95" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" ht="24" customHeight="1">
       <c r="C70" s="39"/>
       <c r="D70" s="91" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E70" s="97">
         <v>3</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="72">
       <c r="C72" s="53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H72" s="30"/>
       <c r="I72" s="30"/>
@@ -4793,31 +4793,31 @@
     </row>
     <row r="73" ht="24" customHeight="1">
       <c r="A73" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C73" s="86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D73" s="87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E73" s="87" t="s">
         <v>23</v>
       </c>
       <c r="F73" s="87" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G73" s="87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H73" s="87" t="s">
         <v>25</v>
       </c>
       <c r="I73" s="87" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J73" s="92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K73" s="88" t="s">
         <v>30</v>
@@ -4833,20 +4833,20 @@
     </row>
     <row r="74" ht="24" customHeight="1">
       <c r="A74" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="81" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D74" s="82" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E74" s="83">
         <v>0</v>
       </c>
       <c r="F74" s="84" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G74" s="85">
         <v>0</v>
@@ -4866,20 +4866,20 @@
     </row>
     <row r="75" ht="24" customHeight="1">
       <c r="A75" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="81" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D75" s="82" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E75" s="83">
         <v>0</v>
       </c>
       <c r="F75" s="84" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G75" s="85">
         <v>0</v>
@@ -4899,20 +4899,20 @@
     </row>
     <row r="76" ht="24" customHeight="1">
       <c r="A76" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="81" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D76" s="82" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E76" s="83">
         <v>0</v>
       </c>
       <c r="F76" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G76" s="85">
         <v>0</v>
@@ -4932,20 +4932,20 @@
     </row>
     <row r="77" ht="24" customHeight="1">
       <c r="A77" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D77" s="82" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E77" s="83">
         <v>0</v>
       </c>
       <c r="F77" s="84" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G77" s="85">
         <v>0</v>
@@ -4965,20 +4965,20 @@
     </row>
     <row r="78" ht="24" customHeight="1">
       <c r="A78" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D78" s="82" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E78" s="83">
         <v>0</v>
       </c>
       <c r="F78" s="84" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G78" s="85">
         <v>0</v>
@@ -4998,20 +4998,20 @@
     </row>
     <row r="79" ht="24" customHeight="1">
       <c r="A79" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D79" s="82" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E79" s="83">
         <v>0</v>
       </c>
       <c r="F79" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G79" s="85">
         <v>0</v>
@@ -5031,20 +5031,20 @@
     </row>
     <row r="80" ht="24" customHeight="1">
       <c r="A80" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D80" s="82" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E80" s="83">
         <v>0</v>
       </c>
       <c r="F80" s="84" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G80" s="85">
         <v>0</v>
@@ -5064,20 +5064,20 @@
     </row>
     <row r="81" ht="24" customHeight="1">
       <c r="A81" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D81" s="82" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E81" s="83">
         <v>0</v>
       </c>
       <c r="F81" s="84" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G81" s="85">
         <v>0</v>
@@ -5097,20 +5097,20 @@
     </row>
     <row r="82" ht="24" customHeight="1">
       <c r="A82" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D82" s="82" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E82" s="83">
         <v>0</v>
       </c>
       <c r="F82" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G82" s="85">
         <v>0</v>
@@ -5130,20 +5130,20 @@
     </row>
     <row r="83" ht="24" customHeight="1">
       <c r="A83" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D83" s="82" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E83" s="83">
         <v>0</v>
       </c>
       <c r="F83" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G83" s="85">
         <v>0</v>
@@ -5163,20 +5163,20 @@
     </row>
     <row r="84" ht="24" customHeight="1">
       <c r="A84" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="81" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D84" s="82" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E84" s="83">
         <v>0</v>
       </c>
       <c r="F84" s="84" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G84" s="85">
         <v>0</v>
@@ -5196,20 +5196,20 @@
     </row>
     <row r="85" ht="24" customHeight="1">
       <c r="A85" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="81" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D85" s="82" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E85" s="83">
         <v>0</v>
       </c>
       <c r="F85" s="84" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G85" s="85">
         <v>0</v>
@@ -5229,20 +5229,20 @@
     </row>
     <row r="86" ht="24" customHeight="1">
       <c r="A86" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="81" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D86" s="82" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E86" s="83">
         <v>0</v>
       </c>
       <c r="F86" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G86" s="85">
         <v>0</v>
@@ -5262,20 +5262,20 @@
     </row>
     <row r="87" ht="24" customHeight="1">
       <c r="A87" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D87" s="82" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E87" s="83">
         <v>0</v>
       </c>
       <c r="F87" s="84" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G87" s="85">
         <v>0</v>
@@ -5295,20 +5295,20 @@
     </row>
     <row r="88" ht="24" customHeight="1">
       <c r="A88" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D88" s="82" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E88" s="83">
         <v>0</v>
       </c>
       <c r="F88" s="84" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G88" s="85">
         <v>0</v>
@@ -5328,20 +5328,20 @@
     </row>
     <row r="89" ht="24" customHeight="1">
       <c r="A89" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D89" s="82" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E89" s="83">
         <v>0</v>
       </c>
       <c r="F89" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G89" s="85">
         <v>0</v>
@@ -5361,20 +5361,20 @@
     </row>
     <row r="90" ht="24" customHeight="1">
       <c r="A90" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D90" s="82" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E90" s="83">
         <v>0</v>
       </c>
       <c r="F90" s="84" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G90" s="85">
         <v>0</v>
@@ -5394,20 +5394,20 @@
     </row>
     <row r="91" ht="24" customHeight="1">
       <c r="A91" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D91" s="82" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E91" s="83">
         <v>0</v>
       </c>
       <c r="F91" s="84" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G91" s="85">
         <v>0</v>
@@ -5427,20 +5427,20 @@
     </row>
     <row r="92" ht="24" customHeight="1">
       <c r="A92" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D92" s="82" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E92" s="83">
         <v>0</v>
       </c>
       <c r="F92" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G92" s="85">
         <v>0</v>
@@ -5460,20 +5460,20 @@
     </row>
     <row r="93" ht="24" customHeight="1">
       <c r="A93" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D93" s="82" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E93" s="83">
         <v>0</v>
       </c>
       <c r="F93" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G93" s="85">
         <v>0</v>
@@ -5493,20 +5493,20 @@
     </row>
     <row r="94" ht="24" customHeight="1">
       <c r="A94" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D94" s="82" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E94" s="83">
         <v>0</v>
       </c>
       <c r="F94" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G94" s="85">
         <v>0</v>
@@ -5526,20 +5526,20 @@
     </row>
     <row r="95" ht="24" customHeight="1">
       <c r="A95" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D95" s="82" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E95" s="83">
         <v>0</v>
       </c>
       <c r="F95" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G95" s="85">
         <v>0</v>
@@ -5559,20 +5559,20 @@
     </row>
     <row r="96" ht="24" customHeight="1">
       <c r="A96" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D96" s="82" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E96" s="83">
         <v>0</v>
       </c>
       <c r="F96" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G96" s="85">
         <v>0</v>
@@ -5592,20 +5592,20 @@
     </row>
     <row r="97" ht="24" customHeight="1">
       <c r="A97" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D97" s="82" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E97" s="83">
         <v>0</v>
       </c>
       <c r="F97" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G97" s="85">
         <v>0</v>
@@ -5625,20 +5625,20 @@
     </row>
     <row r="98" ht="24" customHeight="1">
       <c r="A98" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D98" s="82" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E98" s="83">
         <v>0</v>
       </c>
       <c r="F98" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G98" s="85">
         <v>0</v>
@@ -5658,20 +5658,20 @@
     </row>
     <row r="99" ht="24" customHeight="1">
       <c r="A99" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D99" s="82" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E99" s="83">
         <v>0</v>
       </c>
       <c r="F99" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G99" s="85">
         <v>0</v>
@@ -5691,20 +5691,20 @@
     </row>
     <row r="100" ht="24" customHeight="1">
       <c r="A100" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D100" s="82" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E100" s="83">
         <v>0</v>
       </c>
       <c r="F100" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G100" s="85">
         <v>0</v>
@@ -5724,20 +5724,20 @@
     </row>
     <row r="101" ht="24" customHeight="1">
       <c r="A101" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D101" s="82" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E101" s="83">
         <v>0</v>
       </c>
       <c r="F101" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G101" s="85">
         <v>0</v>
@@ -5757,20 +5757,20 @@
     </row>
     <row r="102" ht="24" customHeight="1">
       <c r="A102" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D102" s="82" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E102" s="83">
         <v>0</v>
       </c>
       <c r="F102" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G102" s="85">
         <v>0</v>
@@ -5790,20 +5790,20 @@
     </row>
     <row r="103" ht="24" customHeight="1">
       <c r="A103" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D103" s="82" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E103" s="83">
         <v>0</v>
       </c>
       <c r="F103" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G103" s="85">
         <v>0</v>
@@ -5823,20 +5823,20 @@
     </row>
     <row r="104" ht="24" customHeight="1">
       <c r="A104" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D104" s="82" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E104" s="83">
         <v>0</v>
       </c>
       <c r="F104" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G104" s="85">
         <v>0</v>
@@ -5856,20 +5856,20 @@
     </row>
     <row r="105" ht="24" customHeight="1">
       <c r="A105" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D105" s="82" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E105" s="83">
         <v>0</v>
       </c>
       <c r="F105" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G105" s="85">
         <v>0</v>
@@ -5889,20 +5889,20 @@
     </row>
     <row r="106" ht="24" customHeight="1">
       <c r="A106" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D106" s="82" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E106" s="83">
         <v>0</v>
       </c>
       <c r="F106" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G106" s="85">
         <v>0</v>
@@ -5922,20 +5922,20 @@
     </row>
     <row r="107" ht="24" customHeight="1">
       <c r="A107" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D107" s="82" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E107" s="83">
         <v>0</v>
       </c>
       <c r="F107" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G107" s="85">
         <v>0</v>
@@ -5955,20 +5955,20 @@
     </row>
     <row r="108" ht="24" customHeight="1">
       <c r="A108" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D108" s="82" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E108" s="83">
         <v>0</v>
       </c>
       <c r="F108" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G108" s="85">
         <v>0</v>
@@ -5988,20 +5988,20 @@
     </row>
     <row r="109" ht="24" customHeight="1">
       <c r="A109" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D109" s="82" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E109" s="83">
         <v>0</v>
       </c>
       <c r="F109" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G109" s="85">
         <v>0</v>
@@ -6021,20 +6021,20 @@
     </row>
     <row r="110" ht="24" customHeight="1">
       <c r="A110" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D110" s="82" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E110" s="83">
         <v>0</v>
       </c>
       <c r="F110" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G110" s="85">
         <v>0</v>
@@ -6054,20 +6054,20 @@
     </row>
     <row r="111" ht="24" customHeight="1">
       <c r="A111" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D111" s="82" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E111" s="83">
         <v>0</v>
       </c>
       <c r="F111" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G111" s="85">
         <v>0</v>
@@ -6087,20 +6087,20 @@
     </row>
     <row r="112" ht="24" customHeight="1">
       <c r="A112" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D112" s="82" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E112" s="83">
         <v>0</v>
       </c>
       <c r="F112" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G112" s="85">
         <v>0</v>
@@ -6120,20 +6120,20 @@
     </row>
     <row r="113" ht="24" customHeight="1">
       <c r="A113" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D113" s="82" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E113" s="83">
         <v>0</v>
       </c>
       <c r="F113" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G113" s="85">
         <v>0</v>
@@ -6153,20 +6153,20 @@
     </row>
     <row r="114" ht="24" customHeight="1">
       <c r="A114" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D114" s="82" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E114" s="83">
         <v>0</v>
       </c>
       <c r="F114" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G114" s="85">
         <v>0</v>
@@ -6186,20 +6186,20 @@
     </row>
     <row r="115" ht="24" customHeight="1">
       <c r="A115" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D115" s="82" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E115" s="83">
         <v>0</v>
       </c>
       <c r="F115" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G115" s="85">
         <v>0</v>
@@ -6220,7 +6220,7 @@
     <row r="116" ht="24" customHeight="1">
       <c r="C116" s="39"/>
       <c r="D116" s="91" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E116" s="97">
         <v>0</v>
@@ -6246,7 +6246,7 @@
     </row>
     <row r="118">
       <c r="C118" s="53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H118" s="30"/>
       <c r="I118" s="30"/>
@@ -6264,31 +6264,31 @@
     </row>
     <row r="119" ht="24" customHeight="1">
       <c r="A119" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C119" s="86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D119" s="87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E119" s="87" t="s">
         <v>23</v>
       </c>
       <c r="F119" s="87" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G119" s="87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H119" s="87" t="s">
         <v>25</v>
       </c>
       <c r="I119" s="87" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J119" s="92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K119" s="88" t="s">
         <v>30</v>
@@ -6304,7 +6304,7 @@
     </row>
     <row r="120" ht="24" customHeight="1">
       <c r="A120" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B120" s="4"/>
       <c r="C120" s="81"/>
@@ -6315,27 +6315,27 @@
         <v>1</v>
       </c>
       <c r="F120" s="84" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G120" s="85" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H120" s="85" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I120" s="83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J120" s="93" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K120" s="95" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="121" ht="24" customHeight="1">
       <c r="A121" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="81"/>
@@ -6346,28 +6346,28 @@
         <v>1</v>
       </c>
       <c r="F121" s="84" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G121" s="85" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H121" s="85" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I121" s="83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J121" s="93" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K121" s="95" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="122" ht="24" customHeight="1">
       <c r="C122" s="39"/>
       <c r="D122" s="91" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E122" s="97">
         <v>2</v>
@@ -6393,7 +6393,7 @@
     </row>
     <row r="124" ht="24" customHeight="1">
       <c r="C124" s="53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I124" s="60"/>
     </row>
@@ -6402,11 +6402,11 @@
         <v>23</v>
       </c>
       <c r="D125" s="101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E125" s="101"/>
       <c r="F125" s="101" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G125" s="101"/>
       <c r="H125" s="101" t="s">
@@ -6442,13 +6442,13 @@
     </row>
     <row r="128" ht="24" customHeight="1">
       <c r="C128" s="113" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D128" s="109"/>
       <c r="E128" s="109"/>
       <c r="F128" s="112"/>
       <c r="G128" s="114" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H128" s="109"/>
       <c r="I128" s="115"/>
@@ -6466,9 +6466,8 @@
       <c r="C130" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D130" s="136" t="str">
-        <f>'PROPOSAL'!F49</f>
-        <v>~80% Minimum TV HH Coverage | Blackout Markets: Lansing, Wilmington, Presque Isle | Preferential Markets: Philadelphia, Macon, New York, Binghamton</v>
+      <c r="D130" s="136" t="s">
+        <v>156</v>
       </c>
       <c r="E130" s="136"/>
       <c r="F130" s="136"/>
@@ -6507,9 +6506,8 @@
       <c r="C132" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D132" s="136" t="str">
-        <f>'PROPOSAL'!F51</f>
-        <v>EF - M-SU 03:00pm - 06:00pm, EF - M-TU,TH-SU 03:00pm - 06:00pm, EM - M-SU 06:00am - 09:00am, EM - M-TU,TH-SU 06:00am - 09:00am, MDN - M-F,SU 11:00am - 01:00pm, MDN - M-SU 11:00am - 01:00pm, MDN - M-TU,TH-SU 11:00am - 01:00pm, PA - M-F,SU 06:00pm - 08:00pm</v>
+      <c r="D132" s="136" t="s">
+        <v>54</v>
       </c>
       <c r="E132" s="136"/>
       <c r="F132" s="136"/>
@@ -6549,7 +6547,7 @@
         <v>47</v>
       </c>
       <c r="D134" s="136" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E134" s="136"/>
       <c r="F134" s="136"/>
@@ -6588,9 +6586,8 @@
       <c r="C136" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D136" s="136" t="str">
-        <f>'PROPOSAL'!F55</f>
-        <v>3/19-3/20/20, 3/24/20, 3/28/20, 4/7/20, 4/9-3/17/20, 3/21/20, 3/26/20, 4/8-3/27/20, 3/29/20</v>
+      <c r="D136" s="136" t="s">
+        <v>158</v>
       </c>
       <c r="E136" s="136"/>
       <c r="F136" s="136"/>
@@ -6629,9 +6626,8 @@
       <c r="C138" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D138" s="136" t="str">
-        <f>'PROPOSAL'!F57</f>
-        <v>All CPMs are derived from 100% broadcast deliveries, no cable unless otherwise noted.</v>
+      <c r="D138" s="136" t="s">
+        <v>159</v>
       </c>
       <c r="E138" s="136"/>
       <c r="F138" s="136"/>
@@ -6708,7 +6704,7 @@
   <dimension ref="A2:P278"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" tabSelected="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6736,7 +6732,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/24/20</v>
+        <v>Created 02/25/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -6760,9 +6756,8 @@
         <f>'PROPOSAL'!N5</f>
         <v>NTI</v>
       </c>
-      <c r="D5" s="134" t="str">
-        <f>'PROPOSAL'!F51</f>
-        <v>EF - M-SU 03:00pm - 06:00pm, EF - M-TU,TH-SU 03:00pm - 06:00pm, EM - M-SU 06:00am - 09:00am, EM - M-TU,TH-SU 06:00am - 09:00am, MDN - M-F,SU 11:00am - 01:00pm, MDN - M-SU 11:00am - 01:00pm, MDN - M-TU,TH-SU 11:00am - 01:00pm, PA - M-F,SU 06:00pm - 08:00pm</v>
+      <c r="D5" s="134" t="s">
+        <v>54</v>
       </c>
       <c r="E5" s="134"/>
       <c r="F5" s="134"/>
@@ -6782,22 +6777,22 @@
     </row>
     <row r="7">
       <c r="B7" s="53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="139"/>
       <c r="E7" s="139"/>
       <c r="F7" s="140"/>
       <c r="G7" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H7" s="139"/>
       <c r="I7" s="139"/>
       <c r="J7" s="140"/>
       <c r="K7" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L7" s="139"/>
       <c r="M7" s="139"/>
@@ -6852,7 +6847,7 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="B9" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="63">
         <v>0.004807692307692308</v>
@@ -7040,7 +7035,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="70">
         <v>9615.3846153846</v>
@@ -7087,7 +7082,7 @@
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="B14" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="131"/>
       <c r="D14" s="132"/>
@@ -7106,22 +7101,22 @@
     </row>
     <row r="16">
       <c r="B16" s="53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="139"/>
       <c r="E16" s="139"/>
       <c r="F16" s="140"/>
       <c r="G16" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H16" s="139"/>
       <c r="I16" s="139"/>
       <c r="J16" s="140"/>
       <c r="K16" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L16" s="139"/>
       <c r="M16" s="139"/>
@@ -7176,7 +7171,7 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="B18" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="63">
         <v>0</v>
@@ -7364,7 +7359,7 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="B22" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="70">
         <v>0</v>
@@ -7411,7 +7406,7 @@
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="B23" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="131"/>
       <c r="D23" s="132"/>
@@ -7424,13 +7419,13 @@
       <c r="K23" s="131"/>
       <c r="L23" s="132"/>
       <c r="M23" s="132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N23" s="132" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O23" s="133" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P23" s="130">
         <v>7</v>
@@ -7438,22 +7433,22 @@
     </row>
     <row r="25">
       <c r="B25" s="53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C25" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="139"/>
       <c r="E25" s="139"/>
       <c r="F25" s="140"/>
       <c r="G25" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H25" s="139"/>
       <c r="I25" s="139"/>
       <c r="J25" s="140"/>
       <c r="K25" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L25" s="139"/>
       <c r="M25" s="139"/>
@@ -7508,7 +7503,7 @@
     </row>
     <row r="27" ht="24" customHeight="1">
       <c r="B27" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="63">
         <v>0</v>
@@ -7696,7 +7691,7 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="B31" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" s="70">
         <v>0</v>
@@ -7743,7 +7738,7 @@
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="B32" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" s="131"/>
       <c r="D32" s="132"/>
@@ -7757,10 +7752,10 @@
       <c r="L32" s="132"/>
       <c r="M32" s="132"/>
       <c r="N32" s="132" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O32" s="133" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P32" s="130">
         <v>7</v>
@@ -7768,22 +7763,22 @@
     </row>
     <row r="34">
       <c r="B34" s="53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34" s="139"/>
       <c r="E34" s="139"/>
       <c r="F34" s="140"/>
       <c r="G34" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H34" s="139"/>
       <c r="I34" s="139"/>
       <c r="J34" s="140"/>
       <c r="K34" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L34" s="139"/>
       <c r="M34" s="139"/>
@@ -7838,7 +7833,7 @@
     </row>
     <row r="36" ht="24" customHeight="1">
       <c r="B36" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36" s="63">
         <v>0.004807692307692308</v>
@@ -8026,7 +8021,7 @@
     </row>
     <row r="40" ht="24" customHeight="1">
       <c r="B40" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" s="70">
         <v>9615.3846153846</v>
@@ -8073,7 +8068,7 @@
     </row>
     <row r="41" ht="30" customHeight="1">
       <c r="B41" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" s="131"/>
       <c r="D41" s="132"/>
@@ -8086,13 +8081,13 @@
       <c r="K41" s="131"/>
       <c r="L41" s="132"/>
       <c r="M41" s="132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N41" s="132" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O41" s="133" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P41" s="130">
         <v>11</v>
@@ -8100,22 +8095,22 @@
     </row>
     <row r="43">
       <c r="B43" s="53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C43" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43" s="139"/>
       <c r="E43" s="139"/>
       <c r="F43" s="140"/>
       <c r="G43" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H43" s="139"/>
       <c r="I43" s="139"/>
       <c r="J43" s="140"/>
       <c r="K43" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L43" s="139"/>
       <c r="M43" s="139"/>
@@ -8170,7 +8165,7 @@
     </row>
     <row r="45" ht="24" customHeight="1">
       <c r="B45" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45" s="63">
         <v>0.004807692307692308</v>
@@ -8358,7 +8353,7 @@
     </row>
     <row r="49" ht="24" customHeight="1">
       <c r="B49" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" s="70">
         <v>9615.3846153846</v>
@@ -8405,7 +8400,7 @@
     </row>
     <row r="50" ht="30" customHeight="1">
       <c r="B50" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" s="131"/>
       <c r="D50" s="132"/>
@@ -8424,22 +8419,22 @@
     </row>
     <row r="52">
       <c r="B52" s="53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52" s="139"/>
       <c r="E52" s="139"/>
       <c r="F52" s="140"/>
       <c r="G52" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H52" s="139"/>
       <c r="I52" s="139"/>
       <c r="J52" s="140"/>
       <c r="K52" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L52" s="139"/>
       <c r="M52" s="139"/>
@@ -8494,7 +8489,7 @@
     </row>
     <row r="54" ht="24" customHeight="1">
       <c r="B54" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" s="63">
         <v>0.004807692307692308</v>
@@ -8682,7 +8677,7 @@
     </row>
     <row r="58" ht="24" customHeight="1">
       <c r="B58" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" s="70">
         <v>9615.3846153846</v>
@@ -8729,7 +8724,7 @@
     </row>
     <row r="59" ht="30" customHeight="1">
       <c r="B59" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" s="131"/>
       <c r="D59" s="132"/>
@@ -8748,22 +8743,22 @@
     </row>
     <row r="61">
       <c r="B61" s="53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C61" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D61" s="139"/>
       <c r="E61" s="139"/>
       <c r="F61" s="140"/>
       <c r="G61" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H61" s="139"/>
       <c r="I61" s="139"/>
       <c r="J61" s="140"/>
       <c r="K61" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L61" s="139"/>
       <c r="M61" s="139"/>
@@ -8818,7 +8813,7 @@
     </row>
     <row r="63" ht="24" customHeight="1">
       <c r="B63" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C63" s="63">
         <v>0</v>
@@ -9006,7 +9001,7 @@
     </row>
     <row r="67" ht="24" customHeight="1">
       <c r="B67" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C67" s="70">
         <v>0</v>
@@ -9053,7 +9048,7 @@
     </row>
     <row r="68" ht="30" customHeight="1">
       <c r="B68" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C68" s="131"/>
       <c r="D68" s="132"/>
@@ -9072,22 +9067,22 @@
     </row>
     <row r="70">
       <c r="B70" s="53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C70" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D70" s="139"/>
       <c r="E70" s="139"/>
       <c r="F70" s="140"/>
       <c r="G70" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H70" s="139"/>
       <c r="I70" s="139"/>
       <c r="J70" s="140"/>
       <c r="K70" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L70" s="139"/>
       <c r="M70" s="139"/>
@@ -9142,7 +9137,7 @@
     </row>
     <row r="72" ht="24" customHeight="1">
       <c r="B72" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C72" s="63">
         <v>0</v>
@@ -9330,7 +9325,7 @@
     </row>
     <row r="76" ht="24" customHeight="1">
       <c r="B76" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C76" s="70">
         <v>0</v>
@@ -9377,7 +9372,7 @@
     </row>
     <row r="77" ht="30" customHeight="1">
       <c r="B77" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C77" s="131"/>
       <c r="D77" s="132"/>
@@ -9390,13 +9385,13 @@
       <c r="K77" s="131"/>
       <c r="L77" s="132"/>
       <c r="M77" s="132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N77" s="132" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O77" s="133" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P77" s="130">
         <v>7</v>
@@ -9404,22 +9399,22 @@
     </row>
     <row r="79">
       <c r="B79" s="53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C79" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D79" s="139"/>
       <c r="E79" s="139"/>
       <c r="F79" s="140"/>
       <c r="G79" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H79" s="139"/>
       <c r="I79" s="139"/>
       <c r="J79" s="140"/>
       <c r="K79" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L79" s="139"/>
       <c r="M79" s="139"/>
@@ -9474,7 +9469,7 @@
     </row>
     <row r="81" ht="24" customHeight="1">
       <c r="B81" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C81" s="63">
         <v>0</v>
@@ -9662,7 +9657,7 @@
     </row>
     <row r="85" ht="24" customHeight="1">
       <c r="B85" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C85" s="70">
         <v>0</v>
@@ -9709,7 +9704,7 @@
     </row>
     <row r="86" ht="30" customHeight="1">
       <c r="B86" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C86" s="131"/>
       <c r="D86" s="132"/>
@@ -9723,10 +9718,10 @@
       <c r="L86" s="132"/>
       <c r="M86" s="132"/>
       <c r="N86" s="132" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O86" s="133" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P86" s="130">
         <v>7</v>
@@ -9734,22 +9729,22 @@
     </row>
     <row r="88">
       <c r="B88" s="53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C88" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D88" s="139"/>
       <c r="E88" s="139"/>
       <c r="F88" s="140"/>
       <c r="G88" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H88" s="139"/>
       <c r="I88" s="139"/>
       <c r="J88" s="140"/>
       <c r="K88" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L88" s="139"/>
       <c r="M88" s="139"/>
@@ -9804,7 +9799,7 @@
     </row>
     <row r="90" ht="24" customHeight="1">
       <c r="B90" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C90" s="63">
         <v>0</v>
@@ -9992,7 +9987,7 @@
     </row>
     <row r="94" ht="24" customHeight="1">
       <c r="B94" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C94" s="70">
         <v>0</v>
@@ -10039,7 +10034,7 @@
     </row>
     <row r="95" ht="30" customHeight="1">
       <c r="B95" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C95" s="131"/>
       <c r="D95" s="132"/>
@@ -10052,13 +10047,13 @@
       <c r="K95" s="131"/>
       <c r="L95" s="132"/>
       <c r="M95" s="132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N95" s="132" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O95" s="133" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P95" s="130">
         <v>11</v>
@@ -10066,22 +10061,22 @@
     </row>
     <row r="97">
       <c r="B97" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C97" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D97" s="139"/>
       <c r="E97" s="139"/>
       <c r="F97" s="140"/>
       <c r="G97" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H97" s="139"/>
       <c r="I97" s="139"/>
       <c r="J97" s="140"/>
       <c r="K97" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L97" s="139"/>
       <c r="M97" s="139"/>
@@ -10136,7 +10131,7 @@
     </row>
     <row r="99" ht="24" customHeight="1">
       <c r="B99" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C99" s="63">
         <v>0</v>
@@ -10324,7 +10319,7 @@
     </row>
     <row r="103" ht="24" customHeight="1">
       <c r="B103" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C103" s="70">
         <v>0</v>
@@ -10371,7 +10366,7 @@
     </row>
     <row r="104" ht="30" customHeight="1">
       <c r="B104" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C104" s="131"/>
       <c r="D104" s="132"/>
@@ -10390,22 +10385,22 @@
     </row>
     <row r="106">
       <c r="B106" s="53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C106" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D106" s="139"/>
       <c r="E106" s="139"/>
       <c r="F106" s="140"/>
       <c r="G106" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H106" s="139"/>
       <c r="I106" s="139"/>
       <c r="J106" s="140"/>
       <c r="K106" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L106" s="139"/>
       <c r="M106" s="139"/>
@@ -10460,7 +10455,7 @@
     </row>
     <row r="108" ht="24" customHeight="1">
       <c r="B108" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C108" s="63">
         <v>0</v>
@@ -10648,7 +10643,7 @@
     </row>
     <row r="112" ht="24" customHeight="1">
       <c r="B112" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C112" s="70">
         <v>0</v>
@@ -10695,7 +10690,7 @@
     </row>
     <row r="113" ht="30" customHeight="1">
       <c r="B113" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C113" s="131"/>
       <c r="D113" s="132"/>
@@ -10708,13 +10703,13 @@
       <c r="K113" s="131"/>
       <c r="L113" s="132"/>
       <c r="M113" s="132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N113" s="132" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O113" s="133" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P113" s="130">
         <v>7</v>
@@ -10722,22 +10717,22 @@
     </row>
     <row r="115">
       <c r="B115" s="53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C115" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D115" s="139"/>
       <c r="E115" s="139"/>
       <c r="F115" s="140"/>
       <c r="G115" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H115" s="139"/>
       <c r="I115" s="139"/>
       <c r="J115" s="140"/>
       <c r="K115" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L115" s="139"/>
       <c r="M115" s="139"/>
@@ -10792,7 +10787,7 @@
     </row>
     <row r="117" ht="24" customHeight="1">
       <c r="B117" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C117" s="63">
         <v>0</v>
@@ -10980,7 +10975,7 @@
     </row>
     <row r="121" ht="24" customHeight="1">
       <c r="B121" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C121" s="70">
         <v>0</v>
@@ -11027,7 +11022,7 @@
     </row>
     <row r="122" ht="30" customHeight="1">
       <c r="B122" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C122" s="131"/>
       <c r="D122" s="132"/>
@@ -11041,10 +11036,10 @@
       <c r="L122" s="132"/>
       <c r="M122" s="132"/>
       <c r="N122" s="132" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O122" s="133" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P122" s="130">
         <v>7</v>
@@ -11052,22 +11047,22 @@
     </row>
     <row r="124">
       <c r="B124" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C124" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D124" s="139"/>
       <c r="E124" s="139"/>
       <c r="F124" s="140"/>
       <c r="G124" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H124" s="139"/>
       <c r="I124" s="139"/>
       <c r="J124" s="140"/>
       <c r="K124" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L124" s="139"/>
       <c r="M124" s="139"/>
@@ -11122,7 +11117,7 @@
     </row>
     <row r="126" ht="24" customHeight="1">
       <c r="B126" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C126" s="63">
         <v>0</v>
@@ -11310,7 +11305,7 @@
     </row>
     <row r="130" ht="24" customHeight="1">
       <c r="B130" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C130" s="70">
         <v>0</v>
@@ -11357,7 +11352,7 @@
     </row>
     <row r="131" ht="30" customHeight="1">
       <c r="B131" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C131" s="131"/>
       <c r="D131" s="132"/>
@@ -11370,13 +11365,13 @@
       <c r="K131" s="131"/>
       <c r="L131" s="132"/>
       <c r="M131" s="132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N131" s="132" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O131" s="133" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P131" s="130">
         <v>11</v>
@@ -11384,22 +11379,22 @@
     </row>
     <row r="133">
       <c r="B133" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C133" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D133" s="139"/>
       <c r="E133" s="139"/>
       <c r="F133" s="140"/>
       <c r="G133" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H133" s="139"/>
       <c r="I133" s="139"/>
       <c r="J133" s="140"/>
       <c r="K133" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L133" s="139"/>
       <c r="M133" s="139"/>
@@ -11454,7 +11449,7 @@
     </row>
     <row r="135" ht="24" customHeight="1">
       <c r="B135" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C135" s="63"/>
       <c r="D135" s="64"/>
@@ -11515,16 +11510,16 @@
       <c r="K137" s="66"/>
       <c r="L137" s="36"/>
       <c r="M137" s="36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N137" s="36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O137" s="58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P137" s="58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="138" ht="24" customHeight="1">
@@ -11542,21 +11537,21 @@
       <c r="K138" s="73"/>
       <c r="L138" s="38"/>
       <c r="M138" s="38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N138" s="38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O138" s="74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P138" s="74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="139" ht="24" customHeight="1">
       <c r="B139" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C139" s="70"/>
       <c r="D139" s="71"/>
@@ -11569,21 +11564,21 @@
       <c r="K139" s="70"/>
       <c r="L139" s="71"/>
       <c r="M139" s="71" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N139" s="71" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O139" s="72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P139" s="72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="140" ht="30" customHeight="1">
       <c r="B140" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C140" s="131"/>
       <c r="D140" s="132"/>
@@ -11602,23 +11597,23 @@
     </row>
     <row r="142">
       <c r="B142" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C142" s="138" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D142" s="139"/>
       <c r="E142" s="139"/>
       <c r="F142" s="140"/>
       <c r="G142" s="139" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H142" s="139"/>
       <c r="I142" s="139"/>
       <c r="J142" s="139"/>
       <c r="K142" s="140"/>
       <c r="L142" s="138" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M142" s="139"/>
       <c r="N142" s="139"/>
@@ -11672,7 +11667,7 @@
     </row>
     <row r="144" ht="24" customHeight="1">
       <c r="B144" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C144" s="63">
         <v>0.0050219780219780226</v>
@@ -11860,7 +11855,7 @@
     </row>
     <row r="148" ht="24" customHeight="1">
       <c r="B148" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C148" s="70">
         <v>10043.956043956028</v>
@@ -11907,7 +11902,7 @@
     </row>
     <row r="149" ht="30" customHeight="1">
       <c r="B149" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C149" s="131"/>
       <c r="D149" s="132"/>
@@ -11926,23 +11921,23 @@
     </row>
     <row r="151">
       <c r="B151" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C151" s="138" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D151" s="139"/>
       <c r="E151" s="139"/>
       <c r="F151" s="140"/>
       <c r="G151" s="139" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H151" s="139"/>
       <c r="I151" s="139"/>
       <c r="J151" s="139"/>
       <c r="K151" s="140"/>
       <c r="L151" s="138" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M151" s="139"/>
       <c r="N151" s="139"/>
@@ -11996,7 +11991,7 @@
     </row>
     <row r="153" ht="24" customHeight="1">
       <c r="B153" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C153" s="63">
         <v>0.010000000000000002</v>
@@ -12184,7 +12179,7 @@
     </row>
     <row r="157" ht="24" customHeight="1">
       <c r="B157" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C157" s="70">
         <v>20000</v>
@@ -12231,11 +12226,11 @@
     </row>
     <row r="158" ht="30" customHeight="1">
       <c r="B158" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C158" s="131"/>
       <c r="D158" s="132" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E158" s="132"/>
       <c r="F158" s="132"/>
@@ -12254,23 +12249,23 @@
     </row>
     <row r="160">
       <c r="B160" s="53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C160" s="138" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D160" s="139"/>
       <c r="E160" s="139"/>
       <c r="F160" s="140"/>
       <c r="G160" s="139" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H160" s="139"/>
       <c r="I160" s="139"/>
       <c r="J160" s="139"/>
       <c r="K160" s="140"/>
       <c r="L160" s="138" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M160" s="139"/>
       <c r="N160" s="139"/>
@@ -12324,7 +12319,7 @@
     </row>
     <row r="162" ht="24" customHeight="1">
       <c r="B162" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C162" s="63">
         <v>0.0001</v>
@@ -12512,7 +12507,7 @@
     </row>
     <row r="166" ht="24" customHeight="1">
       <c r="B166" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C166" s="70">
         <v>200</v>
@@ -12559,11 +12554,11 @@
     </row>
     <row r="167" ht="30" customHeight="1">
       <c r="B167" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C167" s="131"/>
       <c r="D167" s="132" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E167" s="132"/>
       <c r="F167" s="132"/>
@@ -12582,23 +12577,23 @@
     </row>
     <row r="169">
       <c r="B169" s="53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C169" s="138" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D169" s="139"/>
       <c r="E169" s="139"/>
       <c r="F169" s="140"/>
       <c r="G169" s="139" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H169" s="139"/>
       <c r="I169" s="139"/>
       <c r="J169" s="139"/>
       <c r="K169" s="140"/>
       <c r="L169" s="138" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M169" s="139"/>
       <c r="N169" s="139"/>
@@ -12652,7 +12647,7 @@
     </row>
     <row r="171" ht="24" customHeight="1">
       <c r="B171" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C171" s="63">
         <v>0.015121978021978023</v>
@@ -12840,7 +12835,7 @@
     </row>
     <row r="175" ht="24" customHeight="1">
       <c r="B175" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C175" s="70">
         <v>30243.956043956026</v>
@@ -12887,11 +12882,11 @@
     </row>
     <row r="176" ht="30" customHeight="1">
       <c r="B176" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C176" s="131"/>
       <c r="D176" s="132" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E176" s="132"/>
       <c r="F176" s="132"/>
@@ -12910,23 +12905,23 @@
     </row>
     <row r="178">
       <c r="B178" s="53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C178" s="138" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D178" s="139"/>
       <c r="E178" s="139"/>
       <c r="F178" s="140"/>
       <c r="G178" s="139" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H178" s="139"/>
       <c r="I178" s="139"/>
       <c r="J178" s="139"/>
       <c r="K178" s="140"/>
       <c r="L178" s="138" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M178" s="139"/>
       <c r="N178" s="139"/>
@@ -12980,7 +12975,7 @@
     </row>
     <row r="180" ht="24" customHeight="1">
       <c r="B180" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C180" s="63">
         <v>0.004807692307692308</v>
@@ -13168,7 +13163,7 @@
     </row>
     <row r="184" ht="24" customHeight="1">
       <c r="B184" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C184" s="70">
         <v>9615.3846153846</v>
@@ -13215,7 +13210,7 @@
     </row>
     <row r="185" ht="30" customHeight="1">
       <c r="B185" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C185" s="131"/>
       <c r="D185" s="132"/>
@@ -13234,23 +13229,23 @@
     </row>
     <row r="187">
       <c r="B187" s="53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C187" s="138" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D187" s="139"/>
       <c r="E187" s="139"/>
       <c r="F187" s="140"/>
       <c r="G187" s="139" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H187" s="139"/>
       <c r="I187" s="139"/>
       <c r="J187" s="139"/>
       <c r="K187" s="140"/>
       <c r="L187" s="138" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M187" s="139"/>
       <c r="N187" s="139"/>
@@ -13304,7 +13299,7 @@
     </row>
     <row r="189" ht="24" customHeight="1">
       <c r="B189" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C189" s="63">
         <v>0.004807692307692308</v>
@@ -13492,7 +13487,7 @@
     </row>
     <row r="193" ht="24" customHeight="1">
       <c r="B193" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C193" s="70">
         <v>9615.3846153846</v>
@@ -13539,7 +13534,7 @@
     </row>
     <row r="194" ht="30" customHeight="1">
       <c r="B194" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C194" s="131"/>
       <c r="D194" s="132"/>
@@ -13558,23 +13553,23 @@
     </row>
     <row r="196">
       <c r="B196" s="53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C196" s="138" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D196" s="139"/>
       <c r="E196" s="139"/>
       <c r="F196" s="140"/>
       <c r="G196" s="139" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H196" s="139"/>
       <c r="I196" s="139"/>
       <c r="J196" s="139"/>
       <c r="K196" s="140"/>
       <c r="L196" s="138" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M196" s="139"/>
       <c r="N196" s="139"/>
@@ -13628,7 +13623,7 @@
     </row>
     <row r="198" ht="24" customHeight="1">
       <c r="B198" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C198" s="63">
         <v>0.017750000000000005</v>
@@ -13816,7 +13811,7 @@
     </row>
     <row r="202" ht="24" customHeight="1">
       <c r="B202" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C202" s="70">
         <v>35500</v>
@@ -13863,7 +13858,7 @@
     </row>
     <row r="203" ht="30" customHeight="1">
       <c r="B203" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C203" s="131"/>
       <c r="D203" s="132"/>
@@ -13882,23 +13877,23 @@
     </row>
     <row r="205">
       <c r="B205" s="53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C205" s="138" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D205" s="139"/>
       <c r="E205" s="139"/>
       <c r="F205" s="140"/>
       <c r="G205" s="139" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H205" s="139"/>
       <c r="I205" s="139"/>
       <c r="J205" s="139"/>
       <c r="K205" s="140"/>
       <c r="L205" s="138" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M205" s="139"/>
       <c r="N205" s="139"/>
@@ -13952,7 +13947,7 @@
     </row>
     <row r="207" ht="24" customHeight="1">
       <c r="B207" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C207" s="63">
         <v>0.020000000000000004</v>
@@ -14140,7 +14135,7 @@
     </row>
     <row r="211" ht="24" customHeight="1">
       <c r="B211" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C211" s="70">
         <v>40000</v>
@@ -14187,11 +14182,11 @@
     </row>
     <row r="212" ht="30" customHeight="1">
       <c r="B212" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C212" s="131"/>
       <c r="D212" s="132" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E212" s="132"/>
       <c r="F212" s="132"/>
@@ -14210,23 +14205,23 @@
     </row>
     <row r="214">
       <c r="B214" s="53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C214" s="138" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D214" s="139"/>
       <c r="E214" s="139"/>
       <c r="F214" s="140"/>
       <c r="G214" s="139" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H214" s="139"/>
       <c r="I214" s="139"/>
       <c r="J214" s="139"/>
       <c r="K214" s="140"/>
       <c r="L214" s="138" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M214" s="139"/>
       <c r="N214" s="139"/>
@@ -14280,7 +14275,7 @@
     </row>
     <row r="216" ht="24" customHeight="1">
       <c r="B216" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C216" s="63">
         <v>0.0002</v>
@@ -14468,7 +14463,7 @@
     </row>
     <row r="220" ht="24" customHeight="1">
       <c r="B220" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C220" s="70">
         <v>400</v>
@@ -14515,11 +14510,11 @@
     </row>
     <row r="221" ht="30" customHeight="1">
       <c r="B221" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C221" s="131"/>
       <c r="D221" s="132" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E221" s="132"/>
       <c r="F221" s="132"/>
@@ -14538,23 +14533,23 @@
     </row>
     <row r="223">
       <c r="B223" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C223" s="138" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D223" s="139"/>
       <c r="E223" s="139"/>
       <c r="F223" s="140"/>
       <c r="G223" s="139" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H223" s="139"/>
       <c r="I223" s="139"/>
       <c r="J223" s="139"/>
       <c r="K223" s="140"/>
       <c r="L223" s="138" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M223" s="139"/>
       <c r="N223" s="139"/>
@@ -14608,7 +14603,7 @@
     </row>
     <row r="225" ht="24" customHeight="1">
       <c r="B225" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C225" s="63">
         <v>0.037950000000000012</v>
@@ -14796,7 +14791,7 @@
     </row>
     <row r="229" ht="24" customHeight="1">
       <c r="B229" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C229" s="70">
         <v>75900</v>
@@ -14843,11 +14838,11 @@
     </row>
     <row r="230" ht="30" customHeight="1">
       <c r="B230" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C230" s="131"/>
       <c r="D230" s="132" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E230" s="132"/>
       <c r="F230" s="132"/>
@@ -14866,23 +14861,23 @@
     </row>
     <row r="232">
       <c r="B232" s="53" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C232" s="138" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D232" s="139"/>
       <c r="E232" s="139"/>
       <c r="F232" s="140"/>
       <c r="G232" s="139" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H232" s="139"/>
       <c r="I232" s="139"/>
       <c r="J232" s="139"/>
       <c r="K232" s="140"/>
       <c r="L232" s="138" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M232" s="139"/>
       <c r="N232" s="139"/>
@@ -14936,7 +14931,7 @@
     </row>
     <row r="234" ht="24" customHeight="1">
       <c r="B234" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C234" s="63">
         <v>0.017750000000000005</v>
@@ -15124,7 +15119,7 @@
     </row>
     <row r="238" ht="24" customHeight="1">
       <c r="B238" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C238" s="70">
         <v>35500</v>
@@ -15171,7 +15166,7 @@
     </row>
     <row r="239" ht="30" customHeight="1">
       <c r="B239" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C239" s="131"/>
       <c r="D239" s="132"/>
@@ -15190,23 +15185,23 @@
     </row>
     <row r="241">
       <c r="B241" s="53" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C241" s="138" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D241" s="139"/>
       <c r="E241" s="139"/>
       <c r="F241" s="140"/>
       <c r="G241" s="139" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H241" s="139"/>
       <c r="I241" s="139"/>
       <c r="J241" s="139"/>
       <c r="K241" s="140"/>
       <c r="L241" s="138" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M241" s="139"/>
       <c r="N241" s="139"/>
@@ -15260,7 +15255,7 @@
     </row>
     <row r="243" ht="24" customHeight="1">
       <c r="B243" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C243" s="63">
         <v>0.020000000000000004</v>
@@ -15448,7 +15443,7 @@
     </row>
     <row r="247" ht="24" customHeight="1">
       <c r="B247" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C247" s="70">
         <v>40000</v>
@@ -15495,11 +15490,11 @@
     </row>
     <row r="248" ht="30" customHeight="1">
       <c r="B248" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C248" s="131"/>
       <c r="D248" s="132" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E248" s="132"/>
       <c r="F248" s="132"/>
@@ -15518,23 +15513,23 @@
     </row>
     <row r="250">
       <c r="B250" s="53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C250" s="138" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D250" s="139"/>
       <c r="E250" s="139"/>
       <c r="F250" s="140"/>
       <c r="G250" s="139" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H250" s="139"/>
       <c r="I250" s="139"/>
       <c r="J250" s="139"/>
       <c r="K250" s="140"/>
       <c r="L250" s="138" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M250" s="139"/>
       <c r="N250" s="139"/>
@@ -15588,7 +15583,7 @@
     </row>
     <row r="252" ht="24" customHeight="1">
       <c r="B252" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C252" s="63">
         <v>0.049700000000000008</v>
@@ -15776,7 +15771,7 @@
     </row>
     <row r="256" ht="24" customHeight="1">
       <c r="B256" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C256" s="70">
         <v>99400</v>
@@ -15823,11 +15818,11 @@
     </row>
     <row r="257" ht="30" customHeight="1">
       <c r="B257" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C257" s="131"/>
       <c r="D257" s="132" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E257" s="132"/>
       <c r="F257" s="132"/>
@@ -15846,23 +15841,23 @@
     </row>
     <row r="259">
       <c r="B259" s="53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C259" s="138" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D259" s="139"/>
       <c r="E259" s="139"/>
       <c r="F259" s="140"/>
       <c r="G259" s="139" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H259" s="139"/>
       <c r="I259" s="139"/>
       <c r="J259" s="139"/>
       <c r="K259" s="140"/>
       <c r="L259" s="138" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M259" s="139"/>
       <c r="N259" s="139"/>
@@ -15916,7 +15911,7 @@
     </row>
     <row r="261" ht="24" customHeight="1">
       <c r="B261" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C261" s="63">
         <v>0.087450000000000028</v>
@@ -16104,7 +16099,7 @@
     </row>
     <row r="265" ht="24" customHeight="1">
       <c r="B265" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C265" s="70">
         <v>174900</v>
@@ -16151,11 +16146,11 @@
     </row>
     <row r="266" ht="30" customHeight="1">
       <c r="B266" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C266" s="131"/>
       <c r="D266" s="132" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E266" s="132"/>
       <c r="F266" s="132"/>
@@ -16174,23 +16169,23 @@
     </row>
     <row r="268">
       <c r="B268" s="53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C268" s="138" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D268" s="139"/>
       <c r="E268" s="139"/>
       <c r="F268" s="140"/>
       <c r="G268" s="139" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H268" s="139"/>
       <c r="I268" s="139"/>
       <c r="J268" s="139"/>
       <c r="K268" s="140"/>
       <c r="L268" s="138" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M268" s="139"/>
       <c r="N268" s="139"/>
@@ -16244,7 +16239,7 @@
     </row>
     <row r="270" ht="24" customHeight="1">
       <c r="B270" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C270" s="63"/>
       <c r="D270" s="64"/>
@@ -16293,10 +16288,10 @@
         <v>28</v>
       </c>
       <c r="C272" s="66" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D272" s="36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E272" s="36"/>
       <c r="F272" s="58"/>
@@ -16310,7 +16305,7 @@
       <c r="N272" s="36"/>
       <c r="O272" s="58"/>
       <c r="P272" s="58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="273" ht="24" customHeight="1">
@@ -16318,10 +16313,10 @@
         <v>30</v>
       </c>
       <c r="C273" s="73" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D273" s="38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E273" s="38"/>
       <c r="F273" s="74"/>
@@ -16335,18 +16330,18 @@
       <c r="N273" s="38"/>
       <c r="O273" s="74"/>
       <c r="P273" s="74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="274" ht="24" customHeight="1">
       <c r="B274" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C274" s="70" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D274" s="71" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E274" s="71"/>
       <c r="F274" s="72"/>
@@ -16360,12 +16355,12 @@
       <c r="N274" s="71"/>
       <c r="O274" s="72"/>
       <c r="P274" s="72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="275" ht="30" customHeight="1">
       <c r="B275" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C275" s="131"/>
       <c r="D275" s="132"/>
@@ -16582,7 +16577,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>16</v>
@@ -16615,7 +16610,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="B7" s="53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -16876,7 +16871,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -19132,97 +19127,97 @@
     <row r="1" ht="18" customHeight="1"/>
     <row r="2" ht="27.95" customHeight="1">
       <c r="D2" s="5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
     <row r="4" ht="104.1" customHeight="1" s="116" customFormat="1">
       <c r="C4" s="144" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D4" s="144"/>
     </row>
     <row r="5" ht="110.1" customHeight="1" s="116" customFormat="1">
       <c r="C5" s="144" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D5" s="144"/>
     </row>
     <row r="6" ht="209.1" customHeight="1" s="116" customFormat="1">
       <c r="C6" s="144" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D6" s="144"/>
     </row>
     <row r="7" ht="89.1" customHeight="1" s="116" customFormat="1">
       <c r="C7" s="144" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D7" s="144"/>
     </row>
     <row r="8" ht="150" customHeight="1" s="116" customFormat="1">
       <c r="C8" s="144" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D8" s="144"/>
     </row>
     <row r="9" ht="200.1" customHeight="1" s="116" customFormat="1">
       <c r="C9" s="144" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D9" s="144"/>
     </row>
     <row r="10" ht="147.95" customHeight="1" s="116" customFormat="1">
       <c r="C10" s="144" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D10" s="144"/>
     </row>
     <row r="11" ht="134.1" customHeight="1" s="116" customFormat="1">
       <c r="C11" s="144" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D11" s="144"/>
     </row>
     <row r="12" ht="54" customHeight="1" s="116" customFormat="1">
       <c r="C12" s="144" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D12" s="144"/>
     </row>
     <row r="13" ht="69.95" customHeight="1" s="116" customFormat="1">
       <c r="C13" s="144" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D13" s="144"/>
     </row>
     <row r="14" ht="128.1" customHeight="1" s="116" customFormat="1">
       <c r="C14" s="144" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D14" s="144"/>
     </row>
     <row r="15" ht="51.95" customHeight="1" s="116" customFormat="1">
       <c r="C15" s="144" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D15" s="144"/>
     </row>
     <row r="16" ht="84" customHeight="1" s="116" customFormat="1">
       <c r="C16" s="144" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D16" s="144"/>
     </row>
     <row r="17" ht="69.95" customHeight="1" s="116" customFormat="1">
       <c r="C17" s="144" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D17" s="144"/>
     </row>
     <row r="18" ht="180" customHeight="1" s="116" customFormat="1">
       <c r="C18" s="144" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D18" s="144"/>
     </row>
@@ -19258,7 +19253,7 @@
   </sheetPr>
   <dimension ref="A2:T57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0" tabSelected="0">
+    <sheetView showGridLines="0" tabSelected="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
@@ -19283,10 +19278,10 @@
     <row r="2" ht="27.95" customHeight="1">
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -19321,24 +19316,24 @@
     </row>
     <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
       <c r="C5" s="134" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D5" s="134"/>
       <c r="E5" s="134" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F5" s="134"/>
       <c r="G5" s="134"/>
       <c r="H5" s="134" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I5" s="134"/>
       <c r="J5" s="134" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K5" s="134"/>
       <c r="L5" s="134" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M5" s="134"/>
       <c r="N5" s="76" t="s">
@@ -19350,7 +19345,7 @@
       <c r="R5" s="134"/>
       <c r="S5" s="134"/>
       <c r="T5" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -19370,7 +19365,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="7"/>
@@ -19385,7 +19380,7 @@
       <c r="L7" s="139"/>
       <c r="M7" s="140"/>
       <c r="N7" s="138" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="O7" s="139"/>
       <c r="P7" s="139"/>
@@ -19396,14 +19391,14 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>23</v>
@@ -19456,14 +19451,14 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E9" s="119">
         <v>0</v>
@@ -19516,14 +19511,14 @@
     </row>
     <row r="10" ht="24" customHeight="1">
       <c r="A10" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E10" s="119">
         <v>0</v>
@@ -19576,14 +19571,14 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="A11" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E11" s="119">
         <v>0</v>
@@ -19636,14 +19631,14 @@
     </row>
     <row r="12" ht="24" customHeight="1">
       <c r="A12" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E12" s="119">
         <v>0</v>
@@ -19696,14 +19691,14 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="A13" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E13" s="119">
         <v>0</v>
@@ -19756,14 +19751,14 @@
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="A14" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E14" s="119">
         <v>0</v>
@@ -19816,14 +19811,14 @@
     </row>
     <row r="15" ht="24" customHeight="1">
       <c r="A15" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E15" s="119">
         <v>0</v>
@@ -19876,14 +19871,14 @@
     </row>
     <row r="16" ht="24" customHeight="1">
       <c r="A16" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E16" s="119">
         <v>0</v>
@@ -19936,14 +19931,14 @@
     </row>
     <row r="17" ht="24" customHeight="1">
       <c r="A17" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E17" s="119">
         <v>0</v>
@@ -19996,14 +19991,14 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E18" s="119">
         <v>0</v>
@@ -20058,7 +20053,7 @@
       <c r="B19" s="25"/>
       <c r="C19" s="39"/>
       <c r="D19" s="40" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E19" s="51">
         <v>0</v>
@@ -20111,7 +20106,7 @@
     </row>
     <row r="21" ht="24" customHeight="1">
       <c r="C21" s="53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D21" s="53"/>
       <c r="E21" s="7"/>
@@ -20126,7 +20121,7 @@
       <c r="L21" s="139"/>
       <c r="M21" s="140"/>
       <c r="N21" s="138" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="O21" s="139"/>
       <c r="P21" s="139"/>
@@ -20137,14 +20132,14 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="A22" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E22" s="40" t="s">
         <v>23</v>
@@ -20197,14 +20192,14 @@
     </row>
     <row r="23" ht="24" customHeight="1">
       <c r="A23" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E23" s="119">
         <v>0</v>
@@ -20257,14 +20252,14 @@
     </row>
     <row r="24" ht="24" customHeight="1">
       <c r="A24" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E24" s="119">
         <v>0</v>
@@ -20317,14 +20312,14 @@
     </row>
     <row r="25" ht="24" customHeight="1">
       <c r="A25" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E25" s="119">
         <v>0</v>
@@ -20377,14 +20372,14 @@
     </row>
     <row r="26" ht="24" customHeight="1">
       <c r="A26" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E26" s="119">
         <v>0</v>
@@ -20437,14 +20432,14 @@
     </row>
     <row r="27" ht="24" customHeight="1">
       <c r="A27" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E27" s="119">
         <v>0</v>
@@ -20497,14 +20492,14 @@
     </row>
     <row r="28" ht="24" customHeight="1">
       <c r="A28" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E28" s="119">
         <v>0</v>
@@ -20557,14 +20552,14 @@
     </row>
     <row r="29" ht="24" customHeight="1">
       <c r="A29" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E29" s="119">
         <v>0</v>
@@ -20617,14 +20612,14 @@
     </row>
     <row r="30" ht="24" customHeight="1">
       <c r="A30" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E30" s="119">
         <v>0</v>
@@ -20677,14 +20672,14 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="A31" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E31" s="119">
         <v>0</v>
@@ -20737,14 +20732,14 @@
     </row>
     <row r="32" ht="24" customHeight="1">
       <c r="A32" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E32" s="119">
         <v>0</v>
@@ -20799,7 +20794,7 @@
       <c r="B33" s="25"/>
       <c r="C33" s="39"/>
       <c r="D33" s="40" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E33" s="51">
         <v>0</v>
@@ -20867,7 +20862,7 @@
       <c r="L35" s="139"/>
       <c r="M35" s="140"/>
       <c r="N35" s="138" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="O35" s="139"/>
       <c r="P35" s="139"/>
@@ -20878,14 +20873,14 @@
     </row>
     <row r="36" ht="24" customHeight="1">
       <c r="A36" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E36" s="40" t="s">
         <v>23</v>
@@ -20938,14 +20933,14 @@
     </row>
     <row r="37" ht="24" customHeight="1">
       <c r="A37" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E37" s="119">
         <v>0</v>
@@ -20998,14 +20993,14 @@
     </row>
     <row r="38" ht="24" customHeight="1">
       <c r="A38" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E38" s="119">
         <v>0</v>
@@ -21058,14 +21053,14 @@
     </row>
     <row r="39" ht="24" customHeight="1">
       <c r="A39" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E39" s="119">
         <v>0</v>
@@ -21118,14 +21113,14 @@
     </row>
     <row r="40" ht="24" customHeight="1">
       <c r="A40" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E40" s="119">
         <v>0</v>
@@ -21178,14 +21173,14 @@
     </row>
     <row r="41" ht="24" customHeight="1">
       <c r="A41" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E41" s="119">
         <v>0</v>
@@ -21238,14 +21233,14 @@
     </row>
     <row r="42" ht="24" customHeight="1">
       <c r="A42" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B42" s="25"/>
       <c r="C42" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E42" s="119">
         <v>0</v>
@@ -21298,14 +21293,14 @@
     </row>
     <row r="43" ht="24" customHeight="1">
       <c r="A43" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B43" s="25"/>
       <c r="C43" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E43" s="119">
         <v>0</v>
@@ -21358,14 +21353,14 @@
     </row>
     <row r="44" ht="24" customHeight="1">
       <c r="A44" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B44" s="25"/>
       <c r="C44" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E44" s="119">
         <v>0</v>
@@ -21418,14 +21413,14 @@
     </row>
     <row r="45" ht="24" customHeight="1">
       <c r="A45" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E45" s="119">
         <v>0</v>
@@ -21478,14 +21473,14 @@
     </row>
     <row r="46" ht="24" customHeight="1">
       <c r="A46" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B46" s="25"/>
       <c r="C46" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E46" s="119">
         <v>0</v>
@@ -21540,7 +21535,7 @@
       <c r="B47" s="25"/>
       <c r="C47" s="39"/>
       <c r="D47" s="40" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E47" s="51">
         <v>0</v>
@@ -21598,7 +21593,7 @@
       <c r="D49" s="55"/>
       <c r="E49" s="117"/>
       <c r="F49" s="145" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="G49" s="145"/>
       <c r="H49" s="145"/>
@@ -21640,7 +21635,7 @@
       </c>
       <c r="D51" s="55"/>
       <c r="F51" s="145" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="G51" s="145"/>
       <c r="H51" s="145"/>
@@ -21683,7 +21678,7 @@
       <c r="D53" s="55"/>
       <c r="E53" s="117"/>
       <c r="F53" s="145" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G53" s="145"/>
       <c r="H53" s="145"/>
@@ -21725,7 +21720,7 @@
       </c>
       <c r="D55" s="55"/>
       <c r="F55" s="145" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="G55" s="145"/>
       <c r="H55" s="145"/>
@@ -21767,7 +21762,7 @@
       </c>
       <c r="D57" s="55"/>
       <c r="F57" s="136" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="G57" s="136"/>
       <c r="H57" s="136"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t>Broadcast Proposal Gorilla Glue Q4 '19 - Q1 '20</t>
   </si>
@@ -981,7 +981,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/25/20</t>
+    <t>Created 02/26/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1012,6 +1012,59 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="12"/>
+        <d:color rgb="FF3D5261"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve">MDN: </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="12"/>
+        <d:color rgb="FF3D5261"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve">Genre Excludes Documentary, Action/Adventure, Children (Plan ID 1850) | Program Includes BIG BANG THEORY, Big Bang Theory/Young Sheldon-CBS (Plan ID 1850)</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="12"/>
+        <d:color rgb="FF3D5261"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> MDN: </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="12"/>
+        <d:color rgb="FF3D5261"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve">Genre Includes Documentary (Plan ID 1851) | Program Excludes The Big Bang Theory (Plan ID 1851)</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="12"/>
+        <d:color rgb="FF3D5261"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> PA: </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="12"/>
+        <d:color rgb="FF3D5261"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve">Genre Includes Documentary (Plan ID 1850) | Program Excludes The Big Bang Theory (Plan ID 1850)</d:t>
+    </d:r>
   </si>
 </sst>
 </file>
@@ -1465,7 +1518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="145">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -1896,9 +1949,6 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2641,7 +2691,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/25/20</v>
+        <v>Created 02/26/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -6732,7 +6782,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/25/20</v>
+        <v>Created 02/26/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -20945,8 +20995,8 @@
       <c r="E37" s="119">
         <v>0</v>
       </c>
-      <c r="F37" s="120" t="s">
-        <v>38</v>
+      <c r="F37" s="120">
+        <v>0</v>
       </c>
       <c r="G37" s="121">
         <v>253000</v>
@@ -21005,8 +21055,8 @@
       <c r="E38" s="119">
         <v>0</v>
       </c>
-      <c r="F38" s="120" t="s">
-        <v>38</v>
+      <c r="F38" s="120">
+        <v>0</v>
       </c>
       <c r="G38" s="121">
         <v>250000</v>
@@ -21065,8 +21115,8 @@
       <c r="E39" s="119">
         <v>0</v>
       </c>
-      <c r="F39" s="120" t="s">
-        <v>38</v>
+      <c r="F39" s="120">
+        <v>0</v>
       </c>
       <c r="G39" s="121">
         <v>248500</v>
@@ -21125,8 +21175,8 @@
       <c r="E40" s="119">
         <v>0</v>
       </c>
-      <c r="F40" s="120" t="s">
-        <v>38</v>
+      <c r="F40" s="120">
+        <v>0</v>
       </c>
       <c r="G40" s="121">
         <v>248500</v>
@@ -21185,8 +21235,8 @@
       <c r="E41" s="119">
         <v>0</v>
       </c>
-      <c r="F41" s="120" t="s">
-        <v>38</v>
+      <c r="F41" s="120">
+        <v>0</v>
       </c>
       <c r="G41" s="121">
         <v>200000</v>
@@ -21245,8 +21295,8 @@
       <c r="E42" s="119">
         <v>0</v>
       </c>
-      <c r="F42" s="120" t="s">
-        <v>38</v>
+      <c r="F42" s="120">
+        <v>0</v>
       </c>
       <c r="G42" s="121">
         <v>200000</v>
@@ -21305,8 +21355,8 @@
       <c r="E43" s="119">
         <v>0</v>
       </c>
-      <c r="F43" s="120" t="s">
-        <v>38</v>
+      <c r="F43" s="120">
+        <v>0</v>
       </c>
       <c r="G43" s="121">
         <v>100000</v>
@@ -21365,8 +21415,8 @@
       <c r="E44" s="119">
         <v>0</v>
       </c>
-      <c r="F44" s="120" t="s">
-        <v>38</v>
+      <c r="F44" s="120">
+        <v>0</v>
       </c>
       <c r="G44" s="121">
         <v>1000</v>
@@ -21425,8 +21475,8 @@
       <c r="E45" s="119">
         <v>0</v>
       </c>
-      <c r="F45" s="120" t="s">
-        <v>38</v>
+      <c r="F45" s="120">
+        <v>0</v>
       </c>
       <c r="G45" s="121">
         <v>2000</v>
@@ -21485,8 +21535,8 @@
       <c r="E46" s="119">
         <v>0</v>
       </c>
-      <c r="F46" s="120" t="s">
-        <v>38</v>
+      <c r="F46" s="120">
+        <v>0</v>
       </c>
       <c r="G46" s="121">
         <v>497000</v>
@@ -21586,198 +21636,67 @@
         <v>3345.69</v>
       </c>
     </row>
-    <row r="49" ht="48" customHeight="1">
+    <row r="48" ht="8.1" customHeight="1">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="118"/>
+      <c r="J48" s="118"/>
+      <c r="K48" s="118"/>
+      <c r="L48" s="118"/>
+      <c r="M48" s="118"/>
+      <c r="N48" s="118"/>
+      <c r="O48" s="118"/>
+      <c r="P48" s="118"/>
+      <c r="Q48" s="118"/>
+      <c r="R48" s="118"/>
+      <c r="S48" s="118"/>
+      <c r="T48" s="118"/>
+    </row>
+    <row r="49" ht="147" customHeight="1">
       <c r="C49" s="55" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D49" s="55"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="145" t="s">
+      <c r="F49" s="136" t="s">
         <v>156</v>
       </c>
-      <c r="G49" s="145"/>
-      <c r="H49" s="145"/>
-      <c r="I49" s="145"/>
-      <c r="J49" s="145"/>
-      <c r="K49" s="145"/>
-      <c r="L49" s="145"/>
-      <c r="M49" s="145"/>
-      <c r="N49" s="145"/>
-      <c r="O49" s="145"/>
-      <c r="P49" s="145"/>
-      <c r="Q49" s="145"/>
-      <c r="R49" s="145"/>
-      <c r="S49" s="145"/>
-      <c r="T49" s="145"/>
-    </row>
-    <row r="50" ht="8.1" customHeight="1">
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="76"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="76"/>
-      <c r="N50" s="76"/>
-      <c r="O50" s="76"/>
-      <c r="P50" s="76"/>
-      <c r="Q50" s="76"/>
-      <c r="R50" s="76"/>
-      <c r="S50" s="76"/>
-      <c r="T50" s="76"/>
-    </row>
-    <row r="51" ht="48" customHeight="1" s="117" customFormat="1">
-      <c r="C51" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="55"/>
-      <c r="F51" s="145" t="s">
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="136"/>
+      <c r="K49" s="136"/>
+      <c r="L49" s="136"/>
+      <c r="M49" s="136"/>
+      <c r="N49" s="136"/>
+      <c r="O49" s="136"/>
+      <c r="P49" s="136"/>
+      <c r="Q49" s="136"/>
+      <c r="R49" s="136"/>
+      <c r="S49" s="136"/>
+      <c r="T49" s="136"/>
+    </row>
+    <row r="51">
+      <c r="F51" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="G51" s="145"/>
-      <c r="H51" s="145"/>
-      <c r="I51" s="145"/>
-      <c r="J51" s="145"/>
-      <c r="K51" s="145"/>
-      <c r="L51" s="145"/>
-      <c r="M51" s="145"/>
-      <c r="N51" s="145"/>
-      <c r="O51" s="145"/>
-      <c r="P51" s="145"/>
-      <c r="Q51" s="145"/>
-      <c r="R51" s="145"/>
-      <c r="S51" s="145"/>
-      <c r="T51" s="145"/>
-    </row>
-    <row r="52" ht="8.1" customHeight="1">
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="118"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="118"/>
-      <c r="M52" s="118"/>
-      <c r="N52" s="118"/>
-      <c r="O52" s="118"/>
-      <c r="P52" s="118"/>
-      <c r="Q52" s="118"/>
-      <c r="R52" s="118"/>
-      <c r="S52" s="118"/>
-      <c r="T52" s="118"/>
-    </row>
-    <row r="53" ht="48" customHeight="1">
-      <c r="C53" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" s="55"/>
-      <c r="E53" s="117"/>
-      <c r="F53" s="145" t="s">
-        <v>157</v>
-      </c>
-      <c r="G53" s="145"/>
-      <c r="H53" s="145"/>
-      <c r="I53" s="145"/>
-      <c r="J53" s="145"/>
-      <c r="K53" s="145"/>
-      <c r="L53" s="145"/>
-      <c r="M53" s="145"/>
-      <c r="N53" s="145"/>
-      <c r="O53" s="145"/>
-      <c r="P53" s="145"/>
-      <c r="Q53" s="145"/>
-      <c r="R53" s="145"/>
-      <c r="S53" s="145"/>
-      <c r="T53" s="145"/>
-    </row>
-    <row r="54" ht="8.1" customHeight="1">
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="F54" s="118"/>
-      <c r="G54" s="118"/>
-      <c r="H54" s="118"/>
-      <c r="I54" s="118"/>
-      <c r="J54" s="118"/>
-      <c r="K54" s="118"/>
-      <c r="L54" s="118"/>
-      <c r="M54" s="118"/>
-      <c r="N54" s="118"/>
-      <c r="O54" s="118"/>
-      <c r="P54" s="118"/>
-      <c r="Q54" s="118"/>
-      <c r="R54" s="118"/>
-      <c r="S54" s="118"/>
-      <c r="T54" s="118"/>
-    </row>
-    <row r="55" ht="48.95" customHeight="1" s="117" customFormat="1">
-      <c r="C55" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="55"/>
-      <c r="F55" s="145" t="s">
+    </row>
+    <row r="53">
+      <c r="F53" s="99" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="F55" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="G55" s="145"/>
-      <c r="H55" s="145"/>
-      <c r="I55" s="145"/>
-      <c r="J55" s="145"/>
-      <c r="K55" s="145"/>
-      <c r="L55" s="145"/>
-      <c r="M55" s="145"/>
-      <c r="N55" s="145"/>
-      <c r="O55" s="145"/>
-      <c r="P55" s="145"/>
-      <c r="Q55" s="145"/>
-      <c r="R55" s="145"/>
-      <c r="S55" s="145"/>
-      <c r="T55" s="145"/>
-    </row>
-    <row r="56" ht="8.1" customHeight="1">
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="F56" s="118"/>
-      <c r="G56" s="118"/>
-      <c r="H56" s="118"/>
-      <c r="I56" s="118"/>
-      <c r="J56" s="118"/>
-      <c r="K56" s="118"/>
-      <c r="L56" s="118"/>
-      <c r="M56" s="118"/>
-      <c r="N56" s="118"/>
-      <c r="O56" s="118"/>
-      <c r="P56" s="118"/>
-      <c r="Q56" s="118"/>
-      <c r="R56" s="118"/>
-      <c r="S56" s="118"/>
-      <c r="T56" s="118"/>
-    </row>
-    <row r="57" ht="147" customHeight="1">
-      <c r="C57" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57" s="55"/>
-      <c r="F57" s="136" t="s">
+    </row>
+    <row r="57">
+      <c r="F57" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="G57" s="136"/>
-      <c r="H57" s="136"/>
-      <c r="I57" s="136"/>
-      <c r="J57" s="136"/>
-      <c r="K57" s="136"/>
-      <c r="L57" s="136"/>
-      <c r="M57" s="136"/>
-      <c r="N57" s="136"/>
-      <c r="O57" s="136"/>
-      <c r="P57" s="136"/>
-      <c r="Q57" s="136"/>
-      <c r="R57" s="136"/>
-      <c r="S57" s="136"/>
-      <c r="T57" s="136"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -21785,16 +21704,12 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F51:T51"/>
-    <mergeCell ref="F53:T53"/>
-    <mergeCell ref="F55:T55"/>
-    <mergeCell ref="F57:T57"/>
+    <mergeCell ref="F49:T49"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:S5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="N7:T7"/>
-    <mergeCell ref="F49:T49"/>
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:T21"/>
     <mergeCell ref="H35:M35"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3EB8DD41-BA33-4302-AB61-07D30AE281FC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0D2A2E1E-2A02-4798-8291-95558091BBCA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="465" windowWidth="23250" windowHeight="13170" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="465" windowWidth="23250" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Contract" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>Broadcast Proposal Gorilla Glue Q4 '19 - Q1 '20</t>
   </si>
@@ -981,7 +981,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/26/20</t>
+    <t>Created 02/27/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1012,59 +1012,6 @@
   </si>
   <si>
     <t>Totals</t>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="12"/>
-        <d:color rgb="FF3D5261"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t xml:space="preserve">MDN: </d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="12"/>
-        <d:color rgb="FF3D5261"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t xml:space="preserve">Genre Excludes Documentary, Action/Adventure, Children (Plan ID 1850) | Program Includes BIG BANG THEORY, Big Bang Theory/Young Sheldon-CBS (Plan ID 1850)</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="12"/>
-        <d:color rgb="FF3D5261"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t xml:space="preserve"> MDN: </d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="12"/>
-        <d:color rgb="FF3D5261"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t xml:space="preserve">Genre Includes Documentary (Plan ID 1851) | Program Excludes The Big Bang Theory (Plan ID 1851)</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="12"/>
-        <d:color rgb="FF3D5261"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t xml:space="preserve"> PA: </d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="12"/>
-        <d:color rgb="FF3D5261"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t xml:space="preserve">Genre Includes Documentary (Plan ID 1850) | Program Excludes The Big Bang Theory (Plan ID 1850)</d:t>
-    </d:r>
   </si>
 </sst>
 </file>
@@ -1518,7 +1465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -1950,75 +1897,15 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -2665,8 +2552,8 @@
   </sheetPr>
   <dimension ref="A2:T139"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B16" workbookViewId="0" tabSelected="1">
-      <selection activeCell="D18" sqref="D18:K18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2691,7 +2578,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/26/20</v>
+        <v>Created 02/27/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -6782,7 +6669,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/26/20</v>
+        <v>Created 02/27/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -19303,7 +19190,7 @@
   </sheetPr>
   <dimension ref="A2:T57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="0" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0" tabSelected="0">
       <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
@@ -21636,67 +21523,198 @@
         <v>3345.69</v>
       </c>
     </row>
-    <row r="48" ht="8.1" customHeight="1">
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="118"/>
-      <c r="H48" s="118"/>
-      <c r="I48" s="118"/>
-      <c r="J48" s="118"/>
-      <c r="K48" s="118"/>
-      <c r="L48" s="118"/>
-      <c r="M48" s="118"/>
-      <c r="N48" s="118"/>
-      <c r="O48" s="118"/>
-      <c r="P48" s="118"/>
-      <c r="Q48" s="118"/>
-      <c r="R48" s="118"/>
-      <c r="S48" s="118"/>
-      <c r="T48" s="118"/>
-    </row>
-    <row r="49" ht="147" customHeight="1">
+    <row r="49" ht="48" customHeight="1">
       <c r="C49" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="55"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="145" t="s">
+        <v>156</v>
+      </c>
+      <c r="G49" s="145"/>
+      <c r="H49" s="145"/>
+      <c r="I49" s="145"/>
+      <c r="J49" s="145"/>
+      <c r="K49" s="145"/>
+      <c r="L49" s="145"/>
+      <c r="M49" s="145"/>
+      <c r="N49" s="145"/>
+      <c r="O49" s="145"/>
+      <c r="P49" s="145"/>
+      <c r="Q49" s="145"/>
+      <c r="R49" s="145"/>
+      <c r="S49" s="145"/>
+      <c r="T49" s="145"/>
+    </row>
+    <row r="50" ht="8.1" customHeight="1">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="76"/>
+      <c r="P50" s="76"/>
+      <c r="Q50" s="76"/>
+      <c r="R50" s="76"/>
+      <c r="S50" s="76"/>
+      <c r="T50" s="76"/>
+    </row>
+    <row r="51" ht="48" customHeight="1" s="117" customFormat="1">
+      <c r="C51" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="55"/>
+      <c r="F51" s="145" t="s">
+        <v>54</v>
+      </c>
+      <c r="G51" s="145"/>
+      <c r="H51" s="145"/>
+      <c r="I51" s="145"/>
+      <c r="J51" s="145"/>
+      <c r="K51" s="145"/>
+      <c r="L51" s="145"/>
+      <c r="M51" s="145"/>
+      <c r="N51" s="145"/>
+      <c r="O51" s="145"/>
+      <c r="P51" s="145"/>
+      <c r="Q51" s="145"/>
+      <c r="R51" s="145"/>
+      <c r="S51" s="145"/>
+      <c r="T51" s="145"/>
+    </row>
+    <row r="52" ht="8.1" customHeight="1">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="118"/>
+      <c r="J52" s="118"/>
+      <c r="K52" s="118"/>
+      <c r="L52" s="118"/>
+      <c r="M52" s="118"/>
+      <c r="N52" s="118"/>
+      <c r="O52" s="118"/>
+      <c r="P52" s="118"/>
+      <c r="Q52" s="118"/>
+      <c r="R52" s="118"/>
+      <c r="S52" s="118"/>
+      <c r="T52" s="118"/>
+    </row>
+    <row r="53" ht="48" customHeight="1">
+      <c r="C53" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="55"/>
+      <c r="E53" s="117"/>
+      <c r="F53" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="G53" s="145"/>
+      <c r="H53" s="145"/>
+      <c r="I53" s="145"/>
+      <c r="J53" s="145"/>
+      <c r="K53" s="145"/>
+      <c r="L53" s="145"/>
+      <c r="M53" s="145"/>
+      <c r="N53" s="145"/>
+      <c r="O53" s="145"/>
+      <c r="P53" s="145"/>
+      <c r="Q53" s="145"/>
+      <c r="R53" s="145"/>
+      <c r="S53" s="145"/>
+      <c r="T53" s="145"/>
+    </row>
+    <row r="54" ht="8.1" customHeight="1">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="F54" s="118"/>
+      <c r="G54" s="118"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="118"/>
+      <c r="J54" s="118"/>
+      <c r="K54" s="118"/>
+      <c r="L54" s="118"/>
+      <c r="M54" s="118"/>
+      <c r="N54" s="118"/>
+      <c r="O54" s="118"/>
+      <c r="P54" s="118"/>
+      <c r="Q54" s="118"/>
+      <c r="R54" s="118"/>
+      <c r="S54" s="118"/>
+      <c r="T54" s="118"/>
+    </row>
+    <row r="55" ht="48.95" customHeight="1" s="117" customFormat="1">
+      <c r="C55" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="55"/>
+      <c r="F55" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="G55" s="145"/>
+      <c r="H55" s="145"/>
+      <c r="I55" s="145"/>
+      <c r="J55" s="145"/>
+      <c r="K55" s="145"/>
+      <c r="L55" s="145"/>
+      <c r="M55" s="145"/>
+      <c r="N55" s="145"/>
+      <c r="O55" s="145"/>
+      <c r="P55" s="145"/>
+      <c r="Q55" s="145"/>
+      <c r="R55" s="145"/>
+      <c r="S55" s="145"/>
+      <c r="T55" s="145"/>
+    </row>
+    <row r="56" ht="8.1" customHeight="1">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="F56" s="118"/>
+      <c r="G56" s="118"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="118"/>
+      <c r="J56" s="118"/>
+      <c r="K56" s="118"/>
+      <c r="L56" s="118"/>
+      <c r="M56" s="118"/>
+      <c r="N56" s="118"/>
+      <c r="O56" s="118"/>
+      <c r="P56" s="118"/>
+      <c r="Q56" s="118"/>
+      <c r="R56" s="118"/>
+      <c r="S56" s="118"/>
+      <c r="T56" s="118"/>
+    </row>
+    <row r="57" ht="147" customHeight="1">
+      <c r="C57" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="55"/>
-      <c r="F49" s="136" t="s">
-        <v>156</v>
-      </c>
-      <c r="G49" s="136"/>
-      <c r="H49" s="136"/>
-      <c r="I49" s="136"/>
-      <c r="J49" s="136"/>
-      <c r="K49" s="136"/>
-      <c r="L49" s="136"/>
-      <c r="M49" s="136"/>
-      <c r="N49" s="136"/>
-      <c r="O49" s="136"/>
-      <c r="P49" s="136"/>
-      <c r="Q49" s="136"/>
-      <c r="R49" s="136"/>
-      <c r="S49" s="136"/>
-      <c r="T49" s="136"/>
-    </row>
-    <row r="51">
-      <c r="F51" s="99" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="F53" s="99" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="F55" s="99" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="F57" s="99" t="s">
+      <c r="D57" s="55"/>
+      <c r="F57" s="136" t="s">
         <v>159</v>
       </c>
+      <c r="G57" s="136"/>
+      <c r="H57" s="136"/>
+      <c r="I57" s="136"/>
+      <c r="J57" s="136"/>
+      <c r="K57" s="136"/>
+      <c r="L57" s="136"/>
+      <c r="M57" s="136"/>
+      <c r="N57" s="136"/>
+      <c r="O57" s="136"/>
+      <c r="P57" s="136"/>
+      <c r="Q57" s="136"/>
+      <c r="R57" s="136"/>
+      <c r="S57" s="136"/>
+      <c r="T57" s="136"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -21704,12 +21722,16 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F49:T49"/>
+    <mergeCell ref="F51:T51"/>
+    <mergeCell ref="F53:T53"/>
+    <mergeCell ref="F55:T55"/>
+    <mergeCell ref="F57:T57"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:S5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="N7:T7"/>
+    <mergeCell ref="F49:T49"/>
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:T21"/>
     <mergeCell ref="H35:M35"/>
@@ -21720,51 +21742,6 @@
       <formula>$A1="Even"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$A4="Even"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="0" priority="11">
-      <formula>$A5="Even"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="0" priority="10">
-      <formula>$A5="Even"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>$A5="Even"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>$A5="Even"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="expression" dxfId="0" priority="7">
-      <formula>$A5="Even"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>$A4="Even"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$A5="Even"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$A5="Even"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0D2A2E1E-2A02-4798-8291-95558091BBCA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C4E787E8-1200-41A4-A260-D43CD30914D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="465" windowWidth="23250" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
@@ -198,7 +198,7 @@
     <t>Posting</t>
   </si>
   <si>
-    <t>EF - M-SU 03:00pm - 06:00pm, EF - M-TU,TH-SU 03:00pm - 06:00pm, EM - M-SU 06:00am - 09:00am, EM - M-TU,TH-SU 06:00am - 09:00am, MDN - M-F,SU 11:00am - 01:00pm, MDN - M-SU 11:00am - 01:00pm, MDN - M-TU,TH-SU 11:00am - 01:00pm, PA - M-F,SU 06:00pm - 08:00pm</t>
+    <t>EF - M-SU 03:00pm - 06:00pm, EF - W-SU 03:00pm - 06:00pm, EF - TH-SU 03:00pm - 06:00pm, EM - M-SU 06:00am - 09:00am, EM - W-SU 06:00am - 09:00am, EM - TH-SU 06:00am - 09:00am, MDN - M-F,SU 11:00am - 01:00pm, MDN - M-SU 11:00am - 01:00pm, MDN - W-SU 11:00am - 01:00pm, MDN - TH-SU 11:00am - 01:00pm, PA - M-F,SU 06:00pm - 08:00pm</t>
   </si>
   <si>
     <t>1Q '20 MDN :90s</t>
@@ -501,7 +501,7 @@
     <t>Cadent:</t>
   </si>
   <si>
-    <t>Reciept Acknowledged:</t>
+    <t>Receipt Acknowledged:</t>
   </si>
   <si>
     <t>~80% Minimum TV HH Coverage | Blackout Markets: Lansing, Wilmington, Presque Isle | Preferential Markets: Philadelphia, Macon, New York, Binghamton</t>
@@ -2553,7 +2553,7 @@
   <dimension ref="A2:T139"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19016,6 +19016,11 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="C35:T35"/>
     <mergeCell ref="C37:T37"/>
     <mergeCell ref="C39:T39"/>
     <mergeCell ref="C41:T41"/>
@@ -19025,11 +19030,6 @@
     <mergeCell ref="N25:T25"/>
     <mergeCell ref="C31:T31"/>
     <mergeCell ref="C33:T33"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="C35:T35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -21718,11 +21718,6 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F51:T51"/>
     <mergeCell ref="F53:T53"/>
     <mergeCell ref="F55:T55"/>
     <mergeCell ref="F57:T57"/>
@@ -21732,6 +21727,11 @@
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="N7:T7"/>
     <mergeCell ref="F49:T49"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F51:T51"/>
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:T21"/>
     <mergeCell ref="H35:M35"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
@@ -981,7 +981,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/27/20</t>
+    <t>Created 02/28/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/27/20</v>
+        <v>Created 02/28/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -6669,7 +6669,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/27/20</v>
+        <v>Created 02/28/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
@@ -981,7 +981,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/28/20</t>
+    <t>Created 02/29/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/28/20</v>
+        <v>Created 02/29/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -6669,7 +6669,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/28/20</v>
+        <v>Created 02/29/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -11527,10 +11527,18 @@
       <c r="J140" s="133"/>
       <c r="K140" s="131"/>
       <c r="L140" s="132"/>
-      <c r="M140" s="132"/>
-      <c r="N140" s="132"/>
-      <c r="O140" s="133"/>
-      <c r="P140" s="130"/>
+      <c r="M140" s="132" t="s">
+        <v>63</v>
+      </c>
+      <c r="N140" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="O140" s="133" t="s">
+        <v>71</v>
+      </c>
+      <c r="P140" s="130">
+        <v>11</v>
+      </c>
     </row>
     <row r="142">
       <c r="B142" s="53" t="s">
@@ -16300,7 +16308,9 @@
         <v>61</v>
       </c>
       <c r="C275" s="131"/>
-      <c r="D275" s="132"/>
+      <c r="D275" s="132" t="s">
+        <v>93</v>
+      </c>
       <c r="E275" s="132"/>
       <c r="F275" s="132"/>
       <c r="G275" s="131"/>
@@ -16312,7 +16322,9 @@
       <c r="M275" s="132"/>
       <c r="N275" s="132"/>
       <c r="O275" s="133"/>
-      <c r="P275" s="130"/>
+      <c r="P275" s="130">
+        <v>5</v>
+      </c>
     </row>
     <row r="278" ht="24" customHeight="1">
       <c r="P278" s="60"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
@@ -981,7 +981,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/29/20</t>
+    <t>Created 03/02/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/29/20</v>
+        <v>Created 03/02/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -6669,7 +6669,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/29/20</v>
+        <v>Created 03/02/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
@@ -981,7 +981,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/02/20</t>
+    <t>Created 03/03/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/02/20</v>
+        <v>Created 03/03/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -6669,7 +6669,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/02/20</v>
+        <v>Created 03/03/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
@@ -560,7 +560,7 @@
     </d:r>
   </si>
   <si>
-    <t>3/19-3/20/20, 3/24/20, 3/28/20, 4/7/20, 4/9-3/17/20, 3/21/20, 3/26/20, 4/8-3/27/20, 3/29/20</t>
+    <t>3/15-3/17/20, 3/19-3/21/20, 3/24/20, 3/26-3/29/20, 4/7-4/11/20</t>
   </si>
   <si>
     <t>All CPMs are derived from 100% broadcast deliveries, no cable unless otherwise noted.</t>
@@ -981,7 +981,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/03/20</t>
+    <t>Created 03/05/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/03/20</v>
+        <v>Created 03/05/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -6669,7 +6669,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/03/20</v>
+        <v>Created 03/05/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
@@ -981,7 +981,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/05/20</t>
+    <t>Created 03/10/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/05/20</v>
+        <v>Created 03/10/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -6669,7 +6669,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/05/20</v>
+        <v>Created 03/10/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
@@ -981,7 +981,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/10/20</t>
+    <t>Created 03/12/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/10/20</v>
+        <v>Created 03/12/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -6669,7 +6669,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/10/20</v>
+        <v>Created 03/12/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -19542,13 +19542,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="123">
-        <v>12.883544012545308</v>
+        <v>12.883544012545309</v>
       </c>
       <c r="J11" s="119">
         <v>0</v>
       </c>
       <c r="K11" s="119">
-        <v>14200.000000000002</v>
+        <v>14200.000000000004</v>
       </c>
       <c r="L11" s="124">
         <v>12.5</v>
@@ -19563,13 +19563,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="123">
-        <v>53.053331300867683</v>
+        <v>53.05333130086769</v>
       </c>
       <c r="Q11" s="119">
         <v>0</v>
       </c>
       <c r="R11" s="119">
-        <v>7100.0000000000009</v>
+        <v>7100.0000000000018</v>
       </c>
       <c r="S11" s="124">
         <v>25</v>
@@ -19602,13 +19602,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="123">
-        <v>12.883544012545308</v>
+        <v>12.883544012545309</v>
       </c>
       <c r="J12" s="119">
         <v>0</v>
       </c>
       <c r="K12" s="119">
-        <v>14200.000000000002</v>
+        <v>14200.000000000004</v>
       </c>
       <c r="L12" s="124">
         <v>12.5</v>
@@ -19623,13 +19623,13 @@
         <v>0</v>
       </c>
       <c r="P12" s="123">
-        <v>53.053331300867683</v>
+        <v>53.05333130086769</v>
       </c>
       <c r="Q12" s="119">
         <v>0</v>
       </c>
       <c r="R12" s="119">
-        <v>7100.0000000000009</v>
+        <v>7100.0000000000018</v>
       </c>
       <c r="S12" s="124">
         <v>25</v>
@@ -21024,13 +21024,13 @@
         <v>0</v>
       </c>
       <c r="I39" s="123">
-        <v>18.036961617563431</v>
+        <v>18.036961617563435</v>
       </c>
       <c r="J39" s="119">
         <v>0</v>
       </c>
       <c r="K39" s="119">
-        <v>19880.000000000004</v>
+        <v>19880.000000000007</v>
       </c>
       <c r="L39" s="124">
         <v>12.5</v>
@@ -21045,13 +21045,13 @@
         <v>0</v>
       </c>
       <c r="P39" s="123">
-        <v>74.274663821214759</v>
+        <v>74.274663821214773</v>
       </c>
       <c r="Q39" s="119">
         <v>0</v>
       </c>
       <c r="R39" s="119">
-        <v>9940.0000000000018</v>
+        <v>9940.0000000000036</v>
       </c>
       <c r="S39" s="124">
         <v>25</v>
@@ -21084,13 +21084,13 @@
         <v>0</v>
       </c>
       <c r="I40" s="123">
-        <v>18.036961617563431</v>
+        <v>18.036961617563435</v>
       </c>
       <c r="J40" s="119">
         <v>0</v>
       </c>
       <c r="K40" s="119">
-        <v>19880.000000000004</v>
+        <v>19880.000000000007</v>
       </c>
       <c r="L40" s="124">
         <v>12.5</v>
@@ -21105,13 +21105,13 @@
         <v>0</v>
       </c>
       <c r="P40" s="123">
-        <v>74.274663821214759</v>
+        <v>74.274663821214773</v>
       </c>
       <c r="Q40" s="119">
         <v>0</v>
       </c>
       <c r="R40" s="119">
-        <v>9940.0000000000018</v>
+        <v>9940.0000000000036</v>
       </c>
       <c r="S40" s="124">
         <v>25</v>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>Broadcast Proposal Gorilla Glue Q4 '19 - Q1 '20</t>
   </si>
@@ -486,19 +486,7 @@
     <t>1Q '20 Totals</t>
   </si>
   <si>
-    <t>15 eq.</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>45 eq.</t>
-  </si>
-  <si>
-    <t>60 eq.</t>
-  </si>
-  <si>
-    <t>90 eq.</t>
   </si>
   <si>
     <t>Q2 2020</t>
@@ -546,6 +534,15 @@
     <t>2Q '20 Totals</t>
   </si>
   <si>
+    <t>15 eq.</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>60 eq.</t>
+  </si>
+  <si>
     <t>Contract Totals</t>
   </si>
   <si>
@@ -565,7 +562,7 @@
         <d:color rgb="FF3D5261"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t xml:space="preserve">MDN: </d:t>
+      <d:t xml:space="preserve">EF: </d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -573,7 +570,24 @@
         <d:color rgb="FF3D5261"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t xml:space="preserve">Genre Excludes Documentary, Action/Adventure, Children (Plan ID 1850) | Program Includes BIG BANG THEORY, Big Bang Theory/Young Sheldon-CBS (Plan ID 1850)</d:t>
+      <d:t xml:space="preserve">Program Includes CRIME DAYTIME ROTATOR, CRIME EARLY FRINGE ROTATOR, CRIME LATE FRINGE ROTATOR, CRIME ROTATOR, EARLY &amp; LATE FRINGE ROTATOR, WEEKEND EARLY FRINGE &amp; ACCESS ROTATOR (Plan ID 1853)</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="14"/>
+        <d:color rgb="FF3D5261"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> MDN: </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="14"/>
+        <d:color rgb="FF3D5261"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve">Genre Excludes Action/Adventure, Children, Documentary (Plan ID 1850) | Program Includes BIG BANG THEORY, Big Bang Theory/Young Sheldon-CBS (Plan ID 1850)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -1032,7 +1046,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 06/17/20</t>
+    <t>Created 07/28/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1044,7 +1058,7 @@
     <t>12/30/19 - 06/28/20</t>
   </si>
   <si>
-    <t>A21-24</t>
+    <t>A18+</t>
   </si>
   <si>
     <t>:15 eq., :30, :45 eq., :60 eq., :90</t>
@@ -1514,441 +1528,441 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="147">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0">
+    <xf numFmtId="1" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="18" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="18" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="20" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="20" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="21" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="21" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="22" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="22" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="23" applyBorder="1" xfId="0">
+    <xf numFmtId="1" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="23" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="22" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="22" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="17" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="17" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0">
+    <xf numFmtId="1" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="20" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="20" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="12" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="12" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="2"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="5" applyFill="1" borderId="9" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="5" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="25" applyBorder="1" xfId="0">
+    <xf numFmtId="1" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="25" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2601,9 +2615,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:T189"/>
+  <dimension ref="A2:T173"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2629,7 +2643,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 06/17/20</v>
+        <v>Created 07/28/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -2678,7 +2692,7 @@
       <c r="F5" s="134"/>
       <c r="G5" s="76" t="str">
         <f>'PROPOSAL'!J5</f>
-        <v>A21-24</v>
+        <v>A18+</v>
       </c>
       <c r="H5" s="76" t="str">
         <f>'PROPOSAL'!L5</f>
@@ -5245,7 +5259,7 @@
         <v>43899</v>
       </c>
       <c r="E85" s="83">
-        <v>1</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="F85" s="84" t="s">
         <v>150</v>
@@ -5273,13 +5287,13 @@
       <c r="B86" s="4"/>
       <c r="C86" s="81"/>
       <c r="D86" s="82">
-        <v>43899</v>
+        <v>43906</v>
       </c>
       <c r="E86" s="83">
-        <v>1</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="F86" s="84" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G86" s="85" t="s">
         <v>88</v>
@@ -5304,13 +5318,13 @@
       <c r="B87" s="4"/>
       <c r="C87" s="81"/>
       <c r="D87" s="82">
-        <v>43899</v>
+        <v>43913</v>
       </c>
       <c r="E87" s="83">
-        <v>1</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="F87" s="84" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G87" s="85" t="s">
         <v>88</v>
@@ -5329,461 +5343,485 @@
       </c>
     </row>
     <row r="88" ht="24" customHeight="1">
-      <c r="A88" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="81"/>
-      <c r="D88" s="82">
-        <v>43899</v>
-      </c>
-      <c r="E88" s="83">
-        <v>1</v>
-      </c>
-      <c r="F88" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="G88" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="H88" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="I88" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="J88" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K88" s="95" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" ht="24" customHeight="1">
-      <c r="A89" s="99" t="s">
-        <v>125</v>
-      </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="81"/>
-      <c r="D89" s="82">
-        <v>43899</v>
-      </c>
-      <c r="E89" s="83">
-        <v>1</v>
-      </c>
-      <c r="F89" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="G89" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="H89" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="I89" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="J89" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K89" s="95" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" ht="24" customHeight="1">
-      <c r="A90" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="81"/>
-      <c r="D90" s="82">
-        <v>43906</v>
-      </c>
-      <c r="E90" s="83">
-        <v>1</v>
-      </c>
-      <c r="F90" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="G90" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="H90" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="I90" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="J90" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K90" s="95" t="s">
-        <v>88</v>
-      </c>
+      <c r="C88" s="39"/>
+      <c r="D88" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="E88" s="97">
+        <v>400</v>
+      </c>
+      <c r="F88" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G88" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="H88" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="I88" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="J88" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="K88" s="98" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="30"/>
+      <c r="L90" s="60"/>
+      <c r="M90" s="60"/>
+      <c r="N90" s="60"/>
+      <c r="O90" s="60"/>
+      <c r="P90" s="60"/>
+      <c r="Q90" s="60"/>
+      <c r="R90" s="60"/>
+      <c r="S90" s="60"/>
+      <c r="T90" s="60"/>
     </row>
     <row r="91" ht="24" customHeight="1">
       <c r="A91" s="99" t="s">
-        <v>125</v>
-      </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="81"/>
-      <c r="D91" s="82">
-        <v>43906</v>
-      </c>
-      <c r="E91" s="83">
-        <v>1</v>
-      </c>
-      <c r="F91" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="G91" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="H91" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="I91" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="J91" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K91" s="95" t="s">
-        <v>88</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C91" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="E91" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="F91" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="G91" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="H91" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I91" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="J91" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="K91" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="M91" s="60"/>
+      <c r="N91" s="60"/>
+      <c r="O91" s="60"/>
+      <c r="P91" s="60"/>
+      <c r="Q91" s="60"/>
+      <c r="R91" s="60"/>
+      <c r="S91" s="60"/>
+      <c r="T91" s="60"/>
     </row>
     <row r="92" ht="24" customHeight="1">
       <c r="A92" s="99" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B92" s="4"/>
-      <c r="C92" s="81"/>
-      <c r="D92" s="82">
-        <v>43906</v>
+      <c r="C92" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="D92" s="82" t="s">
+        <v>152</v>
       </c>
       <c r="E92" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" s="84" t="s">
-        <v>152</v>
-      </c>
-      <c r="G92" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="H92" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="I92" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="J92" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K92" s="95" t="s">
-        <v>88</v>
+        <v>143</v>
+      </c>
+      <c r="G92" s="85">
+        <v>0</v>
+      </c>
+      <c r="H92" s="85">
+        <v>13200</v>
+      </c>
+      <c r="I92" s="83">
+        <v>0</v>
+      </c>
+      <c r="J92" s="93">
+        <v>528</v>
+      </c>
+      <c r="K92" s="95">
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24" customHeight="1">
       <c r="A93" s="99" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B93" s="4"/>
-      <c r="C93" s="81"/>
-      <c r="D93" s="82">
-        <v>43906</v>
+      <c r="C93" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93" s="82" t="s">
+        <v>152</v>
       </c>
       <c r="E93" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="G93" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="H93" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="I93" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="J93" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K93" s="95" t="s">
-        <v>88</v>
+        <v>144</v>
+      </c>
+      <c r="G93" s="85">
+        <v>0</v>
+      </c>
+      <c r="H93" s="85">
+        <v>13600</v>
+      </c>
+      <c r="I93" s="83">
+        <v>0</v>
+      </c>
+      <c r="J93" s="93">
+        <v>544</v>
+      </c>
+      <c r="K93" s="95">
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="24" customHeight="1">
       <c r="A94" s="99" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B94" s="4"/>
-      <c r="C94" s="81"/>
-      <c r="D94" s="82">
-        <v>43906</v>
+      <c r="C94" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="D94" s="82" t="s">
+        <v>152</v>
       </c>
       <c r="E94" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="G94" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="H94" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="I94" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="J94" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K94" s="95" t="s">
-        <v>88</v>
+        <v>145</v>
+      </c>
+      <c r="G94" s="85">
+        <v>0</v>
+      </c>
+      <c r="H94" s="85">
+        <v>40000</v>
+      </c>
+      <c r="I94" s="83">
+        <v>0</v>
+      </c>
+      <c r="J94" s="93">
+        <v>1600</v>
+      </c>
+      <c r="K94" s="95">
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24" customHeight="1">
       <c r="A95" s="99" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95" s="4"/>
-      <c r="C95" s="81"/>
-      <c r="D95" s="82">
-        <v>43913</v>
+      <c r="C95" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="D95" s="82" t="s">
+        <v>152</v>
       </c>
       <c r="E95" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="G95" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="H95" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="I95" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="J95" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K95" s="95" t="s">
-        <v>88</v>
+        <v>146</v>
+      </c>
+      <c r="G95" s="85">
+        <v>0</v>
+      </c>
+      <c r="H95" s="85">
+        <v>13200</v>
+      </c>
+      <c r="I95" s="83">
+        <v>0</v>
+      </c>
+      <c r="J95" s="93">
+        <v>528</v>
+      </c>
+      <c r="K95" s="95">
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="24" customHeight="1">
       <c r="A96" s="99" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B96" s="4"/>
-      <c r="C96" s="81"/>
-      <c r="D96" s="82">
-        <v>43913</v>
+      <c r="C96" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="D96" s="82" t="s">
+        <v>152</v>
       </c>
       <c r="E96" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="G96" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="H96" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="I96" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="J96" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K96" s="95" t="s">
-        <v>88</v>
+        <v>128</v>
+      </c>
+      <c r="G96" s="85">
+        <v>0</v>
+      </c>
+      <c r="H96" s="85">
+        <v>14285</v>
+      </c>
+      <c r="I96" s="83">
+        <v>0</v>
+      </c>
+      <c r="J96" s="93">
+        <v>571.4</v>
+      </c>
+      <c r="K96" s="95">
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="24" customHeight="1">
       <c r="A97" s="99" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B97" s="4"/>
-      <c r="C97" s="81"/>
-      <c r="D97" s="82">
-        <v>43913</v>
+      <c r="C97" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="D97" s="82" t="s">
+        <v>152</v>
       </c>
       <c r="E97" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" s="84" t="s">
-        <v>152</v>
-      </c>
-      <c r="G97" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="H97" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="I97" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="J97" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K97" s="95" t="s">
-        <v>88</v>
+        <v>143</v>
+      </c>
+      <c r="G97" s="85">
+        <v>0</v>
+      </c>
+      <c r="H97" s="85">
+        <v>13200</v>
+      </c>
+      <c r="I97" s="83">
+        <v>0</v>
+      </c>
+      <c r="J97" s="93">
+        <v>528</v>
+      </c>
+      <c r="K97" s="95">
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24" customHeight="1">
       <c r="A98" s="99" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B98" s="4"/>
-      <c r="C98" s="81"/>
-      <c r="D98" s="82">
-        <v>43913</v>
+      <c r="C98" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="D98" s="82" t="s">
+        <v>152</v>
       </c>
       <c r="E98" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="G98" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="H98" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="I98" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="J98" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K98" s="95" t="s">
-        <v>88</v>
+        <v>144</v>
+      </c>
+      <c r="G98" s="85">
+        <v>0</v>
+      </c>
+      <c r="H98" s="85">
+        <v>13600</v>
+      </c>
+      <c r="I98" s="83">
+        <v>0</v>
+      </c>
+      <c r="J98" s="93">
+        <v>544</v>
+      </c>
+      <c r="K98" s="95">
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="24" customHeight="1">
       <c r="A99" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="D99" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="E99" s="83">
+        <v>0</v>
+      </c>
+      <c r="F99" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="G99" s="85">
+        <v>0</v>
+      </c>
+      <c r="H99" s="85">
+        <v>40000</v>
+      </c>
+      <c r="I99" s="83">
+        <v>0</v>
+      </c>
+      <c r="J99" s="93">
+        <v>1600</v>
+      </c>
+      <c r="K99" s="95">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" ht="24" customHeight="1">
+      <c r="A100" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="81"/>
-      <c r="D99" s="82">
-        <v>43913</v>
-      </c>
-      <c r="E99" s="83">
-        <v>1</v>
-      </c>
-      <c r="F99" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="G99" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="H99" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="I99" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="J99" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K99" s="95" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="100" ht="24" customHeight="1">
-      <c r="C100" s="39"/>
-      <c r="D100" s="91" t="s">
-        <v>149</v>
-      </c>
-      <c r="E100" s="97">
-        <v>15</v>
-      </c>
-      <c r="F100" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="G100" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="H100" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="I100" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="J100" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="K100" s="98" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="C102" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="H102" s="30"/>
-      <c r="I102" s="30"/>
-      <c r="J102" s="30"/>
-      <c r="K102" s="30"/>
-      <c r="L102" s="60"/>
-      <c r="M102" s="60"/>
-      <c r="N102" s="60"/>
-      <c r="O102" s="60"/>
-      <c r="P102" s="60"/>
-      <c r="Q102" s="60"/>
-      <c r="R102" s="60"/>
-      <c r="S102" s="60"/>
-      <c r="T102" s="60"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="D100" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="E100" s="83">
+        <v>0</v>
+      </c>
+      <c r="F100" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="G100" s="85">
+        <v>0</v>
+      </c>
+      <c r="H100" s="85">
+        <v>13200</v>
+      </c>
+      <c r="I100" s="83">
+        <v>0</v>
+      </c>
+      <c r="J100" s="93">
+        <v>528</v>
+      </c>
+      <c r="K100" s="95">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" ht="24" customHeight="1">
+      <c r="A101" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="D101" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="E101" s="83">
+        <v>0</v>
+      </c>
+      <c r="F101" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="G101" s="85">
+        <v>0</v>
+      </c>
+      <c r="H101" s="85">
+        <v>14285</v>
+      </c>
+      <c r="I101" s="83">
+        <v>0</v>
+      </c>
+      <c r="J101" s="93">
+        <v>571.4</v>
+      </c>
+      <c r="K101" s="95">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" ht="24" customHeight="1">
+      <c r="A102" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="C102" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="D102" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="E102" s="83">
+        <v>0</v>
+      </c>
+      <c r="F102" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="G102" s="85">
+        <v>0</v>
+      </c>
+      <c r="H102" s="85">
+        <v>6600</v>
+      </c>
+      <c r="I102" s="83">
+        <v>0</v>
+      </c>
+      <c r="J102" s="93">
+        <v>264</v>
+      </c>
+      <c r="K102" s="95">
+        <v>25</v>
+      </c>
     </row>
     <row r="103" ht="24" customHeight="1">
       <c r="A103" s="99" t="s">
-        <v>119</v>
-      </c>
-      <c r="C103" s="86" t="s">
-        <v>120</v>
-      </c>
-      <c r="D103" s="87" t="s">
-        <v>121</v>
-      </c>
-      <c r="E103" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="F103" s="87" t="s">
-        <v>122</v>
-      </c>
-      <c r="G103" s="87" t="s">
-        <v>60</v>
-      </c>
-      <c r="H103" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="I103" s="87" t="s">
-        <v>123</v>
-      </c>
-      <c r="J103" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="K103" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="M103" s="60"/>
-      <c r="N103" s="60"/>
-      <c r="O103" s="60"/>
-      <c r="P103" s="60"/>
-      <c r="Q103" s="60"/>
-      <c r="R103" s="60"/>
-      <c r="S103" s="60"/>
-      <c r="T103" s="60"/>
+        <v>129</v>
+      </c>
+      <c r="B103" s="4"/>
+      <c r="C103" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="D103" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="E103" s="83">
+        <v>0</v>
+      </c>
+      <c r="F103" s="84" t="s">
+        <v>144</v>
+      </c>
+      <c r="G103" s="85">
+        <v>0</v>
+      </c>
+      <c r="H103" s="85">
+        <v>6800</v>
+      </c>
+      <c r="I103" s="83">
+        <v>0</v>
+      </c>
+      <c r="J103" s="93">
+        <v>272</v>
+      </c>
+      <c r="K103" s="95">
+        <v>25</v>
+      </c>
     </row>
     <row r="104" ht="24" customHeight="1">
       <c r="A104" s="99" t="s">
@@ -5791,28 +5829,28 @@
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="81" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D104" s="82" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E104" s="83">
         <v>0</v>
       </c>
       <c r="F104" s="84" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G104" s="85">
         <v>0</v>
       </c>
       <c r="H104" s="85">
-        <v>13200</v>
+        <v>20000</v>
       </c>
       <c r="I104" s="83">
         <v>0</v>
       </c>
       <c r="J104" s="93">
-        <v>528</v>
+        <v>800</v>
       </c>
       <c r="K104" s="95">
         <v>25</v>
@@ -5824,28 +5862,28 @@
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="81" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D105" s="82" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E105" s="83">
         <v>0</v>
       </c>
       <c r="F105" s="84" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G105" s="85">
         <v>0</v>
       </c>
       <c r="H105" s="85">
-        <v>13600</v>
+        <v>6600</v>
       </c>
       <c r="I105" s="83">
         <v>0</v>
       </c>
       <c r="J105" s="93">
-        <v>544</v>
+        <v>264</v>
       </c>
       <c r="K105" s="95">
         <v>25</v>
@@ -5857,28 +5895,28 @@
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="81" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D106" s="82" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E106" s="83">
         <v>0</v>
       </c>
       <c r="F106" s="84" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="G106" s="85">
         <v>0</v>
       </c>
       <c r="H106" s="85">
-        <v>40000</v>
+        <v>52467.5</v>
       </c>
       <c r="I106" s="83">
         <v>0</v>
       </c>
       <c r="J106" s="93">
-        <v>1600</v>
+        <v>2098.7</v>
       </c>
       <c r="K106" s="95">
         <v>25</v>
@@ -5890,28 +5928,28 @@
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="81" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D107" s="82" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E107" s="83">
         <v>0</v>
       </c>
       <c r="F107" s="84" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="G107" s="85">
         <v>0</v>
       </c>
       <c r="H107" s="85">
-        <v>13200</v>
+        <v>9612.5</v>
       </c>
       <c r="I107" s="83">
         <v>0</v>
       </c>
       <c r="J107" s="93">
-        <v>528</v>
+        <v>384.5</v>
       </c>
       <c r="K107" s="95">
         <v>25</v>
@@ -5926,25 +5964,25 @@
         <v>138</v>
       </c>
       <c r="D108" s="82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E108" s="83">
         <v>0</v>
       </c>
       <c r="F108" s="84" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G108" s="85">
         <v>0</v>
       </c>
       <c r="H108" s="85">
-        <v>14285</v>
+        <v>13200</v>
       </c>
       <c r="I108" s="83">
         <v>0</v>
       </c>
       <c r="J108" s="93">
-        <v>571.4</v>
+        <v>528</v>
       </c>
       <c r="K108" s="95">
         <v>25</v>
@@ -5956,28 +5994,28 @@
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="81" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D109" s="82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E109" s="83">
         <v>0</v>
       </c>
       <c r="F109" s="84" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G109" s="85">
         <v>0</v>
       </c>
       <c r="H109" s="85">
-        <v>13200</v>
+        <v>13600</v>
       </c>
       <c r="I109" s="83">
         <v>0</v>
       </c>
       <c r="J109" s="93">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="K109" s="95">
         <v>25</v>
@@ -5989,28 +6027,28 @@
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="81" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D110" s="82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E110" s="83">
         <v>0</v>
       </c>
       <c r="F110" s="84" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G110" s="85">
         <v>0</v>
       </c>
       <c r="H110" s="85">
-        <v>13600</v>
+        <v>40000</v>
       </c>
       <c r="I110" s="83">
         <v>0</v>
       </c>
       <c r="J110" s="93">
-        <v>544</v>
+        <v>1600</v>
       </c>
       <c r="K110" s="95">
         <v>25</v>
@@ -6022,28 +6060,28 @@
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="81" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D111" s="82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E111" s="83">
         <v>0</v>
       </c>
       <c r="F111" s="84" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G111" s="85">
         <v>0</v>
       </c>
       <c r="H111" s="85">
-        <v>40000</v>
+        <v>13200</v>
       </c>
       <c r="I111" s="83">
         <v>0</v>
       </c>
       <c r="J111" s="93">
-        <v>1600</v>
+        <v>528</v>
       </c>
       <c r="K111" s="95">
         <v>25</v>
@@ -6055,28 +6093,28 @@
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="81" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D112" s="82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E112" s="83">
         <v>0</v>
       </c>
       <c r="F112" s="84" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="G112" s="85">
         <v>0</v>
       </c>
       <c r="H112" s="85">
-        <v>13200</v>
+        <v>14285</v>
       </c>
       <c r="I112" s="83">
         <v>0</v>
       </c>
       <c r="J112" s="93">
-        <v>528</v>
+        <v>571.4</v>
       </c>
       <c r="K112" s="95">
         <v>25</v>
@@ -6091,25 +6129,25 @@
         <v>140</v>
       </c>
       <c r="D113" s="82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E113" s="83">
         <v>0</v>
       </c>
       <c r="F113" s="84" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G113" s="85">
         <v>0</v>
       </c>
       <c r="H113" s="85">
-        <v>14285</v>
+        <v>13200</v>
       </c>
       <c r="I113" s="83">
         <v>0</v>
       </c>
       <c r="J113" s="93">
-        <v>571.4</v>
+        <v>528</v>
       </c>
       <c r="K113" s="95">
         <v>25</v>
@@ -6121,28 +6159,28 @@
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="81" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D114" s="82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E114" s="83">
         <v>0</v>
       </c>
       <c r="F114" s="84" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G114" s="85">
         <v>0</v>
       </c>
       <c r="H114" s="85">
-        <v>6600</v>
+        <v>13600</v>
       </c>
       <c r="I114" s="83">
         <v>0</v>
       </c>
       <c r="J114" s="93">
-        <v>264</v>
+        <v>544</v>
       </c>
       <c r="K114" s="95">
         <v>25</v>
@@ -6154,28 +6192,28 @@
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="81" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D115" s="82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E115" s="83">
         <v>0</v>
       </c>
       <c r="F115" s="84" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G115" s="85">
         <v>0</v>
       </c>
       <c r="H115" s="85">
-        <v>6800</v>
+        <v>40000</v>
       </c>
       <c r="I115" s="83">
         <v>0</v>
       </c>
       <c r="J115" s="93">
-        <v>272</v>
+        <v>1600</v>
       </c>
       <c r="K115" s="95">
         <v>25</v>
@@ -6187,28 +6225,28 @@
       </c>
       <c r="B116" s="4"/>
       <c r="C116" s="81" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D116" s="82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E116" s="83">
         <v>0</v>
       </c>
       <c r="F116" s="84" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G116" s="85">
         <v>0</v>
       </c>
       <c r="H116" s="85">
-        <v>20000</v>
+        <v>13200</v>
       </c>
       <c r="I116" s="83">
         <v>0</v>
       </c>
       <c r="J116" s="93">
-        <v>800</v>
+        <v>528</v>
       </c>
       <c r="K116" s="95">
         <v>25</v>
@@ -6220,28 +6258,28 @@
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="81" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D117" s="82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E117" s="83">
         <v>0</v>
       </c>
       <c r="F117" s="84" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="G117" s="85">
         <v>0</v>
       </c>
       <c r="H117" s="85">
-        <v>6600</v>
+        <v>14285</v>
       </c>
       <c r="I117" s="83">
         <v>0</v>
       </c>
       <c r="J117" s="93">
-        <v>264</v>
+        <v>571.4</v>
       </c>
       <c r="K117" s="95">
         <v>25</v>
@@ -6256,25 +6294,25 @@
         <v>126</v>
       </c>
       <c r="D118" s="82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E118" s="83">
         <v>0</v>
       </c>
       <c r="F118" s="84" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G118" s="85">
         <v>0</v>
       </c>
       <c r="H118" s="85">
-        <v>52467.5</v>
+        <v>6600</v>
       </c>
       <c r="I118" s="83">
         <v>0</v>
       </c>
       <c r="J118" s="93">
-        <v>2098.7</v>
+        <v>264</v>
       </c>
       <c r="K118" s="95">
         <v>25</v>
@@ -6286,28 +6324,28 @@
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="81" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D119" s="82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E119" s="83">
         <v>0</v>
       </c>
       <c r="F119" s="84" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G119" s="85">
         <v>0</v>
       </c>
       <c r="H119" s="85">
-        <v>9612.5</v>
+        <v>6800</v>
       </c>
       <c r="I119" s="83">
         <v>0</v>
       </c>
       <c r="J119" s="93">
-        <v>384.5</v>
+        <v>272</v>
       </c>
       <c r="K119" s="95">
         <v>25</v>
@@ -6319,28 +6357,28 @@
       </c>
       <c r="B120" s="4"/>
       <c r="C120" s="81" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D120" s="82" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E120" s="83">
         <v>0</v>
       </c>
       <c r="F120" s="84" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G120" s="85">
         <v>0</v>
       </c>
       <c r="H120" s="85">
-        <v>13200</v>
+        <v>20000</v>
       </c>
       <c r="I120" s="83">
         <v>0</v>
       </c>
       <c r="J120" s="93">
-        <v>528</v>
+        <v>800</v>
       </c>
       <c r="K120" s="95">
         <v>25</v>
@@ -6352,28 +6390,28 @@
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="81" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D121" s="82" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E121" s="83">
         <v>0</v>
       </c>
       <c r="F121" s="84" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G121" s="85">
         <v>0</v>
       </c>
       <c r="H121" s="85">
-        <v>13600</v>
+        <v>6600</v>
       </c>
       <c r="I121" s="83">
         <v>0</v>
       </c>
       <c r="J121" s="93">
-        <v>544</v>
+        <v>264</v>
       </c>
       <c r="K121" s="95">
         <v>25</v>
@@ -6385,28 +6423,28 @@
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="81" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D122" s="82" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E122" s="83">
         <v>0</v>
       </c>
       <c r="F122" s="84" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="G122" s="85">
         <v>0</v>
       </c>
       <c r="H122" s="85">
-        <v>40000</v>
+        <v>52467.5</v>
       </c>
       <c r="I122" s="83">
         <v>0</v>
       </c>
       <c r="J122" s="93">
-        <v>1600</v>
+        <v>2098.7</v>
       </c>
       <c r="K122" s="95">
         <v>25</v>
@@ -6418,28 +6456,28 @@
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="81" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D123" s="82" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E123" s="83">
         <v>0</v>
       </c>
       <c r="F123" s="84" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="G123" s="85">
         <v>0</v>
       </c>
       <c r="H123" s="85">
-        <v>13200</v>
+        <v>9612.5</v>
       </c>
       <c r="I123" s="83">
         <v>0</v>
       </c>
       <c r="J123" s="93">
-        <v>528</v>
+        <v>384.5</v>
       </c>
       <c r="K123" s="95">
         <v>25</v>
@@ -6451,10 +6489,10 @@
       </c>
       <c r="B124" s="4"/>
       <c r="C124" s="81" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D124" s="82" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E124" s="83">
         <v>0</v>
@@ -6466,13 +6504,13 @@
         <v>0</v>
       </c>
       <c r="H124" s="85">
-        <v>14285</v>
+        <v>9612.5</v>
       </c>
       <c r="I124" s="83">
         <v>0</v>
       </c>
       <c r="J124" s="93">
-        <v>571.4</v>
+        <v>384.5</v>
       </c>
       <c r="K124" s="95">
         <v>25</v>
@@ -6484,28 +6522,28 @@
       </c>
       <c r="B125" s="4"/>
       <c r="C125" s="81" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D125" s="82" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E125" s="83">
         <v>0</v>
       </c>
       <c r="F125" s="84" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="G125" s="85">
         <v>0</v>
       </c>
       <c r="H125" s="85">
-        <v>13200</v>
+        <v>9612.5</v>
       </c>
       <c r="I125" s="83">
         <v>0</v>
       </c>
       <c r="J125" s="93">
-        <v>528</v>
+        <v>384.5</v>
       </c>
       <c r="K125" s="95">
         <v>25</v>
@@ -6517,28 +6555,28 @@
       </c>
       <c r="B126" s="4"/>
       <c r="C126" s="81" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D126" s="82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E126" s="83">
         <v>0</v>
       </c>
       <c r="F126" s="84" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G126" s="85">
         <v>0</v>
       </c>
       <c r="H126" s="85">
-        <v>13600</v>
+        <v>9612.5</v>
       </c>
       <c r="I126" s="83">
         <v>0</v>
       </c>
       <c r="J126" s="93">
-        <v>544</v>
+        <v>384.5</v>
       </c>
       <c r="K126" s="95">
         <v>25</v>
@@ -6550,28 +6588,28 @@
       </c>
       <c r="B127" s="4"/>
       <c r="C127" s="81" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D127" s="82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E127" s="83">
         <v>0</v>
       </c>
       <c r="F127" s="84" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="G127" s="85">
         <v>0</v>
       </c>
       <c r="H127" s="85">
-        <v>40000</v>
+        <v>9612.5</v>
       </c>
       <c r="I127" s="83">
         <v>0</v>
       </c>
       <c r="J127" s="93">
-        <v>1600</v>
+        <v>384.5</v>
       </c>
       <c r="K127" s="95">
         <v>25</v>
@@ -6583,28 +6621,28 @@
       </c>
       <c r="B128" s="4"/>
       <c r="C128" s="81" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D128" s="82" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E128" s="83">
         <v>0</v>
       </c>
       <c r="F128" s="84" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="G128" s="85">
         <v>0</v>
       </c>
       <c r="H128" s="85">
-        <v>13200</v>
+        <v>9612.5</v>
       </c>
       <c r="I128" s="83">
         <v>0</v>
       </c>
       <c r="J128" s="93">
-        <v>528</v>
+        <v>384.5</v>
       </c>
       <c r="K128" s="95">
         <v>25</v>
@@ -6616,10 +6654,10 @@
       </c>
       <c r="B129" s="4"/>
       <c r="C129" s="81" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D129" s="82" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E129" s="83">
         <v>0</v>
@@ -6631,13 +6669,13 @@
         <v>0</v>
       </c>
       <c r="H129" s="85">
-        <v>14285</v>
+        <v>9612.5</v>
       </c>
       <c r="I129" s="83">
         <v>0</v>
       </c>
       <c r="J129" s="93">
-        <v>571.4</v>
+        <v>384.5</v>
       </c>
       <c r="K129" s="95">
         <v>25</v>
@@ -6658,19 +6696,19 @@
         <v>0</v>
       </c>
       <c r="F130" s="84" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="G130" s="85">
         <v>0</v>
       </c>
       <c r="H130" s="85">
-        <v>6600</v>
+        <v>9612.5</v>
       </c>
       <c r="I130" s="83">
         <v>0</v>
       </c>
       <c r="J130" s="93">
-        <v>264</v>
+        <v>384.5</v>
       </c>
       <c r="K130" s="95">
         <v>25</v>
@@ -6682,7 +6720,7 @@
       </c>
       <c r="B131" s="4"/>
       <c r="C131" s="81" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D131" s="82" t="s">
         <v>157</v>
@@ -6691,19 +6729,19 @@
         <v>0</v>
       </c>
       <c r="F131" s="84" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G131" s="85">
         <v>0</v>
       </c>
       <c r="H131" s="85">
-        <v>6800</v>
+        <v>9612.5</v>
       </c>
       <c r="I131" s="83">
         <v>0</v>
       </c>
       <c r="J131" s="93">
-        <v>272</v>
+        <v>384.5</v>
       </c>
       <c r="K131" s="95">
         <v>25</v>
@@ -6718,25 +6756,25 @@
         <v>126</v>
       </c>
       <c r="D132" s="82" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E132" s="83">
         <v>0</v>
       </c>
       <c r="F132" s="84" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="G132" s="85">
         <v>0</v>
       </c>
       <c r="H132" s="85">
-        <v>20000</v>
+        <v>9612.5</v>
       </c>
       <c r="I132" s="83">
         <v>0</v>
       </c>
       <c r="J132" s="93">
-        <v>800</v>
+        <v>384.5</v>
       </c>
       <c r="K132" s="95">
         <v>25</v>
@@ -6748,28 +6786,28 @@
       </c>
       <c r="B133" s="4"/>
       <c r="C133" s="81" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D133" s="82" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E133" s="83">
         <v>0</v>
       </c>
       <c r="F133" s="84" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="G133" s="85">
         <v>0</v>
       </c>
       <c r="H133" s="85">
-        <v>6600</v>
+        <v>9612.5</v>
       </c>
       <c r="I133" s="83">
         <v>0</v>
       </c>
       <c r="J133" s="93">
-        <v>264</v>
+        <v>384.5</v>
       </c>
       <c r="K133" s="95">
         <v>25</v>
@@ -6784,7 +6822,7 @@
         <v>126</v>
       </c>
       <c r="D134" s="82" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E134" s="83">
         <v>0</v>
@@ -6796,13 +6834,13 @@
         <v>0</v>
       </c>
       <c r="H134" s="85">
-        <v>52467.5</v>
+        <v>9612.5</v>
       </c>
       <c r="I134" s="83">
         <v>0</v>
       </c>
       <c r="J134" s="93">
-        <v>2098.7</v>
+        <v>384.5</v>
       </c>
       <c r="K134" s="95">
         <v>25</v>
@@ -6817,7 +6855,7 @@
         <v>130</v>
       </c>
       <c r="D135" s="82" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E135" s="83">
         <v>0</v>
@@ -6850,7 +6888,7 @@
         <v>126</v>
       </c>
       <c r="D136" s="82" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E136" s="83">
         <v>0</v>
@@ -6883,7 +6921,7 @@
         <v>130</v>
       </c>
       <c r="D137" s="82" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E137" s="83">
         <v>0</v>
@@ -6916,7 +6954,7 @@
         <v>126</v>
       </c>
       <c r="D138" s="82" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E138" s="83">
         <v>0</v>
@@ -6949,7 +6987,7 @@
         <v>130</v>
       </c>
       <c r="D139" s="82" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E139" s="83">
         <v>0</v>
@@ -6982,7 +7020,7 @@
         <v>126</v>
       </c>
       <c r="D140" s="82" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E140" s="83">
         <v>0</v>
@@ -7015,7 +7053,7 @@
         <v>130</v>
       </c>
       <c r="D141" s="82" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E141" s="83">
         <v>0</v>
@@ -7048,7 +7086,7 @@
         <v>126</v>
       </c>
       <c r="D142" s="82" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E142" s="83">
         <v>0</v>
@@ -7081,7 +7119,7 @@
         <v>130</v>
       </c>
       <c r="D143" s="82" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E143" s="83">
         <v>0</v>
@@ -7114,7 +7152,7 @@
         <v>126</v>
       </c>
       <c r="D144" s="82" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E144" s="83">
         <v>0</v>
@@ -7147,7 +7185,7 @@
         <v>130</v>
       </c>
       <c r="D145" s="82" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E145" s="83">
         <v>0</v>
@@ -7172,168 +7210,119 @@
       </c>
     </row>
     <row r="146" ht="24" customHeight="1">
-      <c r="A146" s="99" t="s">
-        <v>125</v>
-      </c>
-      <c r="B146" s="4"/>
-      <c r="C146" s="81" t="s">
-        <v>126</v>
-      </c>
-      <c r="D146" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="E146" s="83">
-        <v>0</v>
-      </c>
-      <c r="F146" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="G146" s="85">
-        <v>0</v>
-      </c>
-      <c r="H146" s="85">
-        <v>9612.5</v>
-      </c>
-      <c r="I146" s="83">
-        <v>0</v>
-      </c>
-      <c r="J146" s="93">
-        <v>384.5</v>
-      </c>
-      <c r="K146" s="95">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="147" ht="24" customHeight="1">
-      <c r="A147" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="B147" s="4"/>
-      <c r="C147" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="D147" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="E147" s="83">
-        <v>0</v>
-      </c>
-      <c r="F147" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="G147" s="85">
-        <v>0</v>
-      </c>
-      <c r="H147" s="85">
-        <v>9612.5</v>
-      </c>
-      <c r="I147" s="83">
-        <v>0</v>
-      </c>
-      <c r="J147" s="93">
-        <v>384.5</v>
-      </c>
-      <c r="K147" s="95">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="148" ht="24" customHeight="1">
-      <c r="A148" s="99" t="s">
-        <v>125</v>
-      </c>
-      <c r="B148" s="4"/>
-      <c r="C148" s="81" t="s">
-        <v>126</v>
-      </c>
-      <c r="D148" s="82" t="s">
-        <v>164</v>
-      </c>
-      <c r="E148" s="83">
-        <v>0</v>
-      </c>
-      <c r="F148" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="G148" s="85">
-        <v>0</v>
-      </c>
-      <c r="H148" s="85">
-        <v>9612.5</v>
-      </c>
-      <c r="I148" s="83">
-        <v>0</v>
-      </c>
-      <c r="J148" s="93">
-        <v>384.5</v>
-      </c>
-      <c r="K148" s="95">
-        <v>25</v>
-      </c>
+      <c r="C146" s="39"/>
+      <c r="D146" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="E146" s="97">
+        <v>0</v>
+      </c>
+      <c r="F146" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G146" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="H146" s="89">
+        <v>792775</v>
+      </c>
+      <c r="I146" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="J146" s="94">
+        <v>31711.000000000004</v>
+      </c>
+      <c r="K146" s="98">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="C148" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="H148" s="30"/>
+      <c r="I148" s="30"/>
+      <c r="J148" s="30"/>
+      <c r="K148" s="30"/>
+      <c r="L148" s="60"/>
+      <c r="M148" s="60"/>
+      <c r="N148" s="60"/>
+      <c r="O148" s="60"/>
+      <c r="P148" s="60"/>
+      <c r="Q148" s="60"/>
+      <c r="R148" s="60"/>
+      <c r="S148" s="60"/>
+      <c r="T148" s="60"/>
     </row>
     <row r="149" ht="24" customHeight="1">
       <c r="A149" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="B149" s="4"/>
-      <c r="C149" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="D149" s="82" t="s">
-        <v>164</v>
-      </c>
-      <c r="E149" s="83">
-        <v>0</v>
-      </c>
-      <c r="F149" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="G149" s="85">
-        <v>0</v>
-      </c>
-      <c r="H149" s="85">
-        <v>9612.5</v>
-      </c>
-      <c r="I149" s="83">
-        <v>0</v>
-      </c>
-      <c r="J149" s="93">
-        <v>384.5</v>
-      </c>
-      <c r="K149" s="95">
-        <v>25</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C149" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="D149" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="E149" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="F149" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="G149" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="H149" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I149" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="J149" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="K149" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="M149" s="60"/>
+      <c r="N149" s="60"/>
+      <c r="O149" s="60"/>
+      <c r="P149" s="60"/>
+      <c r="Q149" s="60"/>
+      <c r="R149" s="60"/>
+      <c r="S149" s="60"/>
+      <c r="T149" s="60"/>
     </row>
     <row r="150" ht="24" customHeight="1">
       <c r="A150" s="99" t="s">
         <v>125</v>
       </c>
       <c r="B150" s="4"/>
-      <c r="C150" s="81" t="s">
-        <v>126</v>
-      </c>
-      <c r="D150" s="82" t="s">
-        <v>165</v>
+      <c r="C150" s="81"/>
+      <c r="D150" s="82">
+        <v>43920</v>
       </c>
       <c r="E150" s="83">
-        <v>0</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="F150" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="G150" s="85">
-        <v>0</v>
-      </c>
-      <c r="H150" s="85">
-        <v>9612.5</v>
-      </c>
-      <c r="I150" s="83">
-        <v>0</v>
-      </c>
-      <c r="J150" s="93">
-        <v>384.5</v>
-      </c>
-      <c r="K150" s="95">
-        <v>25</v>
+        <v>150</v>
+      </c>
+      <c r="G150" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="H150" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="I150" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="J150" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="K150" s="95" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="151" ht="24" customHeight="1">
@@ -7341,32 +7330,30 @@
         <v>129</v>
       </c>
       <c r="B151" s="4"/>
-      <c r="C151" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="D151" s="82" t="s">
-        <v>165</v>
+      <c r="C151" s="81"/>
+      <c r="D151" s="82">
+        <v>43920</v>
       </c>
       <c r="E151" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="G151" s="85">
-        <v>0</v>
-      </c>
-      <c r="H151" s="85">
-        <v>9612.5</v>
-      </c>
-      <c r="I151" s="83">
-        <v>0</v>
-      </c>
-      <c r="J151" s="93">
-        <v>384.5</v>
-      </c>
-      <c r="K151" s="95">
-        <v>25</v>
+        <v>166</v>
+      </c>
+      <c r="G151" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="H151" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="I151" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="J151" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="K151" s="95" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="152" ht="24" customHeight="1">
@@ -7374,32 +7361,30 @@
         <v>125</v>
       </c>
       <c r="B152" s="4"/>
-      <c r="C152" s="81" t="s">
-        <v>126</v>
-      </c>
-      <c r="D152" s="82" t="s">
-        <v>166</v>
+      <c r="C152" s="81"/>
+      <c r="D152" s="82">
+        <v>43920</v>
       </c>
       <c r="E152" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="G152" s="85">
-        <v>0</v>
-      </c>
-      <c r="H152" s="85">
-        <v>9612.5</v>
-      </c>
-      <c r="I152" s="83">
-        <v>0</v>
-      </c>
-      <c r="J152" s="93">
-        <v>384.5</v>
-      </c>
-      <c r="K152" s="95">
-        <v>25</v>
+        <v>167</v>
+      </c>
+      <c r="G152" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="H152" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="I152" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="J152" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="K152" s="95" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="153" ht="24" customHeight="1">
@@ -7407,32 +7392,30 @@
         <v>129</v>
       </c>
       <c r="B153" s="4"/>
-      <c r="C153" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="D153" s="82" t="s">
-        <v>166</v>
+      <c r="C153" s="81"/>
+      <c r="D153" s="82">
+        <v>43920</v>
       </c>
       <c r="E153" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="G153" s="85">
-        <v>0</v>
-      </c>
-      <c r="H153" s="85">
-        <v>9612.5</v>
-      </c>
-      <c r="I153" s="83">
-        <v>0</v>
-      </c>
-      <c r="J153" s="93">
-        <v>384.5</v>
-      </c>
-      <c r="K153" s="95">
-        <v>25</v>
+        <v>168</v>
+      </c>
+      <c r="G153" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="H153" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="I153" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="J153" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="K153" s="95" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="154" ht="24" customHeight="1">
@@ -7440,32 +7423,30 @@
         <v>125</v>
       </c>
       <c r="B154" s="4"/>
-      <c r="C154" s="81" t="s">
-        <v>126</v>
-      </c>
-      <c r="D154" s="82" t="s">
-        <v>167</v>
+      <c r="C154" s="81"/>
+      <c r="D154" s="82">
+        <v>43927</v>
       </c>
       <c r="E154" s="83">
-        <v>0</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="F154" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="G154" s="85">
-        <v>0</v>
-      </c>
-      <c r="H154" s="85">
-        <v>9612.5</v>
-      </c>
-      <c r="I154" s="83">
-        <v>0</v>
-      </c>
-      <c r="J154" s="93">
-        <v>384.5</v>
-      </c>
-      <c r="K154" s="95">
-        <v>25</v>
+        <v>150</v>
+      </c>
+      <c r="G154" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="H154" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="I154" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="J154" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="K154" s="95" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="155" ht="24" customHeight="1">
@@ -7473,794 +7454,331 @@
         <v>129</v>
       </c>
       <c r="B155" s="4"/>
-      <c r="C155" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="D155" s="82" t="s">
-        <v>167</v>
+      <c r="C155" s="81"/>
+      <c r="D155" s="82">
+        <v>43927</v>
       </c>
       <c r="E155" s="83">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F155" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="G155" s="85">
-        <v>0</v>
-      </c>
-      <c r="H155" s="85">
-        <v>9612.5</v>
-      </c>
-      <c r="I155" s="83">
-        <v>0</v>
-      </c>
-      <c r="J155" s="93">
-        <v>384.5</v>
-      </c>
-      <c r="K155" s="95">
-        <v>25</v>
+        <v>168</v>
+      </c>
+      <c r="G155" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="H155" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="I155" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="J155" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="K155" s="95" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="156" ht="24" customHeight="1">
-      <c r="A156" s="99" t="s">
-        <v>125</v>
-      </c>
-      <c r="B156" s="4"/>
-      <c r="C156" s="81" t="s">
-        <v>126</v>
-      </c>
-      <c r="D156" s="82" t="s">
-        <v>168</v>
-      </c>
-      <c r="E156" s="83">
-        <v>0</v>
-      </c>
-      <c r="F156" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="G156" s="85">
-        <v>0</v>
-      </c>
-      <c r="H156" s="85">
-        <v>9612.5</v>
-      </c>
-      <c r="I156" s="83">
-        <v>0</v>
-      </c>
-      <c r="J156" s="93">
-        <v>384.5</v>
-      </c>
-      <c r="K156" s="95">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="157" ht="24" customHeight="1">
-      <c r="A157" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="B157" s="4"/>
-      <c r="C157" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="D157" s="82" t="s">
-        <v>168</v>
-      </c>
-      <c r="E157" s="83">
-        <v>0</v>
-      </c>
-      <c r="F157" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="G157" s="85">
-        <v>0</v>
-      </c>
-      <c r="H157" s="85">
-        <v>9612.5</v>
-      </c>
-      <c r="I157" s="83">
-        <v>0</v>
-      </c>
-      <c r="J157" s="93">
-        <v>384.5</v>
-      </c>
-      <c r="K157" s="95">
-        <v>25</v>
+      <c r="C156" s="39"/>
+      <c r="D156" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="E156" s="97">
+        <v>278.66666666666669</v>
+      </c>
+      <c r="F156" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G156" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="H156" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="I156" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="J156" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="K156" s="98" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="158" ht="24" customHeight="1">
-      <c r="C158" s="39"/>
-      <c r="D158" s="91" t="s">
+      <c r="C158" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="E158" s="97">
-        <v>0</v>
-      </c>
-      <c r="F158" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="G158" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="H158" s="89">
-        <v>792775</v>
-      </c>
-      <c r="I158" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="J158" s="94">
-        <v>31711.000000000004</v>
-      </c>
-      <c r="K158" s="98">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="C160" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="H160" s="30"/>
-      <c r="I160" s="30"/>
-      <c r="J160" s="30"/>
-      <c r="K160" s="30"/>
-      <c r="L160" s="60"/>
-      <c r="M160" s="60"/>
-      <c r="N160" s="60"/>
-      <c r="O160" s="60"/>
-      <c r="P160" s="60"/>
-      <c r="Q160" s="60"/>
-      <c r="R160" s="60"/>
-      <c r="S160" s="60"/>
-      <c r="T160" s="60"/>
-    </row>
-    <row r="161" ht="24" customHeight="1">
-      <c r="A161" s="99" t="s">
-        <v>119</v>
-      </c>
-      <c r="C161" s="86" t="s">
-        <v>120</v>
-      </c>
-      <c r="D161" s="87" t="s">
-        <v>121</v>
-      </c>
-      <c r="E161" s="87" t="s">
+      <c r="I158" s="60"/>
+    </row>
+    <row r="159" ht="24" customHeight="1">
+      <c r="C159" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="F161" s="87" t="s">
-        <v>122</v>
-      </c>
-      <c r="G161" s="87" t="s">
+      <c r="D159" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="H161" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="I161" s="87" t="s">
+      <c r="E159" s="101"/>
+      <c r="F159" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="J161" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="K161" s="88" t="s">
+      <c r="G159" s="101"/>
+      <c r="H159" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="M161" s="60"/>
-      <c r="N161" s="60"/>
-      <c r="O161" s="60"/>
-      <c r="P161" s="60"/>
-      <c r="Q161" s="60"/>
-      <c r="R161" s="60"/>
-      <c r="S161" s="60"/>
-      <c r="T161" s="60"/>
+      <c r="I159" s="102"/>
+    </row>
+    <row r="160" ht="24" customHeight="1">
+      <c r="C160" s="103">
+        <v>0</v>
+      </c>
+      <c r="D160" s="105">
+        <v>2000000</v>
+      </c>
+      <c r="E160" s="105"/>
+      <c r="F160" s="104">
+        <v>79999.999999999985</v>
+      </c>
+      <c r="G160" s="104"/>
+      <c r="H160" s="107">
+        <v>25</v>
+      </c>
+      <c r="I160" s="106"/>
+    </row>
+    <row r="161" ht="42.95" customHeight="1">
+      <c r="C161" s="110"/>
+      <c r="D161" s="111"/>
+      <c r="E161" s="111"/>
+      <c r="F161" s="112"/>
+      <c r="G161" s="112"/>
+      <c r="H161" s="108"/>
+      <c r="I161" s="108"/>
     </row>
     <row r="162" ht="24" customHeight="1">
-      <c r="A162" s="99" t="s">
-        <v>125</v>
-      </c>
-      <c r="B162" s="4"/>
-      <c r="C162" s="81"/>
-      <c r="D162" s="82">
-        <v>43920</v>
-      </c>
-      <c r="E162" s="83">
-        <v>1</v>
-      </c>
-      <c r="F162" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="G162" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="H162" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="I162" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="J162" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K162" s="95" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="163" ht="24" customHeight="1">
-      <c r="A163" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="B163" s="4"/>
-      <c r="C163" s="81"/>
-      <c r="D163" s="82">
-        <v>43920</v>
-      </c>
-      <c r="E163" s="83">
-        <v>1</v>
-      </c>
-      <c r="F163" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="G163" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="H163" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="I163" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="J163" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K163" s="95" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="164" ht="24" customHeight="1">
-      <c r="A164" s="99" t="s">
-        <v>125</v>
-      </c>
-      <c r="B164" s="4"/>
-      <c r="C164" s="81"/>
-      <c r="D164" s="82">
-        <v>43920</v>
-      </c>
-      <c r="E164" s="83">
-        <v>1</v>
-      </c>
-      <c r="F164" s="84" t="s">
-        <v>152</v>
-      </c>
-      <c r="G164" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="H164" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="I164" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="J164" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K164" s="95" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="165" ht="24" customHeight="1">
-      <c r="A165" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="B165" s="4"/>
-      <c r="C165" s="81"/>
-      <c r="D165" s="82">
-        <v>43920</v>
-      </c>
-      <c r="E165" s="83">
-        <v>1</v>
-      </c>
-      <c r="F165" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="G165" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="H165" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="I165" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="J165" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K165" s="95" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="166" ht="24" customHeight="1">
-      <c r="A166" s="99" t="s">
-        <v>125</v>
-      </c>
-      <c r="B166" s="4"/>
-      <c r="C166" s="81"/>
-      <c r="D166" s="82">
-        <v>43920</v>
-      </c>
-      <c r="E166" s="83">
-        <v>1</v>
-      </c>
-      <c r="F166" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="G166" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="H166" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="I166" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="J166" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K166" s="95" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="167" ht="24" customHeight="1">
-      <c r="A167" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="B167" s="4"/>
-      <c r="C167" s="81"/>
-      <c r="D167" s="82">
-        <v>43927</v>
-      </c>
-      <c r="E167" s="83">
-        <v>1</v>
-      </c>
-      <c r="F167" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="G167" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="H167" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="I167" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="J167" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K167" s="95" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="168" ht="24" customHeight="1">
-      <c r="A168" s="99" t="s">
-        <v>125</v>
-      </c>
-      <c r="B168" s="4"/>
-      <c r="C168" s="81"/>
-      <c r="D168" s="82">
-        <v>43927</v>
-      </c>
-      <c r="E168" s="83">
-        <v>1</v>
-      </c>
-      <c r="F168" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="G168" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="H168" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="I168" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="J168" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K168" s="95" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="169" ht="24" customHeight="1">
-      <c r="A169" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="B169" s="4"/>
-      <c r="C169" s="81"/>
-      <c r="D169" s="82">
-        <v>43927</v>
-      </c>
-      <c r="E169" s="83">
-        <v>1</v>
-      </c>
-      <c r="F169" s="84" t="s">
-        <v>152</v>
-      </c>
-      <c r="G169" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="H169" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="I169" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="J169" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K169" s="95" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="170" ht="24" customHeight="1">
-      <c r="A170" s="99" t="s">
-        <v>125</v>
-      </c>
-      <c r="B170" s="4"/>
-      <c r="C170" s="81"/>
-      <c r="D170" s="82">
-        <v>43927</v>
-      </c>
-      <c r="E170" s="83">
-        <v>1</v>
-      </c>
-      <c r="F170" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="G170" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="H170" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="I170" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="J170" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K170" s="95" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="171" ht="24" customHeight="1">
-      <c r="A171" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="B171" s="4"/>
-      <c r="C171" s="81"/>
-      <c r="D171" s="82">
-        <v>43927</v>
-      </c>
-      <c r="E171" s="83">
-        <v>1</v>
-      </c>
-      <c r="F171" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="G171" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="H171" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="I171" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="J171" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K171" s="95" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="172" ht="24" customHeight="1">
-      <c r="C172" s="39"/>
-      <c r="D172" s="91" t="s">
-        <v>169</v>
-      </c>
-      <c r="E172" s="97">
-        <v>10</v>
-      </c>
-      <c r="F172" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="G172" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="H172" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="I172" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="J172" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="K172" s="98" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="174" ht="24" customHeight="1">
-      <c r="C174" s="53" t="s">
+      <c r="C162" s="113" t="s">
         <v>170</v>
       </c>
-      <c r="I174" s="60"/>
-    </row>
-    <row r="175" ht="24" customHeight="1">
-      <c r="C175" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="D175" s="101" t="s">
-        <v>60</v>
-      </c>
-      <c r="E175" s="101"/>
-      <c r="F175" s="101" t="s">
-        <v>123</v>
-      </c>
-      <c r="G175" s="101"/>
-      <c r="H175" s="101" t="s">
-        <v>30</v>
-      </c>
-      <c r="I175" s="102"/>
-    </row>
-    <row r="176" ht="24" customHeight="1">
-      <c r="C176" s="103">
-        <v>0</v>
-      </c>
-      <c r="D176" s="105">
-        <v>2000000</v>
-      </c>
-      <c r="E176" s="105"/>
-      <c r="F176" s="104">
-        <v>79999.999999999985</v>
-      </c>
-      <c r="G176" s="104"/>
-      <c r="H176" s="107">
-        <v>25</v>
-      </c>
-      <c r="I176" s="106"/>
-    </row>
-    <row r="177" ht="42.95" customHeight="1">
-      <c r="C177" s="110"/>
-      <c r="D177" s="111"/>
-      <c r="E177" s="111"/>
-      <c r="F177" s="112"/>
-      <c r="G177" s="112"/>
-      <c r="H177" s="108"/>
-      <c r="I177" s="108"/>
-    </row>
-    <row r="178" ht="24" customHeight="1">
-      <c r="C178" s="113" t="s">
+      <c r="D162" s="109"/>
+      <c r="E162" s="109"/>
+      <c r="F162" s="112"/>
+      <c r="G162" s="114" t="s">
         <v>171</v>
       </c>
-      <c r="D178" s="109"/>
-      <c r="E178" s="109"/>
-      <c r="F178" s="112"/>
-      <c r="G178" s="114" t="s">
+      <c r="H162" s="109"/>
+      <c r="I162" s="115"/>
+    </row>
+    <row r="163" ht="39.95" customHeight="1">
+      <c r="C163" s="110"/>
+      <c r="D163" s="111"/>
+      <c r="E163" s="111"/>
+      <c r="F163" s="112"/>
+      <c r="G163" s="112"/>
+      <c r="H163" s="108"/>
+      <c r="I163" s="108"/>
+    </row>
+    <row r="164" ht="48" customHeight="1" s="99" customFormat="1">
+      <c r="C164" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D164" s="136" t="s">
         <v>172</v>
       </c>
-      <c r="H178" s="109"/>
-      <c r="I178" s="115"/>
-    </row>
-    <row r="179" ht="39.95" customHeight="1">
-      <c r="C179" s="110"/>
-      <c r="D179" s="111"/>
-      <c r="E179" s="111"/>
-      <c r="F179" s="112"/>
-      <c r="G179" s="112"/>
-      <c r="H179" s="108"/>
-      <c r="I179" s="108"/>
-    </row>
-    <row r="180" ht="48" customHeight="1" s="99" customFormat="1">
-      <c r="C180" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="D180" s="136" t="s">
+      <c r="E164" s="136"/>
+      <c r="F164" s="136"/>
+      <c r="G164" s="136"/>
+      <c r="H164" s="136"/>
+      <c r="I164" s="136"/>
+      <c r="J164" s="136"/>
+      <c r="K164" s="136"/>
+      <c r="L164" s="126"/>
+      <c r="M164" s="126"/>
+      <c r="N164" s="126"/>
+      <c r="O164" s="126"/>
+      <c r="P164" s="126"/>
+      <c r="Q164" s="126"/>
+      <c r="R164" s="126"/>
+    </row>
+    <row r="165" ht="8.1" customHeight="1" s="99" customFormat="1">
+      <c r="C165" s="2"/>
+      <c r="D165" s="127"/>
+      <c r="E165" s="127"/>
+      <c r="F165" s="127"/>
+      <c r="G165" s="127"/>
+      <c r="H165" s="127"/>
+      <c r="I165" s="127"/>
+      <c r="J165" s="127"/>
+      <c r="K165" s="127"/>
+      <c r="L165" s="76"/>
+      <c r="M165" s="76"/>
+      <c r="N165" s="76"/>
+      <c r="O165" s="76"/>
+      <c r="P165" s="76"/>
+      <c r="Q165" s="76"/>
+      <c r="R165" s="76"/>
+    </row>
+    <row r="166" ht="48" customHeight="1" s="117" customFormat="1">
+      <c r="C166" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D166" s="136" t="s">
+        <v>54</v>
+      </c>
+      <c r="E166" s="136"/>
+      <c r="F166" s="136"/>
+      <c r="G166" s="136"/>
+      <c r="H166" s="136"/>
+      <c r="I166" s="136"/>
+      <c r="J166" s="136"/>
+      <c r="K166" s="136"/>
+      <c r="L166" s="126"/>
+      <c r="M166" s="126"/>
+      <c r="N166" s="126"/>
+      <c r="O166" s="126"/>
+      <c r="P166" s="126"/>
+      <c r="Q166" s="126"/>
+      <c r="R166" s="126"/>
+    </row>
+    <row r="167" ht="8.1" customHeight="1" s="99" customFormat="1">
+      <c r="C167" s="2"/>
+      <c r="D167" s="128"/>
+      <c r="E167" s="128"/>
+      <c r="F167" s="128"/>
+      <c r="G167" s="128"/>
+      <c r="H167" s="128"/>
+      <c r="I167" s="128"/>
+      <c r="J167" s="128"/>
+      <c r="K167" s="128"/>
+      <c r="L167" s="118"/>
+      <c r="M167" s="118"/>
+      <c r="N167" s="118"/>
+      <c r="O167" s="118"/>
+      <c r="P167" s="118"/>
+      <c r="Q167" s="118"/>
+      <c r="R167" s="118"/>
+    </row>
+    <row r="168" ht="48" customHeight="1" s="99" customFormat="1">
+      <c r="C168" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D168" s="136" t="s">
         <v>173</v>
       </c>
-      <c r="E180" s="136"/>
-      <c r="F180" s="136"/>
-      <c r="G180" s="136"/>
-      <c r="H180" s="136"/>
-      <c r="I180" s="136"/>
-      <c r="J180" s="136"/>
-      <c r="K180" s="136"/>
-      <c r="L180" s="126"/>
-      <c r="M180" s="126"/>
-      <c r="N180" s="126"/>
-      <c r="O180" s="126"/>
-      <c r="P180" s="126"/>
-      <c r="Q180" s="126"/>
-      <c r="R180" s="126"/>
-    </row>
-    <row r="181" ht="8.1" customHeight="1" s="99" customFormat="1">
-      <c r="C181" s="2"/>
-      <c r="D181" s="127"/>
-      <c r="E181" s="127"/>
-      <c r="F181" s="127"/>
-      <c r="G181" s="127"/>
-      <c r="H181" s="127"/>
-      <c r="I181" s="127"/>
-      <c r="J181" s="127"/>
-      <c r="K181" s="127"/>
-      <c r="L181" s="76"/>
-      <c r="M181" s="76"/>
-      <c r="N181" s="76"/>
-      <c r="O181" s="76"/>
-      <c r="P181" s="76"/>
-      <c r="Q181" s="76"/>
-      <c r="R181" s="76"/>
-    </row>
-    <row r="182" ht="48" customHeight="1" s="117" customFormat="1">
-      <c r="C182" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D182" s="136" t="s">
-        <v>54</v>
-      </c>
-      <c r="E182" s="136"/>
-      <c r="F182" s="136"/>
-      <c r="G182" s="136"/>
-      <c r="H182" s="136"/>
-      <c r="I182" s="136"/>
-      <c r="J182" s="136"/>
-      <c r="K182" s="136"/>
-      <c r="L182" s="126"/>
-      <c r="M182" s="126"/>
-      <c r="N182" s="126"/>
-      <c r="O182" s="126"/>
-      <c r="P182" s="126"/>
-      <c r="Q182" s="126"/>
-      <c r="R182" s="126"/>
-    </row>
-    <row r="183" ht="8.1" customHeight="1" s="99" customFormat="1">
-      <c r="C183" s="2"/>
-      <c r="D183" s="128"/>
-      <c r="E183" s="128"/>
-      <c r="F183" s="128"/>
-      <c r="G183" s="128"/>
-      <c r="H183" s="128"/>
-      <c r="I183" s="128"/>
-      <c r="J183" s="128"/>
-      <c r="K183" s="128"/>
-      <c r="L183" s="118"/>
-      <c r="M183" s="118"/>
-      <c r="N183" s="118"/>
-      <c r="O183" s="118"/>
-      <c r="P183" s="118"/>
-      <c r="Q183" s="118"/>
-      <c r="R183" s="118"/>
-    </row>
-    <row r="184" ht="48" customHeight="1" s="99" customFormat="1">
-      <c r="C184" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="D184" s="136" t="s">
+      <c r="E168" s="136"/>
+      <c r="F168" s="136"/>
+      <c r="G168" s="136"/>
+      <c r="H168" s="136"/>
+      <c r="I168" s="136"/>
+      <c r="J168" s="136"/>
+      <c r="K168" s="136"/>
+      <c r="L168" s="126"/>
+      <c r="M168" s="126"/>
+      <c r="N168" s="126"/>
+      <c r="O168" s="126"/>
+      <c r="P168" s="126"/>
+      <c r="Q168" s="126"/>
+      <c r="R168" s="126"/>
+    </row>
+    <row r="169" ht="8.1" customHeight="1" s="99" customFormat="1">
+      <c r="C169" s="2"/>
+      <c r="D169" s="128"/>
+      <c r="E169" s="128"/>
+      <c r="F169" s="128"/>
+      <c r="G169" s="128"/>
+      <c r="H169" s="128"/>
+      <c r="I169" s="128"/>
+      <c r="J169" s="128"/>
+      <c r="K169" s="128"/>
+      <c r="L169" s="118"/>
+      <c r="M169" s="118"/>
+      <c r="N169" s="118"/>
+      <c r="O169" s="118"/>
+      <c r="P169" s="118"/>
+      <c r="Q169" s="118"/>
+      <c r="R169" s="118"/>
+    </row>
+    <row r="170" ht="48.95" customHeight="1" s="117" customFormat="1">
+      <c r="C170" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D170" s="136" t="s">
         <v>174</v>
       </c>
-      <c r="E184" s="136"/>
-      <c r="F184" s="136"/>
-      <c r="G184" s="136"/>
-      <c r="H184" s="136"/>
-      <c r="I184" s="136"/>
-      <c r="J184" s="136"/>
-      <c r="K184" s="136"/>
-      <c r="L184" s="126"/>
-      <c r="M184" s="126"/>
-      <c r="N184" s="126"/>
-      <c r="O184" s="126"/>
-      <c r="P184" s="126"/>
-      <c r="Q184" s="126"/>
-      <c r="R184" s="126"/>
-    </row>
-    <row r="185" ht="8.1" customHeight="1" s="99" customFormat="1">
-      <c r="C185" s="2"/>
-      <c r="D185" s="128"/>
-      <c r="E185" s="128"/>
-      <c r="F185" s="128"/>
-      <c r="G185" s="128"/>
-      <c r="H185" s="128"/>
-      <c r="I185" s="128"/>
-      <c r="J185" s="128"/>
-      <c r="K185" s="128"/>
-      <c r="L185" s="118"/>
-      <c r="M185" s="118"/>
-      <c r="N185" s="118"/>
-      <c r="O185" s="118"/>
-      <c r="P185" s="118"/>
-      <c r="Q185" s="118"/>
-      <c r="R185" s="118"/>
-    </row>
-    <row r="186" ht="48.95" customHeight="1" s="117" customFormat="1">
-      <c r="C186" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D186" s="136" t="s">
+      <c r="E170" s="136"/>
+      <c r="F170" s="136"/>
+      <c r="G170" s="136"/>
+      <c r="H170" s="136"/>
+      <c r="I170" s="136"/>
+      <c r="J170" s="136"/>
+      <c r="K170" s="136"/>
+      <c r="L170" s="126"/>
+      <c r="M170" s="126"/>
+      <c r="N170" s="126"/>
+      <c r="O170" s="126"/>
+      <c r="P170" s="126"/>
+      <c r="Q170" s="126"/>
+      <c r="R170" s="126"/>
+    </row>
+    <row r="171" ht="8.1" customHeight="1" s="99" customFormat="1">
+      <c r="C171" s="2"/>
+      <c r="D171" s="128"/>
+      <c r="E171" s="128"/>
+      <c r="F171" s="128"/>
+      <c r="G171" s="128"/>
+      <c r="H171" s="128"/>
+      <c r="I171" s="128"/>
+      <c r="J171" s="128"/>
+      <c r="K171" s="128"/>
+      <c r="L171" s="118"/>
+      <c r="M171" s="118"/>
+      <c r="N171" s="118"/>
+      <c r="O171" s="118"/>
+      <c r="P171" s="118"/>
+      <c r="Q171" s="118"/>
+      <c r="R171" s="118"/>
+    </row>
+    <row r="172" ht="147" customHeight="1" s="99" customFormat="1">
+      <c r="C172" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D172" s="136" t="s">
         <v>175</v>
       </c>
-      <c r="E186" s="136"/>
-      <c r="F186" s="136"/>
-      <c r="G186" s="136"/>
-      <c r="H186" s="136"/>
-      <c r="I186" s="136"/>
-      <c r="J186" s="136"/>
-      <c r="K186" s="136"/>
-      <c r="L186" s="126"/>
-      <c r="M186" s="126"/>
-      <c r="N186" s="126"/>
-      <c r="O186" s="126"/>
-      <c r="P186" s="126"/>
-      <c r="Q186" s="126"/>
-      <c r="R186" s="126"/>
-    </row>
-    <row r="187" ht="8.1" customHeight="1" s="99" customFormat="1">
-      <c r="C187" s="2"/>
-      <c r="D187" s="128"/>
-      <c r="E187" s="128"/>
-      <c r="F187" s="128"/>
-      <c r="G187" s="128"/>
-      <c r="H187" s="128"/>
-      <c r="I187" s="128"/>
-      <c r="J187" s="128"/>
-      <c r="K187" s="128"/>
-      <c r="L187" s="118"/>
-      <c r="M187" s="118"/>
-      <c r="N187" s="118"/>
-      <c r="O187" s="118"/>
-      <c r="P187" s="118"/>
-      <c r="Q187" s="118"/>
-      <c r="R187" s="118"/>
-    </row>
-    <row r="188" ht="147" customHeight="1" s="99" customFormat="1">
-      <c r="C188" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D188" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="E188" s="136"/>
-      <c r="F188" s="136"/>
-      <c r="G188" s="136"/>
-      <c r="H188" s="136"/>
-      <c r="I188" s="136"/>
-      <c r="J188" s="136"/>
-      <c r="K188" s="136"/>
-      <c r="L188" s="77"/>
-      <c r="M188" s="77"/>
-      <c r="N188" s="77"/>
-      <c r="O188" s="77"/>
-      <c r="P188" s="77"/>
-      <c r="Q188" s="77"/>
-      <c r="R188" s="77"/>
-    </row>
-    <row r="189" ht="24" customHeight="1">
-      <c r="D189" s="135"/>
-      <c r="E189" s="135"/>
-      <c r="F189" s="135"/>
-      <c r="G189" s="135"/>
-      <c r="H189" s="135"/>
-      <c r="I189" s="135"/>
-      <c r="J189" s="135"/>
-      <c r="K189" s="135"/>
+      <c r="E172" s="136"/>
+      <c r="F172" s="136"/>
+      <c r="G172" s="136"/>
+      <c r="H172" s="136"/>
+      <c r="I172" s="136"/>
+      <c r="J172" s="136"/>
+      <c r="K172" s="136"/>
+      <c r="L172" s="77"/>
+      <c r="M172" s="77"/>
+      <c r="N172" s="77"/>
+      <c r="O172" s="77"/>
+      <c r="P172" s="77"/>
+      <c r="Q172" s="77"/>
+      <c r="R172" s="77"/>
+    </row>
+    <row r="173" ht="24" customHeight="1">
+      <c r="D173" s="135"/>
+      <c r="E173" s="135"/>
+      <c r="F173" s="135"/>
+      <c r="G173" s="135"/>
+      <c r="H173" s="135"/>
+      <c r="I173" s="135"/>
+      <c r="J173" s="135"/>
+      <c r="K173" s="135"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D180:K180"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D173:K173"/>
+    <mergeCell ref="D172:K172"/>
+    <mergeCell ref="D164:K164"/>
+    <mergeCell ref="D166:K166"/>
+    <mergeCell ref="D168:K168"/>
+    <mergeCell ref="D170:K170"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:K1048576">
     <cfRule type="expression" dxfId="0" priority="5">
@@ -8330,7 +7848,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 06/17/20</v>
+        <v>Created 07/28/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -8348,7 +7866,7 @@
     <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
       <c r="B5" s="76" t="str">
         <f>'PROPOSAL'!J5</f>
-        <v>A21-24</v>
+        <v>A18+</v>
       </c>
       <c r="C5" s="76" t="str">
         <f>'PROPOSAL'!N5</f>
@@ -15061,16 +14579,16 @@
       <c r="K190" s="67"/>
       <c r="L190" s="37"/>
       <c r="M190" s="37">
-        <v>1</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="N190" s="37">
-        <v>1</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="O190" s="59">
-        <v>1</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="P190" s="59">
-        <v>3</v>
+        <v>399</v>
       </c>
     </row>
     <row r="191" ht="24" customHeight="1">
@@ -21817,10 +21335,10 @@
         <v>23</v>
       </c>
       <c r="C379" s="67">
-        <v>1</v>
+        <v>136.33333333333334</v>
       </c>
       <c r="D379" s="37">
-        <v>1</v>
+        <v>142.33333333333334</v>
       </c>
       <c r="E379" s="37"/>
       <c r="F379" s="59"/>
@@ -21834,7 +21352,7 @@
       <c r="N379" s="37"/>
       <c r="O379" s="59"/>
       <c r="P379" s="59">
-        <v>2</v>
+        <v>278</v>
       </c>
     </row>
     <row r="380" ht="24" customHeight="1">
@@ -22428,13 +21946,13 @@
         <f>SUM(J9:J10)</f>
         <v>27669</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="47" t="e">
         <f>E11/J11</f>
-        <v>3.6914958979363188</v>
-      </c>
-      <c r="L11" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L11" s="43" t="e">
         <f>E11/H11</f>
-        <v>4426.1035816256463</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M11" s="31"/>
       <c r="N11" s="45" t="s">
@@ -22454,13 +21972,13 @@
         <f>SUM(R9:R10)</f>
         <v>8189.91</v>
       </c>
-      <c r="S11" s="47">
+      <c r="S11" s="47" t="e">
         <f>E11/R11</f>
-        <v>12.471443520136363</v>
-      </c>
-      <c r="T11" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T11" s="43" t="e">
         <f>E11/P11</f>
-        <v>12482.667819304488</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1">
@@ -22685,13 +22203,13 @@
         <f>SUM(J15:J16)</f>
         <v>24004</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="47" t="e">
         <f>E17/J17</f>
-        <v>4.78253624395934</v>
-      </c>
-      <c r="L17" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L17" s="43" t="e">
         <f>E17/H17</f>
-        <v>5734.2609565072489</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M17" s="31"/>
       <c r="N17" s="45" t="s">
@@ -22711,13 +22229,13 @@
         <f>SUM(R15:R16)</f>
         <v>7099.380000000001</v>
       </c>
-      <c r="S17" s="47">
+      <c r="S17" s="47" t="e">
         <f>E17/R17</f>
-        <v>16.170426149889142</v>
-      </c>
-      <c r="T17" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T17" s="43" t="e">
         <f>E17/P17</f>
-        <v>16184.979533424046</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1">
@@ -24721,97 +24239,97 @@
     <row r="1" ht="18" customHeight="1"/>
     <row r="2" ht="27.95" customHeight="1">
       <c r="D2" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
     <row r="4" ht="104.1" customHeight="1" s="116" customFormat="1">
       <c r="C4" s="144" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" s="144"/>
     </row>
     <row r="5" ht="110.1" customHeight="1" s="116" customFormat="1">
       <c r="C5" s="144" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" s="144"/>
     </row>
     <row r="6" ht="209.1" customHeight="1" s="116" customFormat="1">
       <c r="C6" s="144" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6" s="144"/>
     </row>
     <row r="7" ht="89.1" customHeight="1" s="116" customFormat="1">
       <c r="C7" s="144" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="144"/>
     </row>
     <row r="8" ht="150" customHeight="1" s="116" customFormat="1">
       <c r="C8" s="144" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8" s="144"/>
     </row>
     <row r="9" ht="200.1" customHeight="1" s="116" customFormat="1">
       <c r="C9" s="144" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D9" s="144"/>
     </row>
     <row r="10" ht="147.95" customHeight="1" s="116" customFormat="1">
       <c r="C10" s="144" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D10" s="144"/>
     </row>
     <row r="11" ht="134.1" customHeight="1" s="116" customFormat="1">
       <c r="C11" s="144" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D11" s="144"/>
     </row>
     <row r="12" ht="54" customHeight="1" s="116" customFormat="1">
       <c r="C12" s="144" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D12" s="144"/>
     </row>
     <row r="13" ht="69.95" customHeight="1" s="116" customFormat="1">
       <c r="C13" s="144" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13" s="144"/>
     </row>
     <row r="14" ht="128.1" customHeight="1" s="116" customFormat="1">
       <c r="C14" s="144" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D14" s="144"/>
     </row>
     <row r="15" ht="51.95" customHeight="1" s="116" customFormat="1">
       <c r="C15" s="144" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D15" s="144"/>
     </row>
     <row r="16" ht="84" customHeight="1" s="116" customFormat="1">
       <c r="C16" s="144" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D16" s="144"/>
     </row>
     <row r="17" ht="69.95" customHeight="1" s="116" customFormat="1">
       <c r="C17" s="144" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D17" s="144"/>
     </row>
     <row r="18" ht="180" customHeight="1" s="116" customFormat="1">
       <c r="C18" s="144" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D18" s="144"/>
     </row>
@@ -24872,10 +24390,10 @@
     <row r="2" ht="27.95" customHeight="1">
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -24910,24 +24428,24 @@
     </row>
     <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
       <c r="C5" s="134" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D5" s="134"/>
       <c r="E5" s="134" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F5" s="134"/>
       <c r="G5" s="134"/>
       <c r="H5" s="134" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I5" s="134"/>
       <c r="J5" s="134" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K5" s="134"/>
       <c r="L5" s="134" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M5" s="134"/>
       <c r="N5" s="76" t="s">
@@ -24939,7 +24457,7 @@
       <c r="R5" s="134"/>
       <c r="S5" s="134"/>
       <c r="T5" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -24974,7 +24492,7 @@
       <c r="L7" s="139"/>
       <c r="M7" s="140"/>
       <c r="N7" s="138" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O7" s="139"/>
       <c r="P7" s="139"/>
@@ -24992,7 +24510,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>23</v>
@@ -25052,7 +24570,7 @@
         <v>138</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E9" s="119">
         <v>0</v>
@@ -25067,28 +24585,28 @@
         <v>0</v>
       </c>
       <c r="I9" s="123">
-        <v>2.6215200000000003</v>
+        <v>1.1280004574066953</v>
       </c>
       <c r="J9" s="119">
         <v>0</v>
       </c>
       <c r="K9" s="119">
-        <v>3168</v>
+        <v>1364.3410852713178</v>
       </c>
       <c r="L9" s="124">
-        <v>12.5</v>
+        <v>29.024999999999952</v>
       </c>
       <c r="M9" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006853</v>
       </c>
       <c r="N9" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O9" s="122">
         <v>0</v>
       </c>
       <c r="P9" s="123">
-        <v>9.8999999999999986</v>
+        <v>0.64943999999999991</v>
       </c>
       <c r="Q9" s="119">
         <v>0</v>
@@ -25100,7 +24618,7 @@
         <v>25</v>
       </c>
       <c r="T9" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1">
@@ -25112,7 +24630,7 @@
         <v>138</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="E10" s="119">
         <v>0</v>
@@ -25127,28 +24645,28 @@
         <v>0</v>
       </c>
       <c r="I10" s="123">
-        <v>2.7009600000000002</v>
+        <v>1.1621822894493223</v>
       </c>
       <c r="J10" s="119">
         <v>0</v>
       </c>
       <c r="K10" s="119">
-        <v>3264</v>
+        <v>1405.6847545219637</v>
       </c>
       <c r="L10" s="124">
-        <v>12.5</v>
+        <v>29.025000000000077</v>
       </c>
       <c r="M10" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007071</v>
       </c>
       <c r="N10" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O10" s="122">
         <v>0</v>
       </c>
       <c r="P10" s="123">
-        <v>10.2</v>
+        <v>0.66911999999999994</v>
       </c>
       <c r="Q10" s="119">
         <v>0</v>
@@ -25160,7 +24678,7 @@
         <v>25</v>
       </c>
       <c r="T10" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1">
@@ -25172,7 +24690,7 @@
         <v>138</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E11" s="119">
         <v>0</v>
@@ -25187,28 +24705,28 @@
         <v>0</v>
       </c>
       <c r="I11" s="123">
-        <v>7.9440000000000008</v>
+        <v>3.4181832042627129</v>
       </c>
       <c r="J11" s="119">
         <v>0</v>
       </c>
       <c r="K11" s="119">
-        <v>9600</v>
+        <v>4134.3669250645989</v>
       </c>
       <c r="L11" s="124">
-        <v>12.5</v>
+        <v>29.025</v>
       </c>
       <c r="M11" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007028</v>
       </c>
       <c r="N11" s="125">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O11" s="122">
         <v>0</v>
       </c>
       <c r="P11" s="123">
-        <v>30</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="Q11" s="119">
         <v>0</v>
@@ -25220,7 +24738,7 @@
         <v>25</v>
       </c>
       <c r="T11" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1">
@@ -25232,7 +24750,7 @@
         <v>138</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="E12" s="119">
         <v>0</v>
@@ -25247,28 +24765,28 @@
         <v>0</v>
       </c>
       <c r="I12" s="123">
-        <v>2.6215200000000003</v>
+        <v>1.1280004574066953</v>
       </c>
       <c r="J12" s="119">
         <v>0</v>
       </c>
       <c r="K12" s="119">
-        <v>3168</v>
+        <v>1364.3410852713178</v>
       </c>
       <c r="L12" s="124">
-        <v>12.5</v>
+        <v>29.024999999999952</v>
       </c>
       <c r="M12" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006853</v>
       </c>
       <c r="N12" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O12" s="122">
         <v>0</v>
       </c>
       <c r="P12" s="123">
-        <v>9.8999999999999986</v>
+        <v>0.64943999999999991</v>
       </c>
       <c r="Q12" s="119">
         <v>0</v>
@@ -25280,7 +24798,7 @@
         <v>25</v>
       </c>
       <c r="T12" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1">
@@ -25292,7 +24810,7 @@
         <v>138</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E13" s="119">
         <v>0</v>
@@ -25307,28 +24825,28 @@
         <v>0</v>
       </c>
       <c r="I13" s="123">
-        <v>4.7286660000000005</v>
+        <v>2.0325363717724678</v>
       </c>
       <c r="J13" s="119">
         <v>0</v>
       </c>
       <c r="K13" s="119">
-        <v>5714.4</v>
+        <v>2460.9819121447031</v>
       </c>
       <c r="L13" s="124">
-        <v>12.5</v>
+        <v>29.025000000000034</v>
       </c>
       <c r="M13" s="121">
-        <v>15105.740181268882</v>
+        <v>35143.282546874958</v>
       </c>
       <c r="N13" s="125">
-        <v>0.5</v>
+        <v>1.1609999999999998</v>
       </c>
       <c r="O13" s="122">
         <v>0</v>
       </c>
       <c r="P13" s="123">
-        <v>17.5</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="119">
         <v>0</v>
@@ -25340,7 +24858,7 @@
         <v>25</v>
       </c>
       <c r="T13" s="121">
-        <v>4081.7142857142853</v>
+        <v>71430</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1">
@@ -25352,7 +24870,7 @@
         <v>140</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E14" s="119">
         <v>0</v>
@@ -25367,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="I14" s="123">
-        <v>2.6215200000000003</v>
+        <v>1.1280004574066953</v>
       </c>
       <c r="J14" s="119">
         <v>0</v>
       </c>
       <c r="K14" s="119">
-        <v>3168</v>
+        <v>1364.3410852713178</v>
       </c>
       <c r="L14" s="124">
-        <v>12.5</v>
+        <v>29.024999999999952</v>
       </c>
       <c r="M14" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006853</v>
       </c>
       <c r="N14" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O14" s="122">
         <v>0</v>
       </c>
       <c r="P14" s="123">
-        <v>9.8999999999999986</v>
+        <v>0.64943999999999991</v>
       </c>
       <c r="Q14" s="119">
         <v>0</v>
@@ -25400,7 +24918,7 @@
         <v>25</v>
       </c>
       <c r="T14" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1">
@@ -25412,7 +24930,7 @@
         <v>140</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="E15" s="119">
         <v>0</v>
@@ -25427,28 +24945,28 @@
         <v>0</v>
       </c>
       <c r="I15" s="123">
-        <v>2.7009600000000002</v>
+        <v>1.1621822894493223</v>
       </c>
       <c r="J15" s="119">
         <v>0</v>
       </c>
       <c r="K15" s="119">
-        <v>3264</v>
+        <v>1405.6847545219637</v>
       </c>
       <c r="L15" s="124">
-        <v>12.5</v>
+        <v>29.025000000000077</v>
       </c>
       <c r="M15" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007071</v>
       </c>
       <c r="N15" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O15" s="122">
         <v>0</v>
       </c>
       <c r="P15" s="123">
-        <v>10.2</v>
+        <v>0.66911999999999994</v>
       </c>
       <c r="Q15" s="119">
         <v>0</v>
@@ -25460,7 +24978,7 @@
         <v>25</v>
       </c>
       <c r="T15" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="16" ht="24" customHeight="1">
@@ -25472,7 +24990,7 @@
         <v>140</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E16" s="119">
         <v>0</v>
@@ -25487,28 +25005,28 @@
         <v>0</v>
       </c>
       <c r="I16" s="123">
-        <v>7.9440000000000008</v>
+        <v>3.4181832042627129</v>
       </c>
       <c r="J16" s="119">
         <v>0</v>
       </c>
       <c r="K16" s="119">
-        <v>9600</v>
+        <v>4134.3669250645989</v>
       </c>
       <c r="L16" s="124">
-        <v>12.5</v>
+        <v>29.025</v>
       </c>
       <c r="M16" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007028</v>
       </c>
       <c r="N16" s="125">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O16" s="122">
         <v>0</v>
       </c>
       <c r="P16" s="123">
-        <v>30</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="Q16" s="119">
         <v>0</v>
@@ -25520,7 +25038,7 @@
         <v>25</v>
       </c>
       <c r="T16" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="17" ht="24" customHeight="1">
@@ -25532,7 +25050,7 @@
         <v>140</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="E17" s="119">
         <v>0</v>
@@ -25547,28 +25065,28 @@
         <v>0</v>
       </c>
       <c r="I17" s="123">
-        <v>2.6215200000000003</v>
+        <v>1.1280004574066953</v>
       </c>
       <c r="J17" s="119">
         <v>0</v>
       </c>
       <c r="K17" s="119">
-        <v>3168</v>
+        <v>1364.3410852713178</v>
       </c>
       <c r="L17" s="124">
-        <v>12.5</v>
+        <v>29.024999999999952</v>
       </c>
       <c r="M17" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006853</v>
       </c>
       <c r="N17" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O17" s="122">
         <v>0</v>
       </c>
       <c r="P17" s="123">
-        <v>9.8999999999999986</v>
+        <v>0.64943999999999991</v>
       </c>
       <c r="Q17" s="119">
         <v>0</v>
@@ -25580,7 +25098,7 @@
         <v>25</v>
       </c>
       <c r="T17" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="18" ht="24" customHeight="1">
@@ -25592,7 +25110,7 @@
         <v>140</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E18" s="119">
         <v>0</v>
@@ -25607,28 +25125,28 @@
         <v>0</v>
       </c>
       <c r="I18" s="123">
-        <v>4.7286660000000005</v>
+        <v>2.0325363717724678</v>
       </c>
       <c r="J18" s="119">
         <v>0</v>
       </c>
       <c r="K18" s="119">
-        <v>5714.4</v>
+        <v>2460.9819121447031</v>
       </c>
       <c r="L18" s="124">
-        <v>12.5</v>
+        <v>29.025000000000034</v>
       </c>
       <c r="M18" s="121">
-        <v>15105.740181268882</v>
+        <v>35143.282546874958</v>
       </c>
       <c r="N18" s="125">
-        <v>0.5</v>
+        <v>1.1609999999999998</v>
       </c>
       <c r="O18" s="122">
         <v>0</v>
       </c>
       <c r="P18" s="123">
-        <v>17.5</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="119">
         <v>0</v>
@@ -25640,7 +25158,7 @@
         <v>25</v>
       </c>
       <c r="T18" s="121">
-        <v>4081.7142857142853</v>
+        <v>71430</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1">
@@ -25652,7 +25170,7 @@
         <v>126</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E19" s="119">
         <v>0</v>
@@ -25667,28 +25185,28 @@
         <v>0</v>
       </c>
       <c r="I19" s="123">
-        <v>1.3107600000000002</v>
+        <v>0.57539917884410086</v>
       </c>
       <c r="J19" s="119">
         <v>0</v>
       </c>
       <c r="K19" s="119">
-        <v>1584</v>
+        <v>695.95782073813712</v>
       </c>
       <c r="L19" s="124">
-        <v>12.5</v>
+        <v>28.450000000000003</v>
       </c>
       <c r="M19" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762221</v>
       </c>
       <c r="N19" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O19" s="122">
         <v>0</v>
       </c>
       <c r="P19" s="123">
-        <v>4.8000000000000007</v>
+        <v>0.32471999999999995</v>
       </c>
       <c r="Q19" s="119">
         <v>0</v>
@@ -25700,7 +25218,7 @@
         <v>25</v>
       </c>
       <c r="T19" s="121">
-        <v>4125</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1">
@@ -25712,7 +25230,7 @@
         <v>126</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="E20" s="119">
         <v>0</v>
@@ -25727,28 +25245,28 @@
         <v>0</v>
       </c>
       <c r="I20" s="123">
-        <v>1.3504800000000001</v>
+        <v>0.59283551759695241</v>
       </c>
       <c r="J20" s="119">
         <v>0</v>
       </c>
       <c r="K20" s="119">
-        <v>1632</v>
+        <v>717.047451669596</v>
       </c>
       <c r="L20" s="124">
-        <v>12.5</v>
+        <v>28.449999999999992</v>
       </c>
       <c r="M20" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762257</v>
       </c>
       <c r="N20" s="125">
-        <v>0.5</v>
+        <v>1.1379999999999997</v>
       </c>
       <c r="O20" s="122">
         <v>0</v>
       </c>
       <c r="P20" s="123">
-        <v>5.1</v>
+        <v>0.33455999999999997</v>
       </c>
       <c r="Q20" s="119">
         <v>0</v>
@@ -25760,7 +25278,7 @@
         <v>25</v>
       </c>
       <c r="T20" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1">
@@ -25772,7 +25290,7 @@
         <v>126</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E21" s="119">
         <v>0</v>
@@ -25787,28 +25305,28 @@
         <v>0</v>
       </c>
       <c r="I21" s="123">
-        <v>3.9720000000000004</v>
+        <v>1.7436338752851541</v>
       </c>
       <c r="J21" s="119">
         <v>0</v>
       </c>
       <c r="K21" s="119">
-        <v>4800</v>
+        <v>2108.96309314587</v>
       </c>
       <c r="L21" s="124">
-        <v>12.5</v>
+        <v>28.449999999999996</v>
       </c>
       <c r="M21" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762308</v>
       </c>
       <c r="N21" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O21" s="122">
         <v>0</v>
       </c>
       <c r="P21" s="123">
-        <v>15</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="Q21" s="119">
         <v>0</v>
@@ -25820,7 +25338,7 @@
         <v>25</v>
       </c>
       <c r="T21" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1">
@@ -25832,7 +25350,7 @@
         <v>126</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="E22" s="119">
         <v>0</v>
@@ -25847,28 +25365,28 @@
         <v>0</v>
       </c>
       <c r="I22" s="123">
-        <v>1.3107600000000002</v>
+        <v>0.57539917884410086</v>
       </c>
       <c r="J22" s="119">
         <v>0</v>
       </c>
       <c r="K22" s="119">
-        <v>1584</v>
+        <v>695.95782073813712</v>
       </c>
       <c r="L22" s="124">
-        <v>12.5</v>
+        <v>28.450000000000003</v>
       </c>
       <c r="M22" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762221</v>
       </c>
       <c r="N22" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O22" s="122">
         <v>0</v>
       </c>
       <c r="P22" s="123">
-        <v>4.8000000000000007</v>
+        <v>0.32471999999999995</v>
       </c>
       <c r="Q22" s="119">
         <v>0</v>
@@ -25880,7 +25398,7 @@
         <v>25</v>
       </c>
       <c r="T22" s="121">
-        <v>4125</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="23" ht="24" customHeight="1">
@@ -25892,7 +25410,7 @@
         <v>126</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E23" s="119">
         <v>0</v>
@@ -25907,28 +25425,28 @@
         <v>0</v>
       </c>
       <c r="I23" s="123">
-        <v>22.463480500000003</v>
+        <v>9.8579538601455425</v>
       </c>
       <c r="J23" s="119">
         <v>0</v>
       </c>
       <c r="K23" s="119">
-        <v>27146.2</v>
+        <v>11927.152899824254</v>
       </c>
       <c r="L23" s="124">
-        <v>12.5</v>
+        <v>28.449999999999889</v>
       </c>
       <c r="M23" s="121">
-        <v>15105.740181268882</v>
+        <v>34421.696917436195</v>
       </c>
       <c r="N23" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O23" s="122">
         <v>0</v>
       </c>
       <c r="P23" s="123">
-        <v>84.7</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="Q23" s="119">
         <v>0</v>
@@ -25940,7 +25458,7 @@
         <v>25</v>
       </c>
       <c r="T23" s="121">
-        <v>4006.2278630460446</v>
+        <v>70693.229166666672</v>
       </c>
     </row>
     <row r="24" ht="24" customHeight="1">
@@ -25952,7 +25470,7 @@
         <v>130</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E24" s="119">
         <v>0</v>
@@ -25967,28 +25485,28 @@
         <v>0</v>
       </c>
       <c r="I24" s="123">
-        <v>8.2774825000000014</v>
+        <v>3.5650536692180195</v>
       </c>
       <c r="J24" s="119">
         <v>0</v>
       </c>
       <c r="K24" s="119">
-        <v>10003</v>
+        <v>4307.92420327304</v>
       </c>
       <c r="L24" s="124">
-        <v>12.5</v>
+        <v>29.025000000000002</v>
       </c>
       <c r="M24" s="121">
-        <v>15105.740181268882</v>
+        <v>35073.104531250006</v>
       </c>
       <c r="N24" s="125">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O24" s="122">
         <v>0</v>
       </c>
       <c r="P24" s="123">
-        <v>31.199999999999992</v>
+        <v>1.3</v>
       </c>
       <c r="Q24" s="119">
         <v>0</v>
@@ -26000,14 +25518,14 @@
         <v>25</v>
       </c>
       <c r="T24" s="121">
-        <v>4007.6121794871792</v>
+        <v>96182.692307692312</v>
       </c>
     </row>
     <row r="25" ht="24" customHeight="1">
       <c r="B25" s="25"/>
       <c r="C25" s="39"/>
       <c r="D25" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E25" s="51">
         <v>0</v>
@@ -26022,19 +25540,19 @@
         <v>38</v>
       </c>
       <c r="I25" s="80">
-        <v>79.918295000000015</v>
+        <v>34.648080840529659</v>
       </c>
       <c r="J25" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K25" s="51">
-        <v>96578</v>
+        <v>41912.434813936838</v>
       </c>
       <c r="L25" s="47">
-        <v>12.5</v>
+        <v>28.803504386210733</v>
       </c>
       <c r="M25" s="43">
-        <v>15105.740181268882</v>
+        <v>34842.478160806088</v>
       </c>
       <c r="N25" s="45" t="s">
         <v>38</v>
@@ -26043,7 +25561,7 @@
         <v>38</v>
       </c>
       <c r="P25" s="80">
-        <v>300.6</v>
+        <v>17.52</v>
       </c>
       <c r="Q25" s="51" t="s">
         <v>38</v>
@@ -26055,12 +25573,12 @@
         <v>25</v>
       </c>
       <c r="T25" s="43">
-        <v>4016.0512308715897</v>
+        <v>68905.536529680365</v>
       </c>
     </row>
     <row r="27" ht="24" customHeight="1">
       <c r="C27" s="53" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D27" s="53"/>
       <c r="E27" s="7"/>
@@ -26075,7 +25593,7 @@
       <c r="L27" s="139"/>
       <c r="M27" s="140"/>
       <c r="N27" s="138" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O27" s="139"/>
       <c r="P27" s="139"/>
@@ -26093,7 +25611,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>23</v>
@@ -26153,7 +25671,7 @@
         <v>138</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E29" s="119">
         <v>0</v>
@@ -26168,28 +25686,28 @@
         <v>0</v>
       </c>
       <c r="I29" s="123">
-        <v>1.7476800000000001</v>
+        <v>0.7520003049377969</v>
       </c>
       <c r="J29" s="119">
         <v>0</v>
       </c>
       <c r="K29" s="119">
-        <v>2112</v>
+        <v>909.56072351421187</v>
       </c>
       <c r="L29" s="124">
-        <v>12.5</v>
+        <v>29.025</v>
       </c>
       <c r="M29" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006984</v>
       </c>
       <c r="N29" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O29" s="122">
         <v>0</v>
       </c>
       <c r="P29" s="123">
-        <v>6.6</v>
+        <v>0.43295999999999996</v>
       </c>
       <c r="Q29" s="119">
         <v>0</v>
@@ -26201,7 +25719,7 @@
         <v>25</v>
       </c>
       <c r="T29" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="30" ht="24" customHeight="1">
@@ -26213,7 +25731,7 @@
         <v>138</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="E30" s="119">
         <v>0</v>
@@ -26228,28 +25746,28 @@
         <v>0</v>
       </c>
       <c r="I30" s="123">
-        <v>1.80064</v>
+        <v>0.77478819296621493</v>
       </c>
       <c r="J30" s="119">
         <v>0</v>
       </c>
       <c r="K30" s="119">
-        <v>2176</v>
+        <v>937.12316968130915</v>
       </c>
       <c r="L30" s="124">
-        <v>12.5</v>
+        <v>29.025000000000006</v>
       </c>
       <c r="M30" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006991</v>
       </c>
       <c r="N30" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O30" s="122">
         <v>0</v>
       </c>
       <c r="P30" s="123">
-        <v>6.8</v>
+        <v>0.44607999999999992</v>
       </c>
       <c r="Q30" s="119">
         <v>0</v>
@@ -26261,7 +25779,7 @@
         <v>25</v>
       </c>
       <c r="T30" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="31" ht="24" customHeight="1">
@@ -26273,7 +25791,7 @@
         <v>138</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E31" s="119">
         <v>0</v>
@@ -26288,28 +25806,28 @@
         <v>0</v>
       </c>
       <c r="I31" s="123">
-        <v>5.296</v>
+        <v>2.2787888028418086</v>
       </c>
       <c r="J31" s="119">
         <v>0</v>
       </c>
       <c r="K31" s="119">
-        <v>6400</v>
+        <v>2756.2446167097328</v>
       </c>
       <c r="L31" s="124">
-        <v>12.5</v>
+        <v>29.025000000000031</v>
       </c>
       <c r="M31" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006969</v>
       </c>
       <c r="N31" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O31" s="122">
         <v>0</v>
       </c>
       <c r="P31" s="123">
-        <v>20</v>
+        <v>1.2</v>
       </c>
       <c r="Q31" s="119">
         <v>0</v>
@@ -26321,7 +25839,7 @@
         <v>25</v>
       </c>
       <c r="T31" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="32" ht="24" customHeight="1">
@@ -26333,7 +25851,7 @@
         <v>138</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="E32" s="119">
         <v>0</v>
@@ -26348,28 +25866,28 @@
         <v>0</v>
       </c>
       <c r="I32" s="123">
-        <v>1.7476800000000001</v>
+        <v>0.7520003049377969</v>
       </c>
       <c r="J32" s="119">
         <v>0</v>
       </c>
       <c r="K32" s="119">
-        <v>2112</v>
+        <v>909.56072351421187</v>
       </c>
       <c r="L32" s="124">
-        <v>12.5</v>
+        <v>29.025</v>
       </c>
       <c r="M32" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006984</v>
       </c>
       <c r="N32" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O32" s="122">
         <v>0</v>
       </c>
       <c r="P32" s="123">
-        <v>6.6</v>
+        <v>0.43295999999999996</v>
       </c>
       <c r="Q32" s="119">
         <v>0</v>
@@ -26381,7 +25899,7 @@
         <v>25</v>
       </c>
       <c r="T32" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="33" ht="24" customHeight="1">
@@ -26393,7 +25911,7 @@
         <v>138</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E33" s="119">
         <v>0</v>
@@ -26408,28 +25926,28 @@
         <v>0</v>
       </c>
       <c r="I33" s="123">
-        <v>1.8913340000000003</v>
+        <v>0.81295763882877514</v>
       </c>
       <c r="J33" s="119">
         <v>0</v>
       </c>
       <c r="K33" s="119">
-        <v>2285.6</v>
+        <v>984.32385874246336</v>
       </c>
       <c r="L33" s="124">
-        <v>12.5</v>
+        <v>29.025000000000009</v>
       </c>
       <c r="M33" s="121">
-        <v>15105.740181268882</v>
+        <v>35143.282546875009</v>
       </c>
       <c r="N33" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O33" s="122">
         <v>0</v>
       </c>
       <c r="P33" s="123">
-        <v>7</v>
+        <v>0.4</v>
       </c>
       <c r="Q33" s="119">
         <v>0</v>
@@ -26441,7 +25959,7 @@
         <v>25</v>
       </c>
       <c r="T33" s="121">
-        <v>4081.4285714285706</v>
+        <v>71425</v>
       </c>
     </row>
     <row r="34" ht="24" customHeight="1">
@@ -26453,7 +25971,7 @@
         <v>140</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E34" s="119">
         <v>0</v>
@@ -26468,28 +25986,28 @@
         <v>0</v>
       </c>
       <c r="I34" s="123">
-        <v>1.7476800000000001</v>
+        <v>0.7520003049377969</v>
       </c>
       <c r="J34" s="119">
         <v>0</v>
       </c>
       <c r="K34" s="119">
-        <v>2112</v>
+        <v>909.56072351421187</v>
       </c>
       <c r="L34" s="124">
-        <v>12.5</v>
+        <v>29.025</v>
       </c>
       <c r="M34" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006984</v>
       </c>
       <c r="N34" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O34" s="122">
         <v>0</v>
       </c>
       <c r="P34" s="123">
-        <v>6.6</v>
+        <v>0.43295999999999996</v>
       </c>
       <c r="Q34" s="119">
         <v>0</v>
@@ -26501,7 +26019,7 @@
         <v>25</v>
       </c>
       <c r="T34" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="35" ht="24" customHeight="1">
@@ -26513,7 +26031,7 @@
         <v>140</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="E35" s="119">
         <v>0</v>
@@ -26528,28 +26046,28 @@
         <v>0</v>
       </c>
       <c r="I35" s="123">
-        <v>1.80064</v>
+        <v>0.77478819296621493</v>
       </c>
       <c r="J35" s="119">
         <v>0</v>
       </c>
       <c r="K35" s="119">
-        <v>2176</v>
+        <v>937.12316968130915</v>
       </c>
       <c r="L35" s="124">
-        <v>12.5</v>
+        <v>29.025000000000006</v>
       </c>
       <c r="M35" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006991</v>
       </c>
       <c r="N35" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O35" s="122">
         <v>0</v>
       </c>
       <c r="P35" s="123">
-        <v>6.8</v>
+        <v>0.44607999999999992</v>
       </c>
       <c r="Q35" s="119">
         <v>0</v>
@@ -26561,7 +26079,7 @@
         <v>25</v>
       </c>
       <c r="T35" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="36" ht="24" customHeight="1">
@@ -26573,7 +26091,7 @@
         <v>140</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E36" s="119">
         <v>0</v>
@@ -26588,28 +26106,28 @@
         <v>0</v>
       </c>
       <c r="I36" s="123">
-        <v>5.296</v>
+        <v>2.2787888028418086</v>
       </c>
       <c r="J36" s="119">
         <v>0</v>
       </c>
       <c r="K36" s="119">
-        <v>6400</v>
+        <v>2756.2446167097328</v>
       </c>
       <c r="L36" s="124">
-        <v>12.5</v>
+        <v>29.025000000000031</v>
       </c>
       <c r="M36" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006969</v>
       </c>
       <c r="N36" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O36" s="122">
         <v>0</v>
       </c>
       <c r="P36" s="123">
-        <v>20</v>
+        <v>1.2</v>
       </c>
       <c r="Q36" s="119">
         <v>0</v>
@@ -26621,7 +26139,7 @@
         <v>25</v>
       </c>
       <c r="T36" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="37" ht="24" customHeight="1">
@@ -26633,7 +26151,7 @@
         <v>140</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="E37" s="119">
         <v>0</v>
@@ -26648,28 +26166,28 @@
         <v>0</v>
       </c>
       <c r="I37" s="123">
-        <v>1.7476800000000001</v>
+        <v>0.7520003049377969</v>
       </c>
       <c r="J37" s="119">
         <v>0</v>
       </c>
       <c r="K37" s="119">
-        <v>2112</v>
+        <v>909.56072351421187</v>
       </c>
       <c r="L37" s="124">
-        <v>12.5</v>
+        <v>29.025</v>
       </c>
       <c r="M37" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006984</v>
       </c>
       <c r="N37" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O37" s="122">
         <v>0</v>
       </c>
       <c r="P37" s="123">
-        <v>6.6</v>
+        <v>0.43295999999999996</v>
       </c>
       <c r="Q37" s="119">
         <v>0</v>
@@ -26681,7 +26199,7 @@
         <v>25</v>
       </c>
       <c r="T37" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="38" ht="24" customHeight="1">
@@ -26693,7 +26211,7 @@
         <v>140</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E38" s="119">
         <v>0</v>
@@ -26708,28 +26226,28 @@
         <v>0</v>
       </c>
       <c r="I38" s="123">
-        <v>1.8913340000000003</v>
+        <v>0.81295763882877514</v>
       </c>
       <c r="J38" s="119">
         <v>0</v>
       </c>
       <c r="K38" s="119">
-        <v>2285.6</v>
+        <v>984.32385874246336</v>
       </c>
       <c r="L38" s="124">
-        <v>12.5</v>
+        <v>29.025000000000009</v>
       </c>
       <c r="M38" s="121">
-        <v>15105.740181268882</v>
+        <v>35143.282546875009</v>
       </c>
       <c r="N38" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O38" s="122">
         <v>0</v>
       </c>
       <c r="P38" s="123">
-        <v>7</v>
+        <v>0.4</v>
       </c>
       <c r="Q38" s="119">
         <v>0</v>
@@ -26741,7 +26259,7 @@
         <v>25</v>
       </c>
       <c r="T38" s="121">
-        <v>4081.4285714285706</v>
+        <v>71425</v>
       </c>
     </row>
     <row r="39" ht="24" customHeight="1">
@@ -26753,7 +26271,7 @@
         <v>126</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E39" s="119">
         <v>0</v>
@@ -26768,28 +26286,28 @@
         <v>0</v>
       </c>
       <c r="I39" s="123">
-        <v>0.87384000000000006</v>
+        <v>0.38359945256273387</v>
       </c>
       <c r="J39" s="119">
         <v>0</v>
       </c>
       <c r="K39" s="119">
-        <v>1056</v>
+        <v>463.97188049209143</v>
       </c>
       <c r="L39" s="124">
-        <v>12.5</v>
+        <v>28.450000000000024</v>
       </c>
       <c r="M39" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762221</v>
       </c>
       <c r="N39" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O39" s="122">
         <v>0</v>
       </c>
       <c r="P39" s="123">
-        <v>3.2</v>
+        <v>0.21647999999999998</v>
       </c>
       <c r="Q39" s="119">
         <v>0</v>
@@ -26801,7 +26319,7 @@
         <v>25</v>
       </c>
       <c r="T39" s="121">
-        <v>4125</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="40" ht="24" customHeight="1">
@@ -26813,7 +26331,7 @@
         <v>126</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="E40" s="119">
         <v>0</v>
@@ -26828,28 +26346,28 @@
         <v>0</v>
       </c>
       <c r="I40" s="123">
-        <v>0.90032</v>
+        <v>0.39522367839796824</v>
       </c>
       <c r="J40" s="119">
         <v>0</v>
       </c>
       <c r="K40" s="119">
-        <v>1088</v>
+        <v>478.03163444639728</v>
       </c>
       <c r="L40" s="124">
-        <v>12.5</v>
+        <v>28.450000000000014</v>
       </c>
       <c r="M40" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762257</v>
       </c>
       <c r="N40" s="125">
-        <v>0.5</v>
+        <v>1.1379999999999997</v>
       </c>
       <c r="O40" s="122">
         <v>0</v>
       </c>
       <c r="P40" s="123">
-        <v>3.4</v>
+        <v>0.22303999999999996</v>
       </c>
       <c r="Q40" s="119">
         <v>0</v>
@@ -26861,7 +26379,7 @@
         <v>25</v>
       </c>
       <c r="T40" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="41" ht="24" customHeight="1">
@@ -26873,7 +26391,7 @@
         <v>126</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E41" s="119">
         <v>0</v>
@@ -26888,28 +26406,28 @@
         <v>0</v>
       </c>
       <c r="I41" s="123">
-        <v>2.648</v>
+        <v>1.1624225835234361</v>
       </c>
       <c r="J41" s="119">
         <v>0</v>
       </c>
       <c r="K41" s="119">
-        <v>3200</v>
+        <v>1405.97539543058</v>
       </c>
       <c r="L41" s="124">
-        <v>12.5</v>
+        <v>28.449999999999996</v>
       </c>
       <c r="M41" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762119</v>
       </c>
       <c r="N41" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O41" s="122">
         <v>0</v>
       </c>
       <c r="P41" s="123">
-        <v>10</v>
+        <v>0.6</v>
       </c>
       <c r="Q41" s="119">
         <v>0</v>
@@ -26921,7 +26439,7 @@
         <v>25</v>
       </c>
       <c r="T41" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="42" ht="24" customHeight="1">
@@ -26933,7 +26451,7 @@
         <v>126</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="E42" s="119">
         <v>0</v>
@@ -26948,28 +26466,28 @@
         <v>0</v>
       </c>
       <c r="I42" s="123">
-        <v>0.87384000000000006</v>
+        <v>0.38359945256273387</v>
       </c>
       <c r="J42" s="119">
         <v>0</v>
       </c>
       <c r="K42" s="119">
-        <v>1056</v>
+        <v>463.97188049209143</v>
       </c>
       <c r="L42" s="124">
-        <v>12.5</v>
+        <v>28.450000000000024</v>
       </c>
       <c r="M42" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762221</v>
       </c>
       <c r="N42" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O42" s="122">
         <v>0</v>
       </c>
       <c r="P42" s="123">
-        <v>3.2</v>
+        <v>0.21647999999999998</v>
       </c>
       <c r="Q42" s="119">
         <v>0</v>
@@ -26981,7 +26499,7 @@
         <v>25</v>
       </c>
       <c r="T42" s="121">
-        <v>4125</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="43" ht="24" customHeight="1">
@@ -26993,7 +26511,7 @@
         <v>126</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E43" s="119">
         <v>0</v>
@@ -27008,28 +26526,28 @@
         <v>0</v>
       </c>
       <c r="I43" s="123">
-        <v>13.9465195</v>
+        <v>6.123089713900038</v>
       </c>
       <c r="J43" s="119">
         <v>0</v>
       </c>
       <c r="K43" s="119">
-        <v>16853.8</v>
+        <v>7405.0087873462235</v>
       </c>
       <c r="L43" s="124">
-        <v>12.5</v>
+        <v>28.450000000000003</v>
       </c>
       <c r="M43" s="121">
-        <v>15105.740181268882</v>
+        <v>34406.240941032091</v>
       </c>
       <c r="N43" s="125">
-        <v>0.5</v>
+        <v>1.1379999999999997</v>
       </c>
       <c r="O43" s="122">
         <v>0</v>
       </c>
       <c r="P43" s="123">
-        <v>52.599999999999994</v>
+        <v>2.7</v>
       </c>
       <c r="Q43" s="119">
         <v>0</v>
@@ -27041,7 +26559,7 @@
         <v>25</v>
       </c>
       <c r="T43" s="121">
-        <v>4005.180608365019</v>
+        <v>78026.851851851854</v>
       </c>
     </row>
     <row r="44" ht="24" customHeight="1">
@@ -27053,7 +26571,7 @@
         <v>130</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E44" s="119">
         <v>0</v>
@@ -27068,28 +26586,28 @@
         <v>0</v>
       </c>
       <c r="I44" s="123">
-        <v>8.2725175000000011</v>
+        <v>3.5629152785336942</v>
       </c>
       <c r="J44" s="119">
         <v>0</v>
       </c>
       <c r="K44" s="119">
-        <v>9997</v>
+        <v>4305.3402239448742</v>
       </c>
       <c r="L44" s="124">
-        <v>12.5</v>
+        <v>29.025000000000034</v>
       </c>
       <c r="M44" s="121">
-        <v>15105.740181268882</v>
+        <v>35073.10453125005</v>
       </c>
       <c r="N44" s="125">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O44" s="122">
         <v>0</v>
       </c>
       <c r="P44" s="123">
-        <v>31.199999999999992</v>
+        <v>1.3</v>
       </c>
       <c r="Q44" s="119">
         <v>0</v>
@@ -27101,14 +26619,14 @@
         <v>25</v>
       </c>
       <c r="T44" s="121">
-        <v>4005.208333333333</v>
+        <v>96125</v>
       </c>
     </row>
     <row r="45" ht="24" customHeight="1">
       <c r="B45" s="25"/>
       <c r="C45" s="39"/>
       <c r="D45" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E45" s="51">
         <v>0</v>
@@ -27123,19 +26641,19 @@
         <v>38</v>
       </c>
       <c r="I45" s="80">
-        <v>52.481705000000005</v>
+        <v>22.75192064850539</v>
       </c>
       <c r="J45" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K45" s="51">
-        <v>63422</v>
+        <v>27515.925986476115</v>
       </c>
       <c r="L45" s="47">
-        <v>12.5</v>
+        <v>28.811496309070019</v>
       </c>
       <c r="M45" s="43">
-        <v>15105.740181268882</v>
+        <v>34844.311047299576</v>
       </c>
       <c r="N45" s="45" t="s">
         <v>38</v>
@@ -27144,7 +26662,7 @@
         <v>38</v>
       </c>
       <c r="P45" s="80">
-        <v>197.6</v>
+        <v>11.08</v>
       </c>
       <c r="Q45" s="51" t="s">
         <v>38</v>
@@ -27156,7 +26674,7 @@
         <v>25</v>
       </c>
       <c r="T45" s="43">
-        <v>4012.0192307692305</v>
+        <v>71550.090252707581</v>
       </c>
     </row>
     <row r="47" ht="24" customHeight="1">
@@ -27176,7 +26694,7 @@
       <c r="L47" s="139"/>
       <c r="M47" s="140"/>
       <c r="N47" s="138" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O47" s="139"/>
       <c r="P47" s="139"/>
@@ -27194,7 +26712,7 @@
         <v>22</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E48" s="40" t="s">
         <v>23</v>
@@ -27254,7 +26772,7 @@
         <v>138</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E49" s="119">
         <v>0</v>
@@ -27269,28 +26787,28 @@
         <v>0</v>
       </c>
       <c r="I49" s="123">
-        <v>4.3692</v>
+        <v>1.8800007623444923</v>
       </c>
       <c r="J49" s="119">
         <v>0</v>
       </c>
       <c r="K49" s="119">
-        <v>5280</v>
+        <v>2273.9018087855297</v>
       </c>
       <c r="L49" s="124">
-        <v>12.5</v>
+        <v>29.025</v>
       </c>
       <c r="M49" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007035</v>
       </c>
       <c r="N49" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O49" s="122">
         <v>0</v>
       </c>
       <c r="P49" s="123">
-        <v>16.5</v>
+        <v>1.0823999999999998</v>
       </c>
       <c r="Q49" s="119">
         <v>0</v>
@@ -27302,7 +26820,7 @@
         <v>25</v>
       </c>
       <c r="T49" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="50" ht="24" customHeight="1">
@@ -27314,7 +26832,7 @@
         <v>138</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="E50" s="119">
         <v>0</v>
@@ -27329,28 +26847,28 @@
         <v>0</v>
       </c>
       <c r="I50" s="123">
-        <v>4.5016</v>
+        <v>1.9369704824155374</v>
       </c>
       <c r="J50" s="119">
         <v>0</v>
       </c>
       <c r="K50" s="119">
-        <v>5440</v>
+        <v>2342.8079242032727</v>
       </c>
       <c r="L50" s="124">
-        <v>12.5</v>
+        <v>29.025000000000038</v>
       </c>
       <c r="M50" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006948</v>
       </c>
       <c r="N50" s="125">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O50" s="122">
         <v>0</v>
       </c>
       <c r="P50" s="123">
-        <v>17</v>
+        <v>1.1151999999999998</v>
       </c>
       <c r="Q50" s="119">
         <v>0</v>
@@ -27362,7 +26880,7 @@
         <v>25</v>
       </c>
       <c r="T50" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="51" ht="24" customHeight="1">
@@ -27374,7 +26892,7 @@
         <v>138</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E51" s="119">
         <v>0</v>
@@ -27389,28 +26907,28 @@
         <v>0</v>
       </c>
       <c r="I51" s="123">
-        <v>13.240000000000002</v>
+        <v>5.696972007104522</v>
       </c>
       <c r="J51" s="119">
         <v>0</v>
       </c>
       <c r="K51" s="119">
-        <v>16000</v>
+        <v>6890.6115417743313</v>
       </c>
       <c r="L51" s="124">
-        <v>12.5</v>
+        <v>29.025000000000013</v>
       </c>
       <c r="M51" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007006</v>
       </c>
       <c r="N51" s="125">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O51" s="122">
         <v>0</v>
       </c>
       <c r="P51" s="123">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="Q51" s="119">
         <v>0</v>
@@ -27422,7 +26940,7 @@
         <v>25</v>
       </c>
       <c r="T51" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="52" ht="24" customHeight="1">
@@ -27434,7 +26952,7 @@
         <v>138</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="E52" s="119">
         <v>0</v>
@@ -27449,28 +26967,28 @@
         <v>0</v>
       </c>
       <c r="I52" s="123">
-        <v>4.3692</v>
+        <v>1.8800007623444923</v>
       </c>
       <c r="J52" s="119">
         <v>0</v>
       </c>
       <c r="K52" s="119">
-        <v>5280</v>
+        <v>2273.9018087855297</v>
       </c>
       <c r="L52" s="124">
-        <v>12.5</v>
+        <v>29.025</v>
       </c>
       <c r="M52" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007035</v>
       </c>
       <c r="N52" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O52" s="122">
         <v>0</v>
       </c>
       <c r="P52" s="123">
-        <v>16.5</v>
+        <v>1.0823999999999998</v>
       </c>
       <c r="Q52" s="119">
         <v>0</v>
@@ -27482,7 +27000,7 @@
         <v>25</v>
       </c>
       <c r="T52" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="53" ht="24" customHeight="1">
@@ -27494,7 +27012,7 @@
         <v>138</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E53" s="119">
         <v>0</v>
@@ -27509,28 +27027,28 @@
         <v>0</v>
       </c>
       <c r="I53" s="123">
-        <v>6.620000000000001</v>
+        <v>2.845494010601243</v>
       </c>
       <c r="J53" s="119">
         <v>0</v>
       </c>
       <c r="K53" s="119">
-        <v>8000</v>
+        <v>3445.3057708871665</v>
       </c>
       <c r="L53" s="124">
-        <v>12.5</v>
+        <v>29.024999999999967</v>
       </c>
       <c r="M53" s="121">
-        <v>15105.740181268882</v>
+        <v>35143.282546875038</v>
       </c>
       <c r="N53" s="125">
-        <v>0.5</v>
+        <v>1.1609999999999998</v>
       </c>
       <c r="O53" s="122">
         <v>0</v>
       </c>
       <c r="P53" s="123">
-        <v>24.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q53" s="119">
         <v>0</v>
@@ -27542,7 +27060,7 @@
         <v>25</v>
       </c>
       <c r="T53" s="121">
-        <v>4081.6326530612237</v>
+        <v>71428.57142857142</v>
       </c>
     </row>
     <row r="54" ht="24" customHeight="1">
@@ -27554,7 +27072,7 @@
         <v>140</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E54" s="119">
         <v>0</v>
@@ -27569,28 +27087,28 @@
         <v>0</v>
       </c>
       <c r="I54" s="123">
-        <v>4.3692</v>
+        <v>1.8800007623444923</v>
       </c>
       <c r="J54" s="119">
         <v>0</v>
       </c>
       <c r="K54" s="119">
-        <v>5280</v>
+        <v>2273.9018087855297</v>
       </c>
       <c r="L54" s="124">
-        <v>12.5</v>
+        <v>29.025</v>
       </c>
       <c r="M54" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007035</v>
       </c>
       <c r="N54" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O54" s="122">
         <v>0</v>
       </c>
       <c r="P54" s="123">
-        <v>16.5</v>
+        <v>1.0823999999999998</v>
       </c>
       <c r="Q54" s="119">
         <v>0</v>
@@ -27602,7 +27120,7 @@
         <v>25</v>
       </c>
       <c r="T54" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="55" ht="24" customHeight="1">
@@ -27614,7 +27132,7 @@
         <v>140</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="E55" s="119">
         <v>0</v>
@@ -27629,28 +27147,28 @@
         <v>0</v>
       </c>
       <c r="I55" s="123">
-        <v>4.5016</v>
+        <v>1.9369704824155374</v>
       </c>
       <c r="J55" s="119">
         <v>0</v>
       </c>
       <c r="K55" s="119">
-        <v>5440</v>
+        <v>2342.8079242032727</v>
       </c>
       <c r="L55" s="124">
-        <v>12.5</v>
+        <v>29.025000000000038</v>
       </c>
       <c r="M55" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006948</v>
       </c>
       <c r="N55" s="125">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O55" s="122">
         <v>0</v>
       </c>
       <c r="P55" s="123">
-        <v>17</v>
+        <v>1.1151999999999998</v>
       </c>
       <c r="Q55" s="119">
         <v>0</v>
@@ -27662,7 +27180,7 @@
         <v>25</v>
       </c>
       <c r="T55" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="56" ht="24" customHeight="1">
@@ -27674,7 +27192,7 @@
         <v>140</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E56" s="119">
         <v>0</v>
@@ -27689,28 +27207,28 @@
         <v>0</v>
       </c>
       <c r="I56" s="123">
-        <v>13.240000000000002</v>
+        <v>5.696972007104522</v>
       </c>
       <c r="J56" s="119">
         <v>0</v>
       </c>
       <c r="K56" s="119">
-        <v>16000</v>
+        <v>6890.6115417743313</v>
       </c>
       <c r="L56" s="124">
-        <v>12.5</v>
+        <v>29.025000000000013</v>
       </c>
       <c r="M56" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007006</v>
       </c>
       <c r="N56" s="125">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O56" s="122">
         <v>0</v>
       </c>
       <c r="P56" s="123">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="Q56" s="119">
         <v>0</v>
@@ -27722,7 +27240,7 @@
         <v>25</v>
       </c>
       <c r="T56" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="57" ht="24" customHeight="1">
@@ -27734,7 +27252,7 @@
         <v>140</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="E57" s="119">
         <v>0</v>
@@ -27749,28 +27267,28 @@
         <v>0</v>
       </c>
       <c r="I57" s="123">
-        <v>4.3692</v>
+        <v>1.8800007623444923</v>
       </c>
       <c r="J57" s="119">
         <v>0</v>
       </c>
       <c r="K57" s="119">
-        <v>5280</v>
+        <v>2273.9018087855297</v>
       </c>
       <c r="L57" s="124">
-        <v>12.5</v>
+        <v>29.025</v>
       </c>
       <c r="M57" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007035</v>
       </c>
       <c r="N57" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O57" s="122">
         <v>0</v>
       </c>
       <c r="P57" s="123">
-        <v>16.5</v>
+        <v>1.0823999999999998</v>
       </c>
       <c r="Q57" s="119">
         <v>0</v>
@@ -27782,7 +27300,7 @@
         <v>25</v>
       </c>
       <c r="T57" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="58" ht="24" customHeight="1">
@@ -27794,7 +27312,7 @@
         <v>140</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E58" s="119">
         <v>0</v>
@@ -27809,28 +27327,28 @@
         <v>0</v>
       </c>
       <c r="I58" s="123">
-        <v>6.620000000000001</v>
+        <v>2.845494010601243</v>
       </c>
       <c r="J58" s="119">
         <v>0</v>
       </c>
       <c r="K58" s="119">
-        <v>8000</v>
+        <v>3445.3057708871665</v>
       </c>
       <c r="L58" s="124">
-        <v>12.5</v>
+        <v>29.024999999999967</v>
       </c>
       <c r="M58" s="121">
-        <v>15105.740181268882</v>
+        <v>35143.282546875038</v>
       </c>
       <c r="N58" s="125">
-        <v>0.5</v>
+        <v>1.1609999999999998</v>
       </c>
       <c r="O58" s="122">
         <v>0</v>
       </c>
       <c r="P58" s="123">
-        <v>24.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q58" s="119">
         <v>0</v>
@@ -27842,7 +27360,7 @@
         <v>25</v>
       </c>
       <c r="T58" s="121">
-        <v>4081.6326530612237</v>
+        <v>71428.57142857142</v>
       </c>
     </row>
     <row r="59" ht="24" customHeight="1">
@@ -27854,7 +27372,7 @@
         <v>126</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E59" s="119">
         <v>0</v>
@@ -27869,28 +27387,28 @@
         <v>0</v>
       </c>
       <c r="I59" s="123">
-        <v>2.1846</v>
+        <v>0.95899863140683472</v>
       </c>
       <c r="J59" s="119">
         <v>0</v>
       </c>
       <c r="K59" s="119">
-        <v>2640</v>
+        <v>1159.9297012302286</v>
       </c>
       <c r="L59" s="124">
-        <v>12.5</v>
+        <v>28.449999999999964</v>
       </c>
       <c r="M59" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762221</v>
       </c>
       <c r="N59" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O59" s="122">
         <v>0</v>
       </c>
       <c r="P59" s="123">
-        <v>8</v>
+        <v>0.5411999999999999</v>
       </c>
       <c r="Q59" s="119">
         <v>0</v>
@@ -27902,7 +27420,7 @@
         <v>25</v>
       </c>
       <c r="T59" s="121">
-        <v>4125</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="60" ht="24" customHeight="1">
@@ -27914,7 +27432,7 @@
         <v>126</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="E60" s="119">
         <v>0</v>
@@ -27929,28 +27447,28 @@
         <v>0</v>
       </c>
       <c r="I60" s="123">
-        <v>2.2508</v>
+        <v>0.98805919599492065</v>
       </c>
       <c r="J60" s="119">
         <v>0</v>
       </c>
       <c r="K60" s="119">
-        <v>2720</v>
+        <v>1195.0790861159933</v>
       </c>
       <c r="L60" s="124">
-        <v>12.5</v>
+        <v>28.45000000000007</v>
       </c>
       <c r="M60" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762221</v>
       </c>
       <c r="N60" s="125">
-        <v>0.5</v>
+        <v>1.1379999999999997</v>
       </c>
       <c r="O60" s="122">
         <v>0</v>
       </c>
       <c r="P60" s="123">
-        <v>8.5</v>
+        <v>0.55759999999999987</v>
       </c>
       <c r="Q60" s="119">
         <v>0</v>
@@ -27962,7 +27480,7 @@
         <v>25</v>
       </c>
       <c r="T60" s="121">
-        <v>4000</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="61" ht="24" customHeight="1">
@@ -27974,7 +27492,7 @@
         <v>126</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E61" s="119">
         <v>0</v>
@@ -27989,28 +27507,28 @@
         <v>0</v>
       </c>
       <c r="I61" s="123">
-        <v>6.620000000000001</v>
+        <v>2.90605645880859</v>
       </c>
       <c r="J61" s="119">
         <v>0</v>
       </c>
       <c r="K61" s="119">
-        <v>8000</v>
+        <v>3514.9384885764503</v>
       </c>
       <c r="L61" s="124">
-        <v>12.5</v>
+        <v>28.449999999999996</v>
       </c>
       <c r="M61" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762228</v>
       </c>
       <c r="N61" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O61" s="122">
         <v>0</v>
       </c>
       <c r="P61" s="123">
-        <v>25</v>
+        <v>1.5</v>
       </c>
       <c r="Q61" s="119">
         <v>0</v>
@@ -28022,7 +27540,7 @@
         <v>25</v>
       </c>
       <c r="T61" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="62" ht="24" customHeight="1">
@@ -28034,7 +27552,7 @@
         <v>126</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="E62" s="119">
         <v>0</v>
@@ -28049,28 +27567,28 @@
         <v>0</v>
       </c>
       <c r="I62" s="123">
-        <v>2.1846</v>
+        <v>0.95899863140683472</v>
       </c>
       <c r="J62" s="119">
         <v>0</v>
       </c>
       <c r="K62" s="119">
-        <v>2640</v>
+        <v>1159.9297012302286</v>
       </c>
       <c r="L62" s="124">
-        <v>12.5</v>
+        <v>28.449999999999964</v>
       </c>
       <c r="M62" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762221</v>
       </c>
       <c r="N62" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O62" s="122">
         <v>0</v>
       </c>
       <c r="P62" s="123">
-        <v>8</v>
+        <v>0.5411999999999999</v>
       </c>
       <c r="Q62" s="119">
         <v>0</v>
@@ -28082,7 +27600,7 @@
         <v>25</v>
       </c>
       <c r="T62" s="121">
-        <v>4125</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="63" ht="24" customHeight="1">
@@ -28094,7 +27612,7 @@
         <v>126</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E63" s="119">
         <v>0</v>
@@ -28109,28 +27627,28 @@
         <v>0</v>
       </c>
       <c r="I63" s="123">
-        <v>36.410000000000004</v>
+        <v>15.981043574045581</v>
       </c>
       <c r="J63" s="119">
         <v>0</v>
       </c>
       <c r="K63" s="119">
-        <v>44000</v>
+        <v>19332.161687170475</v>
       </c>
       <c r="L63" s="124">
-        <v>12.5</v>
+        <v>28.449999999999964</v>
       </c>
       <c r="M63" s="121">
-        <v>15105.740181268882</v>
+        <v>34415.775005659882</v>
       </c>
       <c r="N63" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O63" s="122">
         <v>0</v>
       </c>
       <c r="P63" s="123">
-        <v>137.3</v>
+        <v>7.5000000000000009</v>
       </c>
       <c r="Q63" s="119">
         <v>0</v>
@@ -28142,7 +27660,7 @@
         <v>25</v>
       </c>
       <c r="T63" s="121">
-        <v>4005.8266569555713</v>
+        <v>73333.333333333328</v>
       </c>
     </row>
     <row r="64" ht="24" customHeight="1">
@@ -28154,7 +27672,7 @@
         <v>130</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E64" s="119">
         <v>0</v>
@@ -28169,28 +27687,28 @@
         <v>0</v>
       </c>
       <c r="I64" s="123">
-        <v>16.550000000000004</v>
+        <v>7.1279689477517136</v>
       </c>
       <c r="J64" s="119">
         <v>0</v>
       </c>
       <c r="K64" s="119">
-        <v>20000</v>
+        <v>8613.2644272179132</v>
       </c>
       <c r="L64" s="124">
-        <v>12.5</v>
+        <v>29.02500000000002</v>
       </c>
       <c r="M64" s="121">
-        <v>15105.740181268882</v>
+        <v>35073.104531250028</v>
       </c>
       <c r="N64" s="125">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O64" s="122">
         <v>0</v>
       </c>
       <c r="P64" s="123">
-        <v>62.399999999999984</v>
+        <v>2.6</v>
       </c>
       <c r="Q64" s="119">
         <v>0</v>
@@ -28202,14 +27720,14 @@
         <v>25</v>
       </c>
       <c r="T64" s="121">
-        <v>4006.4102564102564</v>
+        <v>96153.846153846156</v>
       </c>
     </row>
     <row r="65" ht="24" customHeight="1">
       <c r="B65" s="25"/>
       <c r="C65" s="39"/>
       <c r="D65" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E65" s="51">
         <v>0</v>
@@ -28224,19 +27742,19 @@
         <v>38</v>
       </c>
       <c r="I65" s="80">
-        <v>132.40000000000003</v>
+        <v>57.400001489035049</v>
       </c>
       <c r="J65" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K65" s="51">
-        <v>160000</v>
+        <v>69428.360800412949</v>
       </c>
       <c r="L65" s="47">
-        <v>12.5</v>
+        <v>28.806671754060808</v>
       </c>
       <c r="M65" s="43">
-        <v>15105.740181268882</v>
+        <v>34843.20467103221</v>
       </c>
       <c r="N65" s="45" t="s">
         <v>38</v>
@@ -28245,7 +27763,7 @@
         <v>38</v>
       </c>
       <c r="P65" s="80">
-        <v>498.2</v>
+        <v>28.6</v>
       </c>
       <c r="Q65" s="51" t="s">
         <v>38</v>
@@ -28257,7 +27775,7 @@
         <v>25</v>
       </c>
       <c r="T65" s="43">
-        <v>4014.4520272982732</v>
+        <v>69930.069930069934</v>
       </c>
     </row>
     <row r="67" ht="48" customHeight="1">
@@ -28267,7 +27785,7 @@
       <c r="D67" s="55"/>
       <c r="E67" s="117"/>
       <c r="F67" s="145" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G67" s="145"/>
       <c r="H67" s="145"/>
@@ -28352,7 +27870,7 @@
       <c r="D71" s="55"/>
       <c r="E71" s="117"/>
       <c r="F71" s="145" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G71" s="145"/>
       <c r="H71" s="145"/>
@@ -28394,7 +27912,7 @@
       </c>
       <c r="D73" s="55"/>
       <c r="F73" s="145" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G73" s="145"/>
       <c r="H73" s="145"/>
@@ -28436,7 +27954,7 @@
       </c>
       <c r="D75" s="55"/>
       <c r="F75" s="136" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G75" s="136"/>
       <c r="H75" s="136"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractTypeWithRestrictions.xlsx
@@ -1046,7 +1046,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 07/28/20</t>
+    <t>Created 08/05/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 07/28/20</v>
+        <v>Created 08/05/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -2800,19 +2800,19 @@
         <v>127</v>
       </c>
       <c r="E9" s="83">
-        <v>0</v>
+        <v>0.155</v>
       </c>
       <c r="F9" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G9" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H9" s="85">
         <v>9687.5</v>
       </c>
       <c r="I9" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J9" s="93">
         <v>387.5</v>
@@ -2833,19 +2833,19 @@
         <v>127</v>
       </c>
       <c r="E10" s="83">
-        <v>0</v>
+        <v>0.155</v>
       </c>
       <c r="F10" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G10" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H10" s="85">
         <v>9687.5</v>
       </c>
       <c r="I10" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J10" s="93">
         <v>387.5</v>
@@ -2866,19 +2866,19 @@
         <v>131</v>
       </c>
       <c r="E11" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F11" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G11" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H11" s="85">
         <v>9612.5</v>
       </c>
       <c r="I11" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J11" s="93">
         <v>384.5</v>
@@ -2899,19 +2899,19 @@
         <v>131</v>
       </c>
       <c r="E12" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F12" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G12" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H12" s="85">
         <v>9612.5</v>
       </c>
       <c r="I12" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J12" s="93">
         <v>384.5</v>
@@ -2932,19 +2932,19 @@
         <v>132</v>
       </c>
       <c r="E13" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F13" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G13" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H13" s="85">
         <v>9612.5</v>
       </c>
       <c r="I13" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J13" s="93">
         <v>384.5</v>
@@ -2965,19 +2965,19 @@
         <v>132</v>
       </c>
       <c r="E14" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F14" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G14" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H14" s="85">
         <v>9612.5</v>
       </c>
       <c r="I14" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J14" s="93">
         <v>384.5</v>
@@ -2998,19 +2998,19 @@
         <v>133</v>
       </c>
       <c r="E15" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F15" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G15" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H15" s="85">
         <v>9612.5</v>
       </c>
       <c r="I15" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J15" s="93">
         <v>384.5</v>
@@ -3031,19 +3031,19 @@
         <v>133</v>
       </c>
       <c r="E16" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F16" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G16" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H16" s="85">
         <v>9612.5</v>
       </c>
       <c r="I16" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J16" s="93">
         <v>384.5</v>
@@ -3064,19 +3064,19 @@
         <v>134</v>
       </c>
       <c r="E17" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F17" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G17" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H17" s="85">
         <v>9612.5</v>
       </c>
       <c r="I17" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J17" s="93">
         <v>384.5</v>
@@ -3097,19 +3097,19 @@
         <v>134</v>
       </c>
       <c r="E18" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F18" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G18" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H18" s="85">
         <v>9612.5</v>
       </c>
       <c r="I18" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J18" s="93">
         <v>384.5</v>
@@ -3130,19 +3130,19 @@
         <v>135</v>
       </c>
       <c r="E19" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F19" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G19" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H19" s="85">
         <v>9612.5</v>
       </c>
       <c r="I19" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J19" s="93">
         <v>384.5</v>
@@ -3163,19 +3163,19 @@
         <v>135</v>
       </c>
       <c r="E20" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F20" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G20" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H20" s="85">
         <v>9612.5</v>
       </c>
       <c r="I20" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J20" s="93">
         <v>384.5</v>
@@ -3196,19 +3196,19 @@
         <v>136</v>
       </c>
       <c r="E21" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F21" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G21" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H21" s="85">
         <v>9612.5</v>
       </c>
       <c r="I21" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J21" s="93">
         <v>384.5</v>
@@ -3229,19 +3229,19 @@
         <v>136</v>
       </c>
       <c r="E22" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F22" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G22" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H22" s="85">
         <v>9612.5</v>
       </c>
       <c r="I22" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J22" s="93">
         <v>384.5</v>
@@ -3262,19 +3262,19 @@
         <v>137</v>
       </c>
       <c r="E23" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F23" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G23" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H23" s="85">
         <v>9612.5</v>
       </c>
       <c r="I23" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J23" s="93">
         <v>384.5</v>
@@ -3295,19 +3295,19 @@
         <v>137</v>
       </c>
       <c r="E24" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F24" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G24" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H24" s="85">
         <v>9612.5</v>
       </c>
       <c r="I24" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J24" s="93">
         <v>384.5</v>
@@ -3328,19 +3328,19 @@
         <v>139</v>
       </c>
       <c r="E25" s="83">
-        <v>0</v>
+        <v>0.22864</v>
       </c>
       <c r="F25" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G25" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H25" s="85">
         <v>14290</v>
       </c>
       <c r="I25" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J25" s="93">
         <v>571.6</v>
@@ -3361,19 +3361,19 @@
         <v>139</v>
       </c>
       <c r="E26" s="83">
-        <v>0</v>
+        <v>0.22864</v>
       </c>
       <c r="F26" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G26" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H26" s="85">
         <v>14290</v>
       </c>
       <c r="I26" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J26" s="93">
         <v>571.6</v>
@@ -3394,19 +3394,19 @@
         <v>139</v>
       </c>
       <c r="E27" s="83">
-        <v>0</v>
+        <v>0.83972</v>
       </c>
       <c r="F27" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G27" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H27" s="85">
         <v>52482.5</v>
       </c>
       <c r="I27" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J27" s="93">
         <v>2099.3</v>
@@ -3427,19 +3427,19 @@
         <v>139</v>
       </c>
       <c r="E28" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F28" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G28" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H28" s="85">
         <v>9612.5</v>
       </c>
       <c r="I28" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J28" s="93">
         <v>384.5</v>
@@ -3460,19 +3460,19 @@
         <v>141</v>
       </c>
       <c r="E29" s="83">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="F29" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G29" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H29" s="85">
         <v>14285</v>
       </c>
       <c r="I29" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J29" s="93">
         <v>571.4</v>
@@ -3493,19 +3493,19 @@
         <v>141</v>
       </c>
       <c r="E30" s="83">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="F30" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G30" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H30" s="85">
         <v>14285</v>
       </c>
       <c r="I30" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J30" s="93">
         <v>571.4</v>
@@ -3526,19 +3526,19 @@
         <v>141</v>
       </c>
       <c r="E31" s="83">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="F31" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G31" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H31" s="85">
         <v>52467.5</v>
       </c>
       <c r="I31" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J31" s="93">
         <v>2098.7</v>
@@ -3559,19 +3559,19 @@
         <v>141</v>
       </c>
       <c r="E32" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F32" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G32" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H32" s="85">
         <v>9612.5</v>
       </c>
       <c r="I32" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J32" s="93">
         <v>384.5</v>
@@ -3592,19 +3592,19 @@
         <v>142</v>
       </c>
       <c r="E33" s="83">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="F33" s="84" t="s">
         <v>143</v>
       </c>
       <c r="G33" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H33" s="85">
         <v>13200</v>
       </c>
       <c r="I33" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J33" s="93">
         <v>528</v>
@@ -3625,19 +3625,19 @@
         <v>142</v>
       </c>
       <c r="E34" s="83">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="F34" s="84" t="s">
         <v>144</v>
       </c>
       <c r="G34" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H34" s="85">
         <v>13600</v>
       </c>
       <c r="I34" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J34" s="93">
         <v>544</v>
@@ -3658,19 +3658,19 @@
         <v>142</v>
       </c>
       <c r="E35" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F35" s="84" t="s">
         <v>145</v>
       </c>
       <c r="G35" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H35" s="85">
         <v>40000</v>
       </c>
       <c r="I35" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J35" s="93">
         <v>1600</v>
@@ -3691,19 +3691,19 @@
         <v>142</v>
       </c>
       <c r="E36" s="83">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="F36" s="84" t="s">
         <v>146</v>
       </c>
       <c r="G36" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H36" s="85">
         <v>13200</v>
       </c>
       <c r="I36" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J36" s="93">
         <v>528</v>
@@ -3724,19 +3724,19 @@
         <v>142</v>
       </c>
       <c r="E37" s="83">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="F37" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G37" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H37" s="85">
         <v>14285</v>
       </c>
       <c r="I37" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J37" s="93">
         <v>571.4</v>
@@ -3757,19 +3757,19 @@
         <v>142</v>
       </c>
       <c r="E38" s="83">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="F38" s="84" t="s">
         <v>143</v>
       </c>
       <c r="G38" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H38" s="85">
         <v>13200</v>
       </c>
       <c r="I38" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J38" s="93">
         <v>528</v>
@@ -3790,19 +3790,19 @@
         <v>142</v>
       </c>
       <c r="E39" s="83">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="F39" s="84" t="s">
         <v>144</v>
       </c>
       <c r="G39" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H39" s="85">
         <v>13600</v>
       </c>
       <c r="I39" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J39" s="93">
         <v>544</v>
@@ -3823,19 +3823,19 @@
         <v>142</v>
       </c>
       <c r="E40" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F40" s="84" t="s">
         <v>145</v>
       </c>
       <c r="G40" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H40" s="85">
         <v>40000</v>
       </c>
       <c r="I40" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J40" s="93">
         <v>1600</v>
@@ -3856,19 +3856,19 @@
         <v>142</v>
       </c>
       <c r="E41" s="83">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="F41" s="84" t="s">
         <v>146</v>
       </c>
       <c r="G41" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H41" s="85">
         <v>13200</v>
       </c>
       <c r="I41" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J41" s="93">
         <v>528</v>
@@ -3889,19 +3889,19 @@
         <v>142</v>
       </c>
       <c r="E42" s="83">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="F42" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G42" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H42" s="85">
         <v>14285</v>
       </c>
       <c r="I42" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J42" s="93">
         <v>571.4</v>
@@ -3922,19 +3922,19 @@
         <v>142</v>
       </c>
       <c r="E43" s="83">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
       <c r="F43" s="84" t="s">
         <v>143</v>
       </c>
       <c r="G43" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H43" s="85">
         <v>6600</v>
       </c>
       <c r="I43" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J43" s="93">
         <v>264</v>
@@ -3955,19 +3955,19 @@
         <v>142</v>
       </c>
       <c r="E44" s="83">
-        <v>0</v>
+        <v>0.036992000000000004</v>
       </c>
       <c r="F44" s="84" t="s">
         <v>144</v>
       </c>
       <c r="G44" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H44" s="85">
         <v>6800</v>
       </c>
       <c r="I44" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J44" s="93">
         <v>272</v>
@@ -3988,19 +3988,19 @@
         <v>142</v>
       </c>
       <c r="E45" s="83">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="F45" s="84" t="s">
         <v>145</v>
       </c>
       <c r="G45" s="85">
-        <v>0</v>
+        <v>93750.000000000146</v>
       </c>
       <c r="H45" s="85">
         <v>20000</v>
       </c>
       <c r="I45" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J45" s="93">
         <v>800</v>
@@ -4021,19 +4021,19 @@
         <v>142</v>
       </c>
       <c r="E46" s="83">
-        <v>0</v>
+        <v>0.017424000000000002</v>
       </c>
       <c r="F46" s="84" t="s">
         <v>146</v>
       </c>
       <c r="G46" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H46" s="85">
         <v>6600</v>
       </c>
       <c r="I46" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J46" s="93">
         <v>264</v>
@@ -4054,19 +4054,19 @@
         <v>142</v>
       </c>
       <c r="E47" s="83">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="F47" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G47" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H47" s="85">
         <v>52467.5</v>
       </c>
       <c r="I47" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J47" s="93">
         <v>2098.7</v>
@@ -4087,19 +4087,19 @@
         <v>142</v>
       </c>
       <c r="E48" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F48" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G48" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H48" s="85">
         <v>9612.5</v>
       </c>
       <c r="I48" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J48" s="93">
         <v>384.5</v>
@@ -4120,19 +4120,19 @@
         <v>147</v>
       </c>
       <c r="E49" s="83">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="F49" s="84" t="s">
         <v>143</v>
       </c>
       <c r="G49" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H49" s="85">
         <v>13200</v>
       </c>
       <c r="I49" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J49" s="93">
         <v>528</v>
@@ -4153,19 +4153,19 @@
         <v>147</v>
       </c>
       <c r="E50" s="83">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="F50" s="84" t="s">
         <v>144</v>
       </c>
       <c r="G50" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H50" s="85">
         <v>13600</v>
       </c>
       <c r="I50" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J50" s="93">
         <v>544</v>
@@ -4186,19 +4186,19 @@
         <v>147</v>
       </c>
       <c r="E51" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F51" s="84" t="s">
         <v>145</v>
       </c>
       <c r="G51" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H51" s="85">
         <v>40000</v>
       </c>
       <c r="I51" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J51" s="93">
         <v>1600</v>
@@ -4219,19 +4219,19 @@
         <v>147</v>
       </c>
       <c r="E52" s="83">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="F52" s="84" t="s">
         <v>146</v>
       </c>
       <c r="G52" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H52" s="85">
         <v>13200</v>
       </c>
       <c r="I52" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J52" s="93">
         <v>528</v>
@@ -4252,19 +4252,19 @@
         <v>147</v>
       </c>
       <c r="E53" s="83">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="F53" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G53" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H53" s="85">
         <v>14285</v>
       </c>
       <c r="I53" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J53" s="93">
         <v>571.4</v>
@@ -4285,19 +4285,19 @@
         <v>147</v>
       </c>
       <c r="E54" s="83">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="F54" s="84" t="s">
         <v>143</v>
       </c>
       <c r="G54" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H54" s="85">
         <v>13200</v>
       </c>
       <c r="I54" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J54" s="93">
         <v>528</v>
@@ -4318,19 +4318,19 @@
         <v>147</v>
       </c>
       <c r="E55" s="83">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="F55" s="84" t="s">
         <v>144</v>
       </c>
       <c r="G55" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H55" s="85">
         <v>13600</v>
       </c>
       <c r="I55" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J55" s="93">
         <v>544</v>
@@ -4351,19 +4351,19 @@
         <v>147</v>
       </c>
       <c r="E56" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F56" s="84" t="s">
         <v>145</v>
       </c>
       <c r="G56" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H56" s="85">
         <v>40000</v>
       </c>
       <c r="I56" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J56" s="93">
         <v>1600</v>
@@ -4384,19 +4384,19 @@
         <v>147</v>
       </c>
       <c r="E57" s="83">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="F57" s="84" t="s">
         <v>146</v>
       </c>
       <c r="G57" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H57" s="85">
         <v>13200</v>
       </c>
       <c r="I57" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J57" s="93">
         <v>528</v>
@@ -4417,19 +4417,19 @@
         <v>147</v>
       </c>
       <c r="E58" s="83">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="F58" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G58" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H58" s="85">
         <v>14285</v>
       </c>
       <c r="I58" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J58" s="93">
         <v>571.4</v>
@@ -4450,19 +4450,19 @@
         <v>147</v>
       </c>
       <c r="E59" s="83">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
       <c r="F59" s="84" t="s">
         <v>143</v>
       </c>
       <c r="G59" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H59" s="85">
         <v>6600</v>
       </c>
       <c r="I59" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J59" s="93">
         <v>264</v>
@@ -4483,19 +4483,19 @@
         <v>147</v>
       </c>
       <c r="E60" s="83">
-        <v>0</v>
+        <v>0.036992000000000004</v>
       </c>
       <c r="F60" s="84" t="s">
         <v>144</v>
       </c>
       <c r="G60" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H60" s="85">
         <v>6800</v>
       </c>
       <c r="I60" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J60" s="93">
         <v>272</v>
@@ -4516,19 +4516,19 @@
         <v>147</v>
       </c>
       <c r="E61" s="83">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="F61" s="84" t="s">
         <v>145</v>
       </c>
       <c r="G61" s="85">
-        <v>0</v>
+        <v>93750.000000000146</v>
       </c>
       <c r="H61" s="85">
         <v>20000</v>
       </c>
       <c r="I61" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J61" s="93">
         <v>800</v>
@@ -4549,19 +4549,19 @@
         <v>147</v>
       </c>
       <c r="E62" s="83">
-        <v>0</v>
+        <v>0.017424000000000002</v>
       </c>
       <c r="F62" s="84" t="s">
         <v>146</v>
       </c>
       <c r="G62" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H62" s="85">
         <v>6600</v>
       </c>
       <c r="I62" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J62" s="93">
         <v>264</v>
@@ -4582,19 +4582,19 @@
         <v>147</v>
       </c>
       <c r="E63" s="83">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="F63" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G63" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H63" s="85">
         <v>52467.5</v>
       </c>
       <c r="I63" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J63" s="93">
         <v>2098.7</v>
@@ -4615,19 +4615,19 @@
         <v>147</v>
       </c>
       <c r="E64" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F64" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G64" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H64" s="85">
         <v>9612.5</v>
       </c>
       <c r="I64" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J64" s="93">
         <v>384.5</v>
@@ -4648,19 +4648,19 @@
         <v>148</v>
       </c>
       <c r="E65" s="83">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="F65" s="84" t="s">
         <v>143</v>
       </c>
       <c r="G65" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H65" s="85">
         <v>13200</v>
       </c>
       <c r="I65" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J65" s="93">
         <v>528</v>
@@ -4681,19 +4681,19 @@
         <v>148</v>
       </c>
       <c r="E66" s="83">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="F66" s="84" t="s">
         <v>144</v>
       </c>
       <c r="G66" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H66" s="85">
         <v>13600</v>
       </c>
       <c r="I66" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J66" s="93">
         <v>544</v>
@@ -4714,19 +4714,19 @@
         <v>148</v>
       </c>
       <c r="E67" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F67" s="84" t="s">
         <v>145</v>
       </c>
       <c r="G67" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H67" s="85">
         <v>40000</v>
       </c>
       <c r="I67" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J67" s="93">
         <v>1600</v>
@@ -4747,19 +4747,19 @@
         <v>148</v>
       </c>
       <c r="E68" s="83">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="F68" s="84" t="s">
         <v>146</v>
       </c>
       <c r="G68" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H68" s="85">
         <v>13200</v>
       </c>
       <c r="I68" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J68" s="93">
         <v>528</v>
@@ -4780,19 +4780,19 @@
         <v>148</v>
       </c>
       <c r="E69" s="83">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="F69" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G69" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H69" s="85">
         <v>14285</v>
       </c>
       <c r="I69" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J69" s="93">
         <v>571.4</v>
@@ -4813,19 +4813,19 @@
         <v>148</v>
       </c>
       <c r="E70" s="83">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="F70" s="84" t="s">
         <v>143</v>
       </c>
       <c r="G70" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H70" s="85">
         <v>13200</v>
       </c>
       <c r="I70" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J70" s="93">
         <v>528</v>
@@ -4846,19 +4846,19 @@
         <v>148</v>
       </c>
       <c r="E71" s="83">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="F71" s="84" t="s">
         <v>144</v>
       </c>
       <c r="G71" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H71" s="85">
         <v>13600</v>
       </c>
       <c r="I71" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J71" s="93">
         <v>544</v>
@@ -4879,19 +4879,19 @@
         <v>148</v>
       </c>
       <c r="E72" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F72" s="84" t="s">
         <v>145</v>
       </c>
       <c r="G72" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H72" s="85">
         <v>40000</v>
       </c>
       <c r="I72" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J72" s="93">
         <v>1600</v>
@@ -4912,19 +4912,19 @@
         <v>148</v>
       </c>
       <c r="E73" s="83">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="F73" s="84" t="s">
         <v>146</v>
       </c>
       <c r="G73" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H73" s="85">
         <v>13200</v>
       </c>
       <c r="I73" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J73" s="93">
         <v>528</v>
@@ -4945,19 +4945,19 @@
         <v>148</v>
       </c>
       <c r="E74" s="83">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="F74" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G74" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H74" s="85">
         <v>14285</v>
       </c>
       <c r="I74" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J74" s="93">
         <v>571.4</v>
@@ -4978,19 +4978,19 @@
         <v>148</v>
       </c>
       <c r="E75" s="83">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
       <c r="F75" s="84" t="s">
         <v>143</v>
       </c>
       <c r="G75" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H75" s="85">
         <v>6600</v>
       </c>
       <c r="I75" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J75" s="93">
         <v>264</v>
@@ -5011,19 +5011,19 @@
         <v>148</v>
       </c>
       <c r="E76" s="83">
-        <v>0</v>
+        <v>0.036992000000000004</v>
       </c>
       <c r="F76" s="84" t="s">
         <v>144</v>
       </c>
       <c r="G76" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H76" s="85">
         <v>6800</v>
       </c>
       <c r="I76" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J76" s="93">
         <v>272</v>
@@ -5044,19 +5044,19 @@
         <v>148</v>
       </c>
       <c r="E77" s="83">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="F77" s="84" t="s">
         <v>145</v>
       </c>
       <c r="G77" s="85">
-        <v>0</v>
+        <v>93750.000000000146</v>
       </c>
       <c r="H77" s="85">
         <v>20000</v>
       </c>
       <c r="I77" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J77" s="93">
         <v>800</v>
@@ -5077,19 +5077,19 @@
         <v>148</v>
       </c>
       <c r="E78" s="83">
-        <v>0</v>
+        <v>0.017424000000000002</v>
       </c>
       <c r="F78" s="84" t="s">
         <v>146</v>
       </c>
       <c r="G78" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H78" s="85">
         <v>6600</v>
       </c>
       <c r="I78" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J78" s="93">
         <v>264</v>
@@ -5110,19 +5110,19 @@
         <v>148</v>
       </c>
       <c r="E79" s="83">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="F79" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G79" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H79" s="85">
         <v>52467.5</v>
       </c>
       <c r="I79" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J79" s="93">
         <v>2098.7</v>
@@ -5143,19 +5143,19 @@
         <v>148</v>
       </c>
       <c r="E80" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F80" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G80" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H80" s="85">
         <v>9612.5</v>
       </c>
       <c r="I80" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J80" s="93">
         <v>384.5</v>
@@ -5170,7 +5170,7 @@
         <v>149</v>
       </c>
       <c r="E81" s="97">
-        <v>0</v>
+        <v>14.77728</v>
       </c>
       <c r="F81" s="90" t="s">
         <v>38</v>
@@ -5439,19 +5439,19 @@
         <v>152</v>
       </c>
       <c r="E92" s="83">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="F92" s="84" t="s">
         <v>143</v>
       </c>
       <c r="G92" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H92" s="85">
         <v>13200</v>
       </c>
       <c r="I92" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J92" s="93">
         <v>528</v>
@@ -5472,19 +5472,19 @@
         <v>152</v>
       </c>
       <c r="E93" s="83">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="F93" s="84" t="s">
         <v>144</v>
       </c>
       <c r="G93" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H93" s="85">
         <v>13600</v>
       </c>
       <c r="I93" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J93" s="93">
         <v>544</v>
@@ -5505,19 +5505,19 @@
         <v>152</v>
       </c>
       <c r="E94" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F94" s="84" t="s">
         <v>145</v>
       </c>
       <c r="G94" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H94" s="85">
         <v>40000</v>
       </c>
       <c r="I94" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J94" s="93">
         <v>1600</v>
@@ -5538,19 +5538,19 @@
         <v>152</v>
       </c>
       <c r="E95" s="83">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="F95" s="84" t="s">
         <v>146</v>
       </c>
       <c r="G95" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H95" s="85">
         <v>13200</v>
       </c>
       <c r="I95" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J95" s="93">
         <v>528</v>
@@ -5571,19 +5571,19 @@
         <v>152</v>
       </c>
       <c r="E96" s="83">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="F96" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G96" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H96" s="85">
         <v>14285</v>
       </c>
       <c r="I96" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J96" s="93">
         <v>571.4</v>
@@ -5604,19 +5604,19 @@
         <v>152</v>
       </c>
       <c r="E97" s="83">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="F97" s="84" t="s">
         <v>143</v>
       </c>
       <c r="G97" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H97" s="85">
         <v>13200</v>
       </c>
       <c r="I97" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J97" s="93">
         <v>528</v>
@@ -5637,19 +5637,19 @@
         <v>152</v>
       </c>
       <c r="E98" s="83">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="F98" s="84" t="s">
         <v>144</v>
       </c>
       <c r="G98" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H98" s="85">
         <v>13600</v>
       </c>
       <c r="I98" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J98" s="93">
         <v>544</v>
@@ -5670,19 +5670,19 @@
         <v>152</v>
       </c>
       <c r="E99" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F99" s="84" t="s">
         <v>145</v>
       </c>
       <c r="G99" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H99" s="85">
         <v>40000</v>
       </c>
       <c r="I99" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J99" s="93">
         <v>1600</v>
@@ -5703,19 +5703,19 @@
         <v>152</v>
       </c>
       <c r="E100" s="83">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="F100" s="84" t="s">
         <v>146</v>
       </c>
       <c r="G100" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H100" s="85">
         <v>13200</v>
       </c>
       <c r="I100" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J100" s="93">
         <v>528</v>
@@ -5736,19 +5736,19 @@
         <v>152</v>
       </c>
       <c r="E101" s="83">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="F101" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G101" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H101" s="85">
         <v>14285</v>
       </c>
       <c r="I101" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J101" s="93">
         <v>571.4</v>
@@ -5769,19 +5769,19 @@
         <v>152</v>
       </c>
       <c r="E102" s="83">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
       <c r="F102" s="84" t="s">
         <v>143</v>
       </c>
       <c r="G102" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H102" s="85">
         <v>6600</v>
       </c>
       <c r="I102" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J102" s="93">
         <v>264</v>
@@ -5802,19 +5802,19 @@
         <v>152</v>
       </c>
       <c r="E103" s="83">
-        <v>0</v>
+        <v>0.036992000000000004</v>
       </c>
       <c r="F103" s="84" t="s">
         <v>144</v>
       </c>
       <c r="G103" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H103" s="85">
         <v>6800</v>
       </c>
       <c r="I103" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J103" s="93">
         <v>272</v>
@@ -5835,19 +5835,19 @@
         <v>152</v>
       </c>
       <c r="E104" s="83">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="F104" s="84" t="s">
         <v>145</v>
       </c>
       <c r="G104" s="85">
-        <v>0</v>
+        <v>93750.000000000146</v>
       </c>
       <c r="H104" s="85">
         <v>20000</v>
       </c>
       <c r="I104" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J104" s="93">
         <v>800</v>
@@ -5868,19 +5868,19 @@
         <v>152</v>
       </c>
       <c r="E105" s="83">
-        <v>0</v>
+        <v>0.017424000000000002</v>
       </c>
       <c r="F105" s="84" t="s">
         <v>146</v>
       </c>
       <c r="G105" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H105" s="85">
         <v>6600</v>
       </c>
       <c r="I105" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J105" s="93">
         <v>264</v>
@@ -5901,19 +5901,19 @@
         <v>152</v>
       </c>
       <c r="E106" s="83">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="F106" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G106" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H106" s="85">
         <v>52467.5</v>
       </c>
       <c r="I106" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J106" s="93">
         <v>2098.7</v>
@@ -5934,19 +5934,19 @@
         <v>152</v>
       </c>
       <c r="E107" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F107" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G107" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H107" s="85">
         <v>9612.5</v>
       </c>
       <c r="I107" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J107" s="93">
         <v>384.5</v>
@@ -5967,19 +5967,19 @@
         <v>153</v>
       </c>
       <c r="E108" s="83">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="F108" s="84" t="s">
         <v>143</v>
       </c>
       <c r="G108" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H108" s="85">
         <v>13200</v>
       </c>
       <c r="I108" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J108" s="93">
         <v>528</v>
@@ -6000,19 +6000,19 @@
         <v>153</v>
       </c>
       <c r="E109" s="83">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="F109" s="84" t="s">
         <v>144</v>
       </c>
       <c r="G109" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H109" s="85">
         <v>13600</v>
       </c>
       <c r="I109" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J109" s="93">
         <v>544</v>
@@ -6033,19 +6033,19 @@
         <v>153</v>
       </c>
       <c r="E110" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F110" s="84" t="s">
         <v>145</v>
       </c>
       <c r="G110" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H110" s="85">
         <v>40000</v>
       </c>
       <c r="I110" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J110" s="93">
         <v>1600</v>
@@ -6066,19 +6066,19 @@
         <v>153</v>
       </c>
       <c r="E111" s="83">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="F111" s="84" t="s">
         <v>146</v>
       </c>
       <c r="G111" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H111" s="85">
         <v>13200</v>
       </c>
       <c r="I111" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J111" s="93">
         <v>528</v>
@@ -6099,19 +6099,19 @@
         <v>153</v>
       </c>
       <c r="E112" s="83">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="F112" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G112" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H112" s="85">
         <v>14285</v>
       </c>
       <c r="I112" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J112" s="93">
         <v>571.4</v>
@@ -6132,19 +6132,19 @@
         <v>153</v>
       </c>
       <c r="E113" s="83">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="F113" s="84" t="s">
         <v>143</v>
       </c>
       <c r="G113" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H113" s="85">
         <v>13200</v>
       </c>
       <c r="I113" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J113" s="93">
         <v>528</v>
@@ -6165,19 +6165,19 @@
         <v>153</v>
       </c>
       <c r="E114" s="83">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="F114" s="84" t="s">
         <v>144</v>
       </c>
       <c r="G114" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H114" s="85">
         <v>13600</v>
       </c>
       <c r="I114" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J114" s="93">
         <v>544</v>
@@ -6198,19 +6198,19 @@
         <v>153</v>
       </c>
       <c r="E115" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F115" s="84" t="s">
         <v>145</v>
       </c>
       <c r="G115" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H115" s="85">
         <v>40000</v>
       </c>
       <c r="I115" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J115" s="93">
         <v>1600</v>
@@ -6231,19 +6231,19 @@
         <v>153</v>
       </c>
       <c r="E116" s="83">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="F116" s="84" t="s">
         <v>146</v>
       </c>
       <c r="G116" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H116" s="85">
         <v>13200</v>
       </c>
       <c r="I116" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J116" s="93">
         <v>528</v>
@@ -6264,19 +6264,19 @@
         <v>153</v>
       </c>
       <c r="E117" s="83">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="F117" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G117" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H117" s="85">
         <v>14285</v>
       </c>
       <c r="I117" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J117" s="93">
         <v>571.4</v>
@@ -6297,19 +6297,19 @@
         <v>153</v>
       </c>
       <c r="E118" s="83">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
       <c r="F118" s="84" t="s">
         <v>143</v>
       </c>
       <c r="G118" s="85">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="H118" s="85">
         <v>6600</v>
       </c>
       <c r="I118" s="83">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="J118" s="93">
         <v>264</v>
@@ -6330,19 +6330,19 @@
         <v>153</v>
       </c>
       <c r="E119" s="83">
-        <v>0</v>
+        <v>0.036992000000000004</v>
       </c>
       <c r="F119" s="84" t="s">
         <v>144</v>
       </c>
       <c r="G119" s="85">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="H119" s="85">
         <v>6800</v>
       </c>
       <c r="I119" s="83">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="J119" s="93">
         <v>272</v>
@@ -6363,19 +6363,19 @@
         <v>153</v>
       </c>
       <c r="E120" s="83">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="F120" s="84" t="s">
         <v>145</v>
       </c>
       <c r="G120" s="85">
-        <v>0</v>
+        <v>93750.000000000146</v>
       </c>
       <c r="H120" s="85">
         <v>20000</v>
       </c>
       <c r="I120" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J120" s="93">
         <v>800</v>
@@ -6396,19 +6396,19 @@
         <v>153</v>
       </c>
       <c r="E121" s="83">
-        <v>0</v>
+        <v>0.017424000000000002</v>
       </c>
       <c r="F121" s="84" t="s">
         <v>146</v>
       </c>
       <c r="G121" s="85">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="H121" s="85">
         <v>6600</v>
       </c>
       <c r="I121" s="83">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="J121" s="93">
         <v>264</v>
@@ -6429,19 +6429,19 @@
         <v>153</v>
       </c>
       <c r="E122" s="83">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="F122" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G122" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H122" s="85">
         <v>52467.5</v>
       </c>
       <c r="I122" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J122" s="93">
         <v>2098.7</v>
@@ -6462,19 +6462,19 @@
         <v>153</v>
       </c>
       <c r="E123" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F123" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G123" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H123" s="85">
         <v>9612.5</v>
       </c>
       <c r="I123" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J123" s="93">
         <v>384.5</v>
@@ -6495,19 +6495,19 @@
         <v>154</v>
       </c>
       <c r="E124" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F124" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G124" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H124" s="85">
         <v>9612.5</v>
       </c>
       <c r="I124" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J124" s="93">
         <v>384.5</v>
@@ -6528,19 +6528,19 @@
         <v>154</v>
       </c>
       <c r="E125" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F125" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G125" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H125" s="85">
         <v>9612.5</v>
       </c>
       <c r="I125" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J125" s="93">
         <v>384.5</v>
@@ -6561,19 +6561,19 @@
         <v>155</v>
       </c>
       <c r="E126" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F126" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G126" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H126" s="85">
         <v>9612.5</v>
       </c>
       <c r="I126" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J126" s="93">
         <v>384.5</v>
@@ -6594,19 +6594,19 @@
         <v>155</v>
       </c>
       <c r="E127" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F127" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G127" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H127" s="85">
         <v>9612.5</v>
       </c>
       <c r="I127" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J127" s="93">
         <v>384.5</v>
@@ -6627,19 +6627,19 @@
         <v>156</v>
       </c>
       <c r="E128" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F128" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G128" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H128" s="85">
         <v>9612.5</v>
       </c>
       <c r="I128" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J128" s="93">
         <v>384.5</v>
@@ -6660,19 +6660,19 @@
         <v>156</v>
       </c>
       <c r="E129" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F129" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G129" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H129" s="85">
         <v>9612.5</v>
       </c>
       <c r="I129" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J129" s="93">
         <v>384.5</v>
@@ -6693,19 +6693,19 @@
         <v>157</v>
       </c>
       <c r="E130" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F130" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G130" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H130" s="85">
         <v>9612.5</v>
       </c>
       <c r="I130" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J130" s="93">
         <v>384.5</v>
@@ -6726,19 +6726,19 @@
         <v>157</v>
       </c>
       <c r="E131" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F131" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G131" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H131" s="85">
         <v>9612.5</v>
       </c>
       <c r="I131" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J131" s="93">
         <v>384.5</v>
@@ -6759,19 +6759,19 @@
         <v>158</v>
       </c>
       <c r="E132" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F132" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G132" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H132" s="85">
         <v>9612.5</v>
       </c>
       <c r="I132" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J132" s="93">
         <v>384.5</v>
@@ -6792,19 +6792,19 @@
         <v>158</v>
       </c>
       <c r="E133" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F133" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G133" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H133" s="85">
         <v>9612.5</v>
       </c>
       <c r="I133" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J133" s="93">
         <v>384.5</v>
@@ -6825,19 +6825,19 @@
         <v>159</v>
       </c>
       <c r="E134" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F134" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G134" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H134" s="85">
         <v>9612.5</v>
       </c>
       <c r="I134" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J134" s="93">
         <v>384.5</v>
@@ -6858,19 +6858,19 @@
         <v>159</v>
       </c>
       <c r="E135" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F135" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G135" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H135" s="85">
         <v>9612.5</v>
       </c>
       <c r="I135" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J135" s="93">
         <v>384.5</v>
@@ -6891,19 +6891,19 @@
         <v>160</v>
       </c>
       <c r="E136" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F136" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G136" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H136" s="85">
         <v>9612.5</v>
       </c>
       <c r="I136" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J136" s="93">
         <v>384.5</v>
@@ -6924,19 +6924,19 @@
         <v>160</v>
       </c>
       <c r="E137" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F137" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G137" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H137" s="85">
         <v>9612.5</v>
       </c>
       <c r="I137" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J137" s="93">
         <v>384.5</v>
@@ -6957,19 +6957,19 @@
         <v>161</v>
       </c>
       <c r="E138" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F138" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G138" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H138" s="85">
         <v>9612.5</v>
       </c>
       <c r="I138" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J138" s="93">
         <v>384.5</v>
@@ -6990,19 +6990,19 @@
         <v>161</v>
       </c>
       <c r="E139" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F139" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G139" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H139" s="85">
         <v>9612.5</v>
       </c>
       <c r="I139" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J139" s="93">
         <v>384.5</v>
@@ -7023,19 +7023,19 @@
         <v>162</v>
       </c>
       <c r="E140" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F140" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G140" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H140" s="85">
         <v>9612.5</v>
       </c>
       <c r="I140" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J140" s="93">
         <v>384.5</v>
@@ -7056,19 +7056,19 @@
         <v>162</v>
       </c>
       <c r="E141" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F141" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G141" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H141" s="85">
         <v>9612.5</v>
       </c>
       <c r="I141" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J141" s="93">
         <v>384.5</v>
@@ -7089,19 +7089,19 @@
         <v>163</v>
       </c>
       <c r="E142" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F142" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G142" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H142" s="85">
         <v>9612.5</v>
       </c>
       <c r="I142" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J142" s="93">
         <v>384.5</v>
@@ -7122,19 +7122,19 @@
         <v>163</v>
       </c>
       <c r="E143" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F143" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G143" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H143" s="85">
         <v>9612.5</v>
       </c>
       <c r="I143" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J143" s="93">
         <v>384.5</v>
@@ -7155,19 +7155,19 @@
         <v>164</v>
       </c>
       <c r="E144" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F144" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G144" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H144" s="85">
         <v>9612.5</v>
       </c>
       <c r="I144" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J144" s="93">
         <v>384.5</v>
@@ -7188,19 +7188,19 @@
         <v>164</v>
       </c>
       <c r="E145" s="83">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F145" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G145" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H145" s="85">
         <v>9612.5</v>
       </c>
       <c r="I145" s="83">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J145" s="93">
         <v>384.5</v>
@@ -7215,7 +7215,7 @@
         <v>165</v>
       </c>
       <c r="E146" s="97">
-        <v>0</v>
+        <v>9.658853333333342</v>
       </c>
       <c r="F146" s="90" t="s">
         <v>38</v>
@@ -7532,7 +7532,7 @@
     </row>
     <row r="160" ht="24" customHeight="1">
       <c r="C160" s="103">
-        <v>0</v>
+        <v>24.436133333333355</v>
       </c>
       <c r="D160" s="105">
         <v>2000000</v>
@@ -7848,7 +7848,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 07/28/20</v>
+        <v>Created 08/05/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -8037,22 +8037,22 @@
         <v>0</v>
       </c>
       <c r="K10" s="67">
-        <v>0</v>
+        <v>0.22864</v>
       </c>
       <c r="L10" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="M10" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="N10" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="O10" s="59">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="P10" s="59">
-        <v>0</v>
+        <v>1.1428800000000001</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1">
@@ -8367,16 +8367,16 @@
         <v>0</v>
       </c>
       <c r="M19" s="37">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="N19" s="37">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="O19" s="59">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="P19" s="59">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1">
@@ -8699,16 +8699,16 @@
         <v>0</v>
       </c>
       <c r="M28" s="37">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="N28" s="37">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="O28" s="59">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="P28" s="59">
-        <v>0</v>
+        <v>0.41817600000000005</v>
       </c>
     </row>
     <row r="29" ht="24" customHeight="1">
@@ -9029,16 +9029,16 @@
         <v>0</v>
       </c>
       <c r="M37" s="37">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="N37" s="37">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="O37" s="59">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="P37" s="59">
-        <v>0</v>
+        <v>0.22195200000000004</v>
       </c>
     </row>
     <row r="38" ht="24" customHeight="1">
@@ -9359,16 +9359,16 @@
         <v>0</v>
       </c>
       <c r="M46" s="37">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="N46" s="37">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="O46" s="59">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="P46" s="59">
-        <v>0</v>
+        <v>0.10454400000000001</v>
       </c>
     </row>
     <row r="47" ht="24" customHeight="1">
@@ -9683,22 +9683,22 @@
         <v>0</v>
       </c>
       <c r="K55" s="67">
-        <v>0</v>
+        <v>0.22864</v>
       </c>
       <c r="L55" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="M55" s="37">
-        <v>0</v>
+        <v>0.90345066666666685</v>
       </c>
       <c r="N55" s="37">
-        <v>0</v>
+        <v>0.90345066666666685</v>
       </c>
       <c r="O55" s="59">
-        <v>0</v>
+        <v>0.90345066666666685</v>
       </c>
       <c r="P55" s="59">
-        <v>0</v>
+        <v>3.1675520000000006</v>
       </c>
     </row>
     <row r="56" ht="24" customHeight="1">
@@ -10015,22 +10015,22 @@
         <v>0</v>
       </c>
       <c r="K64" s="67">
-        <v>0</v>
+        <v>0.22864</v>
       </c>
       <c r="L64" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="M64" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="N64" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="O64" s="59">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="P64" s="59">
-        <v>0</v>
+        <v>1.1428800000000001</v>
       </c>
     </row>
     <row r="65" ht="24" customHeight="1">
@@ -10345,16 +10345,16 @@
         <v>0</v>
       </c>
       <c r="M73" s="37">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="N73" s="37">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="O73" s="59">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="P73" s="59">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="74" ht="24" customHeight="1">
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="M82" s="37">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="N82" s="37">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="O82" s="59">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="P82" s="59">
-        <v>0</v>
+        <v>0.41817600000000005</v>
       </c>
     </row>
     <row r="83" ht="24" customHeight="1">
@@ -11007,16 +11007,16 @@
         <v>0</v>
       </c>
       <c r="M91" s="37">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="N91" s="37">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="O91" s="59">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="P91" s="59">
-        <v>0</v>
+        <v>0.22195200000000004</v>
       </c>
     </row>
     <row r="92" ht="24" customHeight="1">
@@ -11337,16 +11337,16 @@
         <v>0</v>
       </c>
       <c r="M100" s="37">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="N100" s="37">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="O100" s="59">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="P100" s="59">
-        <v>0</v>
+        <v>0.10454400000000001</v>
       </c>
     </row>
     <row r="101" ht="24" customHeight="1">
@@ -11661,22 +11661,22 @@
         <v>0</v>
       </c>
       <c r="K109" s="67">
-        <v>0</v>
+        <v>0.22864</v>
       </c>
       <c r="L109" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="M109" s="37">
-        <v>0</v>
+        <v>0.90345066666666685</v>
       </c>
       <c r="N109" s="37">
-        <v>0</v>
+        <v>0.90345066666666685</v>
       </c>
       <c r="O109" s="59">
-        <v>0</v>
+        <v>0.90345066666666685</v>
       </c>
       <c r="P109" s="59">
-        <v>0</v>
+        <v>3.1675520000000006</v>
       </c>
     </row>
     <row r="110" ht="24" customHeight="1">
@@ -11969,46 +11969,46 @@
         <v>23</v>
       </c>
       <c r="C118" s="67">
-        <v>0</v>
+        <v>0.155</v>
       </c>
       <c r="D118" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="E118" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F118" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="G118" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="H118" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="I118" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="J118" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="K118" s="67">
-        <v>0</v>
+        <v>0.83972</v>
       </c>
       <c r="L118" s="37">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="M118" s="37">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="N118" s="37">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="O118" s="59">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="P118" s="59">
-        <v>0</v>
+        <v>5.42924</v>
       </c>
     </row>
     <row r="119" ht="24" customHeight="1">
@@ -12323,16 +12323,16 @@
         <v>0</v>
       </c>
       <c r="M127" s="37">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="N127" s="37">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="O127" s="59">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="P127" s="59">
-        <v>0</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="128" ht="24" customHeight="1">
@@ -12655,16 +12655,16 @@
         <v>0</v>
       </c>
       <c r="M136" s="37">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
       <c r="N136" s="37">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
       <c r="O136" s="59">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
       <c r="P136" s="59">
-        <v>0</v>
+        <v>0.20908800000000002</v>
       </c>
     </row>
     <row r="137" ht="24" customHeight="1">
@@ -12985,16 +12985,16 @@
         <v>0</v>
       </c>
       <c r="M145" s="37">
-        <v>0</v>
+        <v>0.036992000000000004</v>
       </c>
       <c r="N145" s="37">
-        <v>0</v>
+        <v>0.036992000000000004</v>
       </c>
       <c r="O145" s="59">
-        <v>0</v>
+        <v>0.036992000000000004</v>
       </c>
       <c r="P145" s="59">
-        <v>0</v>
+        <v>0.11097600000000002</v>
       </c>
     </row>
     <row r="146" ht="24" customHeight="1">
@@ -13315,16 +13315,16 @@
         <v>0</v>
       </c>
       <c r="M154" s="37">
-        <v>0</v>
+        <v>0.017424000000000002</v>
       </c>
       <c r="N154" s="37">
-        <v>0</v>
+        <v>0.017424000000000002</v>
       </c>
       <c r="O154" s="59">
-        <v>0</v>
+        <v>0.017424000000000002</v>
       </c>
       <c r="P154" s="59">
-        <v>0</v>
+        <v>0.052272000000000006</v>
       </c>
     </row>
     <row r="155" ht="24" customHeight="1">
@@ -13615,46 +13615,46 @@
         <v>23</v>
       </c>
       <c r="C163" s="67">
-        <v>0</v>
+        <v>0.155</v>
       </c>
       <c r="D163" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="E163" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F163" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="G163" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="H163" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="I163" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="J163" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="K163" s="67">
-        <v>0</v>
+        <v>0.83972</v>
       </c>
       <c r="L163" s="37">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="M163" s="37">
-        <v>0</v>
+        <v>1.1769253333333334</v>
       </c>
       <c r="N163" s="37">
-        <v>0</v>
+        <v>1.1769253333333334</v>
       </c>
       <c r="O163" s="59">
-        <v>0</v>
+        <v>1.1769253333333334</v>
       </c>
       <c r="P163" s="59">
-        <v>0</v>
+        <v>6.4415759999999995</v>
       </c>
     </row>
     <row r="164" ht="24" customHeight="1">
@@ -13947,46 +13947,46 @@
         <v>23</v>
       </c>
       <c r="C172" s="67">
-        <v>0</v>
+        <v>0.155</v>
       </c>
       <c r="D172" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="E172" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F172" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="G172" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="H172" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="I172" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="J172" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="K172" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="L172" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="M172" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="N172" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="O172" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="P172" s="59">
-        <v>0</v>
+        <v>2.0005999999999995</v>
       </c>
     </row>
     <row r="173" ht="24" customHeight="1">
@@ -14271,46 +14271,46 @@
         <v>23</v>
       </c>
       <c r="C181" s="67">
-        <v>0</v>
+        <v>0.155</v>
       </c>
       <c r="D181" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="E181" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F181" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="G181" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="H181" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="I181" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="J181" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="K181" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="L181" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="M181" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="N181" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="O181" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="P181" s="59">
-        <v>0</v>
+        <v>2.0005999999999995</v>
       </c>
     </row>
     <row r="182" ht="24" customHeight="1">
@@ -14821,10 +14821,10 @@
         <v>23</v>
       </c>
       <c r="C199" s="67">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="D199" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="E199" s="37">
         <v>0</v>
@@ -14860,7 +14860,7 @@
         <v>0</v>
       </c>
       <c r="P199" s="59">
-        <v>0</v>
+        <v>0.45712</v>
       </c>
     </row>
     <row r="200" ht="24" customHeight="1">
@@ -15145,10 +15145,10 @@
         <v>23</v>
       </c>
       <c r="C208" s="67">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="D208" s="37">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="E208" s="37">
         <v>0</v>
@@ -15184,7 +15184,7 @@
         <v>0</v>
       </c>
       <c r="P208" s="59">
-        <v>0</v>
+        <v>0.85333333333333339</v>
       </c>
     </row>
     <row r="209" ht="24" customHeight="1">
@@ -15473,10 +15473,10 @@
         <v>23</v>
       </c>
       <c r="C217" s="67">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="D217" s="37">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="E217" s="37">
         <v>0</v>
@@ -15512,7 +15512,7 @@
         <v>0</v>
       </c>
       <c r="P217" s="59">
-        <v>0</v>
+        <v>0.27878400000000003</v>
       </c>
     </row>
     <row r="218" ht="24" customHeight="1">
@@ -15801,10 +15801,10 @@
         <v>23</v>
       </c>
       <c r="C226" s="67">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="D226" s="37">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="E226" s="37">
         <v>0</v>
@@ -15840,7 +15840,7 @@
         <v>0</v>
       </c>
       <c r="P226" s="59">
-        <v>0</v>
+        <v>0.14796800000000002</v>
       </c>
     </row>
     <row r="227" ht="24" customHeight="1">
@@ -16129,10 +16129,10 @@
         <v>23</v>
       </c>
       <c r="C235" s="67">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="D235" s="37">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="E235" s="37">
         <v>0</v>
@@ -16168,7 +16168,7 @@
         <v>0</v>
       </c>
       <c r="P235" s="59">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
     </row>
     <row r="236" ht="24" customHeight="1">
@@ -16457,10 +16457,10 @@
         <v>23</v>
       </c>
       <c r="C244" s="67">
-        <v>0</v>
+        <v>0.90345066666666685</v>
       </c>
       <c r="D244" s="37">
-        <v>0</v>
+        <v>0.90345066666666685</v>
       </c>
       <c r="E244" s="37">
         <v>0</v>
@@ -16496,7 +16496,7 @@
         <v>0</v>
       </c>
       <c r="P244" s="59">
-        <v>0</v>
+        <v>1.8069013333333337</v>
       </c>
     </row>
     <row r="245" ht="24" customHeight="1">
@@ -16785,10 +16785,10 @@
         <v>23</v>
       </c>
       <c r="C253" s="67">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="D253" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="E253" s="37">
         <v>0</v>
@@ -16824,7 +16824,7 @@
         <v>0</v>
       </c>
       <c r="P253" s="59">
-        <v>0</v>
+        <v>0.45712</v>
       </c>
     </row>
     <row r="254" ht="24" customHeight="1">
@@ -17109,10 +17109,10 @@
         <v>23</v>
       </c>
       <c r="C262" s="67">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="D262" s="37">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="E262" s="37">
         <v>0</v>
@@ -17148,7 +17148,7 @@
         <v>0</v>
       </c>
       <c r="P262" s="59">
-        <v>0</v>
+        <v>0.85333333333333339</v>
       </c>
     </row>
     <row r="263" ht="24" customHeight="1">
@@ -17437,10 +17437,10 @@
         <v>23</v>
       </c>
       <c r="C271" s="67">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="D271" s="37">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="E271" s="37">
         <v>0</v>
@@ -17476,7 +17476,7 @@
         <v>0</v>
       </c>
       <c r="P271" s="59">
-        <v>0</v>
+        <v>0.27878400000000003</v>
       </c>
     </row>
     <row r="272" ht="24" customHeight="1">
@@ -17765,10 +17765,10 @@
         <v>23</v>
       </c>
       <c r="C280" s="67">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="D280" s="37">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="E280" s="37">
         <v>0</v>
@@ -17804,7 +17804,7 @@
         <v>0</v>
       </c>
       <c r="P280" s="59">
-        <v>0</v>
+        <v>0.14796800000000002</v>
       </c>
     </row>
     <row r="281" ht="24" customHeight="1">
@@ -18093,10 +18093,10 @@
         <v>23</v>
       </c>
       <c r="C289" s="67">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="D289" s="37">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="E289" s="37">
         <v>0</v>
@@ -18132,7 +18132,7 @@
         <v>0</v>
       </c>
       <c r="P289" s="59">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
     </row>
     <row r="290" ht="24" customHeight="1">
@@ -18421,10 +18421,10 @@
         <v>23</v>
       </c>
       <c r="C298" s="67">
-        <v>0</v>
+        <v>0.90345066666666685</v>
       </c>
       <c r="D298" s="37">
-        <v>0</v>
+        <v>0.90345066666666685</v>
       </c>
       <c r="E298" s="37">
         <v>0</v>
@@ -18460,7 +18460,7 @@
         <v>0</v>
       </c>
       <c r="P298" s="59">
-        <v>0</v>
+        <v>1.8069013333333337</v>
       </c>
     </row>
     <row r="299" ht="24" customHeight="1">
@@ -18749,46 +18749,46 @@
         <v>23</v>
       </c>
       <c r="C307" s="67">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="D307" s="37">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="E307" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F307" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="G307" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="H307" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="I307" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="J307" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="K307" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="L307" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="M307" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="N307" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="O307" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="P307" s="59">
-        <v>0</v>
+        <v>3.3707599999999993</v>
       </c>
     </row>
     <row r="308" ht="24" customHeight="1">
@@ -19073,10 +19073,10 @@
         <v>23</v>
       </c>
       <c r="C316" s="67">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="D316" s="37">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="E316" s="37">
         <v>0</v>
@@ -19112,7 +19112,7 @@
         <v>0</v>
       </c>
       <c r="P316" s="59">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
     </row>
     <row r="317" ht="24" customHeight="1">
@@ -19401,10 +19401,10 @@
         <v>23</v>
       </c>
       <c r="C325" s="67">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
       <c r="D325" s="37">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
       <c r="E325" s="37">
         <v>0</v>
@@ -19440,7 +19440,7 @@
         <v>0</v>
       </c>
       <c r="P325" s="59">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
     </row>
     <row r="326" ht="24" customHeight="1">
@@ -19729,10 +19729,10 @@
         <v>23</v>
       </c>
       <c r="C334" s="67">
-        <v>0</v>
+        <v>0.036992000000000004</v>
       </c>
       <c r="D334" s="37">
-        <v>0</v>
+        <v>0.036992000000000004</v>
       </c>
       <c r="E334" s="37">
         <v>0</v>
@@ -19768,7 +19768,7 @@
         <v>0</v>
       </c>
       <c r="P334" s="59">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
     </row>
     <row r="335" ht="24" customHeight="1">
@@ -20057,10 +20057,10 @@
         <v>23</v>
       </c>
       <c r="C343" s="67">
-        <v>0</v>
+        <v>0.017424000000000002</v>
       </c>
       <c r="D343" s="37">
-        <v>0</v>
+        <v>0.017424000000000002</v>
       </c>
       <c r="E343" s="37">
         <v>0</v>
@@ -20096,7 +20096,7 @@
         <v>0</v>
       </c>
       <c r="P343" s="59">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
     </row>
     <row r="344" ht="24" customHeight="1">
@@ -20385,46 +20385,46 @@
         <v>23</v>
       </c>
       <c r="C352" s="67">
-        <v>0</v>
+        <v>1.1769253333333334</v>
       </c>
       <c r="D352" s="37">
-        <v>0</v>
+        <v>1.1769253333333334</v>
       </c>
       <c r="E352" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F352" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="G352" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="H352" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="I352" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="J352" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="K352" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="L352" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="M352" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="N352" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="O352" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="P352" s="59">
-        <v>0</v>
+        <v>4.0456506666666661</v>
       </c>
     </row>
     <row r="353" ht="24" customHeight="1">
@@ -20713,46 +20713,46 @@
         <v>23</v>
       </c>
       <c r="C361" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="D361" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="E361" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F361" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="G361" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="H361" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="I361" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="J361" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="K361" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="L361" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="M361" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="N361" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="O361" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="P361" s="59">
-        <v>0</v>
+        <v>1.9993999999999994</v>
       </c>
     </row>
     <row r="362" ht="24" customHeight="1">
@@ -21037,46 +21037,46 @@
         <v>23</v>
       </c>
       <c r="C370" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="D370" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="E370" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F370" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="G370" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="H370" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="I370" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="J370" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="K370" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="L370" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="M370" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="N370" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="O370" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="P370" s="59">
-        <v>0</v>
+        <v>1.9993999999999994</v>
       </c>
     </row>
     <row r="371" ht="24" customHeight="1">
@@ -24573,22 +24573,22 @@
         <v>166</v>
       </c>
       <c r="E9" s="119">
-        <v>0</v>
+        <v>0.41817600000000005</v>
       </c>
       <c r="F9" s="120">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="G9" s="121">
         <v>39600</v>
       </c>
       <c r="H9" s="122">
-        <v>0</v>
+        <v>2.6974299276063074</v>
       </c>
       <c r="I9" s="123">
         <v>1.1280004574066953</v>
       </c>
       <c r="J9" s="119">
-        <v>0</v>
+        <v>3262.6001618249675</v>
       </c>
       <c r="K9" s="119">
         <v>1364.3410852713178</v>
@@ -24603,13 +24603,13 @@
         <v>1.161</v>
       </c>
       <c r="O9" s="122">
-        <v>0</v>
+        <v>1.5530303030303025</v>
       </c>
       <c r="P9" s="123">
         <v>0.64943999999999991</v>
       </c>
       <c r="Q9" s="119">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="R9" s="119">
         <v>1584</v>
@@ -24633,22 +24633,22 @@
         <v>167</v>
       </c>
       <c r="E10" s="119">
-        <v>0</v>
+        <v>0.22195200000000004</v>
       </c>
       <c r="F10" s="120">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="G10" s="121">
         <v>40800</v>
       </c>
       <c r="H10" s="122">
-        <v>0</v>
+        <v>5.23618750652989</v>
       </c>
       <c r="I10" s="123">
         <v>1.1621822894493223</v>
       </c>
       <c r="J10" s="119">
-        <v>0</v>
+        <v>6333.2826670719951</v>
       </c>
       <c r="K10" s="119">
         <v>1405.6847545219637</v>
@@ -24663,13 +24663,13 @@
         <v>1.161</v>
       </c>
       <c r="O10" s="122">
-        <v>0</v>
+        <v>3.0147058823529402</v>
       </c>
       <c r="P10" s="123">
         <v>0.66911999999999994</v>
       </c>
       <c r="Q10" s="119">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="R10" s="119">
         <v>1632</v>
@@ -24693,22 +24693,22 @@
         <v>150</v>
       </c>
       <c r="E11" s="119">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="F11" s="120">
-        <v>0</v>
+        <v>93750</v>
       </c>
       <c r="G11" s="121">
         <v>120000</v>
       </c>
       <c r="H11" s="122">
-        <v>0</v>
+        <v>2.6704556283302443</v>
       </c>
       <c r="I11" s="123">
         <v>3.4181832042627129</v>
       </c>
       <c r="J11" s="119">
-        <v>0</v>
+        <v>3229.9741602067179</v>
       </c>
       <c r="K11" s="119">
         <v>4134.3669250645989</v>
@@ -24723,13 +24723,13 @@
         <v>1.1610000000000003</v>
       </c>
       <c r="O11" s="122">
-        <v>0</v>
+        <v>1.4062499999999998</v>
       </c>
       <c r="P11" s="123">
         <v>1.7999999999999998</v>
       </c>
       <c r="Q11" s="119">
-        <v>0</v>
+        <v>3750</v>
       </c>
       <c r="R11" s="119">
         <v>4800</v>
@@ -24753,22 +24753,22 @@
         <v>168</v>
       </c>
       <c r="E12" s="119">
-        <v>0</v>
+        <v>0.10454400000000001</v>
       </c>
       <c r="F12" s="120">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="G12" s="121">
         <v>39600</v>
       </c>
       <c r="H12" s="122">
-        <v>0</v>
+        <v>10.78971971042523</v>
       </c>
       <c r="I12" s="123">
         <v>1.1280004574066953</v>
       </c>
       <c r="J12" s="119">
-        <v>0</v>
+        <v>13050.40064729987</v>
       </c>
       <c r="K12" s="119">
         <v>1364.3410852713178</v>
@@ -24783,13 +24783,13 @@
         <v>1.161</v>
       </c>
       <c r="O12" s="122">
-        <v>0</v>
+        <v>6.21212121212121</v>
       </c>
       <c r="P12" s="123">
         <v>0.64943999999999991</v>
       </c>
       <c r="Q12" s="119">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="R12" s="119">
         <v>1584</v>
@@ -24813,22 +24813,22 @@
         <v>201</v>
       </c>
       <c r="E13" s="119">
-        <v>0</v>
+        <v>1.1428800000000001</v>
       </c>
       <c r="F13" s="120">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G13" s="121">
         <v>71430</v>
       </c>
       <c r="H13" s="122">
-        <v>0</v>
+        <v>1.7784337566257766</v>
       </c>
       <c r="I13" s="123">
         <v>2.0325363717724678</v>
       </c>
       <c r="J13" s="119">
-        <v>0</v>
+        <v>2153.3161068044787</v>
       </c>
       <c r="K13" s="119">
         <v>2460.9819121447031</v>
@@ -24843,13 +24843,13 @@
         <v>1.1609999999999998</v>
       </c>
       <c r="O13" s="122">
-        <v>0</v>
+        <v>0.87498250034999292</v>
       </c>
       <c r="P13" s="123">
         <v>1</v>
       </c>
       <c r="Q13" s="119">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="R13" s="119">
         <v>2857.2</v>
@@ -24873,22 +24873,22 @@
         <v>166</v>
       </c>
       <c r="E14" s="119">
-        <v>0</v>
+        <v>0.41817600000000005</v>
       </c>
       <c r="F14" s="120">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="G14" s="121">
         <v>39600</v>
       </c>
       <c r="H14" s="122">
-        <v>0</v>
+        <v>2.6974299276063074</v>
       </c>
       <c r="I14" s="123">
         <v>1.1280004574066953</v>
       </c>
       <c r="J14" s="119">
-        <v>0</v>
+        <v>3262.6001618249675</v>
       </c>
       <c r="K14" s="119">
         <v>1364.3410852713178</v>
@@ -24903,13 +24903,13 @@
         <v>1.161</v>
       </c>
       <c r="O14" s="122">
-        <v>0</v>
+        <v>1.5530303030303025</v>
       </c>
       <c r="P14" s="123">
         <v>0.64943999999999991</v>
       </c>
       <c r="Q14" s="119">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="R14" s="119">
         <v>1584</v>
@@ -24933,22 +24933,22 @@
         <v>167</v>
       </c>
       <c r="E15" s="119">
-        <v>0</v>
+        <v>0.22195200000000004</v>
       </c>
       <c r="F15" s="120">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="G15" s="121">
         <v>40800</v>
       </c>
       <c r="H15" s="122">
-        <v>0</v>
+        <v>5.23618750652989</v>
       </c>
       <c r="I15" s="123">
         <v>1.1621822894493223</v>
       </c>
       <c r="J15" s="119">
-        <v>0</v>
+        <v>6333.2826670719951</v>
       </c>
       <c r="K15" s="119">
         <v>1405.6847545219637</v>
@@ -24963,13 +24963,13 @@
         <v>1.161</v>
       </c>
       <c r="O15" s="122">
-        <v>0</v>
+        <v>3.0147058823529402</v>
       </c>
       <c r="P15" s="123">
         <v>0.66911999999999994</v>
       </c>
       <c r="Q15" s="119">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="R15" s="119">
         <v>1632</v>
@@ -24993,22 +24993,22 @@
         <v>150</v>
       </c>
       <c r="E16" s="119">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="F16" s="120">
-        <v>0</v>
+        <v>93750</v>
       </c>
       <c r="G16" s="121">
         <v>120000</v>
       </c>
       <c r="H16" s="122">
-        <v>0</v>
+        <v>2.6704556283302443</v>
       </c>
       <c r="I16" s="123">
         <v>3.4181832042627129</v>
       </c>
       <c r="J16" s="119">
-        <v>0</v>
+        <v>3229.9741602067179</v>
       </c>
       <c r="K16" s="119">
         <v>4134.3669250645989</v>
@@ -25023,13 +25023,13 @@
         <v>1.1610000000000003</v>
       </c>
       <c r="O16" s="122">
-        <v>0</v>
+        <v>1.4062499999999998</v>
       </c>
       <c r="P16" s="123">
         <v>1.7999999999999998</v>
       </c>
       <c r="Q16" s="119">
-        <v>0</v>
+        <v>3750</v>
       </c>
       <c r="R16" s="119">
         <v>4800</v>
@@ -25053,22 +25053,22 @@
         <v>168</v>
       </c>
       <c r="E17" s="119">
-        <v>0</v>
+        <v>0.10454400000000001</v>
       </c>
       <c r="F17" s="120">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="G17" s="121">
         <v>39600</v>
       </c>
       <c r="H17" s="122">
-        <v>0</v>
+        <v>10.78971971042523</v>
       </c>
       <c r="I17" s="123">
         <v>1.1280004574066953</v>
       </c>
       <c r="J17" s="119">
-        <v>0</v>
+        <v>13050.40064729987</v>
       </c>
       <c r="K17" s="119">
         <v>1364.3410852713178</v>
@@ -25083,13 +25083,13 @@
         <v>1.161</v>
       </c>
       <c r="O17" s="122">
-        <v>0</v>
+        <v>6.21212121212121</v>
       </c>
       <c r="P17" s="123">
         <v>0.64943999999999991</v>
       </c>
       <c r="Q17" s="119">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="R17" s="119">
         <v>1584</v>
@@ -25113,22 +25113,22 @@
         <v>201</v>
       </c>
       <c r="E18" s="119">
-        <v>0</v>
+        <v>1.1428800000000001</v>
       </c>
       <c r="F18" s="120">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G18" s="121">
         <v>71430</v>
       </c>
       <c r="H18" s="122">
-        <v>0</v>
+        <v>1.7784337566257766</v>
       </c>
       <c r="I18" s="123">
         <v>2.0325363717724678</v>
       </c>
       <c r="J18" s="119">
-        <v>0</v>
+        <v>2153.3161068044787</v>
       </c>
       <c r="K18" s="119">
         <v>2460.9819121447031</v>
@@ -25143,13 +25143,13 @@
         <v>1.1609999999999998</v>
       </c>
       <c r="O18" s="122">
-        <v>0</v>
+        <v>0.87498250034999292</v>
       </c>
       <c r="P18" s="123">
         <v>1</v>
       </c>
       <c r="Q18" s="119">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="R18" s="119">
         <v>2857.2</v>
@@ -25173,22 +25173,22 @@
         <v>166</v>
       </c>
       <c r="E19" s="119">
-        <v>0</v>
+        <v>0.20908800000000002</v>
       </c>
       <c r="F19" s="120">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="G19" s="121">
         <v>19800</v>
       </c>
       <c r="H19" s="122">
-        <v>0</v>
+        <v>2.7519474041748011</v>
       </c>
       <c r="I19" s="123">
         <v>0.57539917884410086</v>
       </c>
       <c r="J19" s="119">
-        <v>0</v>
+        <v>3328.540235394365</v>
       </c>
       <c r="K19" s="119">
         <v>695.95782073813712</v>
@@ -25203,13 +25203,13 @@
         <v>1.138</v>
       </c>
       <c r="O19" s="122">
-        <v>0</v>
+        <v>1.5530303030303025</v>
       </c>
       <c r="P19" s="123">
         <v>0.32471999999999995</v>
       </c>
       <c r="Q19" s="119">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="R19" s="119">
         <v>792</v>
@@ -25233,22 +25233,22 @@
         <v>167</v>
       </c>
       <c r="E20" s="119">
-        <v>0</v>
+        <v>0.11097600000000002</v>
       </c>
       <c r="F20" s="120">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="G20" s="121">
         <v>20400</v>
       </c>
       <c r="H20" s="122">
-        <v>0</v>
+        <v>5.3420155492804957</v>
       </c>
       <c r="I20" s="123">
         <v>0.59283551759695241</v>
       </c>
       <c r="J20" s="119">
-        <v>0</v>
+        <v>6461.2839863537683</v>
       </c>
       <c r="K20" s="119">
         <v>717.047451669596</v>
@@ -25263,13 +25263,13 @@
         <v>1.1379999999999997</v>
       </c>
       <c r="O20" s="122">
-        <v>0</v>
+        <v>3.0147058823529402</v>
       </c>
       <c r="P20" s="123">
         <v>0.33455999999999997</v>
       </c>
       <c r="Q20" s="119">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="R20" s="119">
         <v>816</v>
@@ -25293,22 +25293,22 @@
         <v>150</v>
       </c>
       <c r="E21" s="119">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="F21" s="120">
-        <v>0</v>
+        <v>93750</v>
       </c>
       <c r="G21" s="121">
         <v>60000</v>
       </c>
       <c r="H21" s="122">
-        <v>0</v>
+        <v>2.7244279301330532</v>
       </c>
       <c r="I21" s="123">
         <v>1.7436338752851541</v>
       </c>
       <c r="J21" s="119">
-        <v>0</v>
+        <v>3295.254833040422</v>
       </c>
       <c r="K21" s="119">
         <v>2108.96309314587</v>
@@ -25323,13 +25323,13 @@
         <v>1.138</v>
       </c>
       <c r="O21" s="122">
-        <v>0</v>
+        <v>1.4062499999999998</v>
       </c>
       <c r="P21" s="123">
         <v>0.89999999999999991</v>
       </c>
       <c r="Q21" s="119">
-        <v>0</v>
+        <v>3750</v>
       </c>
       <c r="R21" s="119">
         <v>2400</v>
@@ -25353,22 +25353,22 @@
         <v>168</v>
       </c>
       <c r="E22" s="119">
-        <v>0</v>
+        <v>0.052272000000000006</v>
       </c>
       <c r="F22" s="120">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="G22" s="121">
         <v>19800</v>
       </c>
       <c r="H22" s="122">
-        <v>0</v>
+        <v>11.007789616699204</v>
       </c>
       <c r="I22" s="123">
         <v>0.57539917884410086</v>
       </c>
       <c r="J22" s="119">
-        <v>0</v>
+        <v>13314.16094157746</v>
       </c>
       <c r="K22" s="119">
         <v>695.95782073813712</v>
@@ -25383,13 +25383,13 @@
         <v>1.138</v>
       </c>
       <c r="O22" s="122">
-        <v>0</v>
+        <v>6.21212121212121</v>
       </c>
       <c r="P22" s="123">
         <v>0.32471999999999995</v>
       </c>
       <c r="Q22" s="119">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="R22" s="119">
         <v>792</v>
@@ -25413,22 +25413,22 @@
         <v>201</v>
       </c>
       <c r="E23" s="119">
-        <v>0</v>
+        <v>5.4292399999999983</v>
       </c>
       <c r="F23" s="120">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G23" s="121">
         <v>339327.5</v>
       </c>
       <c r="H23" s="122">
-        <v>0</v>
+        <v>1.8157152493066333</v>
       </c>
       <c r="I23" s="123">
         <v>9.8579538601455425</v>
       </c>
       <c r="J23" s="119">
-        <v>0</v>
+        <v>2196.8365553602821</v>
       </c>
       <c r="K23" s="119">
         <v>11927.152899824254</v>
@@ -25443,13 +25443,13 @@
         <v>1.138</v>
       </c>
       <c r="O23" s="122">
-        <v>0</v>
+        <v>0.88410164221880083</v>
       </c>
       <c r="P23" s="123">
         <v>4.8000000000000007</v>
       </c>
       <c r="Q23" s="119">
-        <v>0</v>
+        <v>2500.0000000000009</v>
       </c>
       <c r="R23" s="119">
         <v>13573.1</v>
@@ -25473,22 +25473,22 @@
         <v>201</v>
       </c>
       <c r="E24" s="119">
-        <v>0</v>
+        <v>2.0005999999999995</v>
       </c>
       <c r="F24" s="120">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G24" s="121">
         <v>125037.5</v>
       </c>
       <c r="H24" s="122">
-        <v>0</v>
+        <v>1.7819922369379289</v>
       </c>
       <c r="I24" s="123">
         <v>3.5650536692180195</v>
       </c>
       <c r="J24" s="119">
-        <v>0</v>
+        <v>2153.3161068044792</v>
       </c>
       <c r="K24" s="119">
         <v>4307.92420327304</v>
@@ -25503,13 +25503,13 @@
         <v>1.1610000000000003</v>
       </c>
       <c r="O24" s="122">
-        <v>0</v>
+        <v>0.6498050584824554</v>
       </c>
       <c r="P24" s="123">
         <v>1.3</v>
       </c>
       <c r="Q24" s="119">
-        <v>0</v>
+        <v>2500.0000000000005</v>
       </c>
       <c r="R24" s="119">
         <v>5001.5</v>
@@ -25528,7 +25528,7 @@
         <v>202</v>
       </c>
       <c r="E25" s="51">
-        <v>0</v>
+        <v>14.777279999999998</v>
       </c>
       <c r="F25" s="42" t="s">
         <v>38</v>
@@ -25674,22 +25674,22 @@
         <v>166</v>
       </c>
       <c r="E29" s="119">
-        <v>0</v>
+        <v>0.27878400000000003</v>
       </c>
       <c r="F29" s="120">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="G29" s="121">
         <v>26400</v>
       </c>
       <c r="H29" s="122">
-        <v>0</v>
+        <v>2.6974299276063074</v>
       </c>
       <c r="I29" s="123">
         <v>0.7520003049377969</v>
       </c>
       <c r="J29" s="119">
-        <v>0</v>
+        <v>3262.6001618249675</v>
       </c>
       <c r="K29" s="119">
         <v>909.56072351421187</v>
@@ -25704,13 +25704,13 @@
         <v>1.161</v>
       </c>
       <c r="O29" s="122">
-        <v>0</v>
+        <v>1.5530303030303028</v>
       </c>
       <c r="P29" s="123">
         <v>0.43295999999999996</v>
       </c>
       <c r="Q29" s="119">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="R29" s="119">
         <v>1056</v>
@@ -25734,22 +25734,22 @@
         <v>167</v>
       </c>
       <c r="E30" s="119">
-        <v>0</v>
+        <v>0.14796800000000002</v>
       </c>
       <c r="F30" s="120">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="G30" s="121">
         <v>27200</v>
       </c>
       <c r="H30" s="122">
-        <v>0</v>
+        <v>5.23618750652989</v>
       </c>
       <c r="I30" s="123">
         <v>0.77478819296621493</v>
       </c>
       <c r="J30" s="119">
-        <v>0</v>
+        <v>6333.282667071996</v>
       </c>
       <c r="K30" s="119">
         <v>937.12316968130915</v>
@@ -25764,13 +25764,13 @@
         <v>1.161</v>
       </c>
       <c r="O30" s="122">
-        <v>0</v>
+        <v>3.0147058823529402</v>
       </c>
       <c r="P30" s="123">
         <v>0.44607999999999992</v>
       </c>
       <c r="Q30" s="119">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="R30" s="119">
         <v>1088</v>
@@ -25794,22 +25794,22 @@
         <v>150</v>
       </c>
       <c r="E31" s="119">
-        <v>0</v>
+        <v>0.85333333333333339</v>
       </c>
       <c r="F31" s="120">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="G31" s="121">
         <v>80000</v>
       </c>
       <c r="H31" s="122">
-        <v>0</v>
+        <v>2.6704556283302443</v>
       </c>
       <c r="I31" s="123">
         <v>2.2787888028418086</v>
       </c>
       <c r="J31" s="119">
-        <v>0</v>
+        <v>3229.9741602067179</v>
       </c>
       <c r="K31" s="119">
         <v>2756.2446167097328</v>
@@ -25824,13 +25824,13 @@
         <v>1.161</v>
       </c>
       <c r="O31" s="122">
-        <v>0</v>
+        <v>1.4062499999999998</v>
       </c>
       <c r="P31" s="123">
         <v>1.2</v>
       </c>
       <c r="Q31" s="119">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="R31" s="119">
         <v>3200</v>
@@ -25854,22 +25854,22 @@
         <v>168</v>
       </c>
       <c r="E32" s="119">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
       <c r="F32" s="120">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="G32" s="121">
         <v>26400</v>
       </c>
       <c r="H32" s="122">
-        <v>0</v>
+        <v>10.78971971042523</v>
       </c>
       <c r="I32" s="123">
         <v>0.7520003049377969</v>
       </c>
       <c r="J32" s="119">
-        <v>0</v>
+        <v>13050.40064729987</v>
       </c>
       <c r="K32" s="119">
         <v>909.56072351421187</v>
@@ -25884,13 +25884,13 @@
         <v>1.161</v>
       </c>
       <c r="O32" s="122">
-        <v>0</v>
+        <v>6.212121212121211</v>
       </c>
       <c r="P32" s="123">
         <v>0.43295999999999996</v>
       </c>
       <c r="Q32" s="119">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="R32" s="119">
         <v>1056</v>
@@ -25914,22 +25914,22 @@
         <v>201</v>
       </c>
       <c r="E33" s="119">
-        <v>0</v>
+        <v>0.45712</v>
       </c>
       <c r="F33" s="120">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G33" s="121">
         <v>28570</v>
       </c>
       <c r="H33" s="122">
-        <v>0</v>
+        <v>1.7784337566257769</v>
       </c>
       <c r="I33" s="123">
         <v>0.81295763882877514</v>
       </c>
       <c r="J33" s="119">
-        <v>0</v>
+        <v>2153.3161068044787</v>
       </c>
       <c r="K33" s="119">
         <v>984.32385874246336</v>
@@ -25944,13 +25944,13 @@
         <v>1.161</v>
       </c>
       <c r="O33" s="122">
-        <v>0</v>
+        <v>0.87504375218760932</v>
       </c>
       <c r="P33" s="123">
         <v>0.4</v>
       </c>
       <c r="Q33" s="119">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="R33" s="119">
         <v>1142.8</v>
@@ -25974,22 +25974,22 @@
         <v>166</v>
       </c>
       <c r="E34" s="119">
-        <v>0</v>
+        <v>0.27878400000000003</v>
       </c>
       <c r="F34" s="120">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="G34" s="121">
         <v>26400</v>
       </c>
       <c r="H34" s="122">
-        <v>0</v>
+        <v>2.6974299276063074</v>
       </c>
       <c r="I34" s="123">
         <v>0.7520003049377969</v>
       </c>
       <c r="J34" s="119">
-        <v>0</v>
+        <v>3262.6001618249675</v>
       </c>
       <c r="K34" s="119">
         <v>909.56072351421187</v>
@@ -26004,13 +26004,13 @@
         <v>1.161</v>
       </c>
       <c r="O34" s="122">
-        <v>0</v>
+        <v>1.5530303030303028</v>
       </c>
       <c r="P34" s="123">
         <v>0.43295999999999996</v>
       </c>
       <c r="Q34" s="119">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="R34" s="119">
         <v>1056</v>
@@ -26034,22 +26034,22 @@
         <v>167</v>
       </c>
       <c r="E35" s="119">
-        <v>0</v>
+        <v>0.14796800000000002</v>
       </c>
       <c r="F35" s="120">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="G35" s="121">
         <v>27200</v>
       </c>
       <c r="H35" s="122">
-        <v>0</v>
+        <v>5.23618750652989</v>
       </c>
       <c r="I35" s="123">
         <v>0.77478819296621493</v>
       </c>
       <c r="J35" s="119">
-        <v>0</v>
+        <v>6333.282667071996</v>
       </c>
       <c r="K35" s="119">
         <v>937.12316968130915</v>
@@ -26064,13 +26064,13 @@
         <v>1.161</v>
       </c>
       <c r="O35" s="122">
-        <v>0</v>
+        <v>3.0147058823529402</v>
       </c>
       <c r="P35" s="123">
         <v>0.44607999999999992</v>
       </c>
       <c r="Q35" s="119">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="R35" s="119">
         <v>1088</v>
@@ -26094,22 +26094,22 @@
         <v>150</v>
       </c>
       <c r="E36" s="119">
-        <v>0</v>
+        <v>0.85333333333333339</v>
       </c>
       <c r="F36" s="120">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="G36" s="121">
         <v>80000</v>
       </c>
       <c r="H36" s="122">
-        <v>0</v>
+        <v>2.6704556283302443</v>
       </c>
       <c r="I36" s="123">
         <v>2.2787888028418086</v>
       </c>
       <c r="J36" s="119">
-        <v>0</v>
+        <v>3229.9741602067179</v>
       </c>
       <c r="K36" s="119">
         <v>2756.2446167097328</v>
@@ -26124,13 +26124,13 @@
         <v>1.161</v>
       </c>
       <c r="O36" s="122">
-        <v>0</v>
+        <v>1.4062499999999998</v>
       </c>
       <c r="P36" s="123">
         <v>1.2</v>
       </c>
       <c r="Q36" s="119">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="R36" s="119">
         <v>3200</v>
@@ -26154,22 +26154,22 @@
         <v>168</v>
       </c>
       <c r="E37" s="119">
-        <v>0</v>
+        <v>0.069696000000000008</v>
       </c>
       <c r="F37" s="120">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="G37" s="121">
         <v>26400</v>
       </c>
       <c r="H37" s="122">
-        <v>0</v>
+        <v>10.78971971042523</v>
       </c>
       <c r="I37" s="123">
         <v>0.7520003049377969</v>
       </c>
       <c r="J37" s="119">
-        <v>0</v>
+        <v>13050.40064729987</v>
       </c>
       <c r="K37" s="119">
         <v>909.56072351421187</v>
@@ -26184,13 +26184,13 @@
         <v>1.161</v>
       </c>
       <c r="O37" s="122">
-        <v>0</v>
+        <v>6.212121212121211</v>
       </c>
       <c r="P37" s="123">
         <v>0.43295999999999996</v>
       </c>
       <c r="Q37" s="119">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="R37" s="119">
         <v>1056</v>
@@ -26214,22 +26214,22 @@
         <v>201</v>
       </c>
       <c r="E38" s="119">
-        <v>0</v>
+        <v>0.45712</v>
       </c>
       <c r="F38" s="120">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G38" s="121">
         <v>28570</v>
       </c>
       <c r="H38" s="122">
-        <v>0</v>
+        <v>1.7784337566257769</v>
       </c>
       <c r="I38" s="123">
         <v>0.81295763882877514</v>
       </c>
       <c r="J38" s="119">
-        <v>0</v>
+        <v>2153.3161068044787</v>
       </c>
       <c r="K38" s="119">
         <v>984.32385874246336</v>
@@ -26244,13 +26244,13 @@
         <v>1.161</v>
       </c>
       <c r="O38" s="122">
-        <v>0</v>
+        <v>0.87504375218760932</v>
       </c>
       <c r="P38" s="123">
         <v>0.4</v>
       </c>
       <c r="Q38" s="119">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="R38" s="119">
         <v>1142.8</v>
@@ -26274,22 +26274,22 @@
         <v>166</v>
       </c>
       <c r="E39" s="119">
-        <v>0</v>
+        <v>0.13939200000000002</v>
       </c>
       <c r="F39" s="120">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="G39" s="121">
         <v>13200</v>
       </c>
       <c r="H39" s="122">
-        <v>0</v>
+        <v>2.7519474041748007</v>
       </c>
       <c r="I39" s="123">
         <v>0.38359945256273387</v>
       </c>
       <c r="J39" s="119">
-        <v>0</v>
+        <v>3328.5402353943655</v>
       </c>
       <c r="K39" s="119">
         <v>463.97188049209143</v>
@@ -26304,13 +26304,13 @@
         <v>1.138</v>
       </c>
       <c r="O39" s="122">
-        <v>0</v>
+        <v>1.5530303030303028</v>
       </c>
       <c r="P39" s="123">
         <v>0.21647999999999998</v>
       </c>
       <c r="Q39" s="119">
-        <v>0</v>
+        <v>3787.8787878787875</v>
       </c>
       <c r="R39" s="119">
         <v>528</v>
@@ -26334,22 +26334,22 @@
         <v>167</v>
       </c>
       <c r="E40" s="119">
-        <v>0</v>
+        <v>0.073984000000000008</v>
       </c>
       <c r="F40" s="120">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="G40" s="121">
         <v>13600</v>
       </c>
       <c r="H40" s="122">
-        <v>0</v>
+        <v>5.3420155492804957</v>
       </c>
       <c r="I40" s="123">
         <v>0.39522367839796824</v>
       </c>
       <c r="J40" s="119">
-        <v>0</v>
+        <v>6461.2839863537683</v>
       </c>
       <c r="K40" s="119">
         <v>478.03163444639728</v>
@@ -26364,13 +26364,13 @@
         <v>1.1379999999999997</v>
       </c>
       <c r="O40" s="122">
-        <v>0</v>
+        <v>3.0147058823529402</v>
       </c>
       <c r="P40" s="123">
         <v>0.22303999999999996</v>
       </c>
       <c r="Q40" s="119">
-        <v>0</v>
+        <v>7352.9411764705874</v>
       </c>
       <c r="R40" s="119">
         <v>544</v>
@@ -26394,22 +26394,22 @@
         <v>150</v>
       </c>
       <c r="E41" s="119">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F41" s="120">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="G41" s="121">
         <v>40000</v>
       </c>
       <c r="H41" s="122">
-        <v>0</v>
+        <v>2.7244279301330532</v>
       </c>
       <c r="I41" s="123">
         <v>1.1624225835234361</v>
       </c>
       <c r="J41" s="119">
-        <v>0</v>
+        <v>3295.2548330404215</v>
       </c>
       <c r="K41" s="119">
         <v>1405.97539543058</v>
@@ -26424,13 +26424,13 @@
         <v>1.138</v>
       </c>
       <c r="O41" s="122">
-        <v>0</v>
+        <v>1.4062499999999998</v>
       </c>
       <c r="P41" s="123">
         <v>0.6</v>
       </c>
       <c r="Q41" s="119">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="R41" s="119">
         <v>1600</v>
@@ -26454,22 +26454,22 @@
         <v>168</v>
       </c>
       <c r="E42" s="119">
-        <v>0</v>
+        <v>0.034848000000000004</v>
       </c>
       <c r="F42" s="120">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="G42" s="121">
         <v>13200</v>
       </c>
       <c r="H42" s="122">
-        <v>0</v>
+        <v>11.007789616699203</v>
       </c>
       <c r="I42" s="123">
         <v>0.38359945256273387</v>
       </c>
       <c r="J42" s="119">
-        <v>0</v>
+        <v>13314.160941577462</v>
       </c>
       <c r="K42" s="119">
         <v>463.97188049209143</v>
@@ -26484,13 +26484,13 @@
         <v>1.138</v>
       </c>
       <c r="O42" s="122">
-        <v>0</v>
+        <v>6.212121212121211</v>
       </c>
       <c r="P42" s="123">
         <v>0.21647999999999998</v>
       </c>
       <c r="Q42" s="119">
-        <v>0</v>
+        <v>15151.51515151515</v>
       </c>
       <c r="R42" s="119">
         <v>528</v>
@@ -26514,22 +26514,22 @@
         <v>201</v>
       </c>
       <c r="E43" s="119">
-        <v>0</v>
+        <v>3.3707599999999993</v>
       </c>
       <c r="F43" s="120">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G43" s="121">
         <v>210672.5</v>
       </c>
       <c r="H43" s="122">
-        <v>0</v>
+        <v>1.8165309051667991</v>
       </c>
       <c r="I43" s="123">
         <v>6.123089713900038</v>
       </c>
       <c r="J43" s="119">
-        <v>0</v>
+        <v>2196.8365553602821</v>
       </c>
       <c r="K43" s="119">
         <v>7405.0087873462235</v>
@@ -26544,13 +26544,13 @@
         <v>1.1379999999999997</v>
       </c>
       <c r="O43" s="122">
-        <v>0</v>
+        <v>0.80100630124957006</v>
       </c>
       <c r="P43" s="123">
         <v>2.7</v>
       </c>
       <c r="Q43" s="119">
-        <v>0</v>
+        <v>2500.0000000000005</v>
       </c>
       <c r="R43" s="119">
         <v>8426.9</v>
@@ -26574,22 +26574,22 @@
         <v>201</v>
       </c>
       <c r="E44" s="119">
-        <v>0</v>
+        <v>1.9993999999999994</v>
       </c>
       <c r="F44" s="120">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G44" s="121">
         <v>124962.5</v>
       </c>
       <c r="H44" s="122">
-        <v>0</v>
+        <v>1.7819922369379291</v>
       </c>
       <c r="I44" s="123">
         <v>3.5629152785336942</v>
       </c>
       <c r="J44" s="119">
-        <v>0</v>
+        <v>2153.3161068044792</v>
       </c>
       <c r="K44" s="119">
         <v>4305.3402239448742</v>
@@ -26604,13 +26604,13 @@
         <v>1.1610000000000003</v>
       </c>
       <c r="O44" s="122">
-        <v>0</v>
+        <v>0.65019505851755544</v>
       </c>
       <c r="P44" s="123">
         <v>1.3</v>
       </c>
       <c r="Q44" s="119">
-        <v>0</v>
+        <v>2500.0000000000009</v>
       </c>
       <c r="R44" s="119">
         <v>4998.5</v>
@@ -26629,7 +26629,7 @@
         <v>202</v>
       </c>
       <c r="E45" s="51">
-        <v>0</v>
+        <v>9.6588533333333331</v>
       </c>
       <c r="F45" s="42" t="s">
         <v>38</v>
@@ -26775,22 +26775,22 @@
         <v>166</v>
       </c>
       <c r="E49" s="119">
-        <v>0</v>
+        <v>0.69696</v>
       </c>
       <c r="F49" s="120">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="G49" s="121">
         <v>66000</v>
       </c>
       <c r="H49" s="122">
-        <v>0</v>
+        <v>5.3948598552126148</v>
       </c>
       <c r="I49" s="123">
         <v>1.8800007623444923</v>
       </c>
       <c r="J49" s="119">
-        <v>0</v>
+        <v>6525.2003236499349</v>
       </c>
       <c r="K49" s="119">
         <v>2273.9018087855297</v>
@@ -26805,13 +26805,13 @@
         <v>1.161</v>
       </c>
       <c r="O49" s="122">
-        <v>0</v>
+        <v>3.1060606060606055</v>
       </c>
       <c r="P49" s="123">
         <v>1.0823999999999998</v>
       </c>
       <c r="Q49" s="119">
-        <v>0</v>
+        <v>7575.7575757575751</v>
       </c>
       <c r="R49" s="119">
         <v>2640</v>
@@ -26835,22 +26835,22 @@
         <v>167</v>
       </c>
       <c r="E50" s="119">
-        <v>0</v>
+        <v>0.36992</v>
       </c>
       <c r="F50" s="120">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="G50" s="121">
         <v>68000</v>
       </c>
       <c r="H50" s="122">
-        <v>0</v>
+        <v>10.47237501305978</v>
       </c>
       <c r="I50" s="123">
         <v>1.9369704824155374</v>
       </c>
       <c r="J50" s="119">
-        <v>0</v>
+        <v>12666.56533414399</v>
       </c>
       <c r="K50" s="119">
         <v>2342.8079242032727</v>
@@ -26865,13 +26865,13 @@
         <v>1.1610000000000003</v>
       </c>
       <c r="O50" s="122">
-        <v>0</v>
+        <v>6.0294117647058805</v>
       </c>
       <c r="P50" s="123">
         <v>1.1151999999999998</v>
       </c>
       <c r="Q50" s="119">
-        <v>0</v>
+        <v>14705.882352941175</v>
       </c>
       <c r="R50" s="119">
         <v>2720</v>
@@ -26895,22 +26895,22 @@
         <v>150</v>
       </c>
       <c r="E51" s="119">
-        <v>0</v>
+        <v>2.1333333333333333</v>
       </c>
       <c r="F51" s="120">
-        <v>0</v>
+        <v>93750.000000000146</v>
       </c>
       <c r="G51" s="121">
         <v>200000</v>
       </c>
       <c r="H51" s="122">
-        <v>0</v>
+        <v>5.3409112566604886</v>
       </c>
       <c r="I51" s="123">
         <v>5.696972007104522</v>
       </c>
       <c r="J51" s="119">
-        <v>0</v>
+        <v>6459.9483204134358</v>
       </c>
       <c r="K51" s="119">
         <v>6890.6115417743313</v>
@@ -26925,13 +26925,13 @@
         <v>1.1610000000000003</v>
       </c>
       <c r="O51" s="122">
-        <v>0</v>
+        <v>2.8124999999999996</v>
       </c>
       <c r="P51" s="123">
         <v>3</v>
       </c>
       <c r="Q51" s="119">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="R51" s="119">
         <v>8000</v>
@@ -26955,22 +26955,22 @@
         <v>168</v>
       </c>
       <c r="E52" s="119">
-        <v>0</v>
+        <v>0.17424</v>
       </c>
       <c r="F52" s="120">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="G52" s="121">
         <v>66000</v>
       </c>
       <c r="H52" s="122">
-        <v>0</v>
+        <v>21.579439420850459</v>
       </c>
       <c r="I52" s="123">
         <v>1.8800007623444923</v>
       </c>
       <c r="J52" s="119">
-        <v>0</v>
+        <v>26100.80129459974</v>
       </c>
       <c r="K52" s="119">
         <v>2273.9018087855297</v>
@@ -26985,13 +26985,13 @@
         <v>1.161</v>
       </c>
       <c r="O52" s="122">
-        <v>0</v>
+        <v>12.424242424242422</v>
       </c>
       <c r="P52" s="123">
         <v>1.0823999999999998</v>
       </c>
       <c r="Q52" s="119">
-        <v>0</v>
+        <v>30303.0303030303</v>
       </c>
       <c r="R52" s="119">
         <v>2640</v>
@@ -27015,22 +27015,22 @@
         <v>201</v>
       </c>
       <c r="E53" s="119">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F53" s="120">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G53" s="121">
         <v>100000</v>
       </c>
       <c r="H53" s="122">
-        <v>0</v>
+        <v>3.5568675132515537</v>
       </c>
       <c r="I53" s="123">
         <v>2.845494010601243</v>
       </c>
       <c r="J53" s="119">
-        <v>0</v>
+        <v>4306.6322136089575</v>
       </c>
       <c r="K53" s="119">
         <v>3445.3057708871665</v>
@@ -27045,13 +27045,13 @@
         <v>1.1609999999999998</v>
       </c>
       <c r="O53" s="122">
-        <v>0</v>
+        <v>1.7500262525376022</v>
       </c>
       <c r="P53" s="123">
         <v>1.4</v>
       </c>
       <c r="Q53" s="119">
-        <v>0</v>
+        <v>4999.9999999999991</v>
       </c>
       <c r="R53" s="119">
         <v>4000</v>
@@ -27075,22 +27075,22 @@
         <v>166</v>
       </c>
       <c r="E54" s="119">
-        <v>0</v>
+        <v>0.69696</v>
       </c>
       <c r="F54" s="120">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="G54" s="121">
         <v>66000</v>
       </c>
       <c r="H54" s="122">
-        <v>0</v>
+        <v>5.3948598552126148</v>
       </c>
       <c r="I54" s="123">
         <v>1.8800007623444923</v>
       </c>
       <c r="J54" s="119">
-        <v>0</v>
+        <v>6525.2003236499349</v>
       </c>
       <c r="K54" s="119">
         <v>2273.9018087855297</v>
@@ -27105,13 +27105,13 @@
         <v>1.161</v>
       </c>
       <c r="O54" s="122">
-        <v>0</v>
+        <v>3.1060606060606055</v>
       </c>
       <c r="P54" s="123">
         <v>1.0823999999999998</v>
       </c>
       <c r="Q54" s="119">
-        <v>0</v>
+        <v>7575.7575757575751</v>
       </c>
       <c r="R54" s="119">
         <v>2640</v>
@@ -27135,22 +27135,22 @@
         <v>167</v>
       </c>
       <c r="E55" s="119">
-        <v>0</v>
+        <v>0.36992</v>
       </c>
       <c r="F55" s="120">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="G55" s="121">
         <v>68000</v>
       </c>
       <c r="H55" s="122">
-        <v>0</v>
+        <v>10.47237501305978</v>
       </c>
       <c r="I55" s="123">
         <v>1.9369704824155374</v>
       </c>
       <c r="J55" s="119">
-        <v>0</v>
+        <v>12666.56533414399</v>
       </c>
       <c r="K55" s="119">
         <v>2342.8079242032727</v>
@@ -27165,13 +27165,13 @@
         <v>1.1610000000000003</v>
       </c>
       <c r="O55" s="122">
-        <v>0</v>
+        <v>6.0294117647058805</v>
       </c>
       <c r="P55" s="123">
         <v>1.1151999999999998</v>
       </c>
       <c r="Q55" s="119">
-        <v>0</v>
+        <v>14705.882352941175</v>
       </c>
       <c r="R55" s="119">
         <v>2720</v>
@@ -27195,22 +27195,22 @@
         <v>150</v>
       </c>
       <c r="E56" s="119">
-        <v>0</v>
+        <v>2.1333333333333333</v>
       </c>
       <c r="F56" s="120">
-        <v>0</v>
+        <v>93750.000000000146</v>
       </c>
       <c r="G56" s="121">
         <v>200000</v>
       </c>
       <c r="H56" s="122">
-        <v>0</v>
+        <v>5.3409112566604886</v>
       </c>
       <c r="I56" s="123">
         <v>5.696972007104522</v>
       </c>
       <c r="J56" s="119">
-        <v>0</v>
+        <v>6459.9483204134358</v>
       </c>
       <c r="K56" s="119">
         <v>6890.6115417743313</v>
@@ -27225,13 +27225,13 @@
         <v>1.1610000000000003</v>
       </c>
       <c r="O56" s="122">
-        <v>0</v>
+        <v>2.8124999999999996</v>
       </c>
       <c r="P56" s="123">
         <v>3</v>
       </c>
       <c r="Q56" s="119">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="R56" s="119">
         <v>8000</v>
@@ -27255,22 +27255,22 @@
         <v>168</v>
       </c>
       <c r="E57" s="119">
-        <v>0</v>
+        <v>0.17424</v>
       </c>
       <c r="F57" s="120">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="G57" s="121">
         <v>66000</v>
       </c>
       <c r="H57" s="122">
-        <v>0</v>
+        <v>21.579439420850459</v>
       </c>
       <c r="I57" s="123">
         <v>1.8800007623444923</v>
       </c>
       <c r="J57" s="119">
-        <v>0</v>
+        <v>26100.80129459974</v>
       </c>
       <c r="K57" s="119">
         <v>2273.9018087855297</v>
@@ -27285,13 +27285,13 @@
         <v>1.161</v>
       </c>
       <c r="O57" s="122">
-        <v>0</v>
+        <v>12.424242424242422</v>
       </c>
       <c r="P57" s="123">
         <v>1.0823999999999998</v>
       </c>
       <c r="Q57" s="119">
-        <v>0</v>
+        <v>30303.0303030303</v>
       </c>
       <c r="R57" s="119">
         <v>2640</v>
@@ -27315,22 +27315,22 @@
         <v>201</v>
       </c>
       <c r="E58" s="119">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F58" s="120">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G58" s="121">
         <v>100000</v>
       </c>
       <c r="H58" s="122">
-        <v>0</v>
+        <v>3.5568675132515537</v>
       </c>
       <c r="I58" s="123">
         <v>2.845494010601243</v>
       </c>
       <c r="J58" s="119">
-        <v>0</v>
+        <v>4306.6322136089575</v>
       </c>
       <c r="K58" s="119">
         <v>3445.3057708871665</v>
@@ -27345,13 +27345,13 @@
         <v>1.1609999999999998</v>
       </c>
       <c r="O58" s="122">
-        <v>0</v>
+        <v>1.7500262525376022</v>
       </c>
       <c r="P58" s="123">
         <v>1.4</v>
       </c>
       <c r="Q58" s="119">
-        <v>0</v>
+        <v>4999.9999999999991</v>
       </c>
       <c r="R58" s="119">
         <v>4000</v>
@@ -27375,22 +27375,22 @@
         <v>166</v>
       </c>
       <c r="E59" s="119">
-        <v>0</v>
+        <v>0.34848</v>
       </c>
       <c r="F59" s="120">
-        <v>0</v>
+        <v>94696.9696969697</v>
       </c>
       <c r="G59" s="121">
         <v>33000</v>
       </c>
       <c r="H59" s="122">
-        <v>0</v>
+        <v>5.5038948083496013</v>
       </c>
       <c r="I59" s="123">
         <v>0.95899863140683472</v>
       </c>
       <c r="J59" s="119">
-        <v>0</v>
+        <v>6657.080470788731</v>
       </c>
       <c r="K59" s="119">
         <v>1159.9297012302286</v>
@@ -27405,13 +27405,13 @@
         <v>1.138</v>
       </c>
       <c r="O59" s="122">
-        <v>0</v>
+        <v>3.1060606060606055</v>
       </c>
       <c r="P59" s="123">
         <v>0.5411999999999999</v>
       </c>
       <c r="Q59" s="119">
-        <v>0</v>
+        <v>7575.7575757575751</v>
       </c>
       <c r="R59" s="119">
         <v>1320</v>
@@ -27435,22 +27435,22 @@
         <v>167</v>
       </c>
       <c r="E60" s="119">
-        <v>0</v>
+        <v>0.18496</v>
       </c>
       <c r="F60" s="120">
-        <v>0</v>
+        <v>183823.52941176473</v>
       </c>
       <c r="G60" s="121">
         <v>34000</v>
       </c>
       <c r="H60" s="122">
-        <v>0</v>
+        <v>10.684031098560991</v>
       </c>
       <c r="I60" s="123">
         <v>0.98805919599492065</v>
       </c>
       <c r="J60" s="119">
-        <v>0</v>
+        <v>12922.567972707537</v>
       </c>
       <c r="K60" s="119">
         <v>1195.0790861159933</v>
@@ -27465,13 +27465,13 @@
         <v>1.1379999999999997</v>
       </c>
       <c r="O60" s="122">
-        <v>0</v>
+        <v>6.0294117647058805</v>
       </c>
       <c r="P60" s="123">
         <v>0.55759999999999987</v>
       </c>
       <c r="Q60" s="119">
-        <v>0</v>
+        <v>14705.882352941175</v>
       </c>
       <c r="R60" s="119">
         <v>1360</v>
@@ -27495,22 +27495,22 @@
         <v>150</v>
       </c>
       <c r="E61" s="119">
-        <v>0</v>
+        <v>1.0666666666666667</v>
       </c>
       <c r="F61" s="120">
-        <v>0</v>
+        <v>93749.999999999709</v>
       </c>
       <c r="G61" s="121">
         <v>100000</v>
       </c>
       <c r="H61" s="122">
-        <v>0</v>
+        <v>5.4488558602661064</v>
       </c>
       <c r="I61" s="123">
         <v>2.90605645880859</v>
       </c>
       <c r="J61" s="119">
-        <v>0</v>
+        <v>6590.5096660808431</v>
       </c>
       <c r="K61" s="119">
         <v>3514.9384885764503</v>
@@ -27525,13 +27525,13 @@
         <v>1.138</v>
       </c>
       <c r="O61" s="122">
-        <v>0</v>
+        <v>2.8124999999999996</v>
       </c>
       <c r="P61" s="123">
         <v>1.5</v>
       </c>
       <c r="Q61" s="119">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="R61" s="119">
         <v>4000</v>
@@ -27555,22 +27555,22 @@
         <v>168</v>
       </c>
       <c r="E62" s="119">
-        <v>0</v>
+        <v>0.08712</v>
       </c>
       <c r="F62" s="120">
-        <v>0</v>
+        <v>378787.87878787884</v>
       </c>
       <c r="G62" s="121">
         <v>33000</v>
       </c>
       <c r="H62" s="122">
-        <v>0</v>
+        <v>22.015579233398405</v>
       </c>
       <c r="I62" s="123">
         <v>0.95899863140683472</v>
       </c>
       <c r="J62" s="119">
-        <v>0</v>
+        <v>26628.321883154924</v>
       </c>
       <c r="K62" s="119">
         <v>1159.9297012302286</v>
@@ -27585,13 +27585,13 @@
         <v>1.138</v>
       </c>
       <c r="O62" s="122">
-        <v>0</v>
+        <v>12.424242424242422</v>
       </c>
       <c r="P62" s="123">
         <v>0.5411999999999999</v>
       </c>
       <c r="Q62" s="119">
-        <v>0</v>
+        <v>30303.0303030303</v>
       </c>
       <c r="R62" s="119">
         <v>1320</v>
@@ -27615,22 +27615,22 @@
         <v>201</v>
       </c>
       <c r="E63" s="119">
-        <v>0</v>
+        <v>8.7999999999999972</v>
       </c>
       <c r="F63" s="120">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G63" s="121">
         <v>550000</v>
       </c>
       <c r="H63" s="122">
-        <v>0</v>
+        <v>3.6322461544734326</v>
       </c>
       <c r="I63" s="123">
         <v>15.981043574045581</v>
       </c>
       <c r="J63" s="119">
-        <v>0</v>
+        <v>4393.6731107205642</v>
       </c>
       <c r="K63" s="119">
         <v>19332.161687170475</v>
@@ -27645,13 +27645,13 @@
         <v>1.138</v>
       </c>
       <c r="O63" s="122">
-        <v>0</v>
+        <v>1.6851079434683709</v>
       </c>
       <c r="P63" s="123">
         <v>7.5000000000000009</v>
       </c>
       <c r="Q63" s="119">
-        <v>0</v>
+        <v>5000.0000000000018</v>
       </c>
       <c r="R63" s="119">
         <v>22000</v>
@@ -27675,22 +27675,22 @@
         <v>201</v>
       </c>
       <c r="E64" s="119">
-        <v>0</v>
+        <v>3.9999999999999991</v>
       </c>
       <c r="F64" s="120">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G64" s="121">
         <v>250000</v>
       </c>
       <c r="H64" s="122">
-        <v>0</v>
+        <v>3.5639844738758582</v>
       </c>
       <c r="I64" s="123">
         <v>7.1279689477517136</v>
       </c>
       <c r="J64" s="119">
-        <v>0</v>
+        <v>4306.6322136089584</v>
       </c>
       <c r="K64" s="119">
         <v>8613.2644272179132</v>
@@ -27705,13 +27705,13 @@
         <v>1.1610000000000003</v>
       </c>
       <c r="O64" s="122">
-        <v>0</v>
+        <v>1.3000001170000108</v>
       </c>
       <c r="P64" s="123">
         <v>2.6</v>
       </c>
       <c r="Q64" s="119">
-        <v>0</v>
+        <v>5000.0000000000018</v>
       </c>
       <c r="R64" s="119">
         <v>10000</v>
@@ -27730,7 +27730,7 @@
         <v>202</v>
       </c>
       <c r="E65" s="51">
-        <v>0</v>
+        <v>24.436133333333331</v>
       </c>
       <c r="F65" s="42" t="s">
         <v>38</v>
